--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="747" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.18.4" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1178">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -3006,9 +3006,6 @@
   </si>
   <si>
     <t>LEjurisdArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominant Area belonging to a country or a part of an area used by Long Distance Fisheries. </t>
   </si>
   <si>
     <t>SAjurisdictionArea</t>
@@ -3547,25 +3544,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mesh size (mm).  The following: LLD, LLS, LHM, LHP, LL, FPO cannot insert mesh size. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicating the sampling scheme type code list: 'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot', 'Research project' or 'DCF'. Routine is continued maybe with updates each year. A pilot is a test of a routine so it is done for the first time for a short periode. Research is all other studies/projects. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Sampling scheme type code list: 
-'DCF R-CFM' 
-'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Date when of the gear start. "YYYY-MM-DD" (UTC). date and time of shooting (active) or last setting (passive) of the gear. </t>
@@ -3872,6 +3850,115 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicating the sampling scheme type code list: 'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot' or 'Research project'. Routine is continued maybe with updates each year. A pilot is a test of a routine so it is done for the first time for a short periode. Research is all other studies/projects. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Sampling scheme type code list: 
+'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area belonging to a country or a part of an area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">among others </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">used by Long Distance Fisheries. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area belonging to a country or a part of an area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>among</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">others </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">used by Long Distance Fisheries. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dominant Area belonging to a country or a part of an area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">among others </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">used by Long Distance Fisheries. </t>
     </r>
   </si>
 </sst>
@@ -4588,8 +4675,8 @@
   </sheetPr>
   <dimension ref="A1:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5024,7 +5111,6 @@
       <c r="C7" s="43" t="str">
         <f>IF(ISBLANK(Design!A5)=TRUE, Design!L5, "")</f>
         <v xml:space="preserve"> Sampling scheme type code list: 
-'DCF R-CFM' 
 'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot'. </v>
       </c>
       <c r="E7" s="18">
@@ -5948,7 +6034,7 @@
         <v>The number of fish measured in this stratum</v>
       </c>
     </row>
-    <row r="17" spans="9:35" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I17" s="18" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!B2, "")</f>
         <v/>
@@ -8774,8 +8860,8 @@
   </sheetPr>
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="F30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8810,7 +8896,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -8843,7 +8929,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>3</v>
@@ -8877,7 +8963,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>122</v>
@@ -8913,7 +8999,7 @@
         <v>267</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>288</v>
@@ -8949,7 +9035,7 @@
         <v>267</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>680</v>
@@ -8983,7 +9069,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>87</v>
@@ -9019,7 +9105,7 @@
         <v>267</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>260</v>
@@ -9055,7 +9141,7 @@
         <v>267</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>653</v>
@@ -9091,7 +9177,7 @@
         <v>267</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>976</v>
@@ -9159,22 +9245,22 @@
         <v>688</v>
       </c>
       <c r="F11" s="36" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>1073</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>1074</v>
-      </c>
       <c r="H11" s="36" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>683</v>
@@ -9571,10 +9657,10 @@
         <v>11</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>199</v>
@@ -9657,10 +9743,10 @@
         <v>969</v>
       </c>
       <c r="F26" s="35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>1076</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>1077</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>10</v>
@@ -9672,7 +9758,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>971</v>
@@ -9706,7 +9792,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>202</v>
@@ -9740,7 +9826,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>203</v>
@@ -9756,16 +9842,16 @@
         <v>20</v>
       </c>
       <c r="E29" s="35" t="s">
+        <v>987</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>988</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>989</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>11</v>
@@ -9774,10 +9860,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M29" s="70"/>
       <c r="N29" s="70"/>
@@ -9808,7 +9894,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>985</v>
+        <v>1177</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>980</v>
@@ -9842,7 +9928,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>721</v>
@@ -9876,7 +9962,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>173</v>
@@ -9892,7 +9978,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>761</v>
@@ -9910,7 +9996,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>174</v>
@@ -9944,7 +10030,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>101</v>
@@ -9976,7 +10062,7 @@
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L35" s="36" t="s">
         <v>39</v>
@@ -10010,7 +10096,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>40</v>
@@ -10042,7 +10128,7 @@
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="36" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L37" s="36" t="s">
         <v>175</v>
@@ -10092,10 +10178,10 @@
         <v>30</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>763</v>
@@ -10110,7 +10196,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
@@ -10221,10 +10307,10 @@
         <v>736</v>
       </c>
       <c r="F43" s="35" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>1078</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>1079</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>187</v>
@@ -10253,10 +10339,10 @@
         <v>154</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H44" s="36" t="s">
         <v>187</v>
@@ -10332,10 +10418,10 @@
       </c>
       <c r="J46" s="64"/>
       <c r="K46" s="63" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L46" s="63" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
@@ -10447,10 +10533,10 @@
         <v>828</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H50" s="36" t="s">
         <v>187</v>
@@ -10479,10 +10565,10 @@
         <v>829</v>
       </c>
       <c r="F51" s="35" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G51" s="36" t="s">
         <v>1082</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>1083</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>187</v>
@@ -10509,10 +10595,10 @@
         <v>818</v>
       </c>
       <c r="F52" s="35" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>1035</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>1036</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>10</v>
@@ -10630,7 +10716,7 @@
     </row>
     <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
@@ -27126,7 +27212,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -27159,7 +27245,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>208</v>
@@ -27193,7 +27279,7 @@
         <v>265</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>3</v>
@@ -27229,7 +27315,7 @@
         <v>265</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>90</v>
@@ -27265,7 +27351,7 @@
         <v>265</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>288</v>
@@ -27299,7 +27385,7 @@
         <v>265</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>274</v>
@@ -27333,7 +27419,7 @@
         <v>265</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>260</v>
@@ -27363,7 +27449,7 @@
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>681</v>
@@ -27382,7 +27468,7 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>682</v>
@@ -27503,7 +27589,7 @@
         <v>665</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>666</v>
@@ -27553,7 +27639,7 @@
       </c>
       <c r="J13" s="53"/>
       <c r="K13" s="76" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L13" s="76" t="s">
         <v>526</v>
@@ -27575,7 +27661,7 @@
         <v>667</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G14" s="60" t="s">
         <v>669</v>
@@ -27746,10 +27832,10 @@
         <v>614</v>
       </c>
       <c r="F19" s="53" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G19" s="53" t="s">
         <v>1112</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>1113</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>10</v>
@@ -27880,10 +27966,10 @@
         <v>736</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>187</v>
@@ -27913,10 +27999,10 @@
         <v>154</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>1118</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>1119</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>187</v>
@@ -28113,10 +28199,10 @@
         <v>828</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>187</v>
@@ -28146,10 +28232,10 @@
         <v>829</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>187</v>
@@ -28177,10 +28263,10 @@
         <v>818</v>
       </c>
       <c r="F32" s="35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>1037</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>1038</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>10</v>
@@ -28365,8 +28451,8 @@
   </sheetPr>
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="E18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28399,7 +28485,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>134</v>
@@ -28432,7 +28518,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>653</v>
@@ -28466,7 +28552,7 @@
         <v>770</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>208</v>
@@ -28579,7 +28665,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>795</v>
@@ -28743,13 +28829,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="60" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>1139</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="G10" s="60" t="s">
         <v>1140</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>1141</v>
       </c>
       <c r="H10" s="60" t="s">
         <v>10</v>
@@ -28761,7 +28847,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>689</v>
@@ -28847,7 +28933,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L12" s="53" t="s">
         <v>662</v>
@@ -29067,7 +29153,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>21</v>
@@ -29094,10 +29180,10 @@
         <v>969</v>
       </c>
       <c r="F18" s="79" t="s">
+        <v>996</v>
+      </c>
+      <c r="G18" s="79" t="s">
         <v>997</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>998</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>10</v>
@@ -29193,7 +29279,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>203</v>
@@ -29217,16 +29303,16 @@
         <v>18</v>
       </c>
       <c r="E21" s="36" t="s">
+        <v>987</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H21" s="36" t="s">
         <v>988</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>989</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>11</v>
@@ -29235,10 +29321,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
@@ -29262,10 +29348,10 @@
         <v>979</v>
       </c>
       <c r="F22" s="36" t="s">
+        <v>985</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>986</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>987</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>10</v>
@@ -29277,7 +29363,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>980</v>
+        <v>1176</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>980</v>
@@ -29377,7 +29463,7 @@
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
     </row>
-    <row r="25" spans="1:22" s="24" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="24" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -29647,7 +29733,7 @@
       </c>
       <c r="J31" s="60"/>
       <c r="K31" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>218</v>
@@ -29687,7 +29773,7 @@
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>219</v>
@@ -29794,10 +29880,10 @@
         <v>736</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>187</v>
@@ -29834,10 +29920,10 @@
         <v>154</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>187</v>
@@ -30038,10 +30124,10 @@
         <v>818</v>
       </c>
       <c r="F41" s="35" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>1039</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>1040</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>10</v>
@@ -30165,7 +30251,7 @@
       </c>
       <c r="J44" s="60"/>
       <c r="K44" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L44" s="36" t="s">
         <v>218</v>
@@ -30205,7 +30291,7 @@
       </c>
       <c r="J45" s="60"/>
       <c r="K45" s="36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L45" s="36" t="s">
         <v>219</v>
@@ -30643,7 +30729,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -30676,7 +30762,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>296</v>
@@ -30710,7 +30796,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>653</v>
@@ -30868,10 +30954,10 @@
         <v>656</v>
       </c>
       <c r="F8" s="60" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>1042</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>1043</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>10</v>
@@ -30964,10 +31050,10 @@
         <v>733</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>187</v>
@@ -30992,10 +31078,10 @@
         <v>735</v>
       </c>
       <c r="F12" s="36" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>1045</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>1046</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>10</v>
@@ -31058,7 +31144,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -31091,7 +31177,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>4</v>
@@ -31127,7 +31213,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>227</v>
@@ -31163,7 +31249,7 @@
         <v>267</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>296</v>
@@ -31228,13 +31314,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>13</v>
@@ -31244,7 +31330,7 @@
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="36" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>232</v>
@@ -31338,7 +31424,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L9" s="60" t="s">
         <v>247</v>
@@ -31449,10 +31535,10 @@
         <v>656</v>
       </c>
       <c r="F13" s="60" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>1057</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>1058</v>
       </c>
       <c r="H13" s="60" t="s">
         <v>10</v>
@@ -31541,10 +31627,10 @@
         <v>736</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>1060</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>1061</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>187</v>
@@ -31571,10 +31657,10 @@
         <v>154</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>187</v>
@@ -31694,8 +31780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31729,7 +31815,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -31762,7 +31848,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>135</v>
@@ -31877,10 +31963,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>1148</v>
+        <v>1173</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1149</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32590,7 +32676,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -32623,7 +32709,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>260</v>
@@ -32657,7 +32743,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>851</v>
@@ -32691,7 +32777,7 @@
         <v>267</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>131</v>
@@ -32725,7 +32811,7 @@
         <v>267</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>337</v>
@@ -33069,10 +33155,10 @@
         <v>736</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>187</v>
@@ -33099,10 +33185,10 @@
         <v>154</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>187</v>
@@ -33174,10 +33260,10 @@
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -33281,10 +33367,10 @@
         <v>828</v>
       </c>
       <c r="F23" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>1122</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>1123</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>187</v>
@@ -33311,10 +33397,10 @@
         <v>829</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>187</v>
@@ -33339,10 +33425,10 @@
         <v>818</v>
       </c>
       <c r="F25" s="35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>1029</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>1030</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -33447,7 +33533,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -33480,7 +33566,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>131</v>
@@ -33516,7 +33602,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>851</v>
@@ -33676,10 +33762,10 @@
         <v>748</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -33892,10 +33978,10 @@
         <v>736</v>
       </c>
       <c r="F15" s="35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>1089</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>1090</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>187</v>
@@ -33922,10 +34008,10 @@
         <v>737</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>187</v>
@@ -34104,10 +34190,10 @@
         <v>828</v>
       </c>
       <c r="F22" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>1093</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>1094</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>187</v>
@@ -34134,10 +34220,10 @@
         <v>829</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>187</v>
@@ -34162,10 +34248,10 @@
         <v>818</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>1031</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>1032</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>10</v>
@@ -34304,7 +34390,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -34337,7 +34423,7 @@
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>851</v>
@@ -34371,7 +34457,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>135</v>
@@ -34449,10 +34535,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>146</v>
@@ -34535,7 +34621,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -34568,7 +34654,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>337</v>
@@ -34604,7 +34690,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>851</v>
@@ -34640,7 +34726,7 @@
         <v>267</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>261</v>
@@ -34676,7 +34762,7 @@
         <v>267</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>260</v>
@@ -34780,16 +34866,16 @@
         <v>687</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>683</v>
@@ -35020,10 +35106,10 @@
         <v>736</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>1130</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>1131</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>187</v>
@@ -35050,10 +35136,10 @@
         <v>154</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>187</v>
@@ -35234,10 +35320,10 @@
         <v>828</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>187</v>
@@ -35264,10 +35350,10 @@
         <v>829</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>1134</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>1135</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>187</v>
@@ -35345,7 +35431,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -35377,7 +35463,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K26" sqref="K26:L26"/>
     </sheetView>
   </sheetViews>
@@ -35410,7 +35496,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -35443,7 +35529,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>288</v>
@@ -35475,7 +35561,7 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>111</v>
@@ -35507,7 +35593,7 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>343</v>
@@ -35539,7 +35625,7 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>114</v>
@@ -35573,7 +35659,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>851</v>
@@ -35607,7 +35693,7 @@
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>128</v>
@@ -35641,7 +35727,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>260</v>
@@ -35707,22 +35793,22 @@
         <v>688</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>990</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>991</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>992</v>
-      </c>
       <c r="H10" s="36" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="L10" s="36"/>
     </row>
@@ -35968,7 +36054,7 @@
         <v>60</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>159</v>
@@ -36214,10 +36300,10 @@
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="49" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -36231,10 +36317,10 @@
         <v>736</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>187</v>
@@ -36261,10 +36347,10 @@
         <v>154</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>187</v>
@@ -36443,10 +36529,10 @@
         <v>828</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H34" s="36" t="s">
         <v>187</v>
@@ -36473,10 +36559,10 @@
         <v>829</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>187</v>
@@ -36501,10 +36587,10 @@
         <v>818</v>
       </c>
       <c r="F36" s="35" t="s">
+        <v>992</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>993</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>994</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>10</v>
@@ -36568,7 +36654,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
@@ -36628,8 +36714,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="D26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36663,7 +36749,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -36696,7 +36782,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>128</v>
@@ -36730,7 +36816,7 @@
         <v>267</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>288</v>
@@ -36762,7 +36848,7 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>851</v>
@@ -37127,10 +37213,10 @@
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="M15" s="70"/>
     </row>
@@ -37247,7 +37333,7 @@
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="36" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>92</v>
@@ -37278,7 +37364,7 @@
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="36" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>93</v>
@@ -37309,7 +37395,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="36" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="L21" s="36" t="s">
         <v>94</v>
@@ -37340,7 +37426,7 @@
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="36" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>95</v>
@@ -37371,7 +37457,7 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>96</v>
@@ -37389,10 +37475,10 @@
         <v>969</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>998</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>999</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>1000</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>10</v>
@@ -37404,7 +37490,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>971</v>
@@ -37437,7 +37523,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L25" s="36" t="s">
         <v>228</v>
@@ -37470,7 +37556,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>178</v>
@@ -37485,16 +37571,16 @@
         <v>23</v>
       </c>
       <c r="E27" s="35" t="s">
+        <v>987</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>988</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>989</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>11</v>
@@ -37503,10 +37589,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M27" s="70"/>
     </row>
@@ -37536,7 +37622,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>980</v>
+        <v>1175</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>980</v>
@@ -37761,10 +37847,10 @@
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="36" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="M35" s="70"/>
     </row>
@@ -37873,13 +37959,13 @@
         <v>35</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>738</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>10</v>
@@ -37891,7 +37977,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
@@ -37920,7 +38006,7 @@
       </c>
       <c r="J40" s="35"/>
       <c r="K40" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="L40" s="36"/>
       <c r="M40" s="70"/>
@@ -38013,10 +38099,10 @@
       </c>
       <c r="J43" s="35"/>
       <c r="K43" s="36" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="M43" s="70"/>
     </row>
@@ -38031,10 +38117,10 @@
         <v>736</v>
       </c>
       <c r="F44" s="35" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>1049</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>1050</v>
       </c>
       <c r="H44" s="36" t="s">
         <v>187</v>
@@ -38062,10 +38148,10 @@
         <v>154</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H45" s="36" t="s">
         <v>187</v>
@@ -38250,10 +38336,10 @@
         <v>828</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>187</v>
@@ -38281,10 +38367,10 @@
         <v>829</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>187</v>
@@ -38310,10 +38396,10 @@
         <v>818</v>
       </c>
       <c r="F53" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>995</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>996</v>
       </c>
       <c r="H53" s="36" t="s">
         <v>10</v>
@@ -38502,7 +38588,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -38535,7 +38621,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>274</v>
@@ -38569,7 +38655,7 @@
         <v>770</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>851</v>
@@ -38682,7 +38768,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>506</v>
@@ -39076,10 +39162,10 @@
         <v>736</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>187</v>
@@ -39106,10 +39192,10 @@
         <v>154</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>187</v>
@@ -39320,10 +39406,10 @@
         <v>828</v>
       </c>
       <c r="F27" s="35" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>1098</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>1099</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>187</v>
@@ -39350,10 +39436,10 @@
         <v>829</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>187</v>
@@ -39378,10 +39464,10 @@
         <v>818</v>
       </c>
       <c r="F29" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>1033</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>1034</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>10</v>
@@ -39440,27 +39526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -39632,31 +39697,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39672,4 +39734,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a5362/Google Drive/code/github/public_RDBES/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05499685-6A86-A044-BFD6-15A1821FF18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23120" windowHeight="13520" tabRatio="747" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.18.4" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -31,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Fishing Operation'!$A$1:$M$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Landing event'!$A$1:$L$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1176">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -2137,9 +2138,6 @@
   </si>
   <si>
     <t>FTsampType</t>
-  </si>
-  <si>
-    <t>Indicating if the sampling is do 'At-sea' or 'On-shore'</t>
   </si>
   <si>
     <t>Indicating if the data can be used for calculating zeros 'Yes' or 'No'. E.g. used by Denmark when sampling targeting specific stocks.</t>
@@ -3006,6 +3004,9 @@
   </si>
   <si>
     <t>LEjurisdArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant Area belonging to a country or a part of an area used by Long Distance Fisheries. </t>
   </si>
   <si>
     <t>SAjurisdictionArea</t>
@@ -3544,6 +3545,25 @@
   </si>
   <si>
     <t xml:space="preserve">Mesh size (mm).  The following: LLD, LLS, LHM, LHP, LL, FPO cannot insert mesh size. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicating the sampling scheme type code list: 'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot', 'Research project' or 'DCF'. Routine is continued maybe with updates each year. A pilot is a test of a routine so it is done for the first time for a short periode. Research is all other studies/projects. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Sampling scheme type code list: 
+'DCF R-CFM' 
+'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Date when of the gear start. "YYYY-MM-DD" (UTC). date and time of shooting (active) or last setting (passive) of the gear. </t>
@@ -3853,119 +3873,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Indicating the sampling scheme type code list: 'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot' or 'Research project'. Routine is continued maybe with updates each year. A pilot is a test of a routine so it is done for the first time for a short periode. Research is all other studies/projects. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Sampling scheme type code list: 
-'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Area belonging to a country or a part of an area </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">among others </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">used by Long Distance Fisheries. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Area belonging to a country or a part of an area </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>among</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">others </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">used by Long Distance Fisheries. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dominant Area belonging to a country or a part of an area </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">among others </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">used by Long Distance Fisheries. </t>
-    </r>
+    <t>Indicating if the sampling is do 'At-Sea' or 'On-Shore'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4459,6 +4373,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4494,6 +4425,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4669,68 +4617,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showZeros="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="18" customWidth="1"/>
     <col min="8" max="8" width="6" style="18" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="18" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="18" customWidth="1"/>
+    <col min="11" max="11" width="46.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="18" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="18" customWidth="1"/>
-    <col min="15" max="15" width="57.85546875" style="18" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="18" customWidth="1"/>
-    <col min="19" max="19" width="56.42578125" style="18" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="18" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="18" customWidth="1"/>
-    <col min="22" max="22" width="28.7109375" style="18" customWidth="1"/>
-    <col min="23" max="23" width="48.28515625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="25.5" style="18" customWidth="1"/>
+    <col min="15" max="15" width="57.83203125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="4.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="18" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="56.5" style="18" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="18" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="18" customWidth="1"/>
+    <col min="22" max="22" width="28.6640625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="48.33203125" style="18" customWidth="1"/>
     <col min="24" max="24" width="14" style="18" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" style="18" customWidth="1"/>
-    <col min="26" max="26" width="22.28515625" style="18" customWidth="1"/>
-    <col min="27" max="27" width="45.28515625" style="18" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" style="18" customWidth="1"/>
-    <col min="29" max="29" width="6.42578125" style="18" customWidth="1"/>
-    <col min="30" max="30" width="25.85546875" style="18" customWidth="1"/>
-    <col min="31" max="31" width="51.28515625" style="18" customWidth="1"/>
-    <col min="32" max="32" width="6.42578125" style="18" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" style="18" customWidth="1"/>
-    <col min="34" max="34" width="22.42578125" style="18" customWidth="1"/>
-    <col min="35" max="35" width="51.42578125" style="18" customWidth="1"/>
-    <col min="36" max="36" width="22.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="18"/>
+    <col min="25" max="25" width="5.1640625" style="18" customWidth="1"/>
+    <col min="26" max="26" width="22.33203125" style="18" customWidth="1"/>
+    <col min="27" max="27" width="45.33203125" style="18" customWidth="1"/>
+    <col min="28" max="28" width="5.5" style="18" customWidth="1"/>
+    <col min="29" max="29" width="6.5" style="18" customWidth="1"/>
+    <col min="30" max="30" width="25.83203125" style="18" customWidth="1"/>
+    <col min="31" max="31" width="51.33203125" style="18" customWidth="1"/>
+    <col min="32" max="32" width="6.5" style="18" customWidth="1"/>
+    <col min="33" max="33" width="5.5" style="18" customWidth="1"/>
+    <col min="34" max="34" width="22.5" style="18" customWidth="1"/>
+    <col min="35" max="35" width="51.5" style="18" customWidth="1"/>
+    <col min="36" max="36" width="22.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="L1" s="18"/>
       <c r="P1" s="19"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D2" s="20"/>
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4772,7 +4720,7 @@
       </c>
       <c r="AI3" s="22"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="str">
         <f>IF(ISBLANK(Design!A2)=TRUE, Design!B2, "")</f>
         <v/>
@@ -4881,7 +4829,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f>IF(ISBLANK(Design!A3)=TRUE, Design!B3, "")</f>
         <v>0</v>
@@ -4990,7 +4938,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f>IF(ISBLANK(Design!A4)=TRUE, Design!B4, "")</f>
         <v>0</v>
@@ -5099,7 +5047,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f>IF(ISBLANK(Design!A6)=TRUE, Design!B6, "")</f>
         <v>0</v>
@@ -5111,6 +5059,7 @@
       <c r="C7" s="43" t="str">
         <f>IF(ISBLANK(Design!A5)=TRUE, Design!L5, "")</f>
         <v xml:space="preserve"> Sampling scheme type code list: 
+'DCF R-CFM' 
 'Regional Routine', 'Regional Pilot', 'National Routine', 'National Pilot'. </v>
       </c>
       <c r="E7" s="18">
@@ -5209,7 +5158,7 @@
         <v>Fixed value ('BV')</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f>IF(ISBLANK(Design!A7)=TRUE, Design!B7, "")</f>
         <v>0</v>
@@ -5318,7 +5267,7 @@
         <v>National numbering system of the individual fish.</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f>IF(ISBLANK(Design!A9)=TRUE, Design!B9, "")</f>
         <v>0</v>
@@ -5427,7 +5376,7 @@
         <v>The stratum of this record, 'U' if unstratified</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!B10, "")</f>
         <v>0</v>
@@ -5536,7 +5485,7 @@
         <v>Type of measurment e.g. "Age"</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f>IF(ISBLANK(Design!A12)=TRUE, Design!B12, "")</f>
         <v>0</v>
@@ -5633,7 +5582,7 @@
         <v xml:space="preserve">Measured value of the Biological variable. </v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="34" x14ac:dyDescent="0.2">
       <c r="B12" s="21">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!F10, "")</f>
         <v>0</v>
@@ -5726,7 +5675,7 @@
         <v>The type/unit of the measured value</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="18" t="s">
         <v>262</v>
       </c>
@@ -5814,7 +5763,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="51" x14ac:dyDescent="0.2">
       <c r="I14" s="18" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -5890,7 +5839,7 @@
         <v>Method for measurement e.g. "scale" or "otholith"</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="51" x14ac:dyDescent="0.2">
       <c r="I15" s="18" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -5966,7 +5915,7 @@
         <v>Total number of fish in this stratum</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="85" x14ac:dyDescent="0.2">
       <c r="J16" s="21" t="str">
         <f>IF(ISBLANK('Vessel Selection'!A15)=TRUE, 'Vessel Selection'!F15, "")</f>
         <v>VSnumberSampled</v>
@@ -6034,7 +5983,7 @@
         <v>The number of fish measured in this stratum</v>
       </c>
     </row>
-    <row r="17" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:35" ht="34" x14ac:dyDescent="0.2">
       <c r="I17" s="18" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!B2, "")</f>
         <v/>
@@ -6106,7 +6055,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:35" ht="34" x14ac:dyDescent="0.2">
       <c r="I18" s="18" t="str">
         <f>IF(ISBLANK('Temporal Event'!A3)=TRUE, 'Temporal Event'!B3, "")</f>
         <v/>
@@ -6178,7 +6127,7 @@
         <v>The method of selecting fish</v>
       </c>
     </row>
-    <row r="19" spans="9:35" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:35" ht="102" x14ac:dyDescent="0.2">
       <c r="I19" s="18">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!B9, "")</f>
         <v>0</v>
@@ -6252,7 +6201,7 @@
         <v>Self-sampling, Observer, Control, Electronic Monitoring (EM). In the future potential combinations of e.g. observer and EM</v>
       </c>
     </row>
-    <row r="20" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="I20" s="18">
         <f>IF(ISBLANK('Temporal Event'!A10)=TRUE, 'Temporal Event'!B10, "")</f>
         <v>0</v>
@@ -6320,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:35" ht="34" x14ac:dyDescent="0.2">
       <c r="I21" s="18">
         <f>IF(ISBLANK('Temporal Event'!A14)=TRUE, 'Temporal Event'!B14, "")</f>
         <v>0</v>
@@ -6380,7 +6329,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="I22" s="18">
         <f>IF(ISBLANK('Temporal Event'!A15)=TRUE, 'Temporal Event'!B15, "")</f>
         <v>0</v>
@@ -6437,7 +6386,7 @@
         <v>The number of units sampled in this stratum</v>
       </c>
     </row>
-    <row r="23" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="I23" s="18" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -6494,7 +6443,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="I24" s="18">
         <f>IF(ISBLANK('Temporal Event'!A18)=TRUE, 'Temporal Event'!B18, "")</f>
         <v>0</v>
@@ -6551,7 +6500,7 @@
         <v>The method of selecting units for sampling</v>
       </c>
     </row>
-    <row r="25" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:35" ht="34" x14ac:dyDescent="0.2">
       <c r="I25" s="18" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -6612,7 +6561,7 @@
         <v>The Lower Hierarchy that will be used for this Sample/Subsample</v>
       </c>
     </row>
-    <row r="26" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:35" ht="51" x14ac:dyDescent="0.2">
       <c r="L26" s="18"/>
       <c r="N26" s="21" t="str">
         <f>IF(ISBLANK('Fishing Trip'!A26)=TRUE, 'Fishing Trip'!F26, "")</f>
@@ -6653,7 +6602,7 @@
         <v>Self-sampling, Observer, Control, Electronic Monitoring (EM). In the future potential combinations of e.g. observer and EM</v>
       </c>
     </row>
-    <row r="27" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="J27" s="39" t="s">
         <v>619</v>
       </c>
@@ -6698,7 +6647,7 @@
         <v>Reason for not sampling freq</v>
       </c>
     </row>
-    <row r="28" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="J28" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!F2, "")</f>
         <v/>
@@ -6751,7 +6700,7 @@
         <v>Reason for not sampling biovar</v>
       </c>
     </row>
-    <row r="29" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:35" ht="34" x14ac:dyDescent="0.2">
       <c r="J29" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A3)=TRUE, 'Temporal Event'!F3, "")</f>
         <v/>
@@ -6808,7 +6757,7 @@
         <v>Whole weight in grammes.</v>
       </c>
     </row>
-    <row r="30" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="I30" s="18" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!B2, "")</f>
         <v/>
@@ -6869,7 +6818,7 @@
         <v>Whole weight in grammes of the sample.</v>
       </c>
     </row>
-    <row r="31" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:35" ht="34" x14ac:dyDescent="0.2">
       <c r="I31" s="18" t="str">
         <f>IF(ISBLANK(Location!A3)=TRUE, Location!B3, "")</f>
         <v/>
@@ -6930,7 +6879,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:35" ht="17" x14ac:dyDescent="0.2">
       <c r="I32" s="18">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -6990,7 +6939,7 @@
         <v xml:space="preserve">State of the specimens (e.g., dead, damaged, etc). </v>
       </c>
     </row>
-    <row r="33" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:27" ht="51" x14ac:dyDescent="0.2">
       <c r="J33" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A8)=TRUE, 'Temporal Event'!F8, "")</f>
         <v>TEstratification</v>
@@ -7029,7 +6978,7 @@
       <c r="Z33" s="21"/>
       <c r="AA33" s="37"/>
     </row>
-    <row r="34" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:27" ht="17" x14ac:dyDescent="0.2">
       <c r="J34" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!F9, "")</f>
         <v>TEtimeUnit</v>
@@ -7068,7 +7017,7 @@
       <c r="Z34" s="21"/>
       <c r="AA34" s="37"/>
     </row>
-    <row r="35" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:27" ht="17" x14ac:dyDescent="0.2">
       <c r="I35" s="18">
         <f>IF(ISBLANK(Location!A7)=TRUE, Location!B7, "")</f>
         <v>0</v>
@@ -7120,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:27" ht="34" x14ac:dyDescent="0.2">
       <c r="I36" s="18">
         <f>IF(ISBLANK(Location!A9)=TRUE, Location!B9, "")</f>
         <v>0</v>
@@ -7176,7 +7125,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:27" ht="34" x14ac:dyDescent="0.2">
       <c r="I37" s="18">
         <f>IF(ISBLANK(Location!A13)=TRUE, Location!B13, "")</f>
         <v>0</v>
@@ -7228,7 +7177,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:27" ht="51" x14ac:dyDescent="0.2">
       <c r="I38" s="18">
         <f>IF(ISBLANK(Location!A14)=TRUE, Location!B14, "")</f>
         <v>0</v>
@@ -7280,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:27" ht="34" x14ac:dyDescent="0.2">
       <c r="I39" s="18" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -7328,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="8:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I40" s="18">
         <f>IF(ISBLANK(Location!A17)=TRUE, Location!B17, "")</f>
         <v>0</v>
@@ -7376,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:27" ht="17" x14ac:dyDescent="0.2">
       <c r="H41" s="52"/>
       <c r="I41" s="52">
         <f>IF(ISBLANK(Location!A26)=TRUE, Location!B26, "")</f>
@@ -7421,7 +7370,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:27" ht="17" x14ac:dyDescent="0.2">
       <c r="H42" s="52"/>
       <c r="I42" s="52"/>
       <c r="J42" s="43" t="str">
@@ -7463,7 +7412,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="8:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="43" t="str">
@@ -7513,7 +7462,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:27" ht="17" x14ac:dyDescent="0.2">
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="43" t="str">
@@ -7551,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:27" ht="34" x14ac:dyDescent="0.2">
       <c r="J45" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A20)=TRUE, 'Temporal Event'!F20, "")</f>
         <v>TEselectionMethodCluster</v>
@@ -7588,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:27" ht="34" x14ac:dyDescent="0.2">
       <c r="J46" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A21)=TRUE, 'Temporal Event'!F21, "")</f>
         <v>TEnumberTotalClusters</v>
@@ -7621,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:27" ht="34" x14ac:dyDescent="0.2">
       <c r="J47" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A22)=TRUE, 'Temporal Event'!F22, "")</f>
         <v>TEnumberSampledClusters</v>
@@ -7650,7 +7599,7 @@
         <v>The method of selecting hauls for sampling</v>
       </c>
     </row>
-    <row r="48" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:27" ht="17" x14ac:dyDescent="0.2">
       <c r="J48" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -7679,7 +7628,7 @@
         <v>The unique name of this unit.</v>
       </c>
     </row>
-    <row r="49" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J49" s="21" t="str">
         <f>IF(ISBLANK('Temporal Event'!A26)=TRUE, 'Temporal Event'!F26, "")</f>
         <v>TEreasonNotSampled</v>
@@ -7708,7 +7657,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="50" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J50" s="21">
         <f>IF(ISBLANK('Temporal Event'!A27)=TRUE, 'Temporal Event'!F27, "")</f>
         <v>0</v>
@@ -7737,7 +7686,7 @@
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="51" spans="10:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L51" s="18"/>
       <c r="M51" s="19"/>
       <c r="N51" s="21" t="str">
@@ -7758,7 +7707,7 @@
         <v>Total number of clusters sampled</v>
       </c>
     </row>
-    <row r="52" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J52" s="22" t="s">
         <v>254</v>
       </c>
@@ -7783,7 +7732,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J53" s="37" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!F2, "")</f>
         <v/>
@@ -7812,7 +7761,7 @@
         <v>Reason for not sampling</v>
       </c>
     </row>
-    <row r="54" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J54" s="37" t="str">
         <f>IF(ISBLANK(Location!A3)=TRUE, Location!F3, "")</f>
         <v/>
@@ -7841,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J55" s="37" t="str">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!F4, "")</f>
         <v>LOrecordType</v>
@@ -7874,7 +7823,7 @@
       </c>
       <c r="W55" s="22"/>
     </row>
-    <row r="56" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:26" ht="51" x14ac:dyDescent="0.2">
       <c r="J56" s="37" t="str">
         <f>IF(ISBLANK(Location!A6)=TRUE, Location!F6, "")</f>
         <v>LOstratification</v>
@@ -7911,7 +7860,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:26" ht="51" x14ac:dyDescent="0.2">
       <c r="J57" s="44" t="str">
         <f>IF(ISBLANK(Location!A7)=TRUE, Location!F7, "")</f>
         <v>LOlocation</v>
@@ -7948,7 +7897,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J58" s="44" t="str">
         <f>IF(ISBLANK(Location!A9)=TRUE, Location!F9, "")</f>
         <v>LOstratumName</v>
@@ -7985,7 +7934,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="J59" s="44" t="str">
         <f>IF(ISBLANK(Location!A10)=TRUE, Location!F10, "")</f>
         <v>LOclustering</v>
@@ -8014,7 +7963,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J60" s="44" t="str">
         <f>IF(ISBLANK(Location!A11)=TRUE, Location!F11, "")</f>
         <v>LOclusterName</v>
@@ -8046,7 +7995,7 @@
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
     </row>
-    <row r="61" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:26" ht="51" x14ac:dyDescent="0.2">
       <c r="J61" s="44" t="str">
         <f>IF(ISBLANK(Location!A12)=TRUE, Location!F12, "")</f>
         <v>LOsampler</v>
@@ -8078,7 +8027,7 @@
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
     </row>
-    <row r="62" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="J62" s="44" t="str">
         <f>IF(ISBLANK(Location!A13)=TRUE, Location!F13, "")</f>
         <v>LOnumberTotal</v>
@@ -8101,7 +8050,7 @@
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
     </row>
-    <row r="63" spans="10:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:26" ht="102" x14ac:dyDescent="0.2">
       <c r="J63" s="44" t="str">
         <f>IF(ISBLANK(Location!A14)=TRUE, Location!F14, "")</f>
         <v>LOnumberSampled</v>
@@ -8124,7 +8073,7 @@
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
     </row>
-    <row r="64" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J64" s="44" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8148,7 +8097,7 @@
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
     </row>
-    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J65" s="44" t="str">
         <f>IF(ISBLANK(Location!A17)=TRUE, Location!F17, "")</f>
         <v>LOselectionMethod</v>
@@ -8172,7 +8121,7 @@
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
     </row>
-    <row r="66" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J66" s="44" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOunitName</v>
@@ -8200,7 +8149,7 @@
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
     </row>
-    <row r="67" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J67" s="44" t="str">
         <f>IF(ISBLANK(Location!A19)=TRUE, Location!F19, "")</f>
         <v>LOselectionMethodCluster</v>
@@ -8232,7 +8181,7 @@
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
     </row>
-    <row r="68" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="J68" s="37" t="str">
         <f>IF(ISBLANK(Location!A20)=TRUE, Location!F20, "")</f>
         <v>LOnumberTotalClusters</v>
@@ -8264,7 +8213,7 @@
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
     </row>
-    <row r="69" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="J69" s="37" t="str">
         <f>IF(ISBLANK(Location!A21)=TRUE, Location!F21, "")</f>
         <v>LOnumberSampledClusters</v>
@@ -8296,7 +8245,7 @@
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
     </row>
-    <row r="70" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J70" s="37" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8321,7 +8270,7 @@
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
     </row>
-    <row r="71" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J71" s="37" t="str">
         <f>IF(ISBLANK(Location!A25)=TRUE, Location!F25, "")</f>
         <v>LOreasonNotSampled</v>
@@ -8346,7 +8295,7 @@
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
     </row>
-    <row r="72" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J72" s="37">
         <f>IF(ISBLANK(Location!A26)=TRUE, Location!F26, "")</f>
         <v>0</v>
@@ -8367,7 +8316,7 @@
       </c>
       <c r="P72" s="19"/>
     </row>
-    <row r="73" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J73" s="37" t="str">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!F27, "")</f>
         <v/>
@@ -8388,7 +8337,7 @@
       </c>
       <c r="P73" s="19"/>
     </row>
-    <row r="74" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="J74" s="37" t="str">
         <f>IF(ISBLANK(Location!A28)=TRUE, Location!F28, "")</f>
         <v/>
@@ -8409,7 +8358,7 @@
       </c>
       <c r="P74" s="19"/>
     </row>
-    <row r="75" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="L75" s="18"/>
       <c r="M75" s="19"/>
       <c r="N75" s="21" t="str">
@@ -8422,7 +8371,7 @@
       </c>
       <c r="P75" s="19"/>
     </row>
-    <row r="76" spans="10:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:26" ht="51" x14ac:dyDescent="0.2">
       <c r="L76" s="18"/>
       <c r="M76" s="19"/>
       <c r="N76" s="21" t="str">
@@ -8435,7 +8384,7 @@
       </c>
       <c r="P76" s="19"/>
     </row>
-    <row r="77" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="L77" s="18"/>
       <c r="M77" s="19"/>
       <c r="N77" s="21" t="str">
@@ -8448,7 +8397,7 @@
       </c>
       <c r="P77" s="19"/>
     </row>
-    <row r="78" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="L78" s="18"/>
       <c r="M78" s="19"/>
       <c r="N78" s="21" t="str">
@@ -8461,7 +8410,7 @@
       </c>
       <c r="P78" s="19"/>
     </row>
-    <row r="79" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:26" ht="34" x14ac:dyDescent="0.2">
       <c r="L79" s="18"/>
       <c r="M79" s="19"/>
       <c r="N79" s="21" t="str">
@@ -8474,7 +8423,7 @@
       </c>
       <c r="P79" s="19"/>
     </row>
-    <row r="80" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:26" ht="17" x14ac:dyDescent="0.2">
       <c r="L80" s="18"/>
       <c r="M80" s="19"/>
       <c r="N80" s="21" t="str">
@@ -8487,7 +8436,7 @@
       </c>
       <c r="P80" s="19"/>
     </row>
-    <row r="81" spans="9:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:16" ht="34" x14ac:dyDescent="0.2">
       <c r="L81" s="18"/>
       <c r="M81" s="19"/>
       <c r="N81" s="21" t="str">
@@ -8500,7 +8449,7 @@
       </c>
       <c r="P81" s="19"/>
     </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="L82" s="18"/>
       <c r="M82" s="19"/>
       <c r="N82" s="21" t="str">
@@ -8513,7 +8462,7 @@
       </c>
       <c r="P82" s="19"/>
     </row>
-    <row r="83" spans="9:16" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:16" ht="68" x14ac:dyDescent="0.2">
       <c r="L83" s="18"/>
       <c r="M83" s="19"/>
       <c r="N83" s="21" t="str">
@@ -8526,7 +8475,7 @@
       </c>
       <c r="P83" s="19"/>
     </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I84" s="19">
         <f>IF(ISBLANK('Landing event'!A42)=TRUE, 'Landing event'!B42, "")</f>
         <v>0</v>
@@ -8540,7 +8489,7 @@
         <v>The LOCODE for the location of this LandingEvent.</v>
       </c>
     </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I85" s="19" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8554,7 +8503,7 @@
         <v>Type of LandingEvent location</v>
       </c>
     </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I86" s="19">
         <f>IF(ISBLANK('Landing event'!A45)=TRUE, 'Landing event'!B45, "")</f>
         <v>0</v>
@@ -8568,7 +8517,7 @@
         <v xml:space="preserve">The country that this LandingEvent location is in. </v>
       </c>
     </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I87" s="19">
         <f>IF(ISBLANK('Landing event'!A54)=TRUE, 'Landing event'!B54, "")</f>
         <v>0</v>
@@ -8582,7 +8531,7 @@
         <v>The date of the LandingEvent</v>
       </c>
     </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I88" s="19">
         <f>IF(ISBLANK('Landing event'!A56)=TRUE, 'Landing event'!B56, "")</f>
         <v>0</v>
@@ -8596,7 +8545,7 @@
         <v>The time that this LandingEvent took place</v>
       </c>
     </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I89" s="19" t="str">
         <f>IF(ISBLANK('Landing event'!A58)=TRUE, 'Landing event'!B58, "")</f>
         <v/>
@@ -8610,7 +8559,7 @@
         <v>Exclusive Economic Zone indicator.</v>
       </c>
     </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="I90" s="19">
         <f>IF(ISBLANK('Landing event'!A59)=TRUE, 'Landing event'!B59, "")</f>
         <v>0</v>
@@ -8624,7 +8573,7 @@
         <v xml:space="preserve">The area that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N91" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A28)=TRUE, 'Landing event'!F28, "")</f>
         <v>LErectangle</v>
@@ -8634,7 +8583,7 @@
         <v xml:space="preserve">The rectangle that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="92" spans="9:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:16" ht="34" x14ac:dyDescent="0.2">
       <c r="N92" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A30)=TRUE, 'Landing event'!F30, "")</f>
         <v>LEjurisdictionArea</v>
@@ -8644,7 +8593,7 @@
         <v xml:space="preserve">Area belonging to a country or a part of an area used by Long Distance Fisheries. </v>
       </c>
     </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N93" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8654,7 +8603,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N94" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A31)=TRUE, 'Landing event'!F31, "")</f>
         <v>LEnationalFishingActivity</v>
@@ -8664,7 +8613,7 @@
         <v>Country specific national fishing gear</v>
       </c>
     </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N95" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A32)=TRUE, 'Landing event'!F32, "")</f>
         <v>LEmetier5</v>
@@ -8674,7 +8623,7 @@
         <v>Level 5 metier</v>
       </c>
     </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:16" ht="17" x14ac:dyDescent="0.2">
       <c r="N96" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A33)=TRUE, 'Landing event'!F33, "")</f>
         <v>LEmetier6</v>
@@ -8684,7 +8633,7 @@
         <v>Level 6 metier</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N97" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A34)=TRUE, 'Landing event'!F34, "")</f>
         <v>LEgear</v>
@@ -8694,7 +8643,7 @@
         <v>The FAO gear code.</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N98" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A35)=TRUE, 'Landing event'!F35, "")</f>
         <v>LEmeshSize</v>
@@ -8704,7 +8653,7 @@
         <v>Mesh size</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N99" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A36)=TRUE, 'Landing event'!F36, "")</f>
         <v>LEselectionDevice</v>
@@ -8714,7 +8663,7 @@
         <v>Selection device</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N100" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A37)=TRUE, 'Landing event'!F37, "")</f>
         <v>LEselectionDeviceMeshSize</v>
@@ -8724,7 +8673,7 @@
         <v>Selection device mesh size (mm)</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N101" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A38)=TRUE, 'Landing event'!F38, "")</f>
         <v>LEtargetSpecies</v>
@@ -8734,7 +8683,7 @@
         <v>Target species assemblage</v>
       </c>
     </row>
-    <row r="102" spans="14:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:15" ht="51" x14ac:dyDescent="0.2">
       <c r="N102" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A41)=TRUE, 'Landing event'!F41, "")</f>
         <v>LEnumberTotal</v>
@@ -8744,7 +8693,7 @@
         <v>Total number of unique Landing Event in the stratum/cluster. The total number of Landing Events at an e.g. Port in that stratum/cluster.</v>
       </c>
     </row>
-    <row r="103" spans="14:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:15" ht="85" x14ac:dyDescent="0.2">
       <c r="N103" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A42)=TRUE, 'Landing event'!F42, "")</f>
         <v>LEnumberSampled</v>
@@ -8754,7 +8703,7 @@
         <v>The number of Landing Events sampled in this stratum/cluster (not necessarily unique Landing Events, the same Landing Event could be sampled multiple times). If 3 samples was made and one Landing Event  was selected twice, the number of Landing Events sampled is 3.</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N104" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8764,7 +8713,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N105" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A45)=TRUE, 'Landing event'!F45, "")</f>
         <v>LEselectionMethod</v>
@@ -8774,7 +8723,7 @@
         <v>The method of selecting Landing Events for sampling</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N106" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A47)=TRUE, 'Landing event'!F47, "")</f>
         <v>LEselectionMethodCluster</v>
@@ -8784,7 +8733,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="107" spans="14:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N107" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A48)=TRUE, 'Landing event'!F48, "")</f>
         <v>LEnumberTotalClusters</v>
@@ -8794,7 +8743,7 @@
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N108" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A49)=TRUE, 'Landing event'!F49, "")</f>
         <v>LEnumberSampledClusters</v>
@@ -8804,7 +8753,7 @@
         <v>Total number of clusters sampled</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N109" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8814,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N110" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A53)=TRUE, 'Landing event'!F53, "")</f>
         <v>LEreasonNotSampled</v>
@@ -8824,7 +8773,7 @@
         <v>Reason for not sampling</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:15" ht="17" x14ac:dyDescent="0.2">
       <c r="N111" s="21" t="str">
         <f>IF(ISBLANK('Landing event'!A54)=TRUE, 'Landing event'!F54, "")</f>
         <v>LEfullTripAvailable</v>
@@ -8834,7 +8783,7 @@
         <v>Yes, No, unknown</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N112" s="21">
         <f>IF(ISBLANK('Landing event'!A56)=TRUE, 'Landing event'!F56, "")</f>
         <v>0</v>
@@ -8845,7 +8794,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="AF43:AG44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AF43:AG44">
     <sortCondition ref="AF43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8854,35 +8803,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView topLeftCell="F30" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="G13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="63.140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="57.140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="63.1640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="57.1640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -8896,7 +8845,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -8920,7 +8869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -8946,13 +8895,13 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -8982,13 +8931,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -9018,13 +8967,13 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
@@ -9054,13 +9003,13 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
@@ -9088,13 +9037,13 @@
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
@@ -9124,13 +9073,13 @@
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
@@ -9160,13 +9109,13 @@
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
@@ -9180,7 +9129,7 @@
         <v>1002</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>469</v>
@@ -9196,13 +9145,13 @@
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="L9" s="27" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -9234,7 +9183,7 @@
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="79" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -9251,16 +9200,16 @@
         <v>1073</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>683</v>
@@ -9268,7 +9217,7 @@
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
     </row>
-    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -9300,7 +9249,7 @@
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
     </row>
-    <row r="13" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
@@ -9310,7 +9259,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>587</v>
@@ -9326,15 +9275,15 @@
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -9366,7 +9315,7 @@
       <c r="M14" s="55"/>
       <c r="N14" s="55"/>
     </row>
-    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -9377,10 +9326,10 @@
         <v>494</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>10</v>
@@ -9398,7 +9347,7 @@
       <c r="M15" s="55"/>
       <c r="N15" s="55"/>
     </row>
-    <row r="16" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -9432,7 +9381,7 @@
       <c r="M16" s="55"/>
       <c r="N16" s="55"/>
     </row>
-    <row r="17" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -9464,7 +9413,7 @@
       <c r="M17" s="55"/>
       <c r="N17" s="55"/>
     </row>
-    <row r="18" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -9490,15 +9439,15 @@
         <v>205</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M18" s="55"/>
       <c r="N18" s="55"/>
     </row>
-    <row r="19" spans="1:14" s="24" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -9532,7 +9481,7 @@
       <c r="M19" s="74"/>
       <c r="N19" s="55"/>
     </row>
-    <row r="20" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -9566,7 +9515,7 @@
       <c r="M20" s="75"/>
       <c r="N20" s="55"/>
     </row>
-    <row r="21" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -9600,7 +9549,7 @@
       <c r="M21" s="75"/>
       <c r="N21" s="55"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -9634,7 +9583,7 @@
       <c r="M22" s="75"/>
       <c r="N22" s="55"/>
     </row>
-    <row r="23" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -9657,10 +9606,10 @@
         <v>11</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>199</v>
@@ -9668,7 +9617,7 @@
       <c r="M23" s="74"/>
       <c r="N23" s="55"/>
     </row>
-    <row r="24" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -9700,7 +9649,7 @@
       <c r="M24" s="55"/>
       <c r="N24" s="55"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -9732,7 +9681,7 @@
       <c r="M25" s="55"/>
       <c r="N25" s="55"/>
     </row>
-    <row r="26" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -9740,7 +9689,7 @@
         <v>17</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F26" s="35" t="s">
         <v>1075</v>
@@ -9761,12 +9710,12 @@
         <v>1001</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
     </row>
-    <row r="27" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -9800,7 +9749,7 @@
       <c r="M27" s="55"/>
       <c r="N27" s="55"/>
     </row>
-    <row r="28" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -9826,7 +9775,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>203</v>
@@ -9834,7 +9783,7 @@
       <c r="M28" s="55"/>
       <c r="N28" s="55"/>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -9868,7 +9817,7 @@
       <c r="M29" s="70"/>
       <c r="N29" s="70"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -9876,13 +9825,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F30" s="35" t="s">
+        <v>982</v>
+      </c>
+      <c r="G30" s="35" t="s">
         <v>983</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>984</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>10</v>
@@ -9894,15 +9843,15 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>1177</v>
+        <v>984</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M30" s="55"/>
       <c r="N30" s="55"/>
     </row>
-    <row r="31" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -9910,13 +9859,13 @@
         <v>22</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>10</v>
@@ -9931,12 +9880,12 @@
         <v>1008</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M31" s="75"/>
       <c r="N31" s="75"/>
     </row>
-    <row r="32" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -9944,13 +9893,13 @@
         <v>23</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>10</v>
@@ -9970,7 +9919,7 @@
       <c r="M32" s="75"/>
       <c r="N32" s="75"/>
     </row>
-    <row r="33" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="66" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -9981,10 +9930,10 @@
         <v>1085</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>10</v>
@@ -10004,7 +9953,7 @@
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -10038,7 +9987,7 @@
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
     </row>
-    <row r="35" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="40" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -10070,7 +10019,7 @@
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
     </row>
-    <row r="36" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -10104,7 +10053,7 @@
       <c r="M36" s="55"/>
       <c r="N36" s="55"/>
     </row>
-    <row r="37" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -10136,7 +10085,7 @@
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
     </row>
-    <row r="38" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -10170,7 +10119,7 @@
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
     </row>
-    <row r="39" spans="1:14" s="46" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="46" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -10184,7 +10133,7 @@
         <v>1086</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>10</v>
@@ -10202,7 +10151,7 @@
       <c r="M39" s="70"/>
       <c r="N39" s="70"/>
     </row>
-    <row r="40" spans="1:14" s="46" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -10210,13 +10159,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>13</v>
@@ -10226,13 +10175,13 @@
       </c>
       <c r="J40" s="35"/>
       <c r="K40" s="36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L40" s="36"/>
       <c r="M40" s="70"/>
       <c r="N40" s="70"/>
     </row>
-    <row r="41" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -10243,10 +10192,10 @@
         <v>55</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>188</v>
@@ -10264,7 +10213,7 @@
       <c r="M41" s="55"/>
       <c r="N41" s="55"/>
     </row>
-    <row r="42" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="53" x14ac:dyDescent="0.2">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -10275,10 +10224,10 @@
         <v>56</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>188</v>
@@ -10296,7 +10245,7 @@
       <c r="M42" s="55"/>
       <c r="N42" s="55"/>
     </row>
-    <row r="43" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -10304,7 +10253,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F43" s="35" t="s">
         <v>1077</v>
@@ -10320,15 +10269,15 @@
       </c>
       <c r="J43" s="36"/>
       <c r="K43" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
     </row>
-    <row r="44" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -10352,7 +10301,7 @@
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L44" s="36" t="s">
         <v>154</v>
@@ -10360,7 +10309,7 @@
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -10394,7 +10343,7 @@
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
     </row>
-    <row r="46" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
       <c r="B46" s="64"/>
       <c r="C46" s="36"/>
@@ -10402,13 +10351,13 @@
         <v>37</v>
       </c>
       <c r="E46" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F46" s="65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H46" s="63" t="s">
         <v>10</v>
@@ -10426,7 +10375,7 @@
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -10458,7 +10407,7 @@
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
     </row>
-    <row r="48" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="27" x14ac:dyDescent="0.2">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -10469,10 +10418,10 @@
         <v>328</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>13</v>
@@ -10490,7 +10439,7 @@
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
     </row>
-    <row r="49" spans="1:16384" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16384" ht="27" x14ac:dyDescent="0.2">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -10501,10 +10450,10 @@
         <v>331</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>13</v>
@@ -10522,7 +10471,7 @@
       <c r="M49" s="55"/>
       <c r="N49" s="55"/>
     </row>
-    <row r="50" spans="1:16384" s="45" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16384" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -10530,7 +10479,7 @@
         <v>41</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F50" s="35" t="s">
         <v>1084</v>
@@ -10546,7 +10495,7 @@
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L50" s="36" t="s">
         <v>334</v>
@@ -10554,7 +10503,7 @@
       <c r="M50" s="55"/>
       <c r="N50" s="55"/>
     </row>
-    <row r="51" spans="1:16384" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16384" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -10562,7 +10511,7 @@
         <v>42</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>1081</v>
@@ -10578,13 +10527,13 @@
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L51" s="36"/>
       <c r="M51" s="55"/>
       <c r="N51" s="55"/>
     </row>
-    <row r="52" spans="1:16384" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -10592,7 +10541,7 @@
         <v>43</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>1034</v>
@@ -10610,11 +10559,11 @@
         <v>14</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L52" s="35"/>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -10648,7 +10597,7 @@
       <c r="M53" s="55"/>
       <c r="N53" s="55"/>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A54" s="36"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
@@ -10682,7 +10631,7 @@
       <c r="M54" s="55"/>
       <c r="N54" s="55"/>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A55" s="64"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
@@ -10698,7 +10647,7 @@
       <c r="M55" s="55"/>
       <c r="N55" s="55"/>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A56" s="70"/>
       <c r="B56" s="70"/>
       <c r="C56" s="70"/>
@@ -10714,9 +10663,9 @@
       <c r="M56" s="55"/>
       <c r="N56" s="55"/>
     </row>
-    <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A57" s="83" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
@@ -27102,7 +27051,7 @@
       <c r="XFC57" s="83"/>
       <c r="XFD57" s="83"/>
     </row>
-    <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A58" s="69" t="s">
         <v>292</v>
       </c>
@@ -27120,7 +27069,7 @@
       <c r="M58" s="55"/>
       <c r="N58" s="55"/>
     </row>
-    <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A59" s="70"/>
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
@@ -27136,7 +27085,7 @@
       <c r="M59" s="55"/>
       <c r="N59" s="55"/>
     </row>
-    <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A60" s="70"/>
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
@@ -27152,7 +27101,7 @@
       <c r="M60" s="55"/>
       <c r="N60" s="55"/>
     </row>
-    <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A61" s="70"/>
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
@@ -27175,30 +27124,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -27212,7 +27161,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -27236,7 +27185,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
@@ -27262,13 +27211,13 @@
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="40" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
@@ -27298,13 +27247,13 @@
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
@@ -27334,13 +27283,13 @@
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>12</v>
       </c>
@@ -27370,11 +27319,11 @@
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
@@ -27404,11 +27353,11 @@
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>12</v>
       </c>
@@ -27438,11 +27387,11 @@
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:15" s="38" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="38" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>12</v>
       </c>
@@ -27475,7 +27424,7 @@
       </c>
       <c r="M8" s="47"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -27508,7 +27457,7 @@
       <c r="N9" s="67"/>
       <c r="O9" s="67"/>
     </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A10" s="53"/>
       <c r="B10" s="53"/>
       <c r="C10" s="36" t="s">
@@ -27518,13 +27467,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>787</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>788</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>789</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>13</v>
@@ -27534,16 +27483,16 @@
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="67"/>
       <c r="O10" s="67"/>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -27576,7 +27525,7 @@
       <c r="N11" s="67"/>
       <c r="O11" s="67"/>
     </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
@@ -27604,16 +27553,16 @@
         <v>321</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
     </row>
-    <row r="13" spans="1:15" ht="192" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="169" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
@@ -27623,13 +27572,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="60" t="s">
+        <v>807</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>808</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="G13" s="60" t="s">
         <v>809</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>810</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>10</v>
@@ -27648,7 +27597,7 @@
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
@@ -27685,7 +27634,7 @@
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -27696,10 +27645,10 @@
         <v>495</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>10</v>
@@ -27718,7 +27667,7 @@
       <c r="N15" s="55"/>
       <c r="O15" s="55"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -27753,7 +27702,7 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -27786,7 +27735,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -27812,16 +27761,16 @@
         <v>205</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M18" s="55"/>
       <c r="N18" s="75"/>
       <c r="O18" s="75"/>
     </row>
-    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -27856,7 +27805,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -27864,13 +27813,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G20" s="53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>10</v>
@@ -27882,14 +27831,14 @@
         <v>205</v>
       </c>
       <c r="K20" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L20" s="53"/>
       <c r="M20" s="55"/>
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -27900,10 +27849,10 @@
         <v>127</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>82</v>
@@ -27922,7 +27871,7 @@
       <c r="N21" s="77"/>
       <c r="O21" s="77"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -27933,10 +27882,10 @@
         <v>126</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H22" s="53" t="s">
         <v>82</v>
@@ -27955,7 +27904,7 @@
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
     </row>
-    <row r="23" spans="1:15" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -27963,7 +27912,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>1120</v>
@@ -27979,16 +27928,16 @@
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M23" s="55"/>
       <c r="N23" s="55"/>
       <c r="O23" s="55"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -28012,7 +27961,7 @@
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>154</v>
@@ -28021,7 +27970,7 @@
       <c r="N24" s="55"/>
       <c r="O24" s="55"/>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -28056,7 +28005,7 @@
       <c r="N25" s="55"/>
       <c r="O25" s="55"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="64"/>
       <c r="C26" s="53"/>
@@ -28064,13 +28013,13 @@
         <v>18</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H26" s="63" t="s">
         <v>10</v>
@@ -28080,16 +28029,16 @@
       </c>
       <c r="J26" s="64"/>
       <c r="K26" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L26" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
       <c r="O26" s="55"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -28122,7 +28071,7 @@
       <c r="N27" s="55"/>
       <c r="O27" s="55"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -28133,10 +28082,10 @@
         <v>328</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>13</v>
@@ -28155,7 +28104,7 @@
       <c r="N28" s="55"/>
       <c r="O28" s="55"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -28166,10 +28115,10 @@
         <v>331</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>13</v>
@@ -28188,7 +28137,7 @@
       <c r="N29" s="55"/>
       <c r="O29" s="55"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -28196,7 +28145,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>1113</v>
@@ -28212,7 +28161,7 @@
       </c>
       <c r="J30" s="35"/>
       <c r="K30" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L30" s="36" t="s">
         <v>334</v>
@@ -28221,7 +28170,7 @@
       <c r="N30" s="55"/>
       <c r="O30" s="55"/>
     </row>
-    <row r="31" spans="1:15" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -28229,7 +28178,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>1114</v>
@@ -28245,14 +28194,14 @@
       </c>
       <c r="J31" s="35"/>
       <c r="K31" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L31" s="36"/>
       <c r="M31" s="55"/>
       <c r="N31" s="55"/>
       <c r="O31" s="55"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -28260,7 +28209,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>1036</v>
@@ -28278,11 +28227,11 @@
         <v>14</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -28317,7 +28266,7 @@
       <c r="N33" s="55"/>
       <c r="O33" s="55"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -28334,7 +28283,7 @@
       <c r="N34" s="55"/>
       <c r="O34" s="55"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -28351,7 +28300,7 @@
       <c r="N35" s="55"/>
       <c r="O35" s="55"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
         <v>292</v>
       </c>
@@ -28370,7 +28319,7 @@
       <c r="N36" s="55"/>
       <c r="O36" s="55"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -28387,7 +28336,7 @@
       <c r="N37" s="55"/>
       <c r="O37" s="55"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -28404,7 +28353,7 @@
       <c r="N38" s="55"/>
       <c r="O38" s="55"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -28421,7 +28370,7 @@
       <c r="N39" s="55"/>
       <c r="O39" s="55"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -28445,33 +28394,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="28.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>57</v>
       </c>
@@ -28485,7 +28434,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>134</v>
@@ -28509,7 +28458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -28535,13 +28484,13 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -28549,7 +28498,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>1002</v>
@@ -28569,13 +28518,13 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -28615,7 +28564,7 @@
       <c r="U4" s="55"/>
       <c r="V4" s="55"/>
     </row>
-    <row r="5" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="53" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" s="60"/>
       <c r="C5" s="36" t="s">
@@ -28625,13 +28574,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>793</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>794</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>13</v>
@@ -28641,10 +28590,10 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
@@ -28657,7 +28606,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="55"/>
     </row>
-    <row r="6" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -28668,10 +28617,10 @@
         <v>1020</v>
       </c>
       <c r="F6" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>795</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>796</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>13</v>
@@ -28681,10 +28630,10 @@
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="L6" s="36" t="s">
         <v>797</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>798</v>
       </c>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
@@ -28697,7 +28646,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="55"/>
     </row>
-    <row r="7" spans="1:22" s="42" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="42" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -28737,7 +28686,7 @@
       <c r="U7" s="64"/>
       <c r="V7" s="74"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -28748,10 +28697,10 @@
         <v>496</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="60" t="s">
@@ -28775,7 +28724,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="55"/>
     </row>
-    <row r="9" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60" t="s">
@@ -28819,7 +28768,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="55"/>
     </row>
-    <row r="10" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60" t="s">
@@ -28863,7 +28812,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="55"/>
     </row>
-    <row r="11" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="53" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60" t="s">
@@ -28907,7 +28856,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="55"/>
     </row>
-    <row r="12" spans="1:22" ht="144.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="118" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -28949,7 +28898,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="55"/>
     </row>
-    <row r="13" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="66" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60" t="s">
@@ -28977,10 +28926,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
@@ -28993,7 +28942,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="55"/>
     </row>
-    <row r="14" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60" t="s">
@@ -29021,7 +28970,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>214</v>
@@ -29037,7 +28986,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="55"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60" t="s">
@@ -29081,7 +29030,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="55"/>
     </row>
-    <row r="16" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60" t="s">
@@ -29125,7 +29074,7 @@
       <c r="U16" s="55"/>
       <c r="V16" s="55"/>
     </row>
-    <row r="17" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60" t="s">
@@ -29153,7 +29102,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>21</v>
@@ -29169,7 +29118,7 @@
       <c r="U17" s="55"/>
       <c r="V17" s="55"/>
     </row>
-    <row r="18" spans="1:22" s="24" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -29177,7 +29126,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="79" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F18" s="79" t="s">
         <v>996</v>
@@ -29195,10 +29144,10 @@
         <v>14</v>
       </c>
       <c r="K18" s="80" t="s">
+        <v>969</v>
+      </c>
+      <c r="L18" s="36" t="s">
         <v>970</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>971</v>
       </c>
       <c r="M18" s="55"/>
       <c r="N18" s="55"/>
@@ -29211,7 +29160,7 @@
       <c r="U18" s="55"/>
       <c r="V18" s="55"/>
     </row>
-    <row r="19" spans="1:22" s="24" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="24" customFormat="1" ht="53" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -29222,10 +29171,10 @@
         <v>33</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>10</v>
@@ -29237,7 +29186,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>202</v>
@@ -29253,7 +29202,7 @@
       <c r="U19" s="55"/>
       <c r="V19" s="55"/>
     </row>
-    <row r="20" spans="1:22" s="24" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -29264,10 +29213,10 @@
         <v>34</v>
       </c>
       <c r="F20" s="35" t="s">
+        <v>830</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>831</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>832</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>10</v>
@@ -29279,7 +29228,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>203</v>
@@ -29295,7 +29244,7 @@
       <c r="U20" s="55"/>
       <c r="V20" s="55"/>
     </row>
-    <row r="21" spans="1:22" s="24" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -29337,7 +29286,7 @@
       <c r="U21" s="55"/>
       <c r="V21" s="55"/>
     </row>
-    <row r="22" spans="1:22" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -29345,7 +29294,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>985</v>
@@ -29363,10 +29312,10 @@
         <v>14</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>1176</v>
+        <v>979</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M22" s="55"/>
       <c r="N22" s="55"/>
@@ -29379,7 +29328,7 @@
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:22" s="24" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -29387,13 +29336,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F23" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>839</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>840</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>10</v>
@@ -29405,10 +29354,10 @@
         <v>14</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M23" s="75"/>
       <c r="N23" s="75"/>
@@ -29421,7 +29370,7 @@
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
     </row>
-    <row r="24" spans="1:22" s="24" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="24" customFormat="1" ht="53" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -29429,13 +29378,13 @@
         <v>21</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>10</v>
@@ -29447,7 +29396,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>173</v>
@@ -29463,7 +29412,7 @@
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
     </row>
-    <row r="25" spans="1:22" s="24" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="24" customFormat="1" ht="92" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -29471,13 +29420,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -29489,7 +29438,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L25" s="36" t="s">
         <v>174</v>
@@ -29505,7 +29454,7 @@
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
     </row>
-    <row r="26" spans="1:22" s="24" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="24" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -29516,10 +29465,10 @@
         <v>37</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>10</v>
@@ -29531,7 +29480,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>101</v>
@@ -29547,7 +29496,7 @@
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
     </row>
-    <row r="27" spans="1:22" s="24" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -29558,10 +29507,10 @@
         <v>39</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>13</v>
@@ -29571,7 +29520,7 @@
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>39</v>
@@ -29587,7 +29536,7 @@
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
     </row>
-    <row r="28" spans="1:22" s="24" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="24" customFormat="1" ht="53" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -29598,10 +29547,10 @@
         <v>40</v>
       </c>
       <c r="F28" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>835</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>836</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>13</v>
@@ -29613,7 +29562,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>40</v>
@@ -29629,7 +29578,7 @@
       <c r="U28" s="55"/>
       <c r="V28" s="55"/>
     </row>
-    <row r="29" spans="1:22" s="24" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="24" customFormat="1" ht="53" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -29640,10 +29589,10 @@
         <v>42</v>
       </c>
       <c r="F29" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>837</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>838</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>13</v>
@@ -29653,7 +29602,7 @@
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L29" s="36" t="s">
         <v>175</v>
@@ -29669,7 +29618,7 @@
       <c r="U29" s="55"/>
       <c r="V29" s="55"/>
     </row>
-    <row r="30" spans="1:22" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="40" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
@@ -29693,7 +29642,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L30" s="36" t="s">
         <v>217</v>
@@ -29709,7 +29658,7 @@
       <c r="U30" s="55"/>
       <c r="V30" s="55"/>
     </row>
-    <row r="31" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="53" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="60"/>
       <c r="C31" s="60"/>
@@ -29749,7 +29698,7 @@
       <c r="U31" s="55"/>
       <c r="V31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="53" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
@@ -29789,7 +29738,7 @@
       <c r="U32" s="55"/>
       <c r="V32" s="55"/>
     </row>
-    <row r="33" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="60"/>
       <c r="C33" s="60"/>
@@ -29800,10 +29749,10 @@
         <v>24</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>187</v>
@@ -29829,7 +29778,7 @@
       <c r="U33" s="55"/>
       <c r="V33" s="55"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
@@ -29840,10 +29789,10 @@
         <v>26</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>187</v>
@@ -29869,7 +29818,7 @@
       <c r="U34" s="55"/>
       <c r="V34" s="55"/>
     </row>
-    <row r="35" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -29877,7 +29826,7 @@
         <v>32</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>1104</v>
@@ -29893,10 +29842,10 @@
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -29909,7 +29858,7 @@
       <c r="U35" s="55"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -29933,7 +29882,7 @@
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>154</v>
@@ -29949,7 +29898,7 @@
       <c r="U36" s="55"/>
       <c r="V36" s="55"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
       <c r="B37" s="60"/>
       <c r="C37" s="60"/>
@@ -29991,7 +29940,7 @@
       <c r="U37" s="55"/>
       <c r="V37" s="55"/>
     </row>
-    <row r="38" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="36"/>
       <c r="B38" s="64"/>
       <c r="C38" s="60"/>
@@ -29999,13 +29948,13 @@
         <v>35</v>
       </c>
       <c r="E38" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F38" s="65" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H38" s="63" t="s">
         <v>10</v>
@@ -30015,10 +29964,10 @@
       </c>
       <c r="J38" s="64"/>
       <c r="K38" s="63" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L38" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
@@ -30031,7 +29980,7 @@
       <c r="U38" s="55"/>
       <c r="V38" s="55"/>
     </row>
-    <row r="39" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="40" x14ac:dyDescent="0.2">
       <c r="A39" s="36"/>
       <c r="B39" s="60"/>
       <c r="C39" s="60"/>
@@ -30071,7 +30020,7 @@
       <c r="U39" s="55"/>
       <c r="V39" s="55"/>
     </row>
-    <row r="40" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
@@ -30097,10 +30046,10 @@
         <v>205</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M40" s="55"/>
       <c r="N40" s="55"/>
@@ -30113,7 +30062,7 @@
       <c r="U40" s="55"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -30121,7 +30070,7 @@
         <v>38</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>1038</v>
@@ -30139,11 +30088,11 @@
         <v>14</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L41" s="35"/>
     </row>
-    <row r="42" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="56"/>
       <c r="C42" s="56"/>
@@ -30169,7 +30118,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="L42" s="36" t="s">
         <v>335</v>
@@ -30185,7 +30134,7 @@
       <c r="U42" s="55"/>
       <c r="V42" s="55"/>
     </row>
-    <row r="43" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
@@ -30211,7 +30160,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="60" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L43" s="60" t="s">
         <v>336</v>
@@ -30227,7 +30176,7 @@
       <c r="U43" s="55"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="1:22" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="66" x14ac:dyDescent="0.2">
       <c r="A44" s="36"/>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -30267,7 +30216,7 @@
       <c r="U44" s="55"/>
       <c r="V44" s="55"/>
     </row>
-    <row r="45" spans="1:22" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="66" x14ac:dyDescent="0.2">
       <c r="A45" s="36"/>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
@@ -30307,7 +30256,7 @@
       <c r="U45" s="55"/>
       <c r="V45" s="55"/>
     </row>
-    <row r="46" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="27" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -30331,7 +30280,7 @@
       </c>
       <c r="J46" s="60"/>
       <c r="K46" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>632</v>
@@ -30347,7 +30296,7 @@
       <c r="U46" s="55"/>
       <c r="V46" s="55"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
       <c r="C47" s="55"/>
@@ -30371,7 +30320,7 @@
       <c r="U47" s="55"/>
       <c r="V47" s="55"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
       <c r="C48" s="55"/>
@@ -30395,7 +30344,7 @@
       <c r="U48" s="55"/>
       <c r="V48" s="55"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
       <c r="C49" s="55"/>
@@ -30419,7 +30368,7 @@
       <c r="U49" s="55"/>
       <c r="V49" s="55"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
       <c r="C50" s="55"/>
@@ -30443,7 +30392,7 @@
       <c r="U50" s="55"/>
       <c r="V50" s="55"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="55"/>
       <c r="B51" s="55"/>
       <c r="C51" s="55"/>
@@ -30467,7 +30416,7 @@
       <c r="U51" s="55"/>
       <c r="V51" s="55"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="55"/>
       <c r="B52" s="55"/>
       <c r="C52" s="55"/>
@@ -30491,7 +30440,7 @@
       <c r="U52" s="55"/>
       <c r="V52" s="55"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="55"/>
       <c r="B53" s="55"/>
       <c r="C53" s="55"/>
@@ -30515,7 +30464,7 @@
       <c r="U53" s="55"/>
       <c r="V53" s="55"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="55"/>
       <c r="B54" s="55"/>
       <c r="C54" s="55"/>
@@ -30539,7 +30488,7 @@
       <c r="U54" s="55"/>
       <c r="V54" s="55"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="55"/>
       <c r="B55" s="55"/>
       <c r="C55" s="55"/>
@@ -30563,7 +30512,7 @@
       <c r="U55" s="55"/>
       <c r="V55" s="55"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="55" t="s">
         <v>294</v>
       </c>
@@ -30589,7 +30538,7 @@
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="55"/>
       <c r="B57" s="55"/>
       <c r="C57" s="55"/>
@@ -30613,7 +30562,7 @@
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="55"/>
       <c r="B58" s="55"/>
       <c r="C58" s="55"/>
@@ -30637,7 +30586,7 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="55"/>
       <c r="B59" s="55"/>
       <c r="C59" s="55"/>
@@ -30661,7 +30610,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="55"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
@@ -30692,30 +30641,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -30729,7 +30678,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -30753,7 +30702,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -30779,13 +30728,13 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -30813,13 +30762,13 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -30849,7 +30798,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -30881,7 +30830,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -30911,7 +30860,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -30943,7 +30892,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="60"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -30975,7 +30924,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="40" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -31007,7 +30956,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -31033,13 +30982,13 @@
         <v>205</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="24" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
@@ -31047,7 +30996,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>1043</v>
@@ -31063,11 +31012,11 @@
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12" s="47" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="47" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -31075,7 +31024,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>1044</v>
@@ -31093,11 +31042,11 @@
         <v>14</v>
       </c>
       <c r="K12" s="81" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L12" s="36"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>303</v>
       </c>
@@ -31108,29 +31057,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="12" width="58.7109375" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="2"/>
+    <col min="11" max="12" width="58.6640625" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -31144,7 +31093,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -31168,7 +31117,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
@@ -31196,13 +31145,13 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>12</v>
       </c>
@@ -31232,13 +31181,13 @@
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
@@ -31268,13 +31217,13 @@
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="27" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="60"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -31304,7 +31253,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60" t="s">
@@ -31336,7 +31285,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="60"/>
       <c r="B7" s="60"/>
       <c r="C7" s="60"/>
@@ -31366,7 +31315,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="60"/>
       <c r="B8" s="60"/>
       <c r="C8" s="60"/>
@@ -31377,10 +31326,10 @@
         <v>497</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>10</v>
@@ -31396,7 +31345,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="60"/>
       <c r="B9" s="60"/>
       <c r="C9" s="60" t="s">
@@ -31430,7 +31379,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="60"/>
@@ -31460,7 +31409,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="60"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
@@ -31468,13 +31417,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="60" t="s">
+        <v>810</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>811</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="G11" s="60" t="s">
         <v>812</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>813</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>10</v>
@@ -31486,13 +31435,13 @@
         <v>14</v>
       </c>
       <c r="K11" s="36" t="s">
+        <v>813</v>
+      </c>
+      <c r="L11" s="60" t="s">
         <v>814</v>
       </c>
-      <c r="L11" s="60" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
@@ -31524,7 +31473,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
@@ -31556,7 +31505,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="60"/>
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
@@ -31567,10 +31516,10 @@
         <v>240</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H14" s="60" t="s">
         <v>13</v>
@@ -31586,7 +31535,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="60"/>
       <c r="B15" s="60"/>
       <c r="C15" s="60"/>
@@ -31597,10 +31546,10 @@
         <v>241</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H15" s="60" t="s">
         <v>13</v>
@@ -31616,7 +31565,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -31624,7 +31573,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>1059</v>
@@ -31640,13 +31589,13 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -31670,13 +31619,13 @@
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -31708,7 +31657,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="60"/>
       <c r="B19" s="64"/>
       <c r="C19" s="60"/>
@@ -31716,13 +31665,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>10</v>
@@ -31732,13 +31681,13 @@
       </c>
       <c r="J19" s="64"/>
       <c r="K19" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L19" s="63" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -31764,10 +31713,10 @@
         <v>205</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -31777,31 +31726,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="11" customWidth="1"/>
     <col min="3" max="3" width="15" style="11" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="11" customWidth="1"/>
     <col min="11" max="11" width="35" style="11" customWidth="1"/>
-    <col min="12" max="12" width="50.42578125" style="11" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="50.5" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -31815,7 +31764,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -31839,7 +31788,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -31865,13 +31814,13 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -31903,7 +31852,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
@@ -31928,7 +31877,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>59</v>
@@ -31937,7 +31886,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -31945,13 +31894,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>702</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="G5" s="36" t="s">
         <v>703</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>704</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>304</v>
@@ -31963,13 +31912,13 @@
         <v>14</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
@@ -32003,7 +31952,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="65" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
@@ -32016,10 +31965,10 @@
         <v>136</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>616</v>
@@ -32035,7 +31984,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -32067,7 +32016,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
@@ -32101,8 +32050,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -32116,7 +32065,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -32130,7 +32079,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -32144,7 +32093,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -32158,7 +32107,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -32172,7 +32121,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -32186,7 +32135,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -32200,7 +32149,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -32214,7 +32163,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -32228,7 +32177,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -32242,8 +32191,8 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -32257,7 +32206,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -32271,7 +32220,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -32285,7 +32234,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -32299,7 +32248,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -32313,7 +32262,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -32327,7 +32276,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -32341,7 +32290,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -32355,7 +32304,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -32369,7 +32318,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -32383,7 +32332,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -32397,7 +32346,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -32411,7 +32360,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -32425,7 +32374,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -32439,7 +32388,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -32453,7 +32402,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -32467,7 +32416,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -32481,7 +32430,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -32495,7 +32444,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -32509,7 +32458,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -32523,7 +32472,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -32537,7 +32486,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -32551,7 +32500,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -32565,7 +32514,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -32579,7 +32528,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -32593,7 +32542,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -32607,7 +32556,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -32621,7 +32570,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -32642,27 +32591,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -32676,7 +32625,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -32700,7 +32649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -32726,13 +32675,13 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -32746,7 +32695,7 @@
         <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>380</v>
@@ -32760,13 +32709,13 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -32794,13 +32743,13 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
@@ -32828,13 +32777,13 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -32864,7 +32813,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
@@ -32874,13 +32823,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>776</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>777</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>778</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>13</v>
@@ -32890,13 +32839,13 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -32926,7 +32875,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
@@ -32960,7 +32909,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="55"/>
@@ -32971,10 +32920,10 @@
         <v>251</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>10</v>
@@ -32990,7 +32939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="53" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -33022,7 +32971,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -33052,7 +33001,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -33078,13 +33027,13 @@
         <v>205</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -33092,13 +33041,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>13</v>
@@ -33114,7 +33063,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="79" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -33125,10 +33074,10 @@
         <v>78</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>13</v>
@@ -33144,7 +33093,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -33152,7 +33101,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>1125</v>
@@ -33168,13 +33117,13 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -33198,13 +33147,13 @@
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -33236,7 +33185,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="33" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="33" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -33244,13 +33193,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>10</v>
@@ -33266,7 +33215,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -33296,7 +33245,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="53" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -33304,13 +33253,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>13</v>
@@ -33326,7 +33275,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -33337,10 +33286,10 @@
         <v>528</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>13</v>
@@ -33356,7 +33305,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -33364,7 +33313,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>1121</v>
@@ -33380,13 +33329,13 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="24" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -33394,7 +33343,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>1124</v>
@@ -33410,11 +33359,11 @@
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -33422,7 +33371,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>1028</v>
@@ -33440,11 +33389,11 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -33476,7 +33425,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -33490,7 +33439,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>269</v>
       </c>
@@ -33502,24 +33451,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
     <col min="11" max="11" width="43" customWidth="1"/>
-    <col min="12" max="12" width="46.85546875" customWidth="1"/>
+    <col min="12" max="12" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -33533,7 +33482,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -33557,7 +33506,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -33585,13 +33534,13 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -33605,7 +33554,7 @@
         <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>380</v>
@@ -33621,13 +33570,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -33657,7 +33606,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36" t="s">
@@ -33667,13 +33616,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>780</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>781</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>13</v>
@@ -33683,13 +33632,13 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -33719,7 +33668,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -33727,7 +33676,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>490</v>
@@ -33742,16 +33691,16 @@
         <v>11</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -33759,7 +33708,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>1087</v>
@@ -33777,13 +33726,13 @@
         <v>116</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L8" s="63" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -33794,10 +33743,10 @@
         <v>492</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>10</v>
@@ -33813,7 +33762,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -33845,7 +33794,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -33875,7 +33824,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -33901,13 +33850,13 @@
         <v>205</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -33915,13 +33864,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>13</v>
@@ -33937,7 +33886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -33948,10 +33897,10 @@
         <v>79</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>13</v>
@@ -33967,7 +33916,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -33975,7 +33924,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>1088</v>
@@ -33991,13 +33940,13 @@
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -34005,7 +33954,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>1091</v>
@@ -34021,13 +33970,13 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -34059,7 +34008,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="64"/>
       <c r="C18" s="36"/>
@@ -34067,13 +34016,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="63" t="s">
+        <v>710</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>711</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>712</v>
-      </c>
       <c r="G18" s="65" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H18" s="63" t="s">
         <v>10</v>
@@ -34083,13 +34032,13 @@
       </c>
       <c r="J18" s="64"/>
       <c r="K18" s="63" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L18" s="63" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -34119,7 +34068,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -34130,10 +34079,10 @@
         <v>328</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>13</v>
@@ -34149,7 +34098,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -34160,10 +34109,10 @@
         <v>331</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>13</v>
@@ -34179,7 +34128,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -34187,7 +34136,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>1092</v>
@@ -34203,13 +34152,13 @@
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -34217,7 +34166,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>1095</v>
@@ -34233,11 +34182,11 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -34245,7 +34194,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>1030</v>
@@ -34263,11 +34212,11 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -34299,7 +34248,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
@@ -34313,7 +34262,7 @@
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>270</v>
       </c>
@@ -34329,7 +34278,7 @@
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -34351,7 +34300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -34361,22 +34310,22 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="26.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="10" customWidth="1"/>
+    <col min="5" max="6" width="26.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="54.7109375" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="5.7109375" style="10"/>
+    <col min="8" max="8" width="6.83203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="54.6640625" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="5.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -34390,7 +34339,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -34414,7 +34363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -34426,7 +34375,7 @@
         <v>1002</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>380</v>
@@ -34440,13 +34389,13 @@
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>12</v>
       </c>
@@ -34474,13 +34423,13 @@
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L3" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -34510,7 +34459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="13" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
@@ -34535,16 +34484,16 @@
         <v>11</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -34582,32 +34531,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="65" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -34621,7 +34570,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -34645,7 +34594,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -34673,13 +34622,13 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -34693,7 +34642,7 @@
         <v>1002</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>380</v>
@@ -34709,13 +34658,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -34745,13 +34694,13 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
@@ -34781,13 +34730,13 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -34817,7 +34766,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
@@ -34827,13 +34776,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>800</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>801</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>13</v>
@@ -34843,13 +34792,13 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -34866,22 +34815,22 @@
         <v>687</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -34911,7 +34860,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -34922,10 +34871,10 @@
         <v>153</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>10</v>
@@ -34941,7 +34890,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -34973,7 +34922,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -35003,7 +34952,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -35029,13 +34978,13 @@
         <v>205</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -35046,10 +34995,10 @@
         <v>86</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>82</v>
@@ -35065,7 +35014,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -35076,10 +35025,10 @@
         <v>152</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>82</v>
@@ -35095,7 +35044,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -35103,7 +35052,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>1129</v>
@@ -35119,13 +35068,13 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -35149,13 +35098,13 @@
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
@@ -35187,7 +35136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="64"/>
       <c r="C19" s="36"/>
@@ -35195,13 +35144,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>10</v>
@@ -35211,13 +35160,13 @@
       </c>
       <c r="J19" s="64"/>
       <c r="K19" s="63" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L19" s="63" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -35249,7 +35198,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -35260,10 +35209,10 @@
         <v>328</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>13</v>
@@ -35279,7 +35228,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -35290,10 +35239,10 @@
         <v>331</v>
       </c>
       <c r="F22" s="35" t="s">
+        <v>895</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>896</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>897</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>13</v>
@@ -35309,7 +35258,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -35317,7 +35266,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>1136</v>
@@ -35333,13 +35282,13 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -35347,7 +35296,7 @@
         <v>19</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>1133</v>
@@ -35363,11 +35312,11 @@
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -35375,13 +35324,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>475</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -35393,11 +35342,11 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -35429,12 +35378,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="83" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>270</v>
       </c>
@@ -35457,32 +35406,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:L26"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="65" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -35496,7 +35445,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -35520,7 +35469,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -35546,13 +35495,13 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -35578,13 +35527,13 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -35610,13 +35559,13 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
@@ -35644,13 +35593,13 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
@@ -35662,7 +35611,7 @@
         <v>1002</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>380</v>
@@ -35678,13 +35627,13 @@
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>12</v>
       </c>
@@ -35712,13 +35661,13 @@
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
@@ -35746,13 +35695,13 @@
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -35782,7 +35731,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -35799,20 +35748,20 @@
         <v>991</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
@@ -35822,13 +35771,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F11" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>775</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>776</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>13</v>
@@ -35838,13 +35787,13 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -35874,7 +35823,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -35885,10 +35834,10 @@
         <v>166</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36" t="s">
@@ -35902,7 +35851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -35934,7 +35883,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -35964,7 +35913,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -35990,13 +35939,13 @@
         <v>205</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -36022,13 +35971,13 @@
         <v>205</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>697</v>
+        <v>1175</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -36060,7 +36009,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -36092,7 +36041,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -36122,7 +36071,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -36152,7 +36101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36" t="s">
@@ -36184,7 +36133,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36" t="s">
@@ -36216,7 +36165,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -36246,7 +36195,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -36257,10 +36206,10 @@
         <v>289</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>82</v>
@@ -36276,7 +36225,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -36287,10 +36236,10 @@
         <v>290</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>82</v>
@@ -36300,13 +36249,13 @@
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="49" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -36314,7 +36263,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>1064</v>
@@ -36330,13 +36279,13 @@
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -36360,13 +36309,13 @@
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
@@ -36398,7 +36347,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36"/>
       <c r="B30" s="64"/>
       <c r="C30" s="60"/>
@@ -36406,13 +36355,13 @@
         <v>22</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H30" s="63" t="s">
         <v>10</v>
@@ -36422,13 +36371,13 @@
       </c>
       <c r="J30" s="64"/>
       <c r="K30" s="63" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L30" s="63" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -36458,7 +36407,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -36469,10 +36418,10 @@
         <v>346</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>13</v>
@@ -36488,7 +36437,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -36499,10 +36448,10 @@
         <v>347</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>13</v>
@@ -36518,7 +36467,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -36526,7 +36475,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>1068</v>
@@ -36542,13 +36491,13 @@
       </c>
       <c r="J34" s="35"/>
       <c r="K34" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -36556,7 +36505,7 @@
         <v>27</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>1069</v>
@@ -36572,11 +36521,11 @@
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L35" s="36"/>
     </row>
-    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -36584,7 +36533,7 @@
         <v>28</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>992</v>
@@ -36602,11 +36551,11 @@
         <v>14</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -36638,7 +36587,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="67"/>
       <c r="B38" s="67"/>
       <c r="C38" s="67"/>
@@ -36652,9 +36601,9 @@
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="83" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
@@ -36668,7 +36617,7 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="69" t="s">
         <v>292</v>
       </c>
@@ -36684,7 +36633,7 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="67"/>
       <c r="B41" s="67"/>
       <c r="C41" s="67"/>
@@ -36708,34 +36657,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="11" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="59.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="57.140625" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="20.140625" style="5"/>
+    <col min="9" max="9" width="9.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="59.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="57.1640625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="20.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -36749,7 +36698,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -36773,7 +36722,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
@@ -36799,13 +36748,13 @@
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -36833,13 +36782,13 @@
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
@@ -36851,7 +36800,7 @@
         <v>1002</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>380</v>
@@ -36867,13 +36816,13 @@
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -36904,7 +36853,7 @@
       </c>
       <c r="M5" s="70"/>
     </row>
-    <row r="6" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -36935,7 +36884,7 @@
       </c>
       <c r="M6" s="70"/>
     </row>
-    <row r="7" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="40" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
@@ -36945,13 +36894,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>773</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>774</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>13</v>
@@ -36961,12 +36910,12 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L7" s="36"/>
       <c r="M7" s="70"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -36977,10 +36926,10 @@
         <v>177</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35" t="s">
@@ -36995,7 +36944,7 @@
       </c>
       <c r="M8" s="70"/>
     </row>
-    <row r="9" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -37028,7 +36977,7 @@
       </c>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -37059,7 +37008,7 @@
       </c>
       <c r="M10" s="70"/>
     </row>
-    <row r="11" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -37085,14 +37034,14 @@
         <v>205</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M11" s="70"/>
     </row>
-    <row r="12" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="40" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -37125,7 +37074,7 @@
       </c>
       <c r="M12" s="70"/>
     </row>
-    <row r="13" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="40" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -37158,7 +37107,7 @@
       </c>
       <c r="M13" s="70"/>
     </row>
-    <row r="14" spans="1:13" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -37184,14 +37133,14 @@
         <v>14</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>566</v>
       </c>
       <c r="M14" s="70"/>
     </row>
-    <row r="15" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -37199,7 +37148,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>535</v>
@@ -37209,18 +37158,18 @@
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
         <v>1145</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="M15" s="70"/>
     </row>
-    <row r="16" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -37228,7 +37177,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>536</v>
@@ -37244,14 +37193,14 @@
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M16" s="70"/>
     </row>
-    <row r="17" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -37259,7 +37208,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>537</v>
@@ -37273,14 +37222,14 @@
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M17" s="70"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -37288,7 +37237,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>538</v>
@@ -37302,14 +37251,14 @@
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="36" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M18" s="70"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -37333,14 +37282,14 @@
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="36" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>92</v>
       </c>
       <c r="M19" s="70"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -37364,14 +37313,14 @@
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="36" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>93</v>
       </c>
       <c r="M20" s="70"/>
     </row>
-    <row r="21" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -37395,14 +37344,14 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="36" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="L21" s="36" t="s">
         <v>94</v>
       </c>
       <c r="M21" s="70"/>
     </row>
-    <row r="22" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -37426,14 +37375,14 @@
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="36" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>95</v>
       </c>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -37457,14 +37406,14 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>96</v>
       </c>
       <c r="M23" s="70"/>
     </row>
-    <row r="24" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -37472,7 +37421,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>998</v>
@@ -37493,11 +37442,11 @@
         <v>1000</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="M24" s="70"/>
     </row>
-    <row r="25" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="40" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -37530,7 +37479,7 @@
       </c>
       <c r="M25" s="70"/>
     </row>
-    <row r="26" spans="1:13" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="53" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -37556,14 +37505,14 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>178</v>
       </c>
       <c r="M26" s="70"/>
     </row>
-    <row r="27" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -37596,7 +37545,7 @@
       </c>
       <c r="M27" s="70"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -37604,13 +37553,13 @@
         <v>24</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F28" s="35" t="s">
+        <v>980</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>981</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>982</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>10</v>
@@ -37622,14 +37571,14 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>1175</v>
+        <v>979</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M28" s="70"/>
     </row>
-    <row r="29" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -37660,7 +37609,7 @@
       </c>
       <c r="M29" s="71"/>
     </row>
-    <row r="30" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -37691,7 +37640,7 @@
       </c>
       <c r="M30" s="70"/>
     </row>
-    <row r="31" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="40" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -37699,13 +37648,13 @@
         <v>27</v>
       </c>
       <c r="E31" s="35" t="s">
+        <v>724</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>725</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="G31" s="35" t="s">
         <v>726</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>727</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>10</v>
@@ -37717,14 +37666,14 @@
         <v>14</v>
       </c>
       <c r="K31" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="L31" s="36" t="s">
         <v>728</v>
       </c>
-      <c r="L31" s="36" t="s">
-        <v>729</v>
-      </c>
       <c r="M31" s="70"/>
     </row>
-    <row r="32" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -37732,7 +37681,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>556</v>
@@ -37750,14 +37699,14 @@
         <v>14</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>173</v>
       </c>
       <c r="M32" s="70"/>
     </row>
-    <row r="33" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="53" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -37765,7 +37714,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>557</v>
@@ -37783,14 +37732,14 @@
         <v>14</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>174</v>
       </c>
       <c r="M33" s="70"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -37823,7 +37772,7 @@
       </c>
       <c r="M34" s="70"/>
     </row>
-    <row r="35" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -37854,7 +37803,7 @@
       </c>
       <c r="M35" s="70"/>
     </row>
-    <row r="36" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -37887,7 +37836,7 @@
       </c>
       <c r="M36" s="70"/>
     </row>
-    <row r="37" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -37918,7 +37867,7 @@
       </c>
       <c r="M37" s="70"/>
     </row>
-    <row r="38" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -37951,7 +37900,7 @@
       </c>
       <c r="M38" s="70"/>
     </row>
-    <row r="39" spans="1:13" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -37962,7 +37911,7 @@
         <v>1062</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>1063</v>
@@ -37982,7 +37931,7 @@
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
     </row>
-    <row r="40" spans="1:13" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -37990,13 +37939,13 @@
         <v>36</v>
       </c>
       <c r="E40" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>705</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="G40" s="35" t="s">
         <v>706</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>707</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>13</v>
@@ -38011,7 +37960,7 @@
       <c r="L40" s="36"/>
       <c r="M40" s="70"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="79" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -38037,14 +37986,14 @@
         <v>14</v>
       </c>
       <c r="K41" s="36" t="s">
+        <v>973</v>
+      </c>
+      <c r="L41" s="36" t="s">
         <v>974</v>
       </c>
-      <c r="L41" s="36" t="s">
-        <v>975</v>
-      </c>
       <c r="M41" s="55"/>
     </row>
-    <row r="42" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -38055,10 +38004,10 @@
         <v>49</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>13</v>
@@ -38075,7 +38024,7 @@
       </c>
       <c r="M42" s="70"/>
     </row>
-    <row r="43" spans="1:13" s="17" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
@@ -38086,10 +38035,10 @@
         <v>50</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>13</v>
@@ -38099,14 +38048,14 @@
       </c>
       <c r="J43" s="35"/>
       <c r="K43" s="36" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="M43" s="70"/>
     </row>
-    <row r="44" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -38114,7 +38063,7 @@
         <v>40</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F44" s="35" t="s">
         <v>1048</v>
@@ -38130,14 +38079,14 @@
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M44" s="55"/>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -38161,14 +38110,14 @@
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L45" s="36" t="s">
         <v>154</v>
       </c>
       <c r="M45" s="55"/>
     </row>
-    <row r="46" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="60"/>
       <c r="C46" s="60"/>
@@ -38201,7 +38150,7 @@
       </c>
       <c r="M46" s="70"/>
     </row>
-    <row r="47" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="64"/>
       <c r="C47" s="60"/>
@@ -38209,13 +38158,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G47" s="65" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H47" s="63" t="s">
         <v>10</v>
@@ -38225,14 +38174,14 @@
       </c>
       <c r="J47" s="64"/>
       <c r="K47" s="63" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L47" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M47" s="70"/>
     </row>
-    <row r="48" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
@@ -38263,7 +38212,7 @@
       </c>
       <c r="M48" s="70"/>
     </row>
-    <row r="49" spans="1:13" s="17" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="17" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -38274,10 +38223,10 @@
         <v>328</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>13</v>
@@ -38294,7 +38243,7 @@
       </c>
       <c r="M49" s="70"/>
     </row>
-    <row r="50" spans="1:13" s="17" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -38305,10 +38254,10 @@
         <v>331</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>13</v>
@@ -38325,7 +38274,7 @@
       </c>
       <c r="M50" s="70"/>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -38333,7 +38282,7 @@
         <v>47</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>1052</v>
@@ -38349,14 +38298,14 @@
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L51" s="36" t="s">
         <v>334</v>
       </c>
       <c r="M51" s="55"/>
     </row>
-    <row r="52" spans="1:13" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="49"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -38364,7 +38313,7 @@
         <v>48</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>1053</v>
@@ -38380,12 +38329,12 @@
       </c>
       <c r="J52" s="35"/>
       <c r="K52" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L52" s="36"/>
       <c r="M52" s="55"/>
     </row>
-    <row r="53" spans="1:13" s="50" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -38393,7 +38342,7 @@
         <v>49</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F53" s="35" t="s">
         <v>994</v>
@@ -38411,12 +38360,12 @@
         <v>14</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L53" s="35"/>
       <c r="M53" s="72"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="60"/>
       <c r="C54" s="60"/>
@@ -38449,7 +38398,7 @@
       </c>
       <c r="M54" s="70"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" s="70"/>
       <c r="C55" s="70"/>
       <c r="D55" s="70"/>
@@ -38463,7 +38412,7 @@
       <c r="L55" s="73"/>
       <c r="M55" s="70"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B56" s="70"/>
       <c r="C56" s="70"/>
       <c r="D56" s="70"/>
@@ -38477,7 +38426,7 @@
       <c r="L56" s="73"/>
       <c r="M56" s="70"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>292</v>
       </c>
@@ -38494,7 +38443,7 @@
       <c r="L57" s="73"/>
       <c r="M57" s="70"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B58" s="70"/>
       <c r="C58" s="70"/>
       <c r="D58" s="70"/>
@@ -38508,7 +38457,7 @@
       <c r="L58" s="73"/>
       <c r="M58" s="70"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B59" s="70"/>
       <c r="C59" s="70"/>
       <c r="D59" s="70"/>
@@ -38522,7 +38471,7 @@
       <c r="L59" s="73"/>
       <c r="M59" s="70"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B60" s="70"/>
       <c r="C60" s="70"/>
       <c r="D60" s="70"/>
@@ -38536,7 +38485,7 @@
       <c r="L60" s="73"/>
       <c r="M60" s="70"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B61" s="70"/>
       <c r="C61" s="70"/>
       <c r="D61" s="70"/>
@@ -38557,24 +38506,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="50.140625" customWidth="1"/>
-    <col min="12" max="12" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="50.1640625" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>57</v>
       </c>
@@ -38588,7 +38537,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>134</v>
@@ -38612,7 +38561,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
@@ -38638,13 +38587,13 @@
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -38652,13 +38601,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>1002</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>380</v>
@@ -38672,13 +38621,13 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -38710,7 +38659,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36" t="s">
@@ -38720,13 +38669,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>771</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>772</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>13</v>
@@ -38736,11 +38685,11 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
@@ -38750,7 +38699,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>498</v>
@@ -38774,7 +38723,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -38804,7 +38753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35" t="s">
@@ -38814,13 +38763,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -38829,10 +38778,10 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L8" s="63" t="s">
         <v>182</v>
@@ -38841,7 +38790,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
@@ -38873,7 +38822,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35" t="s">
@@ -38905,7 +38854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -38916,10 +38865,10 @@
         <v>493</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -38935,7 +38884,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -38967,7 +38916,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -38997,7 +38946,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -39023,13 +38972,13 @@
         <v>205</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -39061,7 +39010,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -39091,7 +39040,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -39102,10 +39051,10 @@
         <v>272</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>188</v>
@@ -39121,7 +39070,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -39132,10 +39081,10 @@
         <v>273</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>188</v>
@@ -39151,7 +39100,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -39159,7 +39108,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>1102</v>
@@ -39175,13 +39124,13 @@
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -39205,13 +39154,13 @@
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -39243,7 +39192,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="64"/>
       <c r="C22" s="35"/>
@@ -39251,13 +39200,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F22" s="65" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H22" s="63" t="s">
         <v>10</v>
@@ -39267,13 +39216,13 @@
       </c>
       <c r="J22" s="64"/>
       <c r="K22" s="63" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -39305,7 +39254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -39335,7 +39284,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="40" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -39346,10 +39295,10 @@
         <v>328</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>13</v>
@@ -39365,7 +39314,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -39376,10 +39325,10 @@
         <v>331</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>13</v>
@@ -39395,7 +39344,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -39403,7 +39352,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>1097</v>
@@ -39419,13 +39368,13 @@
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="36" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="24" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -39433,7 +39382,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>1096</v>
@@ -39449,11 +39398,11 @@
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="36" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -39461,7 +39410,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>1032</v>
@@ -39479,11 +39428,11 @@
         <v>14</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -39515,7 +39464,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="29" t="s">
         <v>292</v>
       </c>

--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
@@ -2226,9 +2226,6 @@
     <t>FOnatFishAct</t>
   </si>
   <si>
-    <t>Country specific fishing activity  (like a métier on lower level). The national fishing activity as defined by each country on a lower resolution, e.g. at the gear type level which is the same as metier level 4.</t>
-  </si>
-  <si>
     <t>Country specific national fishing activity</t>
   </si>
   <si>
@@ -2577,9 +2574,6 @@
     <t xml:space="preserve">Area level 3 (level 4 for Baltic, Mediterranean, and Black Seas) in the Data Collection Regulation (EC, 2008a, 2008b). If know, it is possible to declare a detailed, and more than one per sample, compared to the dominant information given in the Landing Event table. </t>
   </si>
   <si>
-    <t xml:space="preserve">Country specific fishing activity  (like a métier on lower level). The national fishing activity as defined by each country on a lower resolution, e.g. at the gear type level which is the same as metier level 4.  If know, it is possible to declare a detailed, and more than one per sample, compared to the dominant information given in the Landing Event table.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fishing activity metier level 5. Level 5 as defined in a fishing activity hierarchic structure in the Data Collection Regulation (EC, 2008a, 2008b).  If know, it is possible to declare a detailed, and more than one per sample, compared to the dominant information given in the Landing Event table.  </t>
   </si>
   <si>
@@ -3074,9 +3068,6 @@
   </si>
   <si>
     <t>Dominant Area level 3 (level 4 for Baltic, Mediterranean, and Black Seas) in the Data Collection Regulation (EC, 2008a, 2008b). Dominant because there potentially could be multiple area.</t>
-  </si>
-  <si>
-    <t>Dominant Country specific fishing activity  (like a métier on lower level). The national fishing activity as defined by each country on a lower resolution, e.g. at the gear type level which is the same as metier level 4.</t>
   </si>
   <si>
     <t>Dominant Fishing activity metier level 5. Level 5 as defined in a fishing activity hierarchic structure in the Data Collection Regulation (EC, 2008a, 2008b).</t>
@@ -3927,6 +3918,51 @@
         <scheme val="minor"/>
       </rPr>
       <t>). (EC, 2006) and later amendments when scale is "EU".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Country specific fishing activity  (like a métier on lower level). The national fishing activity as defined by each country on a lower resolution, e.g. at the gear type level which is the same as metier level 4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each code within this vocabulary should have the relevent ISO_3166 country code pre-pended e.g. "DK_OTB_...".  Countries can request new codes to be added to the list by emailing ICES Data Centre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dominant Country specific fishing activity  (like a métier on lower level). The national fishing activity as defined by each country on a lower resolution, e.g. at the gear type level which is the same as metier level 4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each code within this vocabulary should have the relevent ISO_3166 country code pre-pended e.g. "DK_OTB_...".  Countries can request new codes to be added to the list by emailing ICES Data Centre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Country specific fishing activity  (like a métier on lower level). The national fishing activity as defined by each country on a lower resolution, e.g. at the gear type level which is the same as metier level 4.  If know, it is possible to declare a detailed, and more than one per sample, compared to the dominant information given in the Landing Event table.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each code within this vocabulary should have the relevent ISO_3166 country code pre-pended e.g. "DK_OTB_...".  Countries can request new codes to be added to the list by emailing ICES Data Centre.</t>
     </r>
   </si>
 </sst>
@@ -8829,8 +8865,8 @@
   </sheetPr>
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="F27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8865,7 +8901,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -8898,7 +8934,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>3</v>
@@ -8915,7 +8951,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -8932,7 +8968,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>121</v>
@@ -8951,7 +8987,7 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>155</v>
@@ -8968,7 +9004,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>287</v>
@@ -8987,7 +9023,7 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>167</v>
@@ -9004,7 +9040,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>679</v>
@@ -9023,7 +9059,7 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>467</v>
@@ -9038,7 +9074,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>86</v>
@@ -9057,7 +9093,7 @@
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>157</v>
@@ -9074,7 +9110,7 @@
         <v>266</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>259</v>
@@ -9093,10 +9129,10 @@
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9110,7 +9146,7 @@
         <v>266</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>652</v>
@@ -9129,7 +9165,7 @@
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>674</v>
@@ -9146,10 +9182,10 @@
         <v>266</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>468</v>
@@ -9165,10 +9201,10 @@
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -9214,22 +9250,22 @@
         <v>687</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>682</v>
@@ -9279,7 +9315,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>586</v>
@@ -9295,10 +9331,10 @@
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
@@ -9346,10 +9382,10 @@
         <v>493</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>10</v>
@@ -9459,7 +9495,7 @@
         <v>204</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>722</v>
@@ -9626,10 +9662,10 @@
         <v>11</v>
       </c>
       <c r="J23" s="49" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>198</v>
@@ -9709,13 +9745,13 @@
         <v>17</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>10</v>
@@ -9727,10 +9763,10 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="M26" s="55"/>
       <c r="N26" s="55"/>
@@ -9761,7 +9797,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>201</v>
@@ -9795,7 +9831,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>202</v>
@@ -9811,16 +9847,16 @@
         <v>20</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I29" s="35" t="s">
         <v>11</v>
@@ -9829,10 +9865,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M29" s="70"/>
       <c r="N29" s="70"/>
@@ -9845,13 +9881,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>10</v>
@@ -9863,15 +9899,15 @@
         <v>14</v>
       </c>
       <c r="K30" s="35" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M30" s="55"/>
       <c r="N30" s="55"/>
     </row>
-    <row r="31" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -9882,10 +9918,10 @@
         <v>723</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>10</v>
@@ -9897,7 +9933,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>1007</v>
+        <v>1175</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>719</v>
@@ -9913,13 +9949,13 @@
         <v>23</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>10</v>
@@ -9931,7 +9967,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>172</v>
@@ -9947,13 +9983,13 @@
         <v>24</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H33" s="36" t="s">
         <v>10</v>
@@ -9965,7 +10001,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>173</v>
@@ -9999,7 +10035,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>100</v>
@@ -10031,7 +10067,7 @@
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="L35" s="36" t="s">
         <v>38</v>
@@ -10065,7 +10101,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>39</v>
@@ -10097,7 +10133,7 @@
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="36" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="L37" s="36" t="s">
         <v>174</v>
@@ -10147,13 +10183,13 @@
         <v>30</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>10</v>
@@ -10165,7 +10201,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
@@ -10182,10 +10218,10 @@
         <v>703</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>13</v>
@@ -10212,10 +10248,10 @@
         <v>54</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>187</v>
@@ -10244,10 +10280,10 @@
         <v>55</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H42" s="36" t="s">
         <v>187</v>
@@ -10273,13 +10309,13 @@
         <v>34</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>186</v>
@@ -10289,10 +10325,10 @@
       </c>
       <c r="J43" s="36"/>
       <c r="K43" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
@@ -10308,10 +10344,10 @@
         <v>153</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="H44" s="36" t="s">
         <v>186</v>
@@ -10321,7 +10357,7 @@
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L44" s="36" t="s">
         <v>153</v>
@@ -10387,10 +10423,10 @@
       </c>
       <c r="J46" s="64"/>
       <c r="K46" s="63" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="L46" s="63" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
@@ -10438,10 +10474,10 @@
         <v>327</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>13</v>
@@ -10470,10 +10506,10 @@
         <v>330</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>13</v>
@@ -10499,13 +10535,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="H50" s="36" t="s">
         <v>186</v>
@@ -10515,7 +10551,7 @@
       </c>
       <c r="J50" s="35"/>
       <c r="K50" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L50" s="36" t="s">
         <v>333</v>
@@ -10531,13 +10567,13 @@
         <v>42</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>186</v>
@@ -10547,7 +10583,7 @@
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L51" s="36"/>
       <c r="M51" s="55"/>
@@ -10561,13 +10597,13 @@
         <v>43</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>10</v>
@@ -10579,7 +10615,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L52" s="35"/>
     </row>
@@ -10685,7 +10721,7 @@
     </row>
     <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
@@ -27181,7 +27217,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -27214,7 +27250,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>207</v>
@@ -27231,7 +27267,7 @@
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -27248,7 +27284,7 @@
         <v>264</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>3</v>
@@ -27267,7 +27303,7 @@
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="31" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>205</v>
@@ -27284,7 +27320,7 @@
         <v>264</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>89</v>
@@ -27303,7 +27339,7 @@
       </c>
       <c r="J4" s="31"/>
       <c r="K4" s="31" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>206</v>
@@ -27320,7 +27356,7 @@
         <v>264</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>287</v>
@@ -27339,7 +27375,7 @@
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="L5" s="31"/>
     </row>
@@ -27354,7 +27390,7 @@
         <v>264</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>273</v>
@@ -27373,7 +27409,7 @@
       </c>
       <c r="J6" s="31"/>
       <c r="K6" s="31" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="L6" s="31"/>
     </row>
@@ -27388,7 +27424,7 @@
         <v>264</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>259</v>
@@ -27407,7 +27443,7 @@
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="31" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="L7" s="31"/>
     </row>
@@ -27418,7 +27454,7 @@
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>680</v>
@@ -27437,7 +27473,7 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>681</v>
@@ -27487,13 +27523,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>786</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>787</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>13</v>
@@ -27503,10 +27539,10 @@
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M10" s="67"/>
       <c r="N10" s="67"/>
@@ -27558,7 +27594,7 @@
         <v>664</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>665</v>
@@ -27573,10 +27609,10 @@
         <v>320</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
@@ -27592,13 +27628,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="60" t="s">
+        <v>805</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>806</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="G13" s="60" t="s">
         <v>807</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>808</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>10</v>
@@ -27608,7 +27644,7 @@
       </c>
       <c r="J13" s="53"/>
       <c r="K13" s="76" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="L13" s="76" t="s">
         <v>525</v>
@@ -27630,7 +27666,7 @@
         <v>666</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G14" s="60" t="s">
         <v>668</v>
@@ -27665,10 +27701,10 @@
         <v>494</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>10</v>
@@ -27781,7 +27817,7 @@
         <v>204</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>722</v>
@@ -27801,10 +27837,10 @@
         <v>613</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>10</v>
@@ -27869,10 +27905,10 @@
         <v>126</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>81</v>
@@ -27902,10 +27938,10 @@
         <v>125</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H22" s="53" t="s">
         <v>81</v>
@@ -27932,13 +27968,13 @@
         <v>15</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -27948,10 +27984,10 @@
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M23" s="55"/>
       <c r="N23" s="55"/>
@@ -27968,10 +28004,10 @@
         <v>153</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>186</v>
@@ -27981,7 +28017,7 @@
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>153</v>
@@ -28102,10 +28138,10 @@
         <v>327</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>13</v>
@@ -28135,10 +28171,10 @@
         <v>330</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>13</v>
@@ -28165,13 +28201,13 @@
         <v>22</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>186</v>
@@ -28181,7 +28217,7 @@
       </c>
       <c r="J30" s="35"/>
       <c r="K30" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L30" s="36" t="s">
         <v>333</v>
@@ -28198,13 +28234,13 @@
         <v>23</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>186</v>
@@ -28214,7 +28250,7 @@
       </c>
       <c r="J31" s="35"/>
       <c r="K31" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L31" s="36"/>
       <c r="M31" s="55"/>
@@ -28229,13 +28265,13 @@
         <v>24</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>10</v>
@@ -28247,7 +28283,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L32" s="35"/>
     </row>
@@ -28420,8 +28456,8 @@
   </sheetPr>
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F16"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28454,7 +28490,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>133</v>
@@ -28487,7 +28523,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>652</v>
@@ -28504,7 +28540,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -28518,10 +28554,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>207</v>
@@ -28538,7 +28574,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>224</v>
@@ -28594,13 +28630,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>790</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>791</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>792</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>13</v>
@@ -28610,10 +28646,10 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
@@ -28634,13 +28670,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F6" s="36" t="s">
+        <v>792</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>793</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>794</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>13</v>
@@ -28650,10 +28686,10 @@
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="36" t="s">
+        <v>794</v>
+      </c>
+      <c r="L6" s="36" t="s">
         <v>795</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>796</v>
       </c>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
@@ -28717,10 +28753,10 @@
         <v>495</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="60" t="s">
@@ -28798,13 +28834,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H10" s="60" t="s">
         <v>10</v>
@@ -28816,7 +28852,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>688</v>
@@ -28902,7 +28938,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="L12" s="53" t="s">
         <v>661</v>
@@ -28946,10 +28982,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
@@ -28990,7 +29026,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>213</v>
@@ -29034,7 +29070,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="L15" s="36" t="s">
         <v>214</v>
@@ -29078,7 +29114,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>215</v>
@@ -29122,7 +29158,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>20</v>
@@ -29146,13 +29182,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="79" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G18" s="79" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>10</v>
@@ -29164,10 +29200,10 @@
         <v>14</v>
       </c>
       <c r="K18" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="M18" s="55"/>
       <c r="N18" s="55"/>
@@ -29191,10 +29227,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>10</v>
@@ -29206,7 +29242,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>201</v>
@@ -29233,10 +29269,10 @@
         <v>33</v>
       </c>
       <c r="F20" s="35" t="s">
+        <v>828</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>829</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>830</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>10</v>
@@ -29248,7 +29284,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>202</v>
@@ -29272,16 +29308,16 @@
         <v>18</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>11</v>
@@ -29290,10 +29326,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
@@ -29314,13 +29350,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>10</v>
@@ -29332,10 +29368,10 @@
         <v>14</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M22" s="55"/>
       <c r="N22" s="55"/>
@@ -29348,7 +29384,7 @@
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:22" s="24" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="24" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -29359,10 +29395,10 @@
         <v>723</v>
       </c>
       <c r="F23" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>837</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>838</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>10</v>
@@ -29374,7 +29410,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>842</v>
+        <v>1176</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>719</v>
@@ -29398,13 +29434,13 @@
         <v>21</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>10</v>
@@ -29416,7 +29452,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>172</v>
@@ -29440,13 +29476,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -29458,7 +29494,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L25" s="36" t="s">
         <v>173</v>
@@ -29485,10 +29521,10 @@
         <v>36</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>10</v>
@@ -29500,7 +29536,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>100</v>
@@ -29527,10 +29563,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>13</v>
@@ -29540,7 +29576,7 @@
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="36" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>38</v>
@@ -29567,10 +29603,10 @@
         <v>39</v>
       </c>
       <c r="F28" s="35" t="s">
+        <v>832</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>833</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>834</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>13</v>
@@ -29582,7 +29618,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>39</v>
@@ -29609,10 +29645,10 @@
         <v>41</v>
       </c>
       <c r="F29" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>835</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>836</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>13</v>
@@ -29622,7 +29658,7 @@
       </c>
       <c r="J29" s="36"/>
       <c r="K29" s="36" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L29" s="36" t="s">
         <v>174</v>
@@ -29662,7 +29698,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L30" s="36" t="s">
         <v>216</v>
@@ -29702,7 +29738,7 @@
       </c>
       <c r="J31" s="60"/>
       <c r="K31" s="36" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>217</v>
@@ -29742,7 +29778,7 @@
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="36" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>218</v>
@@ -29769,10 +29805,10 @@
         <v>23</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H33" s="60" t="s">
         <v>186</v>
@@ -29809,10 +29845,10 @@
         <v>25</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H34" s="60" t="s">
         <v>186</v>
@@ -29846,13 +29882,13 @@
         <v>32</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>186</v>
@@ -29862,10 +29898,10 @@
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -29889,10 +29925,10 @@
         <v>153</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>186</v>
@@ -29902,7 +29938,7 @@
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>153</v>
@@ -29984,7 +30020,7 @@
       </c>
       <c r="J38" s="64"/>
       <c r="K38" s="63" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L38" s="63" t="s">
         <v>708</v>
@@ -30066,7 +30102,7 @@
         <v>204</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>722</v>
@@ -30090,13 +30126,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>10</v>
@@ -30108,7 +30144,7 @@
         <v>14</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L41" s="35"/>
     </row>
@@ -30138,7 +30174,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="L42" s="36" t="s">
         <v>334</v>
@@ -30180,7 +30216,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="60" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L43" s="60" t="s">
         <v>335</v>
@@ -30220,7 +30256,7 @@
       </c>
       <c r="J44" s="60"/>
       <c r="K44" s="36" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="L44" s="36" t="s">
         <v>217</v>
@@ -30260,7 +30296,7 @@
       </c>
       <c r="J45" s="60"/>
       <c r="K45" s="36" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="L45" s="36" t="s">
         <v>218</v>
@@ -30300,7 +30336,7 @@
       </c>
       <c r="J46" s="60"/>
       <c r="K46" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L46" s="36" t="s">
         <v>631</v>
@@ -30698,7 +30734,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -30731,7 +30767,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>295</v>
@@ -30748,7 +30784,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -30765,7 +30801,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>652</v>
@@ -30782,7 +30818,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>228</v>
@@ -30923,10 +30959,10 @@
         <v>655</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>10</v>
@@ -31002,7 +31038,7 @@
         <v>204</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>722</v>
@@ -31016,13 +31052,13 @@
         <v>8</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F11" s="60" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>1042</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>1045</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>186</v>
@@ -31032,7 +31068,7 @@
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L11" s="36"/>
     </row>
@@ -31044,13 +31080,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>10</v>
@@ -31062,7 +31098,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="81" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="L12" s="36"/>
     </row>
@@ -31113,7 +31149,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -31146,7 +31182,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>4</v>
@@ -31165,7 +31201,7 @@
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -31182,7 +31218,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>226</v>
@@ -31201,7 +31237,7 @@
       </c>
       <c r="J3" s="32"/>
       <c r="K3" s="27" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>228</v>
@@ -31218,7 +31254,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>295</v>
@@ -31237,7 +31273,7 @@
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>471</v>
@@ -31283,13 +31319,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>13</v>
@@ -31299,7 +31335,7 @@
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="36" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>231</v>
@@ -31346,10 +31382,10 @@
         <v>496</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>10</v>
@@ -31393,7 +31429,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="L9" s="60" t="s">
         <v>246</v>
@@ -31437,13 +31473,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="60" t="s">
+        <v>808</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>809</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="G11" s="60" t="s">
         <v>810</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>811</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>10</v>
@@ -31455,10 +31491,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="L11" s="60" t="s">
         <v>812</v>
-      </c>
-      <c r="L11" s="60" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -31504,10 +31540,10 @@
         <v>655</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="G13" s="60" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H13" s="60" t="s">
         <v>10</v>
@@ -31536,10 +31572,10 @@
         <v>239</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H14" s="60" t="s">
         <v>13</v>
@@ -31566,10 +31602,10 @@
         <v>240</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H15" s="60" t="s">
         <v>13</v>
@@ -31593,13 +31629,13 @@
         <v>12</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -31609,10 +31645,10 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
@@ -31626,10 +31662,10 @@
         <v>153</v>
       </c>
       <c r="F17" s="35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G17" s="36" t="s">
         <v>1057</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>1060</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>186</v>
@@ -31639,7 +31675,7 @@
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>153</v>
@@ -31733,7 +31769,7 @@
         <v>204</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>722</v>
@@ -31750,7 +31786,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31784,7 +31820,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -31817,7 +31853,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>134</v>
@@ -31834,7 +31870,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -31897,7 +31933,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>58</v>
@@ -31932,10 +31968,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -31985,10 +32021,10 @@
         <v>135</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>615</v>
@@ -32645,7 +32681,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -32678,7 +32714,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>259</v>
@@ -32695,7 +32731,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -32712,10 +32748,10 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>379</v>
@@ -32729,7 +32765,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>106</v>
@@ -32746,7 +32782,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>130</v>
@@ -32763,7 +32799,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>677</v>
@@ -32780,7 +32816,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>336</v>
@@ -32797,7 +32833,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>678</v>
@@ -32843,13 +32879,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>775</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>776</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>13</v>
@@ -32859,10 +32895,10 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
@@ -32940,10 +32976,10 @@
         <v>250</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>10</v>
@@ -33047,7 +33083,7 @@
         <v>204</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L13" s="36" t="s">
         <v>722</v>
@@ -33061,13 +33097,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>13</v>
@@ -33094,10 +33130,10 @@
         <v>77</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>13</v>
@@ -33121,13 +33157,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -33137,10 +33173,10 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -33154,10 +33190,10 @@
         <v>153</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>186</v>
@@ -33167,7 +33203,7 @@
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>153</v>
@@ -33229,10 +33265,10 @@
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -33273,13 +33309,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>13</v>
@@ -33306,10 +33342,10 @@
         <v>527</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>13</v>
@@ -33333,13 +33369,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -33349,7 +33385,7 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>333</v>
@@ -33363,13 +33399,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>186</v>
@@ -33379,7 +33415,7 @@
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L24" s="36"/>
     </row>
@@ -33391,13 +33427,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -33409,7 +33445,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L25" s="35"/>
     </row>
@@ -33502,7 +33538,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -33535,7 +33571,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>130</v>
@@ -33554,7 +33590,7 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -33571,10 +33607,10 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>379</v>
@@ -33590,7 +33626,7 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>106</v>
@@ -33636,13 +33672,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>778</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>779</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>13</v>
@@ -33652,10 +33688,10 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
@@ -33696,7 +33732,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>489</v>
@@ -33711,13 +33747,13 @@
         <v>11</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
@@ -33728,13 +33764,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -33746,7 +33782,7 @@
         <v>115</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L8" s="63" t="s">
         <v>182</v>
@@ -33763,10 +33799,10 @@
         <v>491</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>10</v>
@@ -33870,7 +33906,7 @@
         <v>204</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>722</v>
@@ -33884,13 +33920,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>13</v>
@@ -33917,10 +33953,10 @@
         <v>78</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>13</v>
@@ -33944,13 +33980,13 @@
         <v>12</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>186</v>
@@ -33960,10 +33996,10 @@
       </c>
       <c r="J15" s="36"/>
       <c r="K15" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
@@ -33974,13 +34010,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -33990,7 +34026,7 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>153</v>
@@ -34052,7 +34088,7 @@
       </c>
       <c r="J18" s="64"/>
       <c r="K18" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L18" s="63" t="s">
         <v>708</v>
@@ -34099,10 +34135,10 @@
         <v>327</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>13</v>
@@ -34129,10 +34165,10 @@
         <v>330</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>13</v>
@@ -34156,13 +34192,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>186</v>
@@ -34172,7 +34208,7 @@
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>333</v>
@@ -34186,13 +34222,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -34202,7 +34238,7 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L23" s="36"/>
     </row>
@@ -34214,13 +34250,13 @@
         <v>21</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>10</v>
@@ -34232,7 +34268,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L24" s="35"/>
     </row>
@@ -34359,7 +34395,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -34392,10 +34428,10 @@
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="28" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>379</v>
@@ -34409,7 +34445,7 @@
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -34426,7 +34462,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>134</v>
@@ -34443,7 +34479,7 @@
       </c>
       <c r="J3" s="28"/>
       <c r="K3" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="L3" s="28" t="s">
         <v>105</v>
@@ -34504,10 +34540,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>145</v>
@@ -34590,7 +34626,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -34623,7 +34659,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>336</v>
@@ -34642,7 +34678,7 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -34659,10 +34695,10 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>379</v>
@@ -34678,7 +34714,7 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>106</v>
@@ -34695,7 +34731,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>260</v>
@@ -34714,7 +34750,7 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>149</v>
@@ -34731,7 +34767,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>259</v>
@@ -34750,7 +34786,7 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>148</v>
@@ -34796,13 +34832,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>798</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>799</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>13</v>
@@ -34812,10 +34848,10 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
@@ -34835,16 +34871,16 @@
         <v>686</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>682</v>
@@ -34891,10 +34927,10 @@
         <v>152</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H10" s="36" t="s">
         <v>10</v>
@@ -34998,7 +35034,7 @@
         <v>204</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L13" s="36" t="s">
         <v>722</v>
@@ -35015,10 +35051,10 @@
         <v>85</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>81</v>
@@ -35045,10 +35081,10 @@
         <v>151</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>81</v>
@@ -35072,13 +35108,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -35088,10 +35124,10 @@
       </c>
       <c r="J16" s="36"/>
       <c r="K16" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -35105,10 +35141,10 @@
         <v>153</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>186</v>
@@ -35118,7 +35154,7 @@
       </c>
       <c r="J17" s="36"/>
       <c r="K17" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>153</v>
@@ -35180,10 +35216,10 @@
       </c>
       <c r="J19" s="64"/>
       <c r="K19" s="63" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L19" s="63" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -35229,10 +35265,10 @@
         <v>327</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>13</v>
@@ -35259,10 +35295,10 @@
         <v>330</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>13</v>
@@ -35286,13 +35322,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -35302,7 +35338,7 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>333</v>
@@ -35316,13 +35352,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>186</v>
@@ -35332,7 +35368,7 @@
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L24" s="36"/>
     </row>
@@ -35344,13 +35380,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>474</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -35362,7 +35398,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L25" s="35"/>
     </row>
@@ -35400,7 +35436,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -35432,7 +35468,7 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -35465,7 +35501,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -35498,7 +35534,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>287</v>
@@ -35515,7 +35551,7 @@
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -35530,7 +35566,7 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>110</v>
@@ -35547,7 +35583,7 @@
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>155</v>
@@ -35562,7 +35598,7 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>342</v>
@@ -35579,7 +35615,7 @@
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="27" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>156</v>
@@ -35594,7 +35630,7 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>113</v>
@@ -35613,7 +35649,7 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="L5" s="27" t="s">
         <v>157</v>
@@ -35628,10 +35664,10 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>379</v>
@@ -35647,7 +35683,7 @@
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>106</v>
@@ -35662,7 +35698,7 @@
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>127</v>
@@ -35681,7 +35717,7 @@
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L7" s="27" t="s">
         <v>675</v>
@@ -35696,7 +35732,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>259</v>
@@ -35715,7 +35751,7 @@
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="L8" s="27" t="s">
         <v>676</v>
@@ -35762,22 +35798,22 @@
         <v>687</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="L10" s="36"/>
     </row>
@@ -35791,13 +35827,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F11" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>773</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>774</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>13</v>
@@ -35807,10 +35843,10 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
@@ -35854,10 +35890,10 @@
         <v>165</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36" t="s">
@@ -35959,7 +35995,7 @@
         <v>204</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>722</v>
@@ -35991,10 +36027,10 @@
         <v>204</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
@@ -36023,7 +36059,7 @@
         <v>59</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>158</v>
@@ -36226,10 +36262,10 @@
         <v>288</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>81</v>
@@ -36256,10 +36292,10 @@
         <v>289</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>81</v>
@@ -36269,10 +36305,10 @@
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="49" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -36283,13 +36319,13 @@
         <v>19</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>186</v>
@@ -36299,10 +36335,10 @@
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -36316,10 +36352,10 @@
         <v>153</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>186</v>
@@ -36329,7 +36365,7 @@
       </c>
       <c r="J28" s="36"/>
       <c r="K28" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>153</v>
@@ -36391,7 +36427,7 @@
       </c>
       <c r="J30" s="64"/>
       <c r="K30" s="63" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L30" s="63" t="s">
         <v>708</v>
@@ -36438,10 +36474,10 @@
         <v>345</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>13</v>
@@ -36468,10 +36504,10 @@
         <v>346</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>13</v>
@@ -36495,13 +36531,13 @@
         <v>26</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="H34" s="36" t="s">
         <v>186</v>
@@ -36511,7 +36547,7 @@
       </c>
       <c r="J34" s="35"/>
       <c r="K34" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>333</v>
@@ -36525,13 +36561,13 @@
         <v>27</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>186</v>
@@ -36541,7 +36577,7 @@
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L35" s="36"/>
     </row>
@@ -36553,13 +36589,13 @@
         <v>28</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>10</v>
@@ -36571,7 +36607,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L36" s="35"/>
     </row>
@@ -36623,7 +36659,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
@@ -36683,8 +36719,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36718,7 +36754,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -36751,7 +36787,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>127</v>
@@ -36768,10 +36804,10 @@
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
@@ -36785,7 +36821,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>287</v>
@@ -36802,10 +36838,10 @@
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="27" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
@@ -36817,10 +36853,10 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>379</v>
@@ -36836,10 +36872,10 @@
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -36914,13 +36950,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F7" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>771</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>772</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>13</v>
@@ -36930,7 +36966,7 @@
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L7" s="36"/>
       <c r="M7" s="70"/>
@@ -36946,10 +36982,10 @@
         <v>176</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35" t="s">
@@ -37054,7 +37090,7 @@
         <v>204</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>722</v>
@@ -37153,7 +37189,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>565</v>
@@ -37168,7 +37204,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>534</v>
@@ -37178,14 +37214,14 @@
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="M15" s="70"/>
     </row>
@@ -37197,7 +37233,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>535</v>
@@ -37213,10 +37249,10 @@
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M16" s="70"/>
     </row>
@@ -37228,7 +37264,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>536</v>
@@ -37242,10 +37278,10 @@
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M17" s="70"/>
     </row>
@@ -37257,7 +37293,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>537</v>
@@ -37271,10 +37307,10 @@
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M18" s="70"/>
     </row>
@@ -37302,7 +37338,7 @@
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="36" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>91</v>
@@ -37333,7 +37369,7 @@
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="36" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>92</v>
@@ -37364,7 +37400,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="36" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="L21" s="36" t="s">
         <v>93</v>
@@ -37395,7 +37431,7 @@
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="36" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>94</v>
@@ -37426,7 +37462,7 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>95</v>
@@ -37441,13 +37477,13 @@
         <v>20</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>10</v>
@@ -37459,10 +37495,10 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="M24" s="70"/>
     </row>
@@ -37492,7 +37528,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L25" s="36" t="s">
         <v>227</v>
@@ -37525,7 +37561,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>177</v>
@@ -37540,16 +37576,16 @@
         <v>23</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I27" s="35" t="s">
         <v>11</v>
@@ -37558,10 +37594,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M27" s="70"/>
     </row>
@@ -37573,13 +37609,13 @@
         <v>24</v>
       </c>
       <c r="E28" s="35" t="s">
+        <v>975</v>
+      </c>
+      <c r="F28" s="35" t="s">
         <v>977</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>979</v>
-      </c>
       <c r="G28" s="35" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>10</v>
@@ -37591,10 +37627,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M28" s="70"/>
     </row>
@@ -37660,7 +37696,7 @@
       </c>
       <c r="M30" s="70"/>
     </row>
-    <row r="31" spans="1:13" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -37686,10 +37722,10 @@
         <v>14</v>
       </c>
       <c r="K31" s="36" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L31" s="36" t="s">
         <v>726</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>727</v>
       </c>
       <c r="M31" s="70"/>
     </row>
@@ -37701,7 +37737,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>555</v>
@@ -37734,7 +37770,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>556</v>
@@ -37816,10 +37852,10 @@
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="36" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="M35" s="70"/>
     </row>
@@ -37928,13 +37964,13 @@
         <v>35</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>10</v>
@@ -37946,7 +37982,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
@@ -37975,7 +38011,7 @@
       </c>
       <c r="J40" s="35"/>
       <c r="K40" s="36" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="L40" s="36"/>
       <c r="M40" s="70"/>
@@ -38006,10 +38042,10 @@
         <v>14</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M41" s="55"/>
     </row>
@@ -38024,10 +38060,10 @@
         <v>48</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>13</v>
@@ -38055,10 +38091,10 @@
         <v>49</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>13</v>
@@ -38068,10 +38104,10 @@
       </c>
       <c r="J43" s="35"/>
       <c r="K43" s="36" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="M43" s="70"/>
     </row>
@@ -38083,13 +38119,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="H44" s="36" t="s">
         <v>186</v>
@@ -38099,10 +38135,10 @@
       </c>
       <c r="J44" s="36"/>
       <c r="K44" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L44" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M44" s="55"/>
     </row>
@@ -38117,10 +38153,10 @@
         <v>153</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="H45" s="36" t="s">
         <v>186</v>
@@ -38130,7 +38166,7 @@
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L45" s="36" t="s">
         <v>153</v>
@@ -38194,7 +38230,7 @@
       </c>
       <c r="J47" s="64"/>
       <c r="K47" s="63" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L47" s="63" t="s">
         <v>708</v>
@@ -38243,10 +38279,10 @@
         <v>327</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>13</v>
@@ -38274,10 +38310,10 @@
         <v>330</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>13</v>
@@ -38302,13 +38338,13 @@
         <v>47</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>186</v>
@@ -38318,7 +38354,7 @@
       </c>
       <c r="J51" s="35"/>
       <c r="K51" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L51" s="36" t="s">
         <v>333</v>
@@ -38333,13 +38369,13 @@
         <v>48</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>186</v>
@@ -38349,7 +38385,7 @@
       </c>
       <c r="J52" s="35"/>
       <c r="K52" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L52" s="36"/>
       <c r="M52" s="55"/>
@@ -38362,13 +38398,13 @@
         <v>49</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H53" s="36" t="s">
         <v>10</v>
@@ -38380,7 +38416,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L53" s="35"/>
       <c r="M53" s="72"/>
@@ -38557,7 +38593,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -38590,7 +38626,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>273</v>
@@ -38607,7 +38643,7 @@
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>136</v>
@@ -38621,13 +38657,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>379</v>
@@ -38641,7 +38677,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
       <c r="K3" s="27" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>180</v>
@@ -38689,13 +38725,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F5" s="36" t="s">
+        <v>768</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>769</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>770</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>13</v>
@@ -38705,7 +38741,7 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L5" s="36"/>
     </row>
@@ -38719,7 +38755,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>497</v>
@@ -38737,7 +38773,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>505</v>
@@ -38783,13 +38819,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -38798,10 +38834,10 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L8" s="63" t="s">
         <v>181</v>
@@ -38885,10 +38921,10 @@
         <v>492</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -38992,7 +39028,7 @@
         <v>204</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="L14" s="36" t="s">
         <v>722</v>
@@ -39071,10 +39107,10 @@
         <v>271</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>187</v>
@@ -39101,10 +39137,10 @@
         <v>272</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>187</v>
@@ -39128,13 +39164,13 @@
         <v>16</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>186</v>
@@ -39144,10 +39180,10 @@
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -39161,10 +39197,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>186</v>
@@ -39174,7 +39210,7 @@
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="36" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>153</v>
@@ -39315,10 +39351,10 @@
         <v>327</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>13</v>
@@ -39345,10 +39381,10 @@
         <v>330</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>13</v>
@@ -39372,13 +39408,13 @@
         <v>24</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>186</v>
@@ -39388,7 +39424,7 @@
       </c>
       <c r="J27" s="35"/>
       <c r="K27" s="36" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>333</v>
@@ -39402,13 +39438,13 @@
         <v>25</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F28" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>1095</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>1098</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>186</v>
@@ -39418,7 +39454,7 @@
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L28" s="36"/>
     </row>
@@ -39430,13 +39466,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>10</v>
@@ -39448,7 +39484,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L29" s="35"/>
     </row>
@@ -39495,15 +39531,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -39675,6 +39702,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -39688,14 +39724,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39709,6 +39737,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
@@ -3009,9 +3009,6 @@
   </si>
   <si>
     <t xml:space="preserve">String </t>
-  </si>
-  <si>
-    <t>GSA subarea, mandatory for FAO area 37 (Mediterranean and Black Sea). (Use 'NA' if not fishing in the area)</t>
   </si>
   <si>
     <t>FTencryptedVesselCode</t>
@@ -3963,6 +3960,30 @@
         <scheme val="minor"/>
       </rPr>
       <t>Each code within this vocabulary should have the relevent ISO_3166 country code pre-pended e.g. "DK_OTB_...".  Countries can request new codes to be added to the list by emailing ICES Data Centre.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GSA subarea, mandatory for FAO area 37 (Mediterranean and Black Sea). (Use '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NotApplicable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' if not fishing in the area)</t>
     </r>
   </si>
 </sst>
@@ -8865,8 +8886,8 @@
   </sheetPr>
   <dimension ref="A1:XFD61"/>
   <sheetViews>
-    <sheetView topLeftCell="F27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="H27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8901,7 +8922,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -8934,7 +8955,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>3</v>
@@ -8968,7 +8989,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>121</v>
@@ -9004,7 +9025,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>287</v>
@@ -9040,7 +9061,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>679</v>
@@ -9074,7 +9095,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>86</v>
@@ -9110,7 +9131,7 @@
         <v>266</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>259</v>
@@ -9146,7 +9167,7 @@
         <v>266</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>652</v>
@@ -9182,7 +9203,7 @@
         <v>266</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>972</v>
@@ -9250,22 +9271,22 @@
         <v>687</v>
       </c>
       <c r="F11" s="36" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>1068</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>1069</v>
-      </c>
       <c r="H11" s="36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L11" s="36" t="s">
         <v>682</v>
@@ -9662,10 +9683,10 @@
         <v>11</v>
       </c>
       <c r="J23" s="49" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>1152</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>1153</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>198</v>
@@ -9748,10 +9769,10 @@
         <v>965</v>
       </c>
       <c r="F26" s="35" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>1071</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>1072</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>10</v>
@@ -9763,7 +9784,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>967</v>
@@ -9797,7 +9818,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>201</v>
@@ -9831,7 +9852,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L28" s="36" t="s">
         <v>202</v>
@@ -9850,10 +9871,10 @@
         <v>984</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>985</v>
@@ -9865,10 +9886,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>986</v>
+        <v>1176</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>986</v>
+        <v>1176</v>
       </c>
       <c r="M29" s="70"/>
       <c r="N29" s="70"/>
@@ -9933,7 +9954,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>719</v>
@@ -9967,7 +9988,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>172</v>
@@ -9983,7 +10004,7 @@
         <v>24</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>758</v>
@@ -10001,7 +10022,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L33" s="36" t="s">
         <v>173</v>
@@ -10035,7 +10056,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L34" s="36" t="s">
         <v>100</v>
@@ -10067,7 +10088,7 @@
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L35" s="36" t="s">
         <v>38</v>
@@ -10101,7 +10122,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L36" s="36" t="s">
         <v>39</v>
@@ -10133,7 +10154,7 @@
       </c>
       <c r="J37" s="36"/>
       <c r="K37" s="36" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L37" s="36" t="s">
         <v>174</v>
@@ -10183,10 +10204,10 @@
         <v>30</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>760</v>
@@ -10201,7 +10222,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
@@ -10312,10 +10333,10 @@
         <v>733</v>
       </c>
       <c r="F43" s="35" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>1073</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>1074</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>186</v>
@@ -10344,10 +10365,10 @@
         <v>153</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H44" s="36" t="s">
         <v>186</v>
@@ -10423,10 +10444,10 @@
       </c>
       <c r="J46" s="64"/>
       <c r="K46" s="63" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L46" s="63" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
@@ -10538,10 +10559,10 @@
         <v>825</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H50" s="36" t="s">
         <v>186</v>
@@ -10570,10 +10591,10 @@
         <v>826</v>
       </c>
       <c r="F51" s="35" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G51" s="36" t="s">
         <v>1077</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>1078</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>186</v>
@@ -10600,10 +10621,10 @@
         <v>815</v>
       </c>
       <c r="F52" s="35" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>1030</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>1031</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>10</v>
@@ -10721,7 +10742,7 @@
     </row>
     <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A57" s="83" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B57" s="83"/>
       <c r="C57" s="83"/>
@@ -27217,7 +27238,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -27250,7 +27271,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>207</v>
@@ -27284,7 +27305,7 @@
         <v>264</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>3</v>
@@ -27320,7 +27341,7 @@
         <v>264</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>89</v>
@@ -27356,7 +27377,7 @@
         <v>264</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>287</v>
@@ -27390,7 +27411,7 @@
         <v>264</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>273</v>
@@ -27424,7 +27445,7 @@
         <v>264</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>259</v>
@@ -27454,7 +27475,7 @@
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>680</v>
@@ -27473,7 +27494,7 @@
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="31" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>681</v>
@@ -27594,7 +27615,7 @@
         <v>664</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>665</v>
@@ -27644,7 +27665,7 @@
       </c>
       <c r="J13" s="53"/>
       <c r="K13" s="76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L13" s="76" t="s">
         <v>525</v>
@@ -27666,7 +27687,7 @@
         <v>666</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G14" s="60" t="s">
         <v>668</v>
@@ -27837,10 +27858,10 @@
         <v>613</v>
       </c>
       <c r="F19" s="53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G19" s="53" t="s">
         <v>1107</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>1108</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>10</v>
@@ -27971,10 +27992,10 @@
         <v>733</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -28004,10 +28025,10 @@
         <v>153</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>1113</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>1114</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>186</v>
@@ -28204,10 +28225,10 @@
         <v>825</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>186</v>
@@ -28237,10 +28258,10 @@
         <v>826</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H31" s="36" t="s">
         <v>186</v>
@@ -28268,10 +28289,10 @@
         <v>815</v>
       </c>
       <c r="F32" s="35" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>1032</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>1033</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>10</v>
@@ -28456,8 +28477,8 @@
   </sheetPr>
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="F18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28490,7 +28511,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>133</v>
@@ -28523,7 +28544,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>652</v>
@@ -28557,7 +28578,7 @@
         <v>767</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>207</v>
@@ -28670,7 +28691,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>792</v>
@@ -28834,13 +28855,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="60" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>1134</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="G10" s="60" t="s">
         <v>1135</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>1136</v>
       </c>
       <c r="H10" s="60" t="s">
         <v>10</v>
@@ -28852,7 +28873,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="L10" s="36" t="s">
         <v>688</v>
@@ -28938,7 +28959,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="53" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L12" s="53" t="s">
         <v>661</v>
@@ -29070,7 +29091,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L15" s="36" t="s">
         <v>214</v>
@@ -29114,7 +29135,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L16" s="36" t="s">
         <v>215</v>
@@ -29158,7 +29179,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>20</v>
@@ -29185,10 +29206,10 @@
         <v>965</v>
       </c>
       <c r="F18" s="79" t="s">
+        <v>992</v>
+      </c>
+      <c r="G18" s="79" t="s">
         <v>993</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>994</v>
       </c>
       <c r="H18" s="36" t="s">
         <v>10</v>
@@ -29284,7 +29305,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>202</v>
@@ -29311,10 +29332,10 @@
         <v>984</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>985</v>
@@ -29326,10 +29347,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>986</v>
+        <v>1176</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>986</v>
+        <v>1176</v>
       </c>
       <c r="M21" s="55"/>
       <c r="N21" s="55"/>
@@ -29410,7 +29431,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>719</v>
@@ -29738,7 +29759,7 @@
       </c>
       <c r="J31" s="60"/>
       <c r="K31" s="36" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>217</v>
@@ -29778,7 +29799,7 @@
       </c>
       <c r="J32" s="60"/>
       <c r="K32" s="36" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>218</v>
@@ -29885,10 +29906,10 @@
         <v>733</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>186</v>
@@ -29925,10 +29946,10 @@
         <v>153</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>186</v>
@@ -30129,10 +30150,10 @@
         <v>815</v>
       </c>
       <c r="F41" s="35" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>1034</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>1035</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>10</v>
@@ -30256,7 +30277,7 @@
       </c>
       <c r="J44" s="60"/>
       <c r="K44" s="36" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L44" s="36" t="s">
         <v>217</v>
@@ -30296,7 +30317,7 @@
       </c>
       <c r="J45" s="60"/>
       <c r="K45" s="36" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L45" s="36" t="s">
         <v>218</v>
@@ -30734,7 +30755,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -30767,7 +30788,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>295</v>
@@ -30801,7 +30822,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>652</v>
@@ -30959,10 +30980,10 @@
         <v>655</v>
       </c>
       <c r="F8" s="60" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>1037</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>1038</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>10</v>
@@ -31055,10 +31076,10 @@
         <v>730</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>186</v>
@@ -31083,10 +31104,10 @@
         <v>732</v>
       </c>
       <c r="F12" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>1040</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>1041</v>
       </c>
       <c r="H12" s="36" t="s">
         <v>10</v>
@@ -31149,7 +31170,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -31182,7 +31203,7 @@
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>4</v>
@@ -31218,7 +31239,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>226</v>
@@ -31254,7 +31275,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>295</v>
@@ -31319,13 +31340,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>13</v>
@@ -31335,7 +31356,7 @@
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>231</v>
@@ -31429,7 +31450,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L9" s="60" t="s">
         <v>246</v>
@@ -31540,10 +31561,10 @@
         <v>655</v>
       </c>
       <c r="F13" s="60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>1052</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>1053</v>
       </c>
       <c r="H13" s="60" t="s">
         <v>10</v>
@@ -31632,10 +31653,10 @@
         <v>733</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>1055</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>1056</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -31662,10 +31683,10 @@
         <v>153</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>186</v>
@@ -31785,7 +31806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -31820,7 +31841,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -31853,7 +31874,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>134</v>
@@ -31968,10 +31989,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="54" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L5" s="54" t="s">
         <v>1143</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -32681,7 +32702,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -32714,7 +32735,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>259</v>
@@ -32748,7 +32769,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>847</v>
@@ -32782,7 +32803,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>130</v>
@@ -32816,7 +32837,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>336</v>
@@ -33160,10 +33181,10 @@
         <v>733</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -33190,10 +33211,10 @@
         <v>153</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>186</v>
@@ -33265,10 +33286,10 @@
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -33372,10 +33393,10 @@
         <v>825</v>
       </c>
       <c r="F23" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>1117</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>1118</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -33402,10 +33423,10 @@
         <v>826</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>186</v>
@@ -33430,10 +33451,10 @@
         <v>815</v>
       </c>
       <c r="F25" s="35" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G25" s="35" t="s">
         <v>1024</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>1025</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>10</v>
@@ -33538,7 +33559,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -33571,7 +33592,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>130</v>
@@ -33607,7 +33628,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>847</v>
@@ -33767,10 +33788,10 @@
         <v>745</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -33983,10 +34004,10 @@
         <v>733</v>
       </c>
       <c r="F15" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>1084</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>1085</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>186</v>
@@ -34013,10 +34034,10 @@
         <v>734</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -34195,10 +34216,10 @@
         <v>825</v>
       </c>
       <c r="F22" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>1088</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>1089</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>186</v>
@@ -34225,10 +34246,10 @@
         <v>826</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -34253,10 +34274,10 @@
         <v>815</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>1026</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>1027</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>10</v>
@@ -34395,7 +34416,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -34428,7 +34449,7 @@
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>847</v>
@@ -34462,7 +34483,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>134</v>
@@ -34540,10 +34561,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>145</v>
@@ -34626,7 +34647,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -34659,7 +34680,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>336</v>
@@ -34695,7 +34716,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>847</v>
@@ -34731,7 +34752,7 @@
         <v>266</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>260</v>
@@ -34767,7 +34788,7 @@
         <v>266</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>259</v>
@@ -34871,16 +34892,16 @@
         <v>686</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="L8" s="36" t="s">
         <v>682</v>
@@ -35111,10 +35132,10 @@
         <v>733</v>
       </c>
       <c r="F16" s="35" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G16" s="35" t="s">
         <v>1125</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>1126</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>186</v>
@@ -35141,10 +35162,10 @@
         <v>153</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>186</v>
@@ -35325,10 +35346,10 @@
         <v>825</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>186</v>
@@ -35355,10 +35376,10 @@
         <v>826</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>1129</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>1130</v>
       </c>
       <c r="H24" s="36" t="s">
         <v>186</v>
@@ -35436,7 +35457,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -35501,7 +35522,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -35534,7 +35555,7 @@
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>287</v>
@@ -35566,7 +35587,7 @@
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>110</v>
@@ -35598,7 +35619,7 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>342</v>
@@ -35630,7 +35651,7 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>113</v>
@@ -35664,7 +35685,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>847</v>
@@ -35698,7 +35719,7 @@
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>127</v>
@@ -35732,7 +35753,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>259</v>
@@ -35798,22 +35819,22 @@
         <v>687</v>
       </c>
       <c r="F10" s="36" t="s">
+        <v>986</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>987</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>988</v>
-      </c>
       <c r="H10" s="36" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="L10" s="36"/>
     </row>
@@ -36027,10 +36048,10 @@
         <v>204</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
@@ -36059,7 +36080,7 @@
         <v>59</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L18" s="36" t="s">
         <v>158</v>
@@ -36305,10 +36326,10 @@
       </c>
       <c r="J26" s="36"/>
       <c r="K26" s="49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="L26" s="49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -36322,10 +36343,10 @@
         <v>733</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>186</v>
@@ -36352,10 +36373,10 @@
         <v>153</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>186</v>
@@ -36534,10 +36555,10 @@
         <v>825</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H34" s="36" t="s">
         <v>186</v>
@@ -36564,10 +36585,10 @@
         <v>826</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>186</v>
@@ -36592,10 +36613,10 @@
         <v>815</v>
       </c>
       <c r="F36" s="35" t="s">
+        <v>988</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>989</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>990</v>
       </c>
       <c r="H36" s="36" t="s">
         <v>10</v>
@@ -36659,7 +36680,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="83" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
@@ -36719,8 +36740,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="F25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36754,7 +36775,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -36787,7 +36808,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>127</v>
@@ -36821,7 +36842,7 @@
         <v>266</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>287</v>
@@ -36853,7 +36874,7 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>847</v>
@@ -37218,10 +37239,10 @@
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="M15" s="70"/>
     </row>
@@ -37338,7 +37359,7 @@
       </c>
       <c r="J19" s="35"/>
       <c r="K19" s="36" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="L19" s="36" t="s">
         <v>91</v>
@@ -37369,7 +37390,7 @@
       </c>
       <c r="J20" s="35"/>
       <c r="K20" s="36" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="L20" s="36" t="s">
         <v>92</v>
@@ -37400,7 +37421,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="36" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="L21" s="36" t="s">
         <v>93</v>
@@ -37431,7 +37452,7 @@
       </c>
       <c r="J22" s="35"/>
       <c r="K22" s="36" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>94</v>
@@ -37462,7 +37483,7 @@
       </c>
       <c r="J23" s="35"/>
       <c r="K23" s="36" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L23" s="36" t="s">
         <v>95</v>
@@ -37480,10 +37501,10 @@
         <v>965</v>
       </c>
       <c r="F24" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>995</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>996</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>10</v>
@@ -37495,7 +37516,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="L24" s="36" t="s">
         <v>967</v>
@@ -37528,7 +37549,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="L25" s="36" t="s">
         <v>227</v>
@@ -37561,7 +37582,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L26" s="36" t="s">
         <v>177</v>
@@ -37579,10 +37600,10 @@
         <v>984</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>985</v>
@@ -37594,10 +37615,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>986</v>
+        <v>1176</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>986</v>
+        <v>1176</v>
       </c>
       <c r="M27" s="70"/>
     </row>
@@ -37722,7 +37743,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="L31" s="36" t="s">
         <v>726</v>
@@ -37852,10 +37873,10 @@
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="36" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="M35" s="70"/>
     </row>
@@ -37964,13 +37985,13 @@
         <v>35</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>735</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>10</v>
@@ -37982,7 +38003,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="70"/>
@@ -38011,7 +38032,7 @@
       </c>
       <c r="J40" s="35"/>
       <c r="K40" s="36" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="L40" s="36"/>
       <c r="M40" s="70"/>
@@ -38104,10 +38125,10 @@
       </c>
       <c r="J43" s="35"/>
       <c r="K43" s="36" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="M43" s="70"/>
     </row>
@@ -38122,10 +38143,10 @@
         <v>733</v>
       </c>
       <c r="F44" s="35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>1044</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>1045</v>
       </c>
       <c r="H44" s="36" t="s">
         <v>186</v>
@@ -38153,10 +38174,10 @@
         <v>153</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H45" s="36" t="s">
         <v>186</v>
@@ -38341,10 +38362,10 @@
         <v>825</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H51" s="36" t="s">
         <v>186</v>
@@ -38372,10 +38393,10 @@
         <v>826</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H52" s="36" t="s">
         <v>186</v>
@@ -38401,10 +38422,10 @@
         <v>815</v>
       </c>
       <c r="F53" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>991</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>992</v>
       </c>
       <c r="H53" s="36" t="s">
         <v>10</v>
@@ -38593,7 +38614,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="84" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>133</v>
@@ -38626,7 +38647,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>273</v>
@@ -38660,7 +38681,7 @@
         <v>767</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>847</v>
@@ -38773,7 +38794,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L6" s="36" t="s">
         <v>505</v>
@@ -39167,10 +39188,10 @@
         <v>733</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>186</v>
@@ -39197,10 +39218,10 @@
         <v>153</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>186</v>
@@ -39411,10 +39432,10 @@
         <v>825</v>
       </c>
       <c r="F27" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G27" s="35" t="s">
         <v>1093</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>1094</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>186</v>
@@ -39441,10 +39462,10 @@
         <v>826</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>186</v>
@@ -39469,10 +39490,10 @@
         <v>815</v>
       </c>
       <c r="F29" s="35" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>1028</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>1029</v>
       </c>
       <c r="H29" s="36" t="s">
         <v>10</v>
@@ -39531,6 +39552,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -39702,28 +39744,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39739,28 +39784,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1231">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -4184,6 +4184,53 @@
   </si>
   <si>
     <t>RS_MethodForMeasurement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uk1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uk2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Uk1</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Uk2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12507,8 +12554,8 @@
   </sheetPr>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12610,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>766</v>
+        <v>1230</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>997</v>
@@ -12682,7 +12729,7 @@
       <c r="A5" s="36"/>
       <c r="B5" s="57"/>
       <c r="C5" s="36" t="s">
-        <v>264</v>
+        <v>1229</v>
       </c>
       <c r="D5" s="53">
         <v>2</v>
@@ -16010,7 +16057,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -24204,12 +24251,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24385,21 +24435,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24423,17 +24478,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\RDBES\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBESpublic\RDBES\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1230">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -4203,33 +4203,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Uk2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Uk1</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Uk2</t>
+      <t xml:space="preserve"> Uk2</t>
     </r>
   </si>
 </sst>
@@ -12555,7 +12529,7 @@
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12657,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1230</v>
+        <v>766</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>997</v>
@@ -24251,18 +24225,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -24434,6 +24396,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24444,22 +24418,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24477,6 +24435,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
   <ds:schemaRefs>

--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBESpublic\RDBES\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\RDBES\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="23115" windowHeight="13515" tabRatio="747" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.18.3" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="1230">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -12528,7 +12528,7 @@
   </sheetPr>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -17872,8 +17872,8 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18667,7 +18667,9 @@
       <c r="J24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="46"/>
+      <c r="K24" s="89" t="s">
+        <v>1180</v>
+      </c>
       <c r="L24" s="36" t="s">
         <v>820</v>
       </c>
@@ -19013,8 +19015,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24225,6 +24227,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -24396,41 +24419,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24452,9 +24444,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5191D9EC-E00B-49EA-B433-617D071147F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09473E9C-8DF1-4635-90F5-9796328A6ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.1" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1304">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -4398,7 +4398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4595,6 +4595,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4949,7 +4950,9 @@
   </sheetPr>
   <dimension ref="A1:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView showZeros="0" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
@@ -7205,7 +7208,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7651,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7696,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -8103,8 +8106,8 @@
         <v>OSselectionMethod</v>
       </c>
       <c r="O54" s="36" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A24)=TRUE, 'Onshore Event'!M24, "")</f>
-        <v>Type of location</v>
+        <f>IF(ISBLANK('Onshore Event'!#REF!)=TRUE, 'Onshore Event'!#REF!, "")</f>
+        <v/>
       </c>
       <c r="P54" s="18"/>
       <c r="R54" s="20">
@@ -8128,8 +8131,8 @@
       <c r="L55" s="17"/>
       <c r="M55" s="18"/>
       <c r="N55" s="20" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A24)=TRUE, 'Onshore Event'!F24, "")</f>
-        <v>OSlocationType</v>
+        <f>IF(ISBLANK('Onshore Event'!#REF!)=TRUE, 'Onshore Event'!#REF!, "")</f>
+        <v/>
       </c>
       <c r="O55" s="36" t="str">
         <f>IF(ISBLANK('Onshore Event'!#REF!)=TRUE, 'Onshore Event'!#REF!, "")</f>
@@ -8161,11 +8164,11 @@
       <c r="L56" s="17"/>
       <c r="M56" s="18"/>
       <c r="N56" s="20" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A25)=TRUE, 'Onshore Event'!F25, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A24)=TRUE, 'Onshore Event'!F24, "")</f>
         <v>OSselectionMethodCluster</v>
       </c>
       <c r="O56" s="36" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A25)=TRUE, 'Onshore Event'!M25, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A24)=TRUE, 'Onshore Event'!M24, "")</f>
         <v>The method of selecting clusters</v>
       </c>
       <c r="P56" s="18"/>
@@ -8198,11 +8201,11 @@
       <c r="L57" s="17"/>
       <c r="M57" s="18"/>
       <c r="N57" s="20" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A26)=TRUE, 'Onshore Event'!F26, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A25)=TRUE, 'Onshore Event'!F25, "")</f>
         <v>OSnumberTotalClusters</v>
       </c>
       <c r="O57" s="36" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A26)=TRUE, 'Onshore Event'!M26, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A25)=TRUE, 'Onshore Event'!M25, "")</f>
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
       <c r="P57" s="18"/>
@@ -8235,11 +8238,11 @@
       <c r="L58" s="17"/>
       <c r="M58" s="18"/>
       <c r="N58" s="20" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A27)=TRUE, 'Onshore Event'!F27, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A26)=TRUE, 'Onshore Event'!F26, "")</f>
         <v>OSnumberSampledClusters</v>
       </c>
       <c r="O58" s="36" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A27)=TRUE, 'Onshore Event'!M27, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A26)=TRUE, 'Onshore Event'!M26, "")</f>
         <v>Total number of clusters sampled</v>
       </c>
       <c r="P58" s="18"/>
@@ -8301,11 +8304,11 @@
       <c r="L60" s="17"/>
       <c r="M60" s="18"/>
       <c r="N60" s="20" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A31)=TRUE, 'Onshore Event'!F31, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A30)=TRUE, 'Onshore Event'!F30, "")</f>
         <v>OSreasonNotSampled</v>
       </c>
       <c r="O60" s="36" t="str">
-        <f>IF(ISBLANK('Onshore Event'!A31)=TRUE, 'Onshore Event'!M31, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A30)=TRUE, 'Onshore Event'!M30, "")</f>
         <v>Reason for not sampling</v>
       </c>
       <c r="P60" s="18"/>
@@ -8333,11 +8336,11 @@
       <c r="L61" s="17"/>
       <c r="M61" s="18"/>
       <c r="N61" s="20">
-        <f>IF(ISBLANK('Onshore Event'!A32)=TRUE, 'Onshore Event'!F32, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A31)=TRUE, 'Onshore Event'!F31, "")</f>
         <v>0</v>
       </c>
       <c r="O61" s="20">
-        <f>IF(ISBLANK('Onshore Event'!A32)=TRUE, 'Onshore Event'!M32, "")</f>
+        <f>IF(ISBLANK('Onshore Event'!A31)=TRUE, 'Onshore Event'!M31, "")</f>
         <v>0</v>
       </c>
       <c r="P61" s="18"/>
@@ -8423,7 +8426,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -29099,7 +29102,7 @@
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -30796,7 +30799,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -31688,7 +31691,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -32029,7 +32032,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="51" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
         <v>1097</v>
@@ -32744,7 +32747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -39309,7 +39312,7 @@
       </c>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -40184,9 +40187,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -40482,9 +40487,7 @@
     </row>
     <row r="9" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
-      <c r="B9" s="34" t="s">
-        <v>1256</v>
-      </c>
+      <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34">
         <v>6</v>
@@ -40510,8 +40513,12 @@
       <c r="K9" s="102" t="s">
         <v>1041</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
+      <c r="L9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
@@ -40971,87 +40978,83 @@
       <c r="A24" s="15"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="34">
+      <c r="D24" s="106">
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>62</v>
+        <v>1170</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>432</v>
+        <v>336</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="35" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>151</v>
+        <v>524</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="34">
+      <c r="D25" s="106">
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>336</v>
+        <v>822</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>338</v>
+        <v>804</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I25" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>1020</v>
-      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="35" t="s">
-        <v>524</v>
+        <v>266</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="34">
+      <c r="D26" s="106">
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>822</v>
+        <v>776</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>13</v>
@@ -41062,30 +41065,30 @@
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34">
+      <c r="A27" s="12"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="106">
         <v>24</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1172</v>
+        <v>698</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>776</v>
+        <v>954</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>788</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>13</v>
+        <v>955</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>87</v>
@@ -41093,27 +41096,27 @@
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="35" t="s">
-        <v>268</v>
+        <v>831</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="34">
+      <c r="D28" s="106">
         <v>25</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>954</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>955</v>
+        <v>953</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>956</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>148</v>
@@ -41124,111 +41127,80 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35" t="s">
-        <v>831</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+        <v>832</v>
+      </c>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="34">
+      <c r="D29" s="106">
         <v>26</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>953</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>956</v>
+        <v>891</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>892</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+        <v>96</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>1015</v>
+      </c>
       <c r="L29" s="35" t="s">
-        <v>832</v>
-      </c>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
-      <c r="A30" s="12"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34">
+        <v>1042</v>
+      </c>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="15"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="106">
         <v>27</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>689</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>891</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>892</v>
+      <c r="E30" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>339</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="34" t="s">
+      <c r="I30" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="35" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M30" s="34"/>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="15"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34">
-        <v>28</v>
-      </c>
-      <c r="E31" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="F31" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L31" s="35" t="s">
+      <c r="M30" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="M31" s="35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D34" s="28" t="s">
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33" s="28" t="s">
         <v>239</v>
       </c>
     </row>
@@ -41238,6 +41210,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41409,28 +41402,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41446,28 +41442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09473E9C-8DF1-4635-90F5-9796328A6ECB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1B5C4-C717-4170-8BE8-3CA106829E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.2" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -3276,9 +3276,6 @@
     <t>RS_Sampler</t>
   </si>
   <si>
-    <t>RS_SelectionMethod</t>
-  </si>
-  <si>
     <t>RS_ReasonForNotSampling</t>
   </si>
   <si>
@@ -4148,6 +4145,9 @@
   </si>
   <si>
     <t xml:space="preserve">This overview will not be maintained with the new fields, but it is kept for its overview value </t>
+  </si>
+  <si>
+    <t>SelectionMethod</t>
   </si>
 </sst>
 </file>
@@ -4950,7 +4950,7 @@
   </sheetPr>
   <dimension ref="A1:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="105" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D2" s="19"/>
       <c r="L2" s="17"/>
@@ -9527,7 +9527,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>929</v>
@@ -9542,11 +9542,11 @@
         <v>11</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>577</v>
@@ -9582,10 +9582,10 @@
         <v>1015</v>
       </c>
       <c r="L12" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>1096</v>
       </c>
       <c r="N12" s="51"/>
     </row>
@@ -9648,10 +9648,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -9663,7 +9663,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>757</v>
@@ -9680,10 +9680,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M15" s="35" t="s">
         <v>1286</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>1287</v>
       </c>
       <c r="N15" s="51"/>
     </row>
@@ -9731,7 +9731,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>362</v>
@@ -9853,7 +9853,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>240</v>
@@ -9871,13 +9871,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>10</v>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>92</v>
@@ -9901,19 +9901,19 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="35" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D22" s="35">
         <v>13</v>
       </c>
       <c r="E22" s="35" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>1233</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>1234</v>
-      </c>
       <c r="G22" s="35" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>10</v>
@@ -9953,7 +9953,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>78</v>
@@ -9992,7 +9992,7 @@
         <v>1003</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>158</v>
@@ -10071,7 +10071,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>932</v>
@@ -10089,7 +10089,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>866</v>
@@ -10125,7 +10125,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>872</v>
@@ -10161,10 +10161,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M29" s="35" t="s">
         <v>162</v>
@@ -10197,13 +10197,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N30" s="66"/>
     </row>
@@ -10233,10 +10233,10 @@
         <v>14</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>846</v>
@@ -10269,10 +10269,10 @@
         <v>14</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="M32" s="35" t="s">
         <v>612</v>
@@ -10305,7 +10305,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>873</v>
@@ -10341,7 +10341,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>874</v>
@@ -10377,7 +10377,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>875</v>
@@ -10445,7 +10445,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>877</v>
@@ -10513,7 +10513,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>94</v>
@@ -10549,7 +10549,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>879</v>
@@ -10595,7 +10595,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>823</v>
@@ -10627,7 +10627,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>777</v>
@@ -10741,7 +10741,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>163</v>
@@ -10791,7 +10791,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>341</v>
@@ -10809,7 +10809,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>524</v>
@@ -10827,7 +10827,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>824</v>
@@ -10859,7 +10859,7 @@
         <v>41</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>778</v>
@@ -11004,7 +11004,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>255</v>
@@ -11040,7 +11040,7 @@
         <v>14</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L55" s="35" t="s">
         <v>544</v>
@@ -27945,10 +27945,10 @@
         <v>1015</v>
       </c>
       <c r="L11" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M11" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>1096</v>
       </c>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
@@ -27963,7 +27963,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>967</v>
@@ -27981,7 +27981,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>839</v>
@@ -28002,7 +28002,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>685</v>
@@ -28018,7 +28018,7 @@
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L13" s="70" t="s">
         <v>882</v>
@@ -28039,7 +28039,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>966</v>
@@ -28057,7 +28057,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L14" s="70" t="s">
         <v>565</v>
@@ -28076,7 +28076,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>758</v>
@@ -28093,7 +28093,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="34"/>
       <c r="L15" s="49" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>120</v>
@@ -28146,7 +28146,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>365</v>
@@ -28216,7 +28216,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>968</v>
@@ -28251,7 +28251,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>592</v>
@@ -28286,7 +28286,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>825</v>
@@ -28319,7 +28319,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>779</v>
@@ -28418,7 +28418,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F25" s="56" t="s">
         <v>413</v>
@@ -28436,7 +28436,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>211</v>
@@ -28488,7 +28488,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>345</v>
@@ -28506,7 +28506,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>524</v>
@@ -28525,7 +28525,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>826</v>
@@ -28558,7 +28558,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>780</v>
@@ -28706,7 +28706,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>255</v>
@@ -29070,7 +29070,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>673</v>
@@ -29131,10 +29131,10 @@
         <v>1015</v>
       </c>
       <c r="L7" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M7" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>1096</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="60"/>
@@ -29171,7 +29171,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="35" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>98</v>
@@ -29214,7 +29214,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>584</v>
@@ -29260,7 +29260,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>997</v>
@@ -29281,18 +29281,18 @@
     <row r="11" spans="1:22" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="52"/>
       <c r="E11" s="56" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F11" s="56" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>1297</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1298</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -29304,10 +29304,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="M11" s="35"/>
     </row>
@@ -29339,10 +29339,10 @@
         <v>14</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>171</v>
@@ -29356,7 +29356,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>560</v>
@@ -29374,7 +29374,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L13" s="87" t="s">
         <v>884</v>
@@ -29402,7 +29402,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>548</v>
@@ -29420,7 +29420,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L14" s="87" t="s">
         <v>697</v>
@@ -29466,7 +29466,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>835</v>
@@ -29512,7 +29512,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>173</v>
@@ -29558,7 +29558,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>19</v>
@@ -29604,10 +29604,10 @@
         <v>14</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>20</v>
@@ -29630,7 +29630,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F19" s="95" t="s">
         <v>861</v>
@@ -29648,7 +29648,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L19" s="96" t="s">
         <v>836</v>
@@ -29692,7 +29692,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>713</v>
@@ -29736,10 +29736,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>162</v>
@@ -29780,13 +29780,13 @@
         <v>14</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
@@ -29824,10 +29824,10 @@
         <v>14</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>846</v>
@@ -29868,10 +29868,10 @@
         <v>14</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>612</v>
@@ -29912,7 +29912,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>714</v>
@@ -29956,7 +29956,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>715</v>
@@ -30000,7 +30000,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>716</v>
@@ -30084,7 +30084,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>718</v>
@@ -30168,7 +30168,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>683</v>
@@ -30194,7 +30194,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>538</v>
@@ -30211,7 +30211,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>176</v>
@@ -30234,7 +30234,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>537</v>
@@ -30251,7 +30251,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>177</v>
@@ -30274,7 +30274,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>827</v>
@@ -30314,7 +30314,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>781</v>
@@ -30452,7 +30452,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>180</v>
@@ -30518,7 +30518,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>515</v>
@@ -30536,7 +30536,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>181</v>
@@ -30657,7 +30657,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>687</v>
@@ -30701,7 +30701,7 @@
         <v>14</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>688</v>
@@ -30727,7 +30727,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>532</v>
@@ -30767,7 +30767,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>533</v>
@@ -30807,13 +30807,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F47" s="56" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G47" s="56" t="s">
         <v>1290</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>1291</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>148</v>
@@ -31174,7 +31174,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31337,20 +31337,20 @@
     <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="52">
         <v>2</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F5" s="56" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>1299</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>1300</v>
       </c>
       <c r="H5" s="56" t="s">
         <v>10</v>
@@ -31362,19 +31362,19 @@
         <v>14</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="52">
@@ -31384,10 +31384,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="56" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>1125</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>1126</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>10</v>
@@ -31399,13 +31399,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -31427,13 +31427,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F7" s="56" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>1134</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>1135</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>13</v>
@@ -31444,7 +31444,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>552</v>
@@ -31489,13 +31489,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="56" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F9" s="56" t="s">
         <v>1138</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="G9" s="56" t="s">
         <v>1139</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>1140</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>10</v>
@@ -31507,10 +31507,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>441</v>
@@ -31519,7 +31519,7 @@
     <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="52">
@@ -31529,10 +31529,10 @@
         <v>197</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -31544,7 +31544,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>197</v>
@@ -31579,7 +31579,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>557</v>
@@ -31614,7 +31614,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>246</v>
@@ -31626,53 +31626,53 @@
     <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="103"/>
       <c r="B13" s="56" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="52">
         <v>10</v>
       </c>
       <c r="E13" s="56" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H13" s="56" t="s">
         <v>1142</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>1143</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="103"/>
       <c r="B14" s="56" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="52">
         <v>11</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>10</v>
@@ -31684,10 +31684,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -31751,7 +31751,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -31781,10 +31781,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L17" s="104" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="M17" s="35"/>
     </row>
@@ -31799,7 +31799,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32009,10 +32009,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>899</v>
@@ -32026,7 +32026,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>189</v>
@@ -32035,20 +32035,20 @@
     <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="52">
         <v>3</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F7" s="56" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G7" s="56" t="s">
         <v>1301</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>1302</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>10</v>
@@ -32060,19 +32060,19 @@
         <v>14</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="52">
@@ -32082,10 +32082,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="56" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G8" s="56" t="s">
         <v>1149</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>1150</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>10</v>
@@ -32097,13 +32097,13 @@
         <v>14</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -32149,7 +32149,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>760</v>
@@ -32182,13 +32182,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F11" s="56" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G11" s="56" t="s">
         <v>1152</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>1153</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -32200,7 +32200,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>886</v>
@@ -32217,13 +32217,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F12" s="56" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>1154</v>
-      </c>
-      <c r="G12" s="56" t="s">
-        <v>1155</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>10</v>
@@ -32248,13 +32248,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F13" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>1080</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>1081</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>10</v>
@@ -32266,13 +32266,13 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L13" s="35" t="s">
         <v>1082</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="M13" s="56" t="s">
         <v>1083</v>
-      </c>
-      <c r="M13" s="56" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
@@ -32301,7 +32301,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>192</v>
@@ -32336,7 +32336,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>557</v>
@@ -32348,20 +32348,20 @@
     <row r="16" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="52">
         <v>12</v>
       </c>
       <c r="E16" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F16" s="56" t="s">
         <v>1085</v>
       </c>
-      <c r="F16" s="56" t="s">
-        <v>1086</v>
-      </c>
       <c r="G16" s="56" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>10</v>
@@ -32373,30 +32373,30 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A17" s="56"/>
       <c r="B17" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="52">
         <v>13</v>
       </c>
       <c r="E17" s="56" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F17" s="56" t="s">
         <v>1088</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="G17" s="56" t="s">
         <v>1089</v>
-      </c>
-      <c r="G17" s="56" t="s">
-        <v>1090</v>
       </c>
       <c r="H17" s="56" t="s">
         <v>10</v>
@@ -32408,30 +32408,30 @@
         <v>14</v>
       </c>
       <c r="K17" s="34" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L17" s="35" t="s">
         <v>1091</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>1092</v>
       </c>
       <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="52">
         <v>14</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F18" s="56" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>1254</v>
-      </c>
-      <c r="G18" s="56" t="s">
-        <v>1255</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>148</v>
@@ -32442,30 +32442,30 @@
       <c r="J18" s="56"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="52">
         <v>15</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>11</v>
@@ -32473,27 +32473,27 @@
       <c r="J19" s="56"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="52">
         <v>16</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>10</v>
@@ -32505,10 +32505,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -32520,7 +32520,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>828</v>
@@ -32551,7 +32551,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>782</v>
@@ -32662,7 +32662,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>196</v>
@@ -32905,7 +32905,7 @@
         <v>834</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>108</v>
@@ -32943,7 +32943,7 @@
         <v>1012</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
@@ -32993,7 +32993,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>750</v>
@@ -33024,7 +33024,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>302</v>
@@ -33099,10 +33099,10 @@
         <v>689</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -33117,7 +33117,7 @@
         <v>1015</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M10" s="34"/>
     </row>
@@ -33132,10 +33132,10 @@
         <v>255</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -33147,7 +33147,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>255</v>
@@ -33724,8 +33724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34065,7 +34065,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>751</v>
@@ -34082,7 +34082,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>120</v>
@@ -34096,7 +34096,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>315</v>
@@ -34131,7 +34131,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>316</v>
@@ -34197,7 +34197,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>813</v>
@@ -34228,7 +34228,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>761</v>
@@ -34339,7 +34339,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>201</v>
@@ -34387,7 +34387,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>320</v>
@@ -34405,7 +34405,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L20" s="57" t="s">
         <v>524</v>
@@ -34422,7 +34422,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>812</v>
@@ -34453,7 +34453,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>762</v>
@@ -34595,7 +34595,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -34859,10 +34859,10 @@
         <v>1015</v>
       </c>
       <c r="L6" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -34873,7 +34873,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>944</v>
@@ -34891,7 +34891,7 @@
         <v>91</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>631</v>
@@ -34908,13 +34908,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>1235</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>1236</v>
-      </c>
       <c r="G8" s="35" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -34940,13 +34940,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>10</v>
@@ -34958,7 +34958,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
@@ -34988,10 +34988,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -35037,7 +35037,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>350</v>
@@ -35103,7 +35103,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>814</v>
@@ -35134,7 +35134,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>763</v>
@@ -35245,7 +35245,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>201</v>
@@ -35293,7 +35293,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>324</v>
@@ -35311,7 +35311,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>524</v>
@@ -35328,7 +35328,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>815</v>
@@ -35359,7 +35359,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>764</v>
@@ -35501,7 +35501,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -35764,7 +35764,7 @@
         <v>1003</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>115</v>
@@ -35798,7 +35798,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>54</v>
@@ -36096,7 +36096,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>580</v>
@@ -36111,11 +36111,11 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>577</v>
@@ -36150,10 +36150,10 @@
         <v>1015</v>
       </c>
       <c r="L9" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M9" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -36164,7 +36164,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>753</v>
@@ -36181,10 +36181,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -36230,7 +36230,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>353</v>
@@ -36296,7 +36296,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>691</v>
@@ -36327,7 +36327,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>694</v>
@@ -36438,7 +36438,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>122</v>
@@ -36486,7 +36486,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>328</v>
@@ -36504,7 +36504,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>524</v>
@@ -36521,7 +36521,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>816</v>
@@ -36552,7 +36552,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>765</v>
@@ -36694,7 +36694,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>255</v>
@@ -37074,7 +37074,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>855</v>
@@ -37089,11 +37089,11 @@
         <v>11</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M10" s="12"/>
     </row>
@@ -37159,10 +37159,10 @@
         <v>1015</v>
       </c>
       <c r="L12" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -37173,7 +37173,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>754</v>
@@ -37190,7 +37190,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>120</v>
@@ -37204,7 +37204,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>279</v>
@@ -37239,7 +37239,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>280</v>
@@ -37323,13 +37323,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -37340,10 +37340,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="35" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>1263</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>1264</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>290</v>
@@ -37359,10 +37359,10 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M18" s="35" t="s">
         <v>1265</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>1266</v>
       </c>
       <c r="N18" s="101"/>
     </row>
@@ -37392,13 +37392,13 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37457,10 +37457,10 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M21" s="35" t="s">
         <v>1268</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37491,7 +37491,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>127</v>
@@ -37510,7 +37510,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>250</v>
@@ -37558,10 +37558,10 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M24" s="35" t="s">
         <v>1271</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37572,7 +37572,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>817</v>
@@ -37603,7 +37603,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>771</v>
@@ -37714,7 +37714,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>562</v>
@@ -37762,7 +37762,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>287</v>
@@ -37778,7 +37778,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>524</v>
@@ -37795,7 +37795,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>818</v>
@@ -37826,7 +37826,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>772</v>
@@ -37968,7 +37968,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>255</v>
@@ -38285,10 +38285,10 @@
         <v>1015</v>
       </c>
       <c r="L6" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>1096</v>
       </c>
       <c r="N6" s="90"/>
     </row>
@@ -38332,7 +38332,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>755</v>
@@ -38349,7 +38349,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>120</v>
@@ -38400,7 +38400,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>356</v>
@@ -38486,7 +38486,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>71</v>
@@ -38522,7 +38522,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>134</v>
@@ -38558,7 +38558,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>684</v>
@@ -38576,7 +38576,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>449</v>
@@ -38593,10 +38593,10 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="N15" s="90"/>
     </row>
@@ -38608,7 +38608,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>450</v>
@@ -38625,10 +38625,10 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="N16" s="90"/>
     </row>
@@ -38640,7 +38640,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>451</v>
@@ -38657,10 +38657,10 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="N17" s="90"/>
     </row>
@@ -38672,7 +38672,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>452</v>
@@ -38689,10 +38689,10 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N18" s="90"/>
     </row>
@@ -38721,10 +38721,10 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M19" s="35" t="s">
         <v>1275</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>1276</v>
       </c>
       <c r="N19" s="90"/>
     </row>
@@ -38733,16 +38733,16 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="56" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>1097</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="F20" s="34" t="s">
         <v>1098</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="G20" s="34" t="s">
         <v>1099</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>1100</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>10</v>
@@ -38754,13 +38754,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="N20" s="90"/>
     </row>
@@ -38769,16 +38769,16 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E21" s="34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>1102</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="34" t="s">
         <v>1103</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>1104</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -38789,10 +38789,10 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="N21" s="90"/>
     </row>
@@ -38932,7 +38932,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>863</v>
@@ -38950,7 +38950,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>865</v>
@@ -38986,7 +38986,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>869</v>
@@ -39022,10 +39022,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>139</v>
@@ -39058,13 +39058,13 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="N29" s="90"/>
     </row>
@@ -39094,13 +39094,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N30" s="90"/>
     </row>
@@ -39112,7 +39112,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>466</v>
@@ -39129,7 +39129,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>140</v>
@@ -39144,7 +39144,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>468</v>
@@ -39194,10 +39194,10 @@
         <v>14</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M33" s="35" t="s">
         <v>619</v>
@@ -39230,7 +39230,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>613</v>
@@ -39266,7 +39266,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>614</v>
@@ -39302,7 +39302,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>77</v>
@@ -39370,13 +39370,13 @@
         <v>14</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L38" s="35" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M38" s="35" t="s">
         <v>1279</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>1280</v>
       </c>
       <c r="N38" s="90"/>
     </row>
@@ -39438,7 +39438,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>95</v>
@@ -39455,13 +39455,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="34" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>1281</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="G41" s="34" t="s">
         <v>1282</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>1283</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>10</v>
@@ -39473,13 +39473,13 @@
         <v>14</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="N41" s="98"/>
     </row>
@@ -39488,16 +39488,16 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>10</v>
@@ -39509,13 +39509,13 @@
         <v>14</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="N42" s="97"/>
     </row>
@@ -39524,16 +39524,16 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>10</v>
@@ -39545,13 +39545,13 @@
         <v>14</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="N43" s="98"/>
     </row>
@@ -39560,16 +39560,16 @@
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>10</v>
@@ -39581,13 +39581,13 @@
         <v>14</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L44" s="35" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M44" s="35" t="s">
         <v>1229</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>1230</v>
       </c>
       <c r="N44" s="97"/>
     </row>
@@ -39628,7 +39628,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>567</v>
@@ -39646,7 +39646,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>840</v>
@@ -39663,7 +39663,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>819</v>
@@ -39694,7 +39694,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>773</v>
@@ -39711,7 +39711,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>1002</v>
@@ -39805,7 +39805,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>138</v>
@@ -39853,7 +39853,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>332</v>
@@ -39869,7 +39869,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>524</v>
@@ -39886,7 +39886,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>820</v>
@@ -39917,7 +39917,7 @@
         <v>46</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>774</v>
@@ -40060,7 +40060,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>255</v>
@@ -40189,7 +40189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -40406,10 +40406,10 @@
         <v>1015</v>
       </c>
       <c r="L6" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>1095</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.45">
@@ -40422,7 +40422,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>628</v>
@@ -40440,7 +40440,7 @@
         <v>632</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>631</v>
@@ -40461,13 +40461,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F8" s="34" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>1240</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>1241</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>10</v>
@@ -40493,7 +40493,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>432</v>
@@ -40511,7 +40511,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>151</v>
@@ -40594,7 +40594,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>756</v>
@@ -40611,7 +40611,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>120</v>
@@ -40660,7 +40660,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>359</v>
@@ -40761,7 +40761,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>430</v>
@@ -40792,7 +40792,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>821</v>
@@ -40823,7 +40823,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>775</v>
@@ -40934,7 +40934,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>150</v>
@@ -40982,7 +40982,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>336</v>
@@ -41000,7 +41000,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1020</v>
+        <v>1303</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>524</v>
@@ -41017,7 +41017,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>822</v>
@@ -41048,7 +41048,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>776</v>
@@ -41160,7 +41160,7 @@
         <v>1015</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M29" s="34"/>
     </row>
@@ -41190,7 +41190,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>255</v>
@@ -41210,27 +41210,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41402,31 +41381,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41442,4 +41418,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBESpublic\RDBES\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1B5C4-C717-4170-8BE8-3CA106829E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A36D17-8D4E-435F-8BD0-AFBFD4634A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4398,7 +4398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4596,6 +4596,14 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9135,7 +9143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:XFC62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K48" activeCellId="1" sqref="K46 K48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -10063,7 +10073,7 @@
       </c>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="35"/>
@@ -10740,7 +10750,7 @@
       <c r="J46" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="106" t="s">
         <v>1303</v>
       </c>
       <c r="L46" s="35" t="s">
@@ -10808,7 +10818,7 @@
       <c r="J48" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K48" s="106" t="s">
         <v>1303</v>
       </c>
       <c r="L48" s="35" t="s">
@@ -10819,7 +10829,7 @@
       </c>
       <c r="N48" s="51"/>
     </row>
-    <row r="49" spans="1:16383" ht="24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16383" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="35"/>
@@ -27540,8 +27550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K27" activeCellId="1" sqref="K25 K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28435,7 +28445,7 @@
       <c r="J25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L25" s="35" t="s">
@@ -28505,7 +28515,7 @@
       <c r="J27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L27" s="35" t="s">
@@ -28848,8 +28858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29842,7 +29852,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="93.75" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -30142,7 +30152,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30451,7 +30461,7 @@
       <c r="J38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="110" t="s">
         <v>1303</v>
       </c>
       <c r="L38" s="12" t="s">
@@ -30799,7 +30809,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -31691,7 +31701,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -31799,7 +31809,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32661,7 +32671,7 @@
       <c r="J25" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L25" s="35" t="s">
@@ -33725,7 +33735,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34338,7 +34348,7 @@
       <c r="J18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="107" t="s">
         <v>1303</v>
       </c>
       <c r="L18" s="54" t="s">
@@ -34404,7 +34414,7 @@
       <c r="J20" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="107" t="s">
         <v>1303</v>
       </c>
       <c r="L20" s="57" t="s">
@@ -34635,7 +34645,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K20" activeCellId="1" sqref="K18 K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35244,7 +35254,7 @@
       <c r="J18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="107" t="s">
         <v>1303</v>
       </c>
       <c r="L18" s="35" t="s">
@@ -35310,7 +35320,7 @@
       <c r="J20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="107" t="s">
         <v>1303</v>
       </c>
       <c r="L20" s="35" t="s">
@@ -35818,7 +35828,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K20" activeCellId="1" sqref="K18 K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36437,7 +36447,7 @@
       <c r="J18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L18" s="12" t="s">
@@ -36503,7 +36513,7 @@
       <c r="J20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L20" s="12" t="s">
@@ -36735,8 +36745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K31" activeCellId="1" sqref="K29 K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37713,7 +37723,7 @@
       <c r="J29" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="109" t="s">
         <v>1303</v>
       </c>
       <c r="L29" s="35" t="s">
@@ -37777,7 +37787,7 @@
       <c r="J31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="109" t="s">
         <v>1303</v>
       </c>
       <c r="L31" s="35" t="s">
@@ -38055,8 +38065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K51" activeCellId="1" sqref="K53 K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39804,7 +39814,7 @@
       <c r="J51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K51" s="15" t="s">
+      <c r="K51" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L51" s="12" t="s">
@@ -39868,7 +39878,7 @@
       <c r="J53" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="K53" s="108" t="s">
         <v>1303</v>
       </c>
       <c r="L53" s="12" t="s">
@@ -40189,8 +40199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" activeCellId="1" sqref="K22 K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40933,7 +40943,7 @@
       <c r="J22" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="106" t="s">
         <v>1303</v>
       </c>
       <c r="L22" s="35" t="s">
@@ -40999,7 +41009,7 @@
       <c r="J24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="106" t="s">
         <v>1303</v>
       </c>
       <c r="L24" s="35" t="s">
@@ -41210,6 +41220,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41381,41 +41412,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41437,9 +41437,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBESpublic\RDBES\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A36D17-8D4E-435F-8BD0-AFBFD4634A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621ADA0C-6EAA-4B1A-94B6-119EA333811E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.2" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.3" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1303">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -3258,9 +3258,6 @@
     <t>UK1, Uk2</t>
   </si>
   <si>
-    <t>RS_SamplingSchemeType</t>
-  </si>
-  <si>
     <t>YesNoFields</t>
   </si>
   <si>
@@ -3273,12 +3270,6 @@
     <t>RS_Clustering</t>
   </si>
   <si>
-    <t>RS_Sampler</t>
-  </si>
-  <si>
-    <t>RS_ReasonForNotSampling</t>
-  </si>
-  <si>
     <t>Harbour_LOCODE</t>
   </si>
   <si>
@@ -3324,63 +3315,39 @@
     <t>GearType</t>
   </si>
   <si>
-    <t>RS_SelectionDevice</t>
-  </si>
-  <si>
     <t>TargetSpecies</t>
   </si>
   <si>
     <t>RS_incidentialByCatchMitigateD</t>
   </si>
   <si>
-    <t>RS_ObservationCode</t>
-  </si>
-  <si>
     <t>RS_LocationType</t>
   </si>
   <si>
     <t>Indicating if the unit was sampled: Y/N. If No no child records are expected.</t>
   </si>
   <si>
-    <t>RS_ObservationActivityType</t>
-  </si>
-  <si>
     <t>RS_CatchFraction</t>
   </si>
   <si>
-    <t>RS_ObservationType</t>
-  </si>
-  <si>
     <t>SpecWoRMS</t>
   </si>
   <si>
     <t>SpecASFIS</t>
   </si>
   <si>
-    <t>RS_Presentation</t>
-  </si>
-  <si>
-    <t>RS_SpecimensState</t>
-  </si>
-  <si>
     <t>RS_CatchCategory</t>
   </si>
   <si>
     <t>RS_LandingCategory</t>
   </si>
   <si>
-    <t>RS_CommercialSizeCategoryScale</t>
-  </si>
-  <si>
     <t>RS_CommercialSizeCategory</t>
   </si>
   <si>
     <t>RS_Sex</t>
   </si>
   <si>
-    <t>RS_UnitType</t>
-  </si>
-  <si>
     <t>RS_LowerHierarchy</t>
   </si>
   <si>
@@ -3390,9 +3357,6 @@
     <t>RS_AddGrpMeasurementType</t>
   </si>
   <si>
-    <t>RS_BiologicalMeasurementType</t>
-  </si>
-  <si>
     <t>RS_LEfullTripAvailable</t>
   </si>
   <si>
@@ -3459,9 +3423,6 @@
     <t>BVvalUnitScale</t>
   </si>
   <si>
-    <t>RS_ValueUnitOrScale</t>
-  </si>
-  <si>
     <t xml:space="preserve">The unit or scale of the measured value in the biovarValue, e.g. Year/mm/g/maturity scale/winter rings. </t>
   </si>
   <si>
@@ -3486,9 +3447,6 @@
     <t>BVcertaintyQuali</t>
   </si>
   <si>
-    <t>RS_CertaintyQualitative</t>
-  </si>
-  <si>
     <t>Qualitative measures of certainty e.g. WGBIOP's quality scale for age readability. Use 'Unknown' if not recorded and 'NotApplicable' if this is not reported for this measuremnet e.g. length</t>
   </si>
   <si>
@@ -3574,9 +3532,6 @@
   </si>
   <si>
     <t>Second mitigation device specific for reducing incidental by-catch</t>
-  </si>
-  <si>
-    <t>RS_IncidentalByCatchMitigationDevTarget</t>
   </si>
   <si>
     <t>BVnationalUniqueFishId</t>
@@ -4064,9 +4019,6 @@
   </si>
   <si>
     <t>FOincBycMitigDevFirst</t>
-  </si>
-  <si>
-    <t>RS_IncidentalByCatchMitigationDev</t>
   </si>
   <si>
     <t>The haul number (if there is one) for this LandingEvent record.</t>
@@ -4123,9 +4075,6 @@
     <t>METOA</t>
   </si>
   <si>
-    <t>RS_DurationSource</t>
-  </si>
-  <si>
     <t>SAstateOfProcessing</t>
   </si>
   <si>
@@ -4148,6 +4097,54 @@
   </si>
   <si>
     <t>SelectionMethod</t>
+  </si>
+  <si>
+    <t>BycatchMitigationDevice</t>
+  </si>
+  <si>
+    <t>BycatchMitigationDeviceTarget</t>
+  </si>
+  <si>
+    <t>ObservationCode</t>
+  </si>
+  <si>
+    <t>MeasurementCertainty</t>
+  </si>
+  <si>
+    <t>ObservationMethod</t>
+  </si>
+  <si>
+    <t>SamplingUnit</t>
+  </si>
+  <si>
+    <t>ObservationActivityType</t>
+  </si>
+  <si>
+    <t>StateOfProcessing</t>
+  </si>
+  <si>
+    <t>SelectionDevice</t>
+  </si>
+  <si>
+    <t>DurationSource</t>
+  </si>
+  <si>
+    <t>CommercialSizeCategoryScale</t>
+  </si>
+  <si>
+    <t>ValueUnitOrScale</t>
+  </si>
+  <si>
+    <t>SamplingSchemeType</t>
+  </si>
+  <si>
+    <t>SpecimensState</t>
+  </si>
+  <si>
+    <t>ReasonForNotSampling</t>
+  </si>
+  <si>
+    <t>BiologicalMeasurementType</t>
   </si>
 </sst>
 </file>
@@ -4398,7 +4395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4604,6 +4601,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4958,8 +4956,8 @@
   </sheetPr>
   <dimension ref="A1:AI112"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showZeros="0" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -5010,7 +5008,7 @@
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="105" t="s">
-        <v>1302</v>
+        <v>1285</v>
       </c>
       <c r="D2" s="19"/>
       <c r="L2" s="17"/>
@@ -9143,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:XFC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K48" activeCellId="1" sqref="K46 K48"/>
+    <sheetView topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9198,7 +9196,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -9537,7 +9535,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>929</v>
@@ -9552,11 +9550,11 @@
         <v>11</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>577</v>
@@ -9589,13 +9587,13 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="N12" s="51"/>
     </row>
@@ -9658,10 +9656,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -9673,7 +9671,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1198</v>
+        <v>1183</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>757</v>
@@ -9690,10 +9688,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="N15" s="51"/>
     </row>
@@ -9723,7 +9721,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>262</v>
@@ -9741,7 +9739,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>362</v>
@@ -9790,8 +9788,8 @@
       <c r="J18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>1019</v>
+      <c r="K18" s="106" t="s">
+        <v>256</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>829</v>
@@ -9827,7 +9825,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>154</v>
@@ -9863,7 +9861,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>240</v>
@@ -9881,13 +9879,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>10</v>
@@ -9897,7 +9895,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="34" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>92</v>
@@ -9911,19 +9909,19 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="35" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="D22" s="35">
         <v>13</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>10</v>
@@ -9963,7 +9961,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>78</v>
@@ -10002,7 +10000,7 @@
         <v>1003</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>158</v>
@@ -10073,7 +10071,7 @@
       </c>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="35"/>
@@ -10081,7 +10079,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>932</v>
@@ -10099,7 +10097,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>866</v>
@@ -10135,7 +10133,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>872</v>
@@ -10171,10 +10169,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="M29" s="35" t="s">
         <v>162</v>
@@ -10207,13 +10205,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="N30" s="66"/>
     </row>
@@ -10243,10 +10241,10 @@
         <v>14</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>846</v>
@@ -10279,10 +10277,10 @@
         <v>14</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="M32" s="35" t="s">
         <v>612</v>
@@ -10315,7 +10313,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>873</v>
@@ -10351,7 +10349,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>874</v>
@@ -10387,7 +10385,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>875</v>
@@ -10454,8 +10452,8 @@
       <c r="J37" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="34" t="s">
-        <v>1036</v>
+      <c r="K37" s="106" t="s">
+        <v>1295</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>877</v>
@@ -10523,7 +10521,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>94</v>
@@ -10559,7 +10557,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>879</v>
@@ -10605,7 +10603,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>823</v>
@@ -10637,7 +10635,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>777</v>
@@ -10751,7 +10749,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="106" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>163</v>
@@ -10801,7 +10799,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>341</v>
@@ -10819,7 +10817,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="106" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>524</v>
@@ -10829,7 +10827,7 @@
       </c>
       <c r="N48" s="51"/>
     </row>
-    <row r="49" spans="1:16383" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16383" ht="24" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="35"/>
@@ -10837,7 +10835,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>824</v>
@@ -10869,7 +10867,7 @@
         <v>41</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>778</v>
@@ -10981,7 +10979,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L53" s="35" t="s">
         <v>695</v>
@@ -11013,8 +11011,8 @@
       <c r="J54" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="34" t="s">
-        <v>1020</v>
+      <c r="K54" s="106" t="s">
+        <v>1301</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>255</v>
@@ -11050,7 +11048,7 @@
         <v>14</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="L55" s="35" t="s">
         <v>544</v>
@@ -27550,8 +27548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K27" activeCellId="1" sqref="K25 K27"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27603,7 +27601,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -27952,13 +27950,13 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
@@ -27973,7 +27971,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>967</v>
@@ -27991,7 +27989,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1042</v>
+        <v>1293</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>839</v>
@@ -28012,7 +28010,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1202</v>
+        <v>1187</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>685</v>
@@ -28028,7 +28026,7 @@
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="34" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="L13" s="70" t="s">
         <v>882</v>
@@ -28049,7 +28047,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1203</v>
+        <v>1188</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>966</v>
@@ -28066,8 +28064,8 @@
       <c r="J14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>1044</v>
+      <c r="K14" s="106" t="s">
+        <v>1291</v>
       </c>
       <c r="L14" s="70" t="s">
         <v>565</v>
@@ -28086,7 +28084,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>758</v>
@@ -28103,7 +28101,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="34"/>
       <c r="L15" s="49" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>120</v>
@@ -28137,7 +28135,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>262</v>
@@ -28156,7 +28154,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>365</v>
@@ -28206,8 +28204,8 @@
       <c r="J18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>1019</v>
+      <c r="K18" s="106" t="s">
+        <v>256</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>829</v>
@@ -28226,7 +28224,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>968</v>
@@ -28261,7 +28259,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>592</v>
@@ -28279,7 +28277,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L20" s="49" t="s">
         <v>590</v>
@@ -28296,7 +28294,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>825</v>
@@ -28329,7 +28327,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>779</v>
@@ -28428,7 +28426,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="F25" s="56" t="s">
         <v>413</v>
@@ -28446,7 +28444,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>211</v>
@@ -28498,7 +28496,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>345</v>
@@ -28516,7 +28514,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>524</v>
@@ -28535,7 +28533,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>826</v>
@@ -28568,7 +28566,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>780</v>
@@ -28683,7 +28681,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L32" s="35" t="s">
         <v>695</v>
@@ -28715,8 +28713,8 @@
       <c r="J33" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>1020</v>
+      <c r="K33" s="108" t="s">
+        <v>1301</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>255</v>
@@ -28858,8 +28856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28873,7 +28871,7 @@
     <col min="8" max="8" width="7.3984375" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.3984375" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="41" customWidth="1"/>
+    <col min="11" max="11" width="25.796875" style="41" customWidth="1"/>
     <col min="12" max="12" width="55.265625" style="2" customWidth="1"/>
     <col min="13" max="13" width="40.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.1328125" style="2"/>
@@ -28911,7 +28909,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>8</v>
@@ -29080,7 +29078,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>673</v>
@@ -29138,13 +29136,13 @@
         <v>14</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="60"/>
@@ -29181,7 +29179,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="35" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>98</v>
@@ -29224,7 +29222,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>584</v>
@@ -29270,7 +29268,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>997</v>
@@ -29291,18 +29289,18 @@
     <row r="11" spans="1:22" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="52"/>
       <c r="E11" s="56" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1296</v>
+        <v>1279</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -29313,11 +29311,11 @@
       <c r="J11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="56" t="s">
-        <v>1291</v>
+      <c r="K11" s="111" t="s">
+        <v>1294</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="M11" s="35"/>
     </row>
@@ -29348,11 +29346,11 @@
       <c r="J12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="56" t="s">
-        <v>1047</v>
+      <c r="K12" s="111" t="s">
+        <v>22</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>171</v>
@@ -29366,7 +29364,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>560</v>
@@ -29383,8 +29381,8 @@
       <c r="J13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>1048</v>
+      <c r="K13" s="110" t="s">
+        <v>1300</v>
       </c>
       <c r="L13" s="87" t="s">
         <v>884</v>
@@ -29412,7 +29410,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>548</v>
@@ -29430,7 +29428,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="L14" s="87" t="s">
         <v>697</v>
@@ -29476,7 +29474,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>835</v>
@@ -29521,8 +29519,8 @@
       <c r="J16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>1051</v>
+      <c r="K16" s="110" t="s">
+        <v>1297</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>173</v>
@@ -29568,7 +29566,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>19</v>
@@ -29614,10 +29612,10 @@
         <v>14</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>20</v>
@@ -29640,7 +29638,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="F19" s="95" t="s">
         <v>861</v>
@@ -29658,7 +29656,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L19" s="96" t="s">
         <v>836</v>
@@ -29702,7 +29700,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>713</v>
@@ -29746,10 +29744,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>162</v>
@@ -29790,13 +29788,13 @@
         <v>14</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
@@ -29834,10 +29832,10 @@
         <v>14</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>846</v>
@@ -29852,7 +29850,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="93.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -29878,10 +29876,10 @@
         <v>14</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>612</v>
@@ -29922,7 +29920,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>714</v>
@@ -29966,7 +29964,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>715</v>
@@ -30010,7 +30008,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>716</v>
@@ -30093,8 +30091,8 @@
       <c r="J29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>1036</v>
+      <c r="K29" s="110" t="s">
+        <v>1295</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>718</v>
@@ -30152,7 +30150,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30177,8 +30175,8 @@
       <c r="J31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>1054</v>
+      <c r="K31" s="110" t="s">
+        <v>1292</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>683</v>
@@ -30204,7 +30202,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>538</v>
@@ -30221,7 +30219,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>176</v>
@@ -30244,7 +30242,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>537</v>
@@ -30261,7 +30259,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>177</v>
@@ -30284,7 +30282,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>827</v>
@@ -30324,7 +30322,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>781</v>
@@ -30462,7 +30460,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="110" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>180</v>
@@ -30528,7 +30526,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>515</v>
@@ -30546,7 +30544,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>181</v>
@@ -30589,8 +30587,8 @@
       <c r="J41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>1019</v>
+      <c r="K41" s="110" t="s">
+        <v>256</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>829</v>
@@ -30634,7 +30632,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>695</v>
@@ -30666,8 +30664,8 @@
       <c r="J43" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>1020</v>
+      <c r="K43" s="110" t="s">
+        <v>1301</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>687</v>
@@ -30710,8 +30708,8 @@
       <c r="J44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>1020</v>
+      <c r="K44" s="110" t="s">
+        <v>1301</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>688</v>
@@ -30737,7 +30735,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1218</v>
+        <v>1203</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>532</v>
@@ -30777,7 +30775,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1219</v>
+        <v>1204</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>533</v>
@@ -30809,7 +30807,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -30817,13 +30815,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>148</v>
@@ -31184,7 +31182,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31236,7 +31234,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -31347,20 +31345,20 @@
     <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="52">
         <v>2</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>1298</v>
+        <v>1281</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>1299</v>
+        <v>1282</v>
       </c>
       <c r="H5" s="56" t="s">
         <v>10</v>
@@ -31372,19 +31370,19 @@
         <v>14</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="52">
@@ -31394,10 +31392,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>10</v>
@@ -31408,14 +31406,14 @@
       <c r="J6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="56" t="s">
-        <v>1047</v>
+      <c r="K6" s="111" t="s">
+        <v>22</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -31437,13 +31435,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>13</v>
@@ -31454,7 +31452,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>552</v>
@@ -31499,13 +31497,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>10</v>
@@ -31516,11 +31514,11 @@
       <c r="J9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="35" t="s">
-        <v>1058</v>
+      <c r="K9" s="107" t="s">
+        <v>1302</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>441</v>
@@ -31529,7 +31527,7 @@
     <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="52">
@@ -31539,10 +31537,10 @@
         <v>197</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -31553,8 +31551,8 @@
       <c r="J10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>1293</v>
+      <c r="K10" s="106" t="s">
+        <v>1277</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>197</v>
@@ -31588,8 +31586,8 @@
       <c r="J11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="35" t="s">
-        <v>1294</v>
+      <c r="K11" s="107" t="s">
+        <v>1278</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>557</v>
@@ -31624,7 +31622,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>246</v>
@@ -31636,53 +31634,53 @@
     <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="103"/>
       <c r="B13" s="56" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="52">
         <v>10</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="103"/>
       <c r="B14" s="56" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="52">
         <v>11</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>10</v>
@@ -31693,15 +31691,15 @@
       <c r="J14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="35" t="s">
-        <v>1058</v>
+      <c r="K14" s="107" t="s">
+        <v>1302</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -31726,8 +31724,8 @@
       <c r="J15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="35" t="s">
-        <v>1019</v>
+      <c r="K15" s="107" t="s">
+        <v>256</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>829</v>
@@ -31761,7 +31759,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -31791,10 +31789,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="L17" s="104" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="M17" s="35"/>
     </row>
@@ -31808,8 +31806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31860,7 +31858,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -32019,10 +32017,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>899</v>
@@ -32036,7 +32034,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>189</v>
@@ -32045,20 +32043,20 @@
     <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="52">
         <v>3</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1300</v>
+        <v>1283</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>10</v>
@@ -32069,20 +32067,20 @@
       <c r="J7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="56" t="s">
-        <v>1291</v>
+      <c r="K7" s="111" t="s">
+        <v>1294</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="52">
@@ -32092,10 +32090,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>10</v>
@@ -32106,14 +32104,14 @@
       <c r="J8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="56" t="s">
-        <v>1047</v>
+      <c r="K8" s="111" t="s">
+        <v>22</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -32142,7 +32140,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>259</v>
@@ -32159,7 +32157,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>760</v>
@@ -32192,13 +32190,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -32209,8 +32207,8 @@
       <c r="J11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>1058</v>
+      <c r="K11" s="106" t="s">
+        <v>1302</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>886</v>
@@ -32227,13 +32225,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>10</v>
@@ -32258,13 +32256,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>10</v>
@@ -32276,13 +32274,13 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1081</v>
+        <v>1298</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
@@ -32310,8 +32308,8 @@
       <c r="J14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>1293</v>
+      <c r="K14" s="106" t="s">
+        <v>1277</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>192</v>
@@ -32345,8 +32343,8 @@
       <c r="J15" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>1294</v>
+      <c r="K15" s="106" t="s">
+        <v>1278</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>557</v>
@@ -32358,20 +32356,20 @@
     <row r="16" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="52">
         <v>12</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>10</v>
@@ -32383,30 +32381,30 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A17" s="56"/>
       <c r="B17" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="52">
         <v>13</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="H17" s="56" t="s">
         <v>10</v>
@@ -32417,31 +32415,31 @@
       <c r="J17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>1090</v>
+      <c r="K17" s="106" t="s">
+        <v>1290</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="52">
         <v>14</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>148</v>
@@ -32452,30 +32450,30 @@
       <c r="J18" s="56"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="52">
         <v>15</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>11</v>
@@ -32483,27 +32481,27 @@
       <c r="J19" s="56"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="52">
         <v>16</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>10</v>
@@ -32514,11 +32512,11 @@
       <c r="J20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="34" t="s">
-        <v>1058</v>
+      <c r="K20" s="106" t="s">
+        <v>1302</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -32530,7 +32528,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>828</v>
@@ -32561,7 +32559,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>782</v>
@@ -32672,7 +32670,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>196</v>
@@ -32737,8 +32735,8 @@
       <c r="J27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>1019</v>
+      <c r="K27" s="108" t="s">
+        <v>256</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>829</v>
@@ -32757,7 +32755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -32771,7 +32771,7 @@
     <col min="8" max="8" width="11.86328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="9.3984375" style="10" customWidth="1"/>
     <col min="10" max="10" width="9.1328125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="77" customWidth="1"/>
     <col min="12" max="12" width="35" style="10" customWidth="1"/>
     <col min="13" max="13" width="50.3984375" style="10" customWidth="1"/>
     <col min="14" max="16384" width="8.86328125" style="2"/>
@@ -32809,7 +32809,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -32915,7 +32915,7 @@
         <v>834</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>108</v>
@@ -32946,14 +32946,14 @@
       <c r="J5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="35" t="s">
-        <v>1014</v>
+      <c r="K5" s="107" t="s">
+        <v>1299</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>1012</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
@@ -33003,7 +33003,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>750</v>
@@ -33034,7 +33034,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>302</v>
@@ -33052,7 +33052,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>248</v>
@@ -33089,7 +33089,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>112</v>
@@ -33109,10 +33109,10 @@
         <v>689</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -33124,10 +33124,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="M10" s="34"/>
     </row>
@@ -33142,10 +33142,10 @@
         <v>255</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -33156,8 +33156,8 @@
       <c r="J11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>1020</v>
+      <c r="K11" s="106" t="s">
+        <v>1301</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>255</v>
@@ -33735,7 +33735,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33784,7 +33784,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -34021,7 +34021,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>259</v>
@@ -34075,7 +34075,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>751</v>
@@ -34092,7 +34092,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>120</v>
@@ -34106,7 +34106,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>315</v>
@@ -34124,7 +34124,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>262</v>
@@ -34141,7 +34141,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>316</v>
@@ -34189,8 +34189,8 @@
       <c r="J13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>1019</v>
+      <c r="K13" s="107" t="s">
+        <v>256</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>829</v>
@@ -34207,7 +34207,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>813</v>
@@ -34238,7 +34238,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>761</v>
@@ -34349,7 +34349,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="107" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>201</v>
@@ -34397,7 +34397,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>320</v>
@@ -34415,7 +34415,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="107" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L20" s="57" t="s">
         <v>524</v>
@@ -34432,7 +34432,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>812</v>
@@ -34463,7 +34463,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>762</v>
@@ -34572,7 +34572,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>695</v>
@@ -34604,8 +34604,8 @@
       <c r="J26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>1020</v>
+      <c r="K26" s="108" t="s">
+        <v>1301</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -34644,8 +34644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K20" activeCellId="1" sqref="K18 K20"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34695,7 +34695,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -34866,13 +34866,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -34883,7 +34883,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>944</v>
@@ -34901,7 +34901,7 @@
         <v>91</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>631</v>
@@ -34918,13 +34918,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -34950,13 +34950,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>10</v>
@@ -34968,7 +34968,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
@@ -34998,10 +34998,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -35030,7 +35030,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>262</v>
@@ -35047,7 +35047,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>350</v>
@@ -35095,8 +35095,8 @@
       <c r="J13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>1019</v>
+      <c r="K13" s="107" t="s">
+        <v>256</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>829</v>
@@ -35113,7 +35113,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>814</v>
@@ -35144,7 +35144,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>763</v>
@@ -35255,7 +35255,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="107" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>201</v>
@@ -35303,7 +35303,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>324</v>
@@ -35321,7 +35321,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="107" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>524</v>
@@ -35338,7 +35338,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>815</v>
@@ -35369,7 +35369,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>764</v>
@@ -35478,7 +35478,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>695</v>
@@ -35510,8 +35510,8 @@
       <c r="J26" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="35" t="s">
-        <v>1020</v>
+      <c r="K26" s="107" t="s">
+        <v>1301</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -35580,7 +35580,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -35631,7 +35631,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -35774,7 +35774,7 @@
         <v>1003</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>115</v>
@@ -35808,7 +35808,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>54</v>
@@ -35828,7 +35828,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K20" activeCellId="1" sqref="K18 K20"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35879,7 +35879,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -36106,7 +36106,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>580</v>
@@ -36121,11 +36121,11 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>577</v>
@@ -36157,13 +36157,13 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -36174,7 +36174,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>753</v>
@@ -36191,10 +36191,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -36223,7 +36223,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>262</v>
@@ -36240,7 +36240,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>353</v>
@@ -36288,8 +36288,8 @@
       <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>1019</v>
+      <c r="K13" s="108" t="s">
+        <v>256</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>829</v>
@@ -36306,7 +36306,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>691</v>
@@ -36337,7 +36337,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>694</v>
@@ -36448,7 +36448,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>122</v>
@@ -36496,7 +36496,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>328</v>
@@ -36514,7 +36514,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>524</v>
@@ -36531,7 +36531,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>816</v>
@@ -36562,7 +36562,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>765</v>
@@ -36671,7 +36671,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>695</v>
@@ -36703,8 +36703,8 @@
       <c r="J26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>1020</v>
+      <c r="K26" s="108" t="s">
+        <v>1301</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>255</v>
@@ -36745,8 +36745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K31" activeCellId="1" sqref="K29 K31"/>
+    <sheetView topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36797,7 +36797,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -37084,7 +37084,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>855</v>
@@ -37099,11 +37099,11 @@
         <v>11</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="M10" s="12"/>
     </row>
@@ -37166,13 +37166,13 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -37183,7 +37183,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>754</v>
@@ -37200,7 +37200,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>120</v>
@@ -37214,7 +37214,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>279</v>
@@ -37232,7 +37232,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>262</v>
@@ -37249,7 +37249,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>280</v>
@@ -37297,8 +37297,8 @@
       <c r="J16" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>1019</v>
+      <c r="K16" s="107" t="s">
+        <v>256</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>829</v>
@@ -37333,13 +37333,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -37350,10 +37350,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>290</v>
@@ -37369,10 +37369,10 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="N18" s="101"/>
     </row>
@@ -37402,13 +37402,13 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37467,10 +37467,10 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37501,7 +37501,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>127</v>
@@ -37520,7 +37520,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>250</v>
@@ -37568,10 +37568,10 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37582,7 +37582,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>817</v>
@@ -37613,7 +37613,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>771</v>
@@ -37724,7 +37724,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="109" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>562</v>
@@ -37772,7 +37772,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>287</v>
@@ -37788,7 +37788,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="109" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>524</v>
@@ -37805,7 +37805,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1183</v>
+        <v>1168</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>818</v>
@@ -37836,7 +37836,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>1184</v>
+        <v>1169</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>772</v>
@@ -37945,7 +37945,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>695</v>
@@ -37977,8 +37977,8 @@
       <c r="J37" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="12" t="s">
-        <v>1020</v>
+      <c r="K37" s="109" t="s">
+        <v>1301</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>255</v>
@@ -38065,8 +38065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K51" activeCellId="1" sqref="K53 K51"/>
+    <sheetView topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38080,7 +38080,8 @@
     <col min="7" max="7" width="16.73046875" style="89" customWidth="1"/>
     <col min="8" max="8" width="11" style="89" customWidth="1"/>
     <col min="9" max="9" width="9.3984375" style="89" customWidth="1"/>
-    <col min="10" max="11" width="20.73046875" style="89" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="89" customWidth="1"/>
+    <col min="11" max="11" width="29.265625" style="89" customWidth="1"/>
     <col min="12" max="12" width="59.265625" style="94" customWidth="1"/>
     <col min="13" max="13" width="57.1328125" style="94" customWidth="1"/>
     <col min="14" max="16384" width="20.1328125" style="89"/>
@@ -38118,7 +38119,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -38292,13 +38293,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="N6" s="90"/>
     </row>
@@ -38342,7 +38343,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>755</v>
@@ -38359,7 +38360,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>120</v>
@@ -38392,7 +38393,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>262</v>
@@ -38410,7 +38411,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>356</v>
@@ -38459,8 +38460,8 @@
       <c r="J11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>1019</v>
+      <c r="K11" s="106" t="s">
+        <v>256</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>829</v>
@@ -38496,7 +38497,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>71</v>
@@ -38532,7 +38533,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>134</v>
@@ -38568,7 +38569,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>684</v>
@@ -38586,7 +38587,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1185</v>
+        <v>1170</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>449</v>
@@ -38603,10 +38604,10 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="N15" s="90"/>
     </row>
@@ -38618,7 +38619,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1186</v>
+        <v>1171</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>450</v>
@@ -38635,10 +38636,10 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="N16" s="90"/>
     </row>
@@ -38650,7 +38651,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1187</v>
+        <v>1172</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>451</v>
@@ -38667,10 +38668,10 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="N17" s="90"/>
     </row>
@@ -38682,7 +38683,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1188</v>
+        <v>1173</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>452</v>
@@ -38699,10 +38700,10 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="N18" s="90"/>
     </row>
@@ -38731,10 +38732,10 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="N19" s="90"/>
     </row>
@@ -38743,16 +38744,16 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>10</v>
@@ -38763,14 +38764,14 @@
       <c r="J20" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="34" t="s">
-        <v>1295</v>
+      <c r="K20" s="106" t="s">
+        <v>1296</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="N20" s="90"/>
     </row>
@@ -38779,16 +38780,16 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -38799,10 +38800,10 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="N21" s="90"/>
     </row>
@@ -38942,7 +38943,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>863</v>
@@ -38960,7 +38961,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>865</v>
@@ -38996,7 +38997,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>869</v>
@@ -39032,10 +39033,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>139</v>
@@ -39068,13 +39069,13 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="N29" s="90"/>
     </row>
@@ -39104,13 +39105,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="N30" s="90"/>
     </row>
@@ -39122,7 +39123,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>466</v>
@@ -39139,7 +39140,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>140</v>
@@ -39154,7 +39155,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>468</v>
@@ -39204,10 +39205,10 @@
         <v>14</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="M33" s="35" t="s">
         <v>619</v>
@@ -39240,7 +39241,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L34" s="35" t="s">
         <v>613</v>
@@ -39276,7 +39277,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="L35" s="35" t="s">
         <v>614</v>
@@ -39312,7 +39313,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>77</v>
@@ -39379,14 +39380,14 @@
       <c r="J38" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="34" t="s">
-        <v>1036</v>
+      <c r="K38" s="106" t="s">
+        <v>1295</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="N38" s="90"/>
     </row>
@@ -39448,7 +39449,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>95</v>
@@ -39465,13 +39466,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>10</v>
@@ -39482,14 +39483,14 @@
       <c r="J41" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K41" s="34" t="s">
-        <v>1283</v>
+      <c r="K41" s="106" t="s">
+        <v>1287</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="N41" s="98"/>
     </row>
@@ -39498,16 +39499,16 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>10</v>
@@ -39518,14 +39519,14 @@
       <c r="J42" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="34" t="s">
-        <v>1120</v>
+      <c r="K42" s="106" t="s">
+        <v>1288</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="N42" s="97"/>
     </row>
@@ -39534,16 +39535,16 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>1096</v>
       </c>
-      <c r="E43" s="34" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>1110</v>
-      </c>
       <c r="G43" s="34" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>10</v>
@@ -39554,14 +39555,14 @@
       <c r="J43" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="34" t="s">
-        <v>1283</v>
+      <c r="K43" s="106" t="s">
+        <v>1287</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="N43" s="98"/>
     </row>
@@ -39570,16 +39571,16 @@
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="56" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>10</v>
@@ -39590,14 +39591,14 @@
       <c r="J44" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="34" t="s">
-        <v>1120</v>
+      <c r="K44" s="106" t="s">
+        <v>1288</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="N44" s="97"/>
     </row>
@@ -39638,7 +39639,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>567</v>
@@ -39655,8 +39656,8 @@
       <c r="J46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K46" s="15" t="s">
-        <v>1039</v>
+      <c r="K46" s="108" t="s">
+        <v>1289</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>840</v>
@@ -39673,7 +39674,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>819</v>
@@ -39704,7 +39705,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>773</v>
@@ -39721,7 +39722,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="12" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>1002</v>
@@ -39815,7 +39816,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>138</v>
@@ -39863,7 +39864,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>332</v>
@@ -39879,7 +39880,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="108" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>524</v>
@@ -39896,7 +39897,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>820</v>
@@ -39927,7 +39928,7 @@
         <v>46</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>774</v>
@@ -40036,7 +40037,7 @@
         <v>14</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L58" s="12" t="s">
         <v>695</v>
@@ -40069,8 +40070,8 @@
       <c r="J59" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="15" t="s">
-        <v>1020</v>
+      <c r="K59" s="108" t="s">
+        <v>1301</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>255</v>
@@ -40199,8 +40200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" activeCellId="1" sqref="K22 K24"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40247,7 +40248,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -40413,13 +40414,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.45">
@@ -40432,7 +40433,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>628</v>
@@ -40450,7 +40451,7 @@
         <v>632</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L7" s="59" t="s">
         <v>631</v>
@@ -40471,13 +40472,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>10</v>
@@ -40503,7 +40504,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>432</v>
@@ -40521,7 +40522,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>151</v>
@@ -40604,7 +40605,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>756</v>
@@ -40621,7 +40622,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>120</v>
@@ -40653,7 +40654,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>262</v>
@@ -40670,7 +40671,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>359</v>
@@ -40718,8 +40719,8 @@
       <c r="J15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>1019</v>
+      <c r="K15" s="106" t="s">
+        <v>256</v>
       </c>
       <c r="L15" s="35" t="s">
         <v>829</v>
@@ -40771,7 +40772,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>430</v>
@@ -40802,7 +40803,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>821</v>
@@ -40833,7 +40834,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>775</v>
@@ -40944,7 +40945,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>150</v>
@@ -40992,7 +40993,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>336</v>
@@ -41010,7 +41011,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="106" t="s">
-        <v>1303</v>
+        <v>1286</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>524</v>
@@ -41027,7 +41028,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>822</v>
@@ -41058,7 +41059,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>776</v>
@@ -41167,10 +41168,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="M29" s="34"/>
     </row>
@@ -41199,8 +41200,8 @@
       <c r="J30" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>1020</v>
+      <c r="K30" s="106" t="s">
+        <v>1301</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>255</v>
@@ -41220,27 +41221,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41412,31 +41392,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41452,4 +41429,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621ADA0C-6EAA-4B1A-94B6-119EA333811E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874A91F-65D3-403E-BA3A-4CB64EAD759F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.3" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.5" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1300">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -3318,9 +3318,6 @@
     <t>TargetSpecies</t>
   </si>
   <si>
-    <t>RS_incidentialByCatchMitigateD</t>
-  </si>
-  <si>
     <t>RS_LocationType</t>
   </si>
   <si>
@@ -3345,16 +3342,10 @@
     <t>RS_CommercialSizeCategory</t>
   </si>
   <si>
-    <t>RS_Sex</t>
-  </si>
-  <si>
     <t>RS_LowerHierarchy</t>
   </si>
   <si>
     <t>RS_AccuracyCode</t>
-  </si>
-  <si>
-    <t>RS_AddGrpMeasurementType</t>
   </si>
   <si>
     <t>RS_LEfullTripAvailable</t>
@@ -4063,9 +4054,6 @@
     <t>SAconFacMeasLive</t>
   </si>
   <si>
-    <t>RS_StateOfProcessing</t>
-  </si>
-  <si>
     <t>The stratum of this sample, 'U' if unstratified. Name should be as concise and meaningful as possible.</t>
   </si>
   <si>
@@ -4145,6 +4133,9 @@
   </si>
   <si>
     <t>BiologicalMeasurementType</t>
+  </si>
+  <si>
+    <t>SEXCO</t>
   </si>
 </sst>
 </file>
@@ -5008,7 +4999,7 @@
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="105" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D2" s="19"/>
       <c r="L2" s="17"/>
@@ -7214,7 +7205,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7660,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7705,7 +7696,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -8432,7 +8423,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -9141,8 +9132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:XFC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9157,7 +9148,7 @@
     <col min="8" max="8" width="13.3984375" style="16" customWidth="1"/>
     <col min="9" max="9" width="9.1328125" style="16" customWidth="1"/>
     <col min="10" max="10" width="20.73046875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.73046875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="26.86328125" style="81" customWidth="1"/>
     <col min="12" max="12" width="63.1328125" style="13" customWidth="1"/>
     <col min="13" max="13" width="57.1328125" style="13" customWidth="1"/>
     <col min="14" max="14" width="25.3984375" style="2" bestFit="1" customWidth="1"/>
@@ -9535,7 +9526,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>929</v>
@@ -9550,11 +9541,11 @@
         <v>11</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>577</v>
@@ -9590,10 +9581,10 @@
         <v>1014</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="N12" s="51"/>
     </row>
@@ -9656,10 +9647,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -9671,7 +9662,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>757</v>
@@ -9688,10 +9679,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="N15" s="51"/>
     </row>
@@ -9739,7 +9730,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>362</v>
@@ -9879,13 +9870,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>10</v>
@@ -9909,19 +9900,19 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="35" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D22" s="35">
         <v>13</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>10</v>
@@ -9961,7 +9952,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>78</v>
@@ -10000,7 +9991,7 @@
         <v>1003</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>158</v>
@@ -10079,7 +10070,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>932</v>
@@ -10172,7 +10163,7 @@
         <v>1026</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="M29" s="35" t="s">
         <v>162</v>
@@ -10208,10 +10199,10 @@
         <v>1027</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="N30" s="66"/>
     </row>
@@ -10244,7 +10235,7 @@
         <v>1028</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="M31" s="34" t="s">
         <v>846</v>
@@ -10280,7 +10271,7 @@
         <v>1029</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M32" s="35" t="s">
         <v>612</v>
@@ -10453,7 +10444,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="106" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>877</v>
@@ -10556,8 +10547,8 @@
       <c r="J40" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="34" t="s">
-        <v>1034</v>
+      <c r="K40" s="106" t="s">
+        <v>1283</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>879</v>
@@ -10603,7 +10594,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>823</v>
@@ -10635,7 +10626,7 @@
         <v>34</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>777</v>
@@ -10749,7 +10740,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="106" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>163</v>
@@ -10799,7 +10790,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>341</v>
@@ -10817,7 +10808,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="106" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>524</v>
@@ -10827,7 +10818,7 @@
       </c>
       <c r="N48" s="51"/>
     </row>
-    <row r="49" spans="1:16383" ht="24" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16383" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="35"/>
@@ -10835,7 +10826,7 @@
         <v>40</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>824</v>
@@ -10867,7 +10858,7 @@
         <v>41</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>778</v>
@@ -11012,7 +11003,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="106" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>255</v>
@@ -11048,7 +11039,7 @@
         <v>14</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L55" s="35" t="s">
         <v>544</v>
@@ -27953,10 +27944,10 @@
         <v>1014</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
@@ -27971,7 +27962,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>967</v>
@@ -27989,7 +27980,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>839</v>
@@ -28010,7 +28001,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>685</v>
@@ -28026,7 +28017,7 @@
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L13" s="70" t="s">
         <v>882</v>
@@ -28047,7 +28038,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="F14" s="56" t="s">
         <v>966</v>
@@ -28065,7 +28056,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="106" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="L14" s="70" t="s">
         <v>565</v>
@@ -28084,7 +28075,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>758</v>
@@ -28101,7 +28092,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="34"/>
       <c r="L15" s="49" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>120</v>
@@ -28154,7 +28145,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>365</v>
@@ -28224,7 +28215,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>968</v>
@@ -28259,7 +28250,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>592</v>
@@ -28294,7 +28285,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>825</v>
@@ -28327,7 +28318,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>779</v>
@@ -28426,7 +28417,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="F25" s="56" t="s">
         <v>413</v>
@@ -28444,7 +28435,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>211</v>
@@ -28496,7 +28487,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>345</v>
@@ -28514,7 +28505,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>524</v>
@@ -28533,7 +28524,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>826</v>
@@ -28566,7 +28557,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>780</v>
@@ -28714,7 +28705,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="108" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>255</v>
@@ -28856,8 +28847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29078,7 +29069,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>673</v>
@@ -29139,10 +29130,10 @@
         <v>1014</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="60"/>
@@ -29179,7 +29170,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="35" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>98</v>
@@ -29222,7 +29213,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>584</v>
@@ -29268,7 +29259,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>997</v>
@@ -29289,18 +29280,18 @@
     <row r="11" spans="1:22" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="52"/>
       <c r="E11" s="56" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -29312,10 +29303,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="111" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="M11" s="35"/>
     </row>
@@ -29350,7 +29341,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>171</v>
@@ -29364,7 +29355,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>560</v>
@@ -29382,7 +29373,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="110" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="L13" s="87" t="s">
         <v>884</v>
@@ -29410,7 +29401,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>548</v>
@@ -29428,7 +29419,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L14" s="87" t="s">
         <v>697</v>
@@ -29474,7 +29465,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>835</v>
@@ -29520,7 +29511,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="110" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>173</v>
@@ -29566,7 +29557,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>19</v>
@@ -29611,11 +29602,11 @@
       <c r="J18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>1043</v>
+      <c r="K18" s="110" t="s">
+        <v>1299</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>20</v>
@@ -29638,7 +29629,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F19" s="95" t="s">
         <v>861</v>
@@ -29747,7 +29738,7 @@
         <v>1026</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>162</v>
@@ -29791,10 +29782,10 @@
         <v>1027</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
@@ -29835,7 +29826,7 @@
         <v>1028</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M23" s="12" t="s">
         <v>846</v>
@@ -29850,7 +29841,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="93.75" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -29879,7 +29870,7 @@
         <v>1029</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M24" s="12" t="s">
         <v>612</v>
@@ -30092,7 +30083,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="110" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="L29" s="12" t="s">
         <v>718</v>
@@ -30150,7 +30141,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30176,7 +30167,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="110" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="L31" s="12" t="s">
         <v>683</v>
@@ -30202,7 +30193,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>538</v>
@@ -30219,7 +30210,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>176</v>
@@ -30242,7 +30233,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>537</v>
@@ -30259,7 +30250,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>177</v>
@@ -30282,7 +30273,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>827</v>
@@ -30322,7 +30313,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>781</v>
@@ -30460,7 +30451,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="110" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>180</v>
@@ -30526,7 +30517,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>515</v>
@@ -30544,7 +30535,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>181</v>
@@ -30665,7 +30656,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="110" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>687</v>
@@ -30709,7 +30700,7 @@
         <v>14</v>
       </c>
       <c r="K44" s="110" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>688</v>
@@ -30735,7 +30726,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>532</v>
@@ -30775,7 +30766,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>533</v>
@@ -30807,7 +30798,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -30815,13 +30806,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>148</v>
@@ -31181,8 +31172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31345,20 +31336,20 @@
     <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="52">
         <v>2</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="H5" s="56" t="s">
         <v>10</v>
@@ -31369,20 +31360,20 @@
       <c r="J5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="56" t="s">
-        <v>1275</v>
+      <c r="K5" s="111" t="s">
+        <v>1290</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="52">
@@ -31392,10 +31383,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>10</v>
@@ -31410,10 +31401,10 @@
         <v>22</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -31435,13 +31426,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>13</v>
@@ -31452,7 +31443,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>552</v>
@@ -31497,13 +31488,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>10</v>
@@ -31515,10 +31506,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="107" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>441</v>
@@ -31527,7 +31518,7 @@
     <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="52">
@@ -31537,10 +31528,10 @@
         <v>197</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -31552,7 +31543,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="106" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>197</v>
@@ -31587,7 +31578,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>557</v>
@@ -31622,7 +31613,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>246</v>
@@ -31634,53 +31625,53 @@
     <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="103"/>
       <c r="B13" s="56" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="52">
         <v>10</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="103"/>
       <c r="B14" s="56" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="52">
         <v>11</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>10</v>
@@ -31692,10 +31683,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="107" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -31759,7 +31750,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -31788,11 +31779,11 @@
       <c r="J17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="35" t="s">
-        <v>1046</v>
+      <c r="K17" s="107" t="s">
+        <v>1298</v>
       </c>
       <c r="L17" s="104" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="M17" s="35"/>
     </row>
@@ -32017,10 +32008,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>899</v>
@@ -32034,7 +32025,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>189</v>
@@ -32043,20 +32034,20 @@
     <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="52">
         <v>3</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>10</v>
@@ -32068,19 +32059,19 @@
         <v>14</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="52">
@@ -32090,10 +32081,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>10</v>
@@ -32108,10 +32099,10 @@
         <v>22</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -32157,7 +32148,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>760</v>
@@ -32190,13 +32181,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -32208,7 +32199,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="106" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>886</v>
@@ -32225,13 +32216,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>10</v>
@@ -32256,13 +32247,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>10</v>
@@ -32274,13 +32265,13 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
@@ -32309,7 +32300,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="106" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>192</v>
@@ -32344,7 +32335,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="106" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>557</v>
@@ -32356,20 +32347,20 @@
     <row r="16" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="52">
         <v>12</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>10</v>
@@ -32381,30 +32372,30 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A17" s="56"/>
       <c r="B17" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="52">
         <v>13</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="H17" s="56" t="s">
         <v>10</v>
@@ -32416,30 +32407,30 @@
         <v>14</v>
       </c>
       <c r="K17" s="106" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="52">
         <v>14</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>148</v>
@@ -32450,30 +32441,30 @@
       <c r="J18" s="56"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="52">
         <v>15</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="H19" s="56" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>11</v>
@@ -32481,27 +32472,27 @@
       <c r="J19" s="56"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="52">
         <v>16</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>10</v>
@@ -32513,10 +32504,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="106" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -32528,7 +32519,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>828</v>
@@ -32559,7 +32550,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>782</v>
@@ -32670,7 +32661,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>196</v>
@@ -32755,7 +32746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -32915,7 +32906,7 @@
         <v>834</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>108</v>
@@ -32947,13 +32938,13 @@
         <v>14</v>
       </c>
       <c r="K5" s="107" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>1012</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
@@ -33003,7 +32994,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>750</v>
@@ -33034,7 +33025,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>302</v>
@@ -33109,10 +33100,10 @@
         <v>689</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -33127,7 +33118,7 @@
         <v>1014</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="M10" s="34"/>
     </row>
@@ -33142,10 +33133,10 @@
         <v>255</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -33157,7 +33148,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="106" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>255</v>
@@ -34075,7 +34066,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>751</v>
@@ -34092,7 +34083,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>120</v>
@@ -34106,7 +34097,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>315</v>
@@ -34141,7 +34132,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>316</v>
@@ -34207,7 +34198,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>813</v>
@@ -34238,7 +34229,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>761</v>
@@ -34349,7 +34340,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="107" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>201</v>
@@ -34397,7 +34388,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>320</v>
@@ -34415,7 +34406,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="107" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L20" s="57" t="s">
         <v>524</v>
@@ -34432,7 +34423,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>812</v>
@@ -34463,7 +34454,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>762</v>
@@ -34605,7 +34596,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="108" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -34869,10 +34860,10 @@
         <v>1014</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -34883,7 +34874,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>944</v>
@@ -34918,13 +34909,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>1219</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>1222</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -34950,13 +34941,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>10</v>
@@ -34968,7 +34959,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
@@ -34998,10 +34989,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -35047,7 +35038,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>350</v>
@@ -35113,7 +35104,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>814</v>
@@ -35144,7 +35135,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>763</v>
@@ -35255,7 +35246,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="107" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>201</v>
@@ -35303,7 +35294,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>324</v>
@@ -35321,7 +35312,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="107" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>524</v>
@@ -35338,7 +35329,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F21" s="34" t="s">
         <v>815</v>
@@ -35369,7 +35360,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>764</v>
@@ -35511,7 +35502,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="107" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -35774,7 +35765,7 @@
         <v>1003</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>115</v>
@@ -36106,7 +36097,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>580</v>
@@ -36121,11 +36112,11 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>577</v>
@@ -36160,10 +36151,10 @@
         <v>1014</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -36174,7 +36165,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>753</v>
@@ -36191,10 +36182,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -36240,7 +36231,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>353</v>
@@ -36306,7 +36297,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>691</v>
@@ -36337,7 +36328,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>694</v>
@@ -36448,7 +36439,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>122</v>
@@ -36496,7 +36487,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>328</v>
@@ -36514,7 +36505,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>524</v>
@@ -36531,7 +36522,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>816</v>
@@ -36562,7 +36553,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>765</v>
@@ -36704,7 +36695,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="108" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>255</v>
@@ -36746,7 +36737,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -37084,7 +37075,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>855</v>
@@ -37099,11 +37090,11 @@
         <v>11</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M10" s="12"/>
     </row>
@@ -37169,10 +37160,10 @@
         <v>1014</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -37183,7 +37174,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>754</v>
@@ -37200,7 +37191,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>120</v>
@@ -37214,7 +37205,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>279</v>
@@ -37249,7 +37240,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>280</v>
@@ -37336,10 +37327,10 @@
         <v>1020</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -37350,10 +37341,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>290</v>
@@ -37369,10 +37360,10 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="N18" s="101"/>
     </row>
@@ -37405,10 +37396,10 @@
         <v>1018</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37467,10 +37458,10 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37520,7 +37511,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>250</v>
@@ -37568,10 +37559,10 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37582,7 +37573,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>817</v>
@@ -37613,7 +37604,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>771</v>
@@ -37724,7 +37715,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="109" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>562</v>
@@ -37772,7 +37763,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>287</v>
@@ -37788,7 +37779,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="109" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>524</v>
@@ -37805,7 +37796,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>818</v>
@@ -37836,7 +37827,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>772</v>
@@ -37978,7 +37969,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="109" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>255</v>
@@ -38296,10 +38287,10 @@
         <v>1014</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="N6" s="90"/>
     </row>
@@ -38343,7 +38334,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>755</v>
@@ -38360,7 +38351,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>120</v>
@@ -38411,7 +38402,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>356</v>
@@ -38587,7 +38578,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>449</v>
@@ -38604,10 +38595,10 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="N15" s="90"/>
     </row>
@@ -38619,7 +38610,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>450</v>
@@ -38636,10 +38627,10 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="N16" s="90"/>
     </row>
@@ -38651,7 +38642,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>451</v>
@@ -38668,10 +38659,10 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="N17" s="90"/>
     </row>
@@ -38683,7 +38674,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>452</v>
@@ -38700,10 +38691,10 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="N18" s="90"/>
     </row>
@@ -38732,10 +38723,10 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="N19" s="90"/>
     </row>
@@ -38744,16 +38735,16 @@
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>1082</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>1085</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>10</v>
@@ -38765,13 +38756,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="106" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="N20" s="90"/>
     </row>
@@ -38780,16 +38771,16 @@
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -38800,10 +38791,10 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="N21" s="90"/>
     </row>
@@ -38943,7 +38934,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>863</v>
@@ -39036,7 +39027,7 @@
         <v>1026</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>139</v>
@@ -39072,10 +39063,10 @@
         <v>1027</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="N29" s="90"/>
     </row>
@@ -39108,10 +39099,10 @@
         <v>1028</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="N30" s="90"/>
     </row>
@@ -39123,7 +39114,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>466</v>
@@ -39140,7 +39131,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>140</v>
@@ -39155,7 +39146,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>468</v>
@@ -39208,7 +39199,7 @@
         <v>1029</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="M33" s="35" t="s">
         <v>619</v>
@@ -39381,13 +39372,13 @@
         <v>14</v>
       </c>
       <c r="K38" s="106" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="N38" s="90"/>
     </row>
@@ -39466,13 +39457,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>10</v>
@@ -39484,13 +39475,13 @@
         <v>14</v>
       </c>
       <c r="K41" s="106" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="N41" s="98"/>
     </row>
@@ -39499,16 +39490,16 @@
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E42" s="34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>1098</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>1101</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>10</v>
@@ -39520,13 +39511,13 @@
         <v>14</v>
       </c>
       <c r="K42" s="106" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="N42" s="97"/>
     </row>
@@ -39535,16 +39526,16 @@
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E43" s="34" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G43" s="34" t="s">
         <v>1099</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>1096</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>1102</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>10</v>
@@ -39556,13 +39547,13 @@
         <v>14</v>
       </c>
       <c r="K43" s="106" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="N43" s="98"/>
     </row>
@@ -39571,16 +39562,16 @@
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="56" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="E44" s="34" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>1100</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>1103</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>10</v>
@@ -39592,13 +39583,13 @@
         <v>14</v>
       </c>
       <c r="K44" s="106" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="N44" s="97"/>
     </row>
@@ -39639,7 +39630,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>567</v>
@@ -39657,7 +39648,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="108" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>840</v>
@@ -39674,7 +39665,7 @@
         <v>38</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>819</v>
@@ -39705,7 +39696,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>773</v>
@@ -39722,7 +39713,7 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="12" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M48" s="12" t="s">
         <v>1002</v>
@@ -39816,7 +39807,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>138</v>
@@ -39864,7 +39855,7 @@
         <v>44</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>332</v>
@@ -39880,7 +39871,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="108" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>524</v>
@@ -39897,7 +39888,7 @@
         <v>45</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>820</v>
@@ -39928,7 +39919,7 @@
         <v>46</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>774</v>
@@ -40071,7 +40062,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="108" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>255</v>
@@ -40417,10 +40408,10 @@
         <v>1014</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.45">
@@ -40433,7 +40424,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>628</v>
@@ -40472,13 +40463,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>10</v>
@@ -40504,7 +40495,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>432</v>
@@ -40522,7 +40513,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>151</v>
@@ -40605,7 +40596,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>756</v>
@@ -40622,7 +40613,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>120</v>
@@ -40671,7 +40662,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>359</v>
@@ -40772,7 +40763,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>430</v>
@@ -40803,7 +40794,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>821</v>
@@ -40834,7 +40825,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>775</v>
@@ -40945,7 +40936,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>150</v>
@@ -40993,7 +40984,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>336</v>
@@ -41011,7 +41002,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="106" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>524</v>
@@ -41028,7 +41019,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>822</v>
@@ -41051,7 +41042,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -41059,7 +41050,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="F26" s="34" t="s">
         <v>776</v>
@@ -41171,7 +41162,7 @@
         <v>1014</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M29" s="34"/>
     </row>
@@ -41201,7 +41192,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="106" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>255</v>
@@ -41221,6 +41212,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41392,15 +41392,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -41414,6 +41405,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41427,14 +41426,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874A91F-65D3-403E-BA3A-4CB64EAD759F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E814124-F66D-47D2-8B03-A1C4E7DB5CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model v1.19.5" sheetId="1" r:id="rId1"/>
+    <sheet name="Model v1.19.6" sheetId="1" r:id="rId1"/>
     <sheet name="Design" sheetId="5" r:id="rId2"/>
     <sheet name="Temporal Event" sheetId="21" r:id="rId3"/>
     <sheet name="Location" sheetId="20" r:id="rId4"/>
@@ -1878,9 +1878,6 @@
     <t>SSobsActTyp</t>
   </si>
   <si>
-    <t>Registers the type of sampling performed. Conceptually, 2 main sampling types are considered (but more can be added): visual (when observers screen the catch visually) and volume (when observers sample a volume, e.g., a box or basket) (before called: SamplingType)</t>
-  </si>
-  <si>
     <t>SSobsTyp</t>
   </si>
   <si>
@@ -2702,12 +2699,6 @@
     <t>Exclusive Economic Zone indicator.</t>
   </si>
   <si>
-    <t>SLIP, DROP, PRESORT or SORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registers the part of the fishing operation that was sampled. Conceptually, fishing operations are considered divided into a SLIPPING stage (SLIP), DROP-OUT stage (DROP), a PRESORTING stage (PRESORT) and a SORTING stage (SORT). Use "SORT" if samples come from landing events or trips sampled onshore. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Indicator if the slipping, drop-outs, presorting and/or sorting was observed . The code is a combination of the observed first letters for Slipping, Drop-outs, Presorting and Sorting observation (Sl, Dr, Pr, So, SlDrPrSo, SlPrSo, DrPrSo, PrSo, and so on) or None. E.g., was the fishing operation screened/observed for the four observation types? Then use "SlDrPrSo". Did you only screen the sorting stage (typical in at-sea discard sampling)? Then use only "So". More details and examples in documentation (FAQ and Annex 4). </t>
   </si>
   <si>
@@ -2826,9 +2817,6 @@
   </si>
   <si>
     <t>In mm. The dominant mesh size of a square-meshed panel or window shall mean the largest determinable mesh size of such a panel or window.</t>
-  </si>
-  <si>
-    <t>Codes for dominant other mitigation devices: Sorting grid, functional pingers, seal excluder device and turtle excluder device, Unknown, None.</t>
   </si>
   <si>
     <t xml:space="preserve">The name of this unit. Indicate a sampling unit may appear more than once. </t>
@@ -4136,6 +4124,18 @@
   </si>
   <si>
     <t>SEXCO</t>
+  </si>
+  <si>
+    <t>Codes for dominant other mitigation devices: AttAcoustic, AttAltProf, AttExclDev, AttLight, unknown, None, etc.</t>
+  </si>
+  <si>
+    <t>Registers the type of sampling performed. Codes: Visual (when observers screen the catch visually), Volume (when observers sample a volume, e.g., a box or basket) and Imagery (camera recordings). (before called: SamplingType)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registers the part of the fishing operation that was sampled. Conceptually, fishing operations are considered divided into a SLIPPING stage (Slip), DROP-OUT stage (Drop), a PRESORTING stage (Presort) and a SORTING stage (Sort), etc. Use "Sort" if samples come from landing events or trips sampled onshore. </t>
+  </si>
+  <si>
+    <t>Slip, Drop, Presort, Sort, Other and NotRecorded</t>
   </si>
 </sst>
 </file>
@@ -4386,7 +4386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -4593,6 +4593,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4999,7 +5002,7 @@
     </row>
     <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="105" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D2" s="19"/>
       <c r="L2" s="17"/>
@@ -7205,7 +7208,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7651,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7696,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -8423,7 +8426,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -9132,8 +9135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:XFC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="F28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9169,7 +9172,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -9187,7 +9190,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -9205,7 +9208,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>3</v>
@@ -9223,7 +9226,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -9240,7 +9243,7 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>97</v>
@@ -9260,7 +9263,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>123</v>
@@ -9277,7 +9280,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>238</v>
@@ -9297,7 +9300,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>130</v>
@@ -9314,10 +9317,10 @@
         <v>219</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>276</v>
@@ -9334,7 +9337,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>397</v>
@@ -9349,7 +9352,7 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>67</v>
@@ -9369,7 +9372,7 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>125</v>
@@ -9386,7 +9389,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>212</v>
@@ -9406,10 +9409,10 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -9423,7 +9426,7 @@
         <v>219</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>553</v>
@@ -9443,10 +9446,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -9460,10 +9463,10 @@
         <v>219</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>398</v>
@@ -9480,10 +9483,10 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -9526,13 +9529,13 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>527</v>
@@ -9541,14 +9544,14 @@
         <v>11</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N11" s="51"/>
     </row>
@@ -9578,13 +9581,13 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N12" s="51"/>
     </row>
@@ -9598,7 +9601,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>499</v>
@@ -9615,10 +9618,10 @@
       <c r="J13" s="35"/>
       <c r="K13" s="34"/>
       <c r="L13" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N13" s="51"/>
     </row>
@@ -9647,10 +9650,10 @@
       <c r="J14" s="35"/>
       <c r="K14" s="34"/>
       <c r="L14" s="35" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -9662,13 +9665,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>10</v>
@@ -9679,10 +9682,10 @@
       <c r="J15" s="35"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="N15" s="51"/>
     </row>
@@ -9712,7 +9715,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>262</v>
@@ -9730,7 +9733,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>362</v>
@@ -9783,10 +9786,10 @@
         <v>256</v>
       </c>
       <c r="L18" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N18" s="51"/>
     </row>
@@ -9816,7 +9819,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L19" s="35" t="s">
         <v>154</v>
@@ -9852,7 +9855,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>240</v>
@@ -9870,13 +9873,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>10</v>
@@ -9886,7 +9889,7 @@
       </c>
       <c r="J21" s="35"/>
       <c r="K21" s="34" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L21" s="35" t="s">
         <v>92</v>
@@ -9900,19 +9903,19 @@
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="35" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D22" s="35">
         <v>13</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>10</v>
@@ -9952,7 +9955,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="L23" s="35" t="s">
         <v>78</v>
@@ -9988,10 +9991,10 @@
         <v>14</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>158</v>
@@ -10062,7 +10065,7 @@
       </c>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="35"/>
@@ -10070,13 +10073,13 @@
         <v>18</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>10</v>
@@ -10088,13 +10091,13 @@
         <v>14</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N27" s="51"/>
     </row>
@@ -10124,10 +10127,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>161</v>
@@ -10160,10 +10163,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="M29" s="35" t="s">
         <v>162</v>
@@ -10178,16 +10181,16 @@
         <v>21</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>11</v>
@@ -10196,13 +10199,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="N30" s="66"/>
     </row>
@@ -10214,13 +10217,13 @@
         <v>22</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>10</v>
@@ -10232,13 +10235,13 @@
         <v>14</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N31" s="51"/>
     </row>
@@ -10250,13 +10253,13 @@
         <v>23</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>10</v>
@@ -10268,13 +10271,13 @@
         <v>14</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N32" s="69"/>
     </row>
@@ -10286,13 +10289,13 @@
         <v>24</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>10</v>
@@ -10304,10 +10307,10 @@
         <v>14</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="M33" s="35" t="s">
         <v>135</v>
@@ -10322,13 +10325,13 @@
         <v>25</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H34" s="35" t="s">
         <v>10</v>
@@ -10340,10 +10343,10 @@
         <v>14</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="M34" s="35" t="s">
         <v>136</v>
@@ -10376,10 +10379,10 @@
         <v>14</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="L35" s="35" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="M35" s="35" t="s">
         <v>80</v>
@@ -10411,7 +10414,7 @@
       <c r="J36" s="35"/>
       <c r="K36" s="34"/>
       <c r="L36" s="35" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="M36" s="35" t="s">
         <v>34</v>
@@ -10444,10 +10447,10 @@
         <v>14</v>
       </c>
       <c r="K37" s="106" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="M37" s="35" t="s">
         <v>35</v>
@@ -10479,7 +10482,7 @@
       <c r="J38" s="35"/>
       <c r="K38" s="34"/>
       <c r="L38" s="35" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="M38" s="35" t="s">
         <v>137</v>
@@ -10512,7 +10515,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>94</v>
@@ -10530,13 +10533,13 @@
         <v>31</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H40" s="34" t="s">
         <v>10</v>
@@ -10548,10 +10551,10 @@
         <v>14</v>
       </c>
       <c r="K40" s="106" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>879</v>
+        <v>1279</v>
+      </c>
+      <c r="L40" s="107" t="s">
+        <v>1296</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="66"/>
@@ -10564,13 +10567,13 @@
         <v>32</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>13</v>
@@ -10581,7 +10584,7 @@
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="66"/>
@@ -10594,13 +10597,13 @@
         <v>33</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>13</v>
@@ -10626,13 +10629,13 @@
         <v>34</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>13</v>
@@ -10658,13 +10661,13 @@
         <v>35</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>148</v>
@@ -10675,10 +10678,10 @@
       <c r="J44" s="35"/>
       <c r="K44" s="34"/>
       <c r="L44" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N44" s="51"/>
     </row>
@@ -10693,10 +10696,10 @@
         <v>121</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="H45" s="35" t="s">
         <v>148</v>
@@ -10707,7 +10710,7 @@
       <c r="J45" s="35"/>
       <c r="K45" s="34"/>
       <c r="L45" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M45" s="35" t="s">
         <v>121</v>
@@ -10740,7 +10743,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="106" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L46" s="35" t="s">
         <v>163</v>
@@ -10758,13 +10761,13 @@
         <v>38</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H47" s="59" t="s">
         <v>10</v>
@@ -10775,10 +10778,10 @@
       <c r="J47" s="60"/>
       <c r="K47" s="34"/>
       <c r="L47" s="59" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="M47" s="59" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="N47" s="51"/>
     </row>
@@ -10790,7 +10793,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>341</v>
@@ -10808,7 +10811,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="106" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L48" s="35" t="s">
         <v>524</v>
@@ -10826,13 +10829,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F49" s="34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H49" s="34" t="s">
         <v>13</v>
@@ -10858,13 +10861,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G50" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H50" s="34" t="s">
         <v>13</v>
@@ -10890,13 +10893,13 @@
         <v>42</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>148</v>
@@ -10907,7 +10910,7 @@
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
       <c r="L51" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M51" s="35" t="s">
         <v>270</v>
@@ -10922,13 +10925,13 @@
         <v>43</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>148</v>
@@ -10939,7 +10942,7 @@
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
       <c r="L52" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="51"/>
@@ -10952,13 +10955,13 @@
         <v>44</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>10</v>
@@ -10970,10 +10973,10 @@
         <v>14</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L53" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M53" s="34"/>
     </row>
@@ -11003,7 +11006,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="106" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L54" s="35" t="s">
         <v>255</v>
@@ -11039,7 +11042,7 @@
         <v>14</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="L55" s="35" t="s">
         <v>544</v>
@@ -11082,7 +11085,7 @@
     </row>
     <row r="58" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A58" s="28" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B58" s="74"/>
       <c r="C58" s="74"/>
@@ -27539,8 +27542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27574,7 +27577,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -27592,7 +27595,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -27610,7 +27613,7 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>166</v>
@@ -27628,7 +27631,7 @@
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
       <c r="L2" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -27645,7 +27648,7 @@
         <v>217</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>3</v>
@@ -27665,7 +27668,7 @@
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>164</v>
@@ -27682,7 +27685,7 @@
         <v>217</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>70</v>
@@ -27702,7 +27705,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>165</v>
@@ -27719,7 +27722,7 @@
         <v>217</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>238</v>
@@ -27739,7 +27742,7 @@
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M5" s="30"/>
     </row>
@@ -27754,7 +27757,7 @@
         <v>217</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>224</v>
@@ -27774,7 +27777,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M6" s="30"/>
     </row>
@@ -27789,7 +27792,7 @@
         <v>217</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>212</v>
@@ -27809,7 +27812,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M7" s="30"/>
     </row>
@@ -27820,10 +27823,10 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>525</v>
@@ -27840,10 +27843,10 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N8" s="44"/>
     </row>
@@ -27890,13 +27893,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F10" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>666</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>667</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>13</v>
@@ -27907,10 +27910,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="15"/>
       <c r="L10" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N10" s="63"/>
       <c r="O10" s="63"/>
@@ -27941,13 +27944,13 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
@@ -27962,10 +27965,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>564</v>
@@ -27980,13 +27983,13 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1289</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>839</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>838</v>
+        <v>1285</v>
+      </c>
+      <c r="L12" s="107" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M12" s="107" t="s">
+        <v>1299</v>
       </c>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
@@ -28001,13 +28004,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="F13" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="G13" s="56" t="s">
         <v>685</v>
-      </c>
-      <c r="G13" s="56" t="s">
-        <v>686</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>10</v>
@@ -28017,10 +28020,10 @@
       </c>
       <c r="J13" s="49"/>
       <c r="K13" s="34" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="L13" s="70" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="M13" s="70" t="s">
         <v>442</v>
@@ -28028,7 +28031,7 @@
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="58.15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49" t="s">
@@ -28038,13 +28041,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>10</v>
@@ -28056,10 +28059,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="106" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L14" s="70" t="s">
-        <v>565</v>
+        <v>1283</v>
+      </c>
+      <c r="L14" s="112" t="s">
+        <v>1297</v>
       </c>
       <c r="M14" s="70" t="s">
         <v>563</v>
@@ -28075,13 +28078,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>10</v>
@@ -28092,7 +28095,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="34"/>
       <c r="L15" s="49" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>120</v>
@@ -28126,7 +28129,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L16" s="35" t="s">
         <v>262</v>
@@ -28145,7 +28148,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>365</v>
@@ -28199,10 +28202,10 @@
         <v>256</v>
       </c>
       <c r="L18" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N18" s="51"/>
       <c r="O18" s="69"/>
@@ -28215,13 +28218,13 @@
         <v>11</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="G19" s="49" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>10</v>
@@ -28230,11 +28233,11 @@
         <v>11</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="49" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M19" s="49" t="s">
         <v>168</v>
@@ -28250,13 +28253,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>10</v>
@@ -28268,10 +28271,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L20" s="49" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M20" s="49"/>
       <c r="N20" s="51"/>
@@ -28285,13 +28288,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -28318,13 +28321,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>13</v>
@@ -28351,13 +28354,13 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>148</v>
@@ -28368,10 +28371,10 @@
       <c r="J23" s="35"/>
       <c r="K23" s="15"/>
       <c r="L23" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
@@ -28387,10 +28390,10 @@
         <v>121</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>148</v>
@@ -28401,7 +28404,7 @@
       <c r="J24" s="35"/>
       <c r="K24" s="15"/>
       <c r="L24" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>121</v>
@@ -28417,7 +28420,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="F25" s="56" t="s">
         <v>413</v>
@@ -28435,7 +28438,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>211</v>
@@ -28454,13 +28457,13 @@
         <v>18</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H26" s="59" t="s">
         <v>10</v>
@@ -28471,10 +28474,10 @@
       <c r="J26" s="60"/>
       <c r="K26" s="15"/>
       <c r="L26" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M26" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
@@ -28487,7 +28490,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>345</v>
@@ -28505,7 +28508,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>524</v>
@@ -28524,13 +28527,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>13</v>
@@ -28557,13 +28560,13 @@
         <v>21</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>13</v>
@@ -28590,13 +28593,13 @@
         <v>22</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>148</v>
@@ -28607,7 +28610,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="15"/>
       <c r="L30" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M30" s="35" t="s">
         <v>270</v>
@@ -28623,13 +28626,13 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>148</v>
@@ -28640,7 +28643,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="15"/>
       <c r="L31" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M31" s="35"/>
       <c r="N31" s="51"/>
@@ -28654,13 +28657,13 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>10</v>
@@ -28672,10 +28675,10 @@
         <v>14</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M32" s="34"/>
     </row>
@@ -28705,7 +28708,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="108" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L33" s="35" t="s">
         <v>255</v>
@@ -28847,8 +28850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28862,7 +28865,7 @@
     <col min="8" max="8" width="7.3984375" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.3984375" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.796875" style="41" customWidth="1"/>
+    <col min="11" max="11" width="25.86328125" style="41" customWidth="1"/>
     <col min="12" max="12" width="55.265625" style="2" customWidth="1"/>
     <col min="13" max="13" width="40.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.1328125" style="2"/>
@@ -28882,7 +28885,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>104</v>
@@ -28900,7 +28903,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="40" t="s">
         <v>8</v>
@@ -28918,7 +28921,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>553</v>
@@ -28936,7 +28939,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -28951,10 +28954,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>166</v>
@@ -28972,7 +28975,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>183</v>
@@ -29023,19 +29026,19 @@
       <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D5" s="86">
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>671</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>672</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>13</v>
@@ -29046,10 +29049,10 @@
       <c r="J5" s="12"/>
       <c r="K5" s="11"/>
       <c r="L5" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N5" s="51"/>
       <c r="O5" s="51"/>
@@ -29069,13 +29072,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>673</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>674</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>13</v>
@@ -29086,10 +29089,10 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>675</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>676</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -29127,13 +29130,13 @@
         <v>14</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="60"/>
@@ -29156,10 +29159,10 @@
         <v>420</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>10</v>
@@ -29170,7 +29173,7 @@
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
       <c r="L8" s="35" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>98</v>
@@ -29201,7 +29204,7 @@
         <v>505</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>10</v>
@@ -29213,10 +29216,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>170</v>
@@ -29241,13 +29244,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>10</v>
@@ -29259,13 +29262,13 @@
         <v>14</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N10" s="51"/>
       <c r="O10" s="51"/>
@@ -29280,18 +29283,18 @@
     <row r="11" spans="1:22" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="52"/>
       <c r="E11" s="56" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -29303,10 +29306,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="111" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="M11" s="35"/>
     </row>
@@ -29341,7 +29344,7 @@
         <v>22</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>171</v>
@@ -29355,7 +29358,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>560</v>
@@ -29373,10 +29376,10 @@
         <v>14</v>
       </c>
       <c r="K13" s="110" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="L13" s="87" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="M13" s="87" t="s">
         <v>561</v>
@@ -29401,7 +29404,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>548</v>
@@ -29419,13 +29422,13 @@
         <v>14</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="L14" s="87" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M14" s="87" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N14" s="68"/>
       <c r="O14" s="68"/>
@@ -29465,10 +29468,10 @@
         <v>14</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>172</v>
@@ -29511,7 +29514,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="110" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>173</v>
@@ -29557,7 +29560,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>19</v>
@@ -29603,10 +29606,10 @@
         <v>14</v>
       </c>
       <c r="K18" s="110" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>20</v>
@@ -29629,13 +29632,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F19" s="95" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G19" s="95" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>10</v>
@@ -29647,13 +29650,13 @@
         <v>14</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="L19" s="96" t="s">
+        <v>835</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>836</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>837</v>
       </c>
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
@@ -29676,10 +29679,10 @@
         <v>30</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>10</v>
@@ -29691,10 +29694,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>161</v>
@@ -29720,10 +29723,10 @@
         <v>31</v>
       </c>
       <c r="F21" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>701</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>702</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>10</v>
@@ -29735,10 +29738,10 @@
         <v>14</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>162</v>
@@ -29761,16 +29764,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>11</v>
@@ -29779,13 +29782,13 @@
         <v>14</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
@@ -29805,13 +29808,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>10</v>
@@ -29823,13 +29826,13 @@
         <v>14</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
@@ -29841,7 +29844,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="93.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -29849,13 +29852,13 @@
         <v>20</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F24" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>709</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>710</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>10</v>
@@ -29867,13 +29870,13 @@
         <v>14</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N24" s="69"/>
       <c r="O24" s="51"/>
@@ -29893,13 +29896,13 @@
         <v>21</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>10</v>
@@ -29911,10 +29914,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>135</v>
@@ -29937,13 +29940,13 @@
         <v>22</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>10</v>
@@ -29955,10 +29958,10 @@
         <v>14</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>136</v>
@@ -29984,10 +29987,10 @@
         <v>32</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>10</v>
@@ -29999,10 +30002,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>80</v>
@@ -30028,10 +30031,10 @@
         <v>34</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>13</v>
@@ -30042,7 +30045,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="11"/>
       <c r="L28" s="12" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>34</v>
@@ -30068,10 +30071,10 @@
         <v>35</v>
       </c>
       <c r="F29" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>705</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>706</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>13</v>
@@ -30083,10 +30086,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="110" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M29" s="12" t="s">
         <v>35</v>
@@ -30112,10 +30115,10 @@
         <v>36</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>707</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>708</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>13</v>
@@ -30126,7 +30129,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="11"/>
       <c r="L30" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>137</v>
@@ -30141,7 +30144,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30167,10 +30170,10 @@
         <v>14</v>
       </c>
       <c r="K31" s="110" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M31" s="12" t="s">
         <v>175</v>
@@ -30193,7 +30196,7 @@
         <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>538</v>
@@ -30210,7 +30213,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>176</v>
@@ -30233,7 +30236,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>537</v>
@@ -30250,7 +30253,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="M33" s="12" t="s">
         <v>177</v>
@@ -30273,13 +30276,13 @@
         <v>30</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>148</v>
@@ -30313,13 +30316,13 @@
         <v>31</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>148</v>
@@ -30353,13 +30356,13 @@
         <v>32</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>148</v>
@@ -30370,10 +30373,10 @@
       <c r="J36" s="12"/>
       <c r="K36" s="11"/>
       <c r="L36" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N36" s="51"/>
       <c r="O36" s="51"/>
@@ -30396,10 +30399,10 @@
         <v>121</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>148</v>
@@ -30410,7 +30413,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="11"/>
       <c r="L37" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M37" s="12" t="s">
         <v>121</v>
@@ -30451,7 +30454,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="110" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L38" s="12" t="s">
         <v>180</v>
@@ -30477,13 +30480,13 @@
         <v>35</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F39" s="84" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G39" s="84" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H39" s="83" t="s">
         <v>10</v>
@@ -30494,10 +30497,10 @@
       <c r="J39" s="85"/>
       <c r="K39" s="11"/>
       <c r="L39" s="83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M39" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N39" s="51"/>
       <c r="O39" s="51"/>
@@ -30517,7 +30520,7 @@
         <v>36</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>515</v>
@@ -30535,7 +30538,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>181</v>
@@ -30582,10 +30585,10 @@
         <v>256</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N41" s="51"/>
       <c r="O41" s="51"/>
@@ -30605,13 +30608,13 @@
         <v>38</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>10</v>
@@ -30623,10 +30626,10 @@
         <v>14</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M42" s="15"/>
     </row>
@@ -30656,10 +30659,10 @@
         <v>14</v>
       </c>
       <c r="K43" s="110" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M43" s="12" t="s">
         <v>271</v>
@@ -30700,10 +30703,10 @@
         <v>14</v>
       </c>
       <c r="K44" s="110" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>272</v>
@@ -30726,7 +30729,7 @@
         <v>41</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>532</v>
@@ -30743,7 +30746,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="12" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="M45" s="12" t="s">
         <v>176</v>
@@ -30766,7 +30769,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>533</v>
@@ -30783,7 +30786,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="12" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="M46" s="12" t="s">
         <v>177</v>
@@ -30806,13 +30809,13 @@
         <v>43</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="F47" s="56" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="G47" s="56" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>148</v>
@@ -30823,7 +30826,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M47" s="12" t="s">
         <v>536</v>
@@ -31172,7 +31175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -31207,7 +31210,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -31225,7 +31228,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -31243,7 +31246,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>242</v>
@@ -31261,7 +31264,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -31278,7 +31281,7 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>553</v>
@@ -31296,7 +31299,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>186</v>
@@ -31336,20 +31339,20 @@
     <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="52">
         <v>2</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="H5" s="56" t="s">
         <v>10</v>
@@ -31361,19 +31364,19 @@
         <v>14</v>
       </c>
       <c r="K5" s="111" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="52">
@@ -31383,10 +31386,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>10</v>
@@ -31401,10 +31404,10 @@
         <v>22</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -31426,13 +31429,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>13</v>
@@ -31443,7 +31446,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>552</v>
@@ -31488,13 +31491,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G9" s="56" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H9" s="56" t="s">
         <v>10</v>
@@ -31506,10 +31509,10 @@
         <v>14</v>
       </c>
       <c r="K9" s="107" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>441</v>
@@ -31518,7 +31521,7 @@
     <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="52">
@@ -31528,10 +31531,10 @@
         <v>197</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="G10" s="56" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -31543,7 +31546,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="106" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>197</v>
@@ -31563,10 +31566,10 @@
         <v>556</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -31578,7 +31581,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="107" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>557</v>
@@ -31613,7 +31616,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>246</v>
@@ -31625,53 +31628,53 @@
     <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="103"/>
       <c r="B13" s="56" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="52">
         <v>10</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="I13" s="56" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="56" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="103"/>
       <c r="B14" s="56" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C14" s="56"/>
       <c r="D14" s="52">
         <v>11</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>10</v>
@@ -31683,10 +31686,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="107" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="M14" s="35"/>
     </row>
@@ -31719,10 +31722,10 @@
         <v>256</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -31733,13 +31736,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>148</v>
@@ -31750,7 +31753,7 @@
       <c r="J16" s="56"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="M16" s="35"/>
     </row>
@@ -31762,13 +31765,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>10</v>
@@ -31780,10 +31783,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="107" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="L17" s="104" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="M17" s="35"/>
     </row>
@@ -31797,7 +31800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -31831,7 +31834,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -31849,7 +31852,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -31867,7 +31870,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>4</v>
@@ -31887,7 +31890,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -31904,7 +31907,7 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>184</v>
@@ -31924,7 +31927,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
       <c r="L3" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>186</v>
@@ -31941,7 +31944,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>242</v>
@@ -31961,7 +31964,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
       <c r="L4" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>401</v>
@@ -32008,13 +32011,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>10</v>
@@ -32025,7 +32028,7 @@
       <c r="J6" s="56"/>
       <c r="K6" s="34"/>
       <c r="L6" s="35" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>189</v>
@@ -32034,20 +32037,20 @@
     <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="52">
         <v>3</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="H7" s="56" t="s">
         <v>10</v>
@@ -32059,19 +32062,19 @@
         <v>14</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="52">
@@ -32081,10 +32084,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H8" s="56" t="s">
         <v>10</v>
@@ -32099,10 +32102,10 @@
         <v>22</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -32131,7 +32134,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>259</v>
@@ -32148,13 +32151,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H10" s="56" t="s">
         <v>10</v>
@@ -32181,13 +32184,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>10</v>
@@ -32199,10 +32202,10 @@
         <v>14</v>
       </c>
       <c r="K11" s="106" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="M11" s="56" t="s">
         <v>200</v>
@@ -32216,13 +32219,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>10</v>
@@ -32247,13 +32250,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="G13" s="56" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>10</v>
@@ -32265,13 +32268,13 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
@@ -32300,7 +32303,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="106" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>192</v>
@@ -32320,10 +32323,10 @@
         <v>556</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H15" s="56" t="s">
         <v>10</v>
@@ -32335,7 +32338,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="106" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>557</v>
@@ -32347,20 +32350,20 @@
     <row r="16" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="52">
         <v>12</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F16" s="56" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="G16" s="56" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="H16" s="56" t="s">
         <v>10</v>
@@ -32372,30 +32375,30 @@
         <v>14</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A17" s="56"/>
       <c r="B17" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="52">
         <v>13</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F17" s="56" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="G17" s="56" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="H17" s="56" t="s">
         <v>10</v>
@@ -32407,30 +32410,30 @@
         <v>14</v>
       </c>
       <c r="K17" s="106" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="52">
         <v>14</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="H18" s="56" t="s">
         <v>148</v>
@@ -32441,30 +32444,30 @@
       <c r="J18" s="56"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="52">
         <v>15</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="G19" s="56" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H19" s="56" t="s">
         <v>1230</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>1234</v>
       </c>
       <c r="I19" s="56" t="s">
         <v>11</v>
@@ -32472,27 +32475,27 @@
       <c r="J19" s="56"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="52">
         <v>16</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="H20" s="56" t="s">
         <v>10</v>
@@ -32504,10 +32507,10 @@
         <v>14</v>
       </c>
       <c r="K20" s="106" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="M20" s="35"/>
     </row>
@@ -32519,13 +32522,13 @@
         <v>17</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H21" s="56" t="s">
         <v>13</v>
@@ -32550,13 +32553,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H22" s="56" t="s">
         <v>13</v>
@@ -32581,13 +32584,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>148</v>
@@ -32598,10 +32601,10 @@
       <c r="J23" s="35"/>
       <c r="K23" s="15"/>
       <c r="L23" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -32615,10 +32618,10 @@
         <v>121</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>148</v>
@@ -32629,7 +32632,7 @@
       <c r="J24" s="35"/>
       <c r="K24" s="15"/>
       <c r="L24" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>121</v>
@@ -32661,7 +32664,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>196</v>
@@ -32678,13 +32681,13 @@
         <v>22</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H26" s="59" t="s">
         <v>10</v>
@@ -32695,10 +32698,10 @@
       <c r="J26" s="60"/>
       <c r="K26" s="15"/>
       <c r="L26" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M26" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -32730,10 +32733,10 @@
         <v>256</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -32746,8 +32749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32762,7 +32765,7 @@
     <col min="8" max="8" width="11.86328125" style="10" customWidth="1"/>
     <col min="9" max="9" width="9.3984375" style="10" customWidth="1"/>
     <col min="10" max="10" width="9.1328125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="77" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="77" customWidth="1"/>
     <col min="12" max="12" width="35" style="10" customWidth="1"/>
     <col min="13" max="13" width="50.3984375" style="10" customWidth="1"/>
     <col min="14" max="16384" width="8.86328125" style="2"/>
@@ -32782,7 +32785,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -32800,7 +32803,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -32818,7 +32821,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>105</v>
@@ -32836,7 +32839,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="75"/>
       <c r="L2" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -32903,10 +32906,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="M4" s="35" t="s">
         <v>108</v>
@@ -32920,13 +32923,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="35" t="s">
         <v>594</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>595</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>10</v>
@@ -32938,13 +32941,13 @@
         <v>14</v>
       </c>
       <c r="K5" s="107" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="L5" s="50" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
@@ -32994,13 +32997,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>527</v>
@@ -33025,7 +33028,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>302</v>
@@ -33043,7 +33046,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>248</v>
@@ -33080,7 +33083,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>112</v>
@@ -33097,13 +33100,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -33115,10 +33118,10 @@
         <v>14</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="M10" s="34"/>
     </row>
@@ -33133,10 +33136,10 @@
         <v>255</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>10</v>
@@ -33148,7 +33151,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="106" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>255</v>
@@ -33725,7 +33728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -33757,7 +33760,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -33775,7 +33778,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -33793,7 +33796,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>212</v>
@@ -33811,7 +33814,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="75"/>
       <c r="L2" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -33828,10 +33831,10 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>309</v>
@@ -33846,7 +33849,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="75"/>
       <c r="L3" s="26" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>86</v>
@@ -33863,7 +33866,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>101</v>
@@ -33881,10 +33884,10 @@
       <c r="J4" s="26"/>
       <c r="K4" s="75"/>
       <c r="L4" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -33898,7 +33901,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>273</v>
@@ -33916,10 +33919,10 @@
       <c r="J5" s="26"/>
       <c r="K5" s="75"/>
       <c r="L5" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M5" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -33963,13 +33966,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F7" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>655</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>656</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>13</v>
@@ -33980,10 +33983,10 @@
       <c r="J7" s="35"/>
       <c r="K7" s="45"/>
       <c r="L7" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -34012,7 +34015,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>259</v>
@@ -34066,13 +34069,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -34083,7 +34086,7 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>120</v>
@@ -34097,7 +34100,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>315</v>
@@ -34115,7 +34118,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>262</v>
@@ -34132,7 +34135,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>316</v>
@@ -34184,10 +34187,10 @@
         <v>256</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.45">
@@ -34198,13 +34201,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>13</v>
@@ -34229,13 +34232,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>13</v>
@@ -34260,13 +34263,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>148</v>
@@ -34277,10 +34280,10 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -34294,10 +34297,10 @@
         <v>121</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>148</v>
@@ -34308,7 +34311,7 @@
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M17" s="35" t="s">
         <v>121</v>
@@ -34340,7 +34343,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="107" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>201</v>
@@ -34357,13 +34360,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G19" s="56" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>10</v>
@@ -34374,10 +34377,10 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -34388,7 +34391,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="58" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F20" s="58" t="s">
         <v>320</v>
@@ -34406,7 +34409,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="107" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L20" s="57" t="s">
         <v>524</v>
@@ -34423,13 +34426,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -34454,13 +34457,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>13</v>
@@ -34485,13 +34488,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>148</v>
@@ -34502,7 +34505,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>270</v>
@@ -34516,13 +34519,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>148</v>
@@ -34533,7 +34536,7 @@
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M24" s="35"/>
     </row>
@@ -34545,13 +34548,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>10</v>
@@ -34563,10 +34566,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M25" s="34"/>
     </row>
@@ -34596,7 +34599,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="108" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -34635,7 +34638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -34668,7 +34671,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -34686,7 +34689,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -34704,7 +34707,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>101</v>
@@ -34724,7 +34727,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -34741,10 +34744,10 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>309</v>
@@ -34761,7 +34764,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>86</v>
@@ -34808,13 +34811,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F5" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>658</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>659</v>
       </c>
       <c r="H5" s="35" t="s">
         <v>13</v>
@@ -34825,10 +34828,10 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.45">
@@ -34857,13 +34860,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -34874,13 +34877,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>10</v>
@@ -34892,10 +34895,10 @@
         <v>91</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L7" s="59" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M7" s="59" t="s">
         <v>144</v>
@@ -34909,13 +34912,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -34926,10 +34929,10 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N8" s="99"/>
     </row>
@@ -34941,13 +34944,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>10</v>
@@ -34959,7 +34962,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
@@ -34975,10 +34978,10 @@
         <v>419</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>10</v>
@@ -34989,10 +34992,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
@@ -35021,7 +35024,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>262</v>
@@ -35038,7 +35041,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>350</v>
@@ -35090,10 +35093,10 @@
         <v>256</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -35104,13 +35107,13 @@
         <v>11</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>13</v>
@@ -35135,13 +35138,13 @@
         <v>12</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>13</v>
@@ -35166,13 +35169,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>148</v>
@@ -35183,10 +35186,10 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -35197,13 +35200,13 @@
         <v>14</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>148</v>
@@ -35214,7 +35217,7 @@
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M17" s="35" t="s">
         <v>121</v>
@@ -35246,7 +35249,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="107" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>201</v>
@@ -35263,13 +35266,13 @@
         <v>16</v>
       </c>
       <c r="E19" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="F19" s="61" t="s">
         <v>602</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>603</v>
-      </c>
       <c r="G19" s="61" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H19" s="59" t="s">
         <v>10</v>
@@ -35280,10 +35283,10 @@
       <c r="J19" s="60"/>
       <c r="K19" s="35"/>
       <c r="L19" s="59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M19" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.45">
@@ -35294,7 +35297,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>324</v>
@@ -35312,7 +35315,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="107" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L20" s="35" t="s">
         <v>524</v>
@@ -35329,13 +35332,13 @@
         <v>18</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -35360,13 +35363,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>13</v>
@@ -35391,13 +35394,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="H23" s="35" t="s">
         <v>148</v>
@@ -35408,7 +35411,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>270</v>
@@ -35422,13 +35425,13 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>148</v>
@@ -35439,7 +35442,7 @@
       <c r="J24" s="34"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M24" s="35"/>
     </row>
@@ -35451,13 +35454,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>10</v>
@@ -35469,10 +35472,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M25" s="34"/>
     </row>
@@ -35502,7 +35505,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="107" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>255</v>
@@ -35570,8 +35573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -35604,7 +35607,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -35622,7 +35625,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -35640,10 +35643,10 @@
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="27" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>309</v>
@@ -35660,7 +35663,7 @@
       <c r="J2" s="27"/>
       <c r="K2" s="79"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -35677,7 +35680,7 @@
         <v>219</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>105</v>
@@ -35697,7 +35700,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="79"/>
       <c r="L3" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>85</v>
@@ -35762,10 +35765,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>115</v>
@@ -35799,7 +35802,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>54</v>
@@ -35819,7 +35822,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -35852,7 +35855,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -35870,7 +35873,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -35888,7 +35891,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>273</v>
@@ -35908,7 +35911,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -35925,10 +35928,10 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>309</v>
@@ -35945,7 +35948,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>86</v>
@@ -35962,7 +35965,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>213</v>
@@ -35982,7 +35985,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>119</v>
@@ -35999,7 +36002,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>212</v>
@@ -36019,7 +36022,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>118</v>
@@ -36066,13 +36069,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>13</v>
@@ -36083,10 +36086,10 @@
       <c r="J7" s="12"/>
       <c r="K7" s="15"/>
       <c r="L7" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -36097,13 +36100,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>580</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>581</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>527</v>
@@ -36112,14 +36115,14 @@
         <v>11</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -36148,13 +36151,13 @@
         <v>14</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -36165,13 +36168,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>10</v>
@@ -36182,10 +36185,10 @@
       <c r="J10" s="35"/>
       <c r="K10" s="34"/>
       <c r="L10" s="35" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -36214,7 +36217,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L11" s="35" t="s">
         <v>262</v>
@@ -36231,7 +36234,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>353</v>
@@ -36283,10 +36286,10 @@
         <v>256</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -36297,13 +36300,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>13</v>
@@ -36328,13 +36331,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>13</v>
@@ -36359,13 +36362,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>148</v>
@@ -36376,10 +36379,10 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
       <c r="L16" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -36393,10 +36396,10 @@
         <v>121</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>148</v>
@@ -36407,7 +36410,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
       <c r="L17" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M17" s="35" t="s">
         <v>121</v>
@@ -36439,7 +36442,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>122</v>
@@ -36456,13 +36459,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G19" s="84" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H19" s="83" t="s">
         <v>10</v>
@@ -36473,10 +36476,10 @@
       <c r="J19" s="85"/>
       <c r="K19" s="15"/>
       <c r="L19" s="83" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M19" s="59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -36487,7 +36490,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>328</v>
@@ -36505,7 +36508,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>524</v>
@@ -36522,13 +36525,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>13</v>
@@ -36553,13 +36556,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>765</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>766</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>13</v>
@@ -36584,13 +36587,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>148</v>
@@ -36601,7 +36604,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>270</v>
@@ -36615,13 +36618,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>148</v>
@@ -36632,7 +36635,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M24" s="35"/>
     </row>
@@ -36644,13 +36647,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>404</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>10</v>
@@ -36662,10 +36665,10 @@
         <v>14</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M25" s="34"/>
     </row>
@@ -36695,7 +36698,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="108" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>255</v>
@@ -36706,7 +36709,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -36736,8 +36739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -36770,7 +36773,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -36788,7 +36791,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -36806,7 +36809,7 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>238</v>
@@ -36824,7 +36827,7 @@
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -36839,7 +36842,7 @@
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>88</v>
@@ -36857,7 +36860,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>123</v>
@@ -36872,7 +36875,7 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>277</v>
@@ -36890,7 +36893,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M4" s="26" t="s">
         <v>124</v>
@@ -36905,7 +36908,7 @@
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>90</v>
@@ -36925,7 +36928,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M5" s="26" t="s">
         <v>125</v>
@@ -36940,10 +36943,10 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>309</v>
@@ -36960,7 +36963,7 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M6" s="26" t="s">
         <v>86</v>
@@ -36975,7 +36978,7 @@
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>99</v>
@@ -36995,10 +36998,10 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M7" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37010,7 +37013,7 @@
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>212</v>
@@ -37030,10 +37033,10 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -37075,13 +37078,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>527</v>
@@ -37090,11 +37093,11 @@
         <v>11</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="M10" s="12"/>
     </row>
@@ -37108,13 +37111,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F11" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>653</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>654</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>13</v>
@@ -37125,10 +37128,10 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37157,13 +37160,13 @@
         <v>14</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -37174,13 +37177,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>10</v>
@@ -37191,7 +37194,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M13" s="35" t="s">
         <v>120</v>
@@ -37205,7 +37208,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>279</v>
@@ -37223,7 +37226,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>262</v>
@@ -37240,7 +37243,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>280</v>
@@ -37292,10 +37295,10 @@
         <v>256</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37306,13 +37309,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="35" t="s">
+        <v>586</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="35" t="s">
         <v>588</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>589</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>10</v>
@@ -37324,13 +37327,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="L17" s="52" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="M17" s="52" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
@@ -37341,10 +37344,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>290</v>
@@ -37360,10 +37363,10 @@
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="N18" s="101"/>
     </row>
@@ -37393,13 +37396,13 @@
         <v>14</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L19" s="35" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
@@ -37413,7 +37416,7 @@
         <v>126</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>292</v>
@@ -37427,7 +37430,7 @@
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>126</v>
@@ -37458,10 +37461,10 @@
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37492,7 +37495,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>127</v>
@@ -37511,7 +37514,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>250</v>
@@ -37559,10 +37562,10 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="35" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37573,13 +37576,13 @@
         <v>17</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>13</v>
@@ -37604,13 +37607,13 @@
         <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>13</v>
@@ -37621,10 +37624,10 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.45">
@@ -37635,13 +37638,13 @@
         <v>19</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>148</v>
@@ -37652,10 +37655,10 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37669,10 +37672,10 @@
         <v>121</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>148</v>
@@ -37683,7 +37686,7 @@
       <c r="J28" s="35"/>
       <c r="K28" s="12"/>
       <c r="L28" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>121</v>
@@ -37715,7 +37718,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="109" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L29" s="35" t="s">
         <v>562</v>
@@ -37732,13 +37735,13 @@
         <v>22</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H30" s="59" t="s">
         <v>10</v>
@@ -37749,10 +37752,10 @@
       <c r="J30" s="60"/>
       <c r="K30" s="12"/>
       <c r="L30" s="59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M30" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -37763,7 +37766,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>287</v>
@@ -37779,7 +37782,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="109" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L31" s="35" t="s">
         <v>524</v>
@@ -37796,13 +37799,13 @@
         <v>24</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>13</v>
@@ -37827,13 +37830,13 @@
         <v>25</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>13</v>
@@ -37858,13 +37861,13 @@
         <v>26</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H34" s="35" t="s">
         <v>148</v>
@@ -37875,7 +37878,7 @@
       <c r="J34" s="34"/>
       <c r="K34" s="12"/>
       <c r="L34" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M34" s="35" t="s">
         <v>270</v>
@@ -37889,13 +37892,13 @@
         <v>27</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>148</v>
@@ -37906,7 +37909,7 @@
       <c r="J35" s="34"/>
       <c r="K35" s="12"/>
       <c r="L35" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M35" s="35"/>
     </row>
@@ -37918,13 +37921,13 @@
         <v>28</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H36" s="35" t="s">
         <v>10</v>
@@ -37936,10 +37939,10 @@
         <v>14</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M36" s="34"/>
     </row>
@@ -37969,7 +37972,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="109" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L37" s="35" t="s">
         <v>255</v>
@@ -37995,7 +37998,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="28" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -38056,8 +38059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="G32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38092,7 +38095,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -38110,7 +38113,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -38128,7 +38131,7 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>99</v>
@@ -38148,10 +38151,10 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
@@ -38165,7 +38168,7 @@
         <v>219</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>238</v>
@@ -38185,10 +38188,10 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.45">
@@ -38200,10 +38203,10 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>309</v>
@@ -38220,10 +38223,10 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -38284,13 +38287,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N6" s="90"/>
     </row>
@@ -38304,13 +38307,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F7" s="35" t="s">
+        <v>650</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>651</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>652</v>
       </c>
       <c r="H7" s="35" t="s">
         <v>13</v>
@@ -38321,7 +38324,7 @@
       <c r="J7" s="35"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M7" s="35"/>
       <c r="N7" s="90"/>
@@ -38334,13 +38337,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>10</v>
@@ -38351,7 +38354,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>120</v>
@@ -38384,7 +38387,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>262</v>
@@ -38402,7 +38405,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>356</v>
@@ -38455,10 +38458,10 @@
         <v>256</v>
       </c>
       <c r="L11" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N11" s="90"/>
     </row>
@@ -38488,7 +38491,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="L12" s="35" t="s">
         <v>71</v>
@@ -38524,7 +38527,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>134</v>
@@ -38560,10 +38563,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M14" s="35" t="s">
         <v>480</v>
@@ -38578,7 +38581,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>449</v>
@@ -38590,15 +38593,15 @@
         <v>10</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="35" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="N15" s="90"/>
     </row>
@@ -38610,7 +38613,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>450</v>
@@ -38627,10 +38630,10 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="35" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="N16" s="90"/>
     </row>
@@ -38642,7 +38645,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>451</v>
@@ -38659,10 +38662,10 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="N17" s="90"/>
     </row>
@@ -38674,7 +38677,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F18" s="34" t="s">
         <v>452</v>
@@ -38691,10 +38694,10 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="35" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="N18" s="90"/>
     </row>
@@ -38723,28 +38726,30 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="35" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="N19" s="90"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="56" t="s">
-        <v>1079</v>
+      <c r="C20" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D20" s="56">
+        <v>16</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>10</v>
@@ -38756,31 +38761,33 @@
         <v>14</v>
       </c>
       <c r="K20" s="106" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="N20" s="90"/>
     </row>
     <row r="21" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="56" t="s">
-        <v>1079</v>
+      <c r="C21" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D21" s="56">
+        <v>17</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>13</v>
@@ -38791,10 +38798,10 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="N21" s="90"/>
     </row>
@@ -38803,7 +38810,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>459</v>
@@ -38823,7 +38830,7 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="35" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M22" s="35" t="s">
         <v>72</v>
@@ -38835,7 +38842,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="56">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>460</v>
@@ -38855,7 +38862,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="35" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="M23" s="35" t="s">
         <v>73</v>
@@ -38867,7 +38874,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="56">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>461</v>
@@ -38887,7 +38894,7 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="35" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>74</v>
@@ -38899,7 +38906,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="56">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>462</v>
@@ -38919,7 +38926,7 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="35" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M25" s="35" t="s">
         <v>75</v>
@@ -38931,16 +38938,16 @@
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="56">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>10</v>
@@ -38952,13 +38959,13 @@
         <v>14</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N26" s="90"/>
     </row>
@@ -38967,7 +38974,7 @@
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="56">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>30</v>
@@ -38988,10 +38995,10 @@
         <v>14</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="M27" s="35" t="s">
         <v>185</v>
@@ -39003,7 +39010,7 @@
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="56">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>31</v>
@@ -39024,10 +39031,10 @@
         <v>14</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="L28" s="35" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="M28" s="35" t="s">
         <v>139</v>
@@ -39039,19 +39046,19 @@
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="56">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="I29" s="34" t="s">
         <v>11</v>
@@ -39060,13 +39067,13 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="N29" s="90"/>
     </row>
@@ -39075,16 +39082,16 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E30" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="G30" s="34" t="s">
         <v>845</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>847</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>848</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>10</v>
@@ -39096,13 +39103,13 @@
         <v>14</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="L30" s="35" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="N30" s="90"/>
     </row>
@@ -39111,10 +39118,10 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="56">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="F31" s="34" t="s">
         <v>466</v>
@@ -39131,7 +39138,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="M31" s="35" t="s">
         <v>140</v>
@@ -39143,10 +39150,10 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="56">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>468</v>
@@ -39175,16 +39182,16 @@
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="56">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E33" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="F33" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="G33" s="34" t="s">
         <v>617</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>618</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>10</v>
@@ -39196,13 +39203,13 @@
         <v>14</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N33" s="90"/>
     </row>
@@ -39211,10 +39218,10 @@
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="56">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>470</v>
@@ -39232,10 +39239,10 @@
         <v>14</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="L34" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M34" s="35" t="s">
         <v>135</v>
@@ -39247,10 +39254,10 @@
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="56">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>471</v>
@@ -39268,10 +39275,10 @@
         <v>14</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="L35" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M35" s="35" t="s">
         <v>136</v>
@@ -39283,7 +39290,7 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="56">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>32</v>
@@ -39304,7 +39311,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="L36" s="35" t="s">
         <v>77</v>
@@ -39319,7 +39326,7 @@
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="56">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E37" s="34" t="s">
         <v>34</v>
@@ -39339,10 +39346,10 @@
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
       <c r="L37" s="35" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="N37" s="90"/>
     </row>
@@ -39351,7 +39358,7 @@
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="56">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E38" s="34" t="s">
         <v>35</v>
@@ -39372,13 +39379,13 @@
         <v>14</v>
       </c>
       <c r="K38" s="106" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="N38" s="90"/>
     </row>
@@ -39387,7 +39394,7 @@
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="56">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E39" s="34" t="s">
         <v>36</v>
@@ -39419,7 +39426,7 @@
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="56">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>95</v>
@@ -39440,7 +39447,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="L40" s="35" t="s">
         <v>95</v>
@@ -39454,16 +39461,16 @@
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="56">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="H41" s="34" t="s">
         <v>10</v>
@@ -39475,31 +39482,33 @@
         <v>14</v>
       </c>
       <c r="K41" s="106" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="L41" s="35" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="N41" s="98"/>
     </row>
     <row r="42" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="56" t="s">
-        <v>1079</v>
+      <c r="C42" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D42" s="56">
+        <v>38</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>10</v>
@@ -39511,31 +39520,33 @@
         <v>14</v>
       </c>
       <c r="K42" s="106" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="N42" s="97"/>
     </row>
     <row r="43" spans="1:14" s="90" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="56" t="s">
-        <v>1079</v>
+      <c r="C43" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D43" s="56">
+        <v>39</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="H43" s="34" t="s">
         <v>10</v>
@@ -39547,31 +39558,33 @@
         <v>14</v>
       </c>
       <c r="K43" s="106" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="L43" s="35" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="M43" s="35" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="N43" s="98"/>
     </row>
     <row r="44" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="56" t="s">
-        <v>1079</v>
+      <c r="C44" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D44" s="56">
+        <v>40</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>10</v>
@@ -39583,13 +39596,13 @@
         <v>14</v>
       </c>
       <c r="K44" s="106" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="L44" s="35" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="N44" s="97"/>
     </row>
@@ -39597,17 +39610,17 @@
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
-      <c r="D45" s="11">
-        <v>36</v>
+      <c r="D45" s="56">
+        <v>41</v>
       </c>
       <c r="E45" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>597</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>598</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>13</v>
@@ -39618,7 +39631,7 @@
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="12" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="M45" s="12"/>
     </row>
@@ -39626,17 +39639,17 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="11">
-        <v>37</v>
+      <c r="D46" s="56">
+        <v>42</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="F46" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>567</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>568</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>10</v>
@@ -39648,30 +39661,30 @@
         <v>14</v>
       </c>
       <c r="K46" s="108" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="11">
-        <v>38</v>
+      <c r="D47" s="56">
+        <v>43</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>13</v>
@@ -39692,17 +39705,17 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="11">
-        <v>39</v>
+      <c r="D48" s="56">
+        <v>44</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>13</v>
@@ -39713,27 +39726,27 @@
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="12" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="11">
-        <v>40</v>
+      <c r="D49" s="56">
+        <v>45</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>148</v>
@@ -39744,27 +39757,27 @@
       <c r="J49" s="12"/>
       <c r="K49" s="15"/>
       <c r="L49" s="12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="11">
-        <v>41</v>
+      <c r="D50" s="56">
+        <v>46</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>148</v>
@@ -39775,7 +39788,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="15"/>
       <c r="L50" s="12" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M50" s="12" t="s">
         <v>121</v>
@@ -39785,8 +39798,8 @@
       <c r="A51" s="12"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="11">
-        <v>42</v>
+      <c r="D51" s="56">
+        <v>47</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>42</v>
@@ -39807,7 +39820,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>138</v>
@@ -39820,17 +39833,17 @@
       <c r="A52" s="12"/>
       <c r="B52" s="85"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>43</v>
+      <c r="D52" s="56">
+        <v>48</v>
       </c>
       <c r="E52" s="83" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H52" s="83" t="s">
         <v>10</v>
@@ -39841,21 +39854,21 @@
       <c r="J52" s="85"/>
       <c r="K52" s="15"/>
       <c r="L52" s="83" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M52" s="83" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="12"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="11">
-        <v>44</v>
+      <c r="D53" s="56">
+        <v>49</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>332</v>
@@ -39871,7 +39884,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="108" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L53" s="12" t="s">
         <v>524</v>
@@ -39884,17 +39897,17 @@
       <c r="A54" s="12"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>45</v>
+      <c r="D54" s="56">
+        <v>50</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>13</v>
@@ -39915,17 +39928,17 @@
       <c r="A55" s="12"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="11">
-        <v>46</v>
+      <c r="D55" s="56">
+        <v>51</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>13</v>
@@ -39946,17 +39959,17 @@
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="11">
-        <v>47</v>
+      <c r="D56" s="56">
+        <v>52</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>148</v>
@@ -39967,7 +39980,7 @@
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="12" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M56" s="12" t="s">
         <v>270</v>
@@ -39977,17 +39990,17 @@
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="11">
-        <v>48</v>
+      <c r="D57" s="56">
+        <v>53</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>148</v>
@@ -39998,7 +40011,7 @@
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
       <c r="L57" s="12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M57" s="12"/>
     </row>
@@ -40006,17 +40019,17 @@
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="11">
-        <v>49</v>
+      <c r="D58" s="56">
+        <v>54</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>10</v>
@@ -40028,10 +40041,10 @@
         <v>14</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="92"/>
@@ -40040,8 +40053,8 @@
       <c r="A59" s="12"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="11">
-        <v>50</v>
+      <c r="D59" s="56">
+        <v>55</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>255</v>
@@ -40062,7 +40075,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="108" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>255</v>
@@ -40191,8 +40204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -40221,7 +40234,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F1" s="25" t="s">
         <v>104</v>
@@ -40239,7 +40252,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="L1" s="25" t="s">
         <v>8</v>
@@ -40257,7 +40270,7 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>224</v>
@@ -40275,7 +40288,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>106</v>
@@ -40289,13 +40302,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>309</v>
@@ -40310,7 +40323,7 @@
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>142</v>
@@ -40358,13 +40371,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>650</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>13</v>
@@ -40375,7 +40388,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M5" s="12"/>
     </row>
@@ -40405,13 +40418,13 @@
         <v>14</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.45">
@@ -40424,13 +40437,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>10</v>
@@ -40439,13 +40452,13 @@
         <v>11</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L7" s="59" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M7" s="59" t="s">
         <v>143</v>
@@ -40463,13 +40476,13 @@
         <v>5</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>10</v>
@@ -40480,7 +40493,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="35" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="M8" s="35" t="s">
         <v>425</v>
@@ -40495,7 +40508,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>432</v>
@@ -40513,7 +40526,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="102" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="L9" s="35" t="s">
         <v>151</v>
@@ -40596,13 +40609,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H12" s="34" t="s">
         <v>10</v>
@@ -40613,7 +40626,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="35" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="M12" s="35" t="s">
         <v>120</v>
@@ -40645,7 +40658,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="L13" s="35" t="s">
         <v>262</v>
@@ -40662,7 +40675,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>359</v>
@@ -40714,10 +40727,10 @@
         <v>256</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -40763,7 +40776,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>430</v>
@@ -40794,13 +40807,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>13</v>
@@ -40825,13 +40838,13 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H19" s="34" t="s">
         <v>13</v>
@@ -40856,13 +40869,13 @@
         <v>17</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>148</v>
@@ -40873,10 +40886,10 @@
       <c r="J20" s="35"/>
       <c r="K20" s="34"/>
       <c r="L20" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -40890,10 +40903,10 @@
         <v>121</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>148</v>
@@ -40904,7 +40917,7 @@
       <c r="J21" s="35"/>
       <c r="K21" s="34"/>
       <c r="L21" s="35" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M21" s="35" t="s">
         <v>121</v>
@@ -40936,7 +40949,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L22" s="35" t="s">
         <v>150</v>
@@ -40953,13 +40966,13 @@
         <v>20</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H23" s="59" t="s">
         <v>10</v>
@@ -40970,10 +40983,10 @@
       <c r="J23" s="60"/>
       <c r="K23" s="34"/>
       <c r="L23" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M23" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -40984,7 +40997,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>336</v>
@@ -41002,7 +41015,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="106" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>524</v>
@@ -41019,13 +41032,13 @@
         <v>22</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>13</v>
@@ -41050,13 +41063,13 @@
         <v>23</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>13</v>
@@ -41081,13 +41094,13 @@
         <v>24</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>148</v>
@@ -41098,7 +41111,7 @@
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M27" s="35" t="s">
         <v>270</v>
@@ -41112,13 +41125,13 @@
         <v>25</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>148</v>
@@ -41129,7 +41142,7 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="35" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M28" s="35"/>
     </row>
@@ -41141,13 +41154,13 @@
         <v>26</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>10</v>
@@ -41159,10 +41172,10 @@
         <v>14</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="L29" s="35" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="M29" s="34"/>
     </row>
@@ -41192,7 +41205,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="106" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="L30" s="35" t="s">
         <v>255</v>
@@ -41212,15 +41225,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41392,7 +41396,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41404,15 +41408,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41430,7 +41435,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -41444,4 +41449,12 @@
     <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ICES\ices-tools-dev\RDBES\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E814124-F66D-47D2-8B03-A1C4E7DB5CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.19.6" sheetId="1" r:id="rId1"/>
@@ -39,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nuno Prista</author>
   </authors>
   <commentList>
-    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="L21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="L24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,12 +98,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nuno Prista</author>
   </authors>
   <commentList>
-    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="L38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="K41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="K43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="1300">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -4141,7 +4140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4625,7 +4624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4700,23 +4699,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4752,23 +4734,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4944,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4954,53 +4919,53 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.1328125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.3984375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="4.1328125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="29.265625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.3984375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="17" customWidth="1"/>
     <col min="8" max="8" width="6" style="17" customWidth="1"/>
-    <col min="9" max="9" width="5.3984375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="23.3984375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="46.3984375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="4.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="46.42578125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="17" customWidth="1"/>
-    <col min="14" max="14" width="25.3984375" style="17" customWidth="1"/>
-    <col min="15" max="15" width="57.86328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="4.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.3984375" style="17" customWidth="1"/>
-    <col min="18" max="18" width="24.73046875" style="17" customWidth="1"/>
-    <col min="19" max="19" width="56.3984375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="7.3984375" style="17" customWidth="1"/>
-    <col min="21" max="21" width="4.3984375" style="17" customWidth="1"/>
-    <col min="22" max="22" width="28.73046875" style="17" customWidth="1"/>
-    <col min="23" max="23" width="48.265625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="57.85546875" style="17" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="17" customWidth="1"/>
+    <col min="19" max="19" width="56.42578125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" style="17" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" style="17" customWidth="1"/>
+    <col min="23" max="23" width="48.28515625" style="17" customWidth="1"/>
     <col min="24" max="24" width="14" style="17" customWidth="1"/>
-    <col min="25" max="25" width="5.1328125" style="17" customWidth="1"/>
-    <col min="26" max="26" width="22.265625" style="17" customWidth="1"/>
-    <col min="27" max="27" width="45.265625" style="17" customWidth="1"/>
-    <col min="28" max="28" width="5.3984375" style="17" customWidth="1"/>
-    <col min="29" max="29" width="6.3984375" style="17" customWidth="1"/>
-    <col min="30" max="30" width="25.86328125" style="17" customWidth="1"/>
-    <col min="31" max="31" width="51.265625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="6.3984375" style="17" customWidth="1"/>
-    <col min="33" max="33" width="5.3984375" style="17" customWidth="1"/>
-    <col min="34" max="34" width="22.3984375" style="17" customWidth="1"/>
-    <col min="35" max="35" width="51.3984375" style="17" customWidth="1"/>
-    <col min="36" max="36" width="22.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.1328125" style="17"/>
+    <col min="25" max="25" width="5.140625" style="17" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" style="17" customWidth="1"/>
+    <col min="27" max="27" width="45.28515625" style="17" customWidth="1"/>
+    <col min="28" max="28" width="5.42578125" style="17" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="17" customWidth="1"/>
+    <col min="30" max="30" width="25.85546875" style="17" customWidth="1"/>
+    <col min="31" max="31" width="51.28515625" style="17" customWidth="1"/>
+    <col min="32" max="32" width="6.42578125" style="17" customWidth="1"/>
+    <col min="33" max="33" width="5.42578125" style="17" customWidth="1"/>
+    <col min="34" max="34" width="22.42578125" style="17" customWidth="1"/>
+    <col min="35" max="35" width="51.42578125" style="17" customWidth="1"/>
+    <col min="36" max="36" width="22.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L1" s="17"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="105" t="s">
         <v>1277</v>
       </c>
@@ -5008,7 +4973,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -5050,7 +5015,7 @@
       </c>
       <c r="AI3" s="21"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="str">
         <f>IF(ISBLANK(Design!A2)=TRUE, Design!B2, "")</f>
         <v/>
@@ -5159,7 +5124,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <f>IF(ISBLANK(Design!A3)=TRUE, Design!B3, "")</f>
         <v>0</v>
@@ -5268,7 +5233,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>IF(ISBLANK(Design!A4)=TRUE, Design!B4, "")</f>
         <v>0</v>
@@ -5377,7 +5342,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f>IF(ISBLANK(Design!A6)=TRUE, Design!B6, "")</f>
         <v>0</v>
@@ -5487,7 +5452,7 @@
         <v>Fixed value ('BV')</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f>IF(ISBLANK(Design!A7)=TRUE, Design!B7, "")</f>
         <v>0</v>
@@ -5596,7 +5561,7 @@
         <v>National numbering system of the individual fish.</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:35" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f>IF(ISBLANK(Design!A9)=TRUE, Design!B9, "")</f>
         <v>0</v>
@@ -5705,7 +5670,7 @@
         <v>The stratum of this record, 'U' if unstratified</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="63" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:35" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!B10, "")</f>
         <v>0</v>
@@ -5814,7 +5779,7 @@
         <v>Type of measurment e.g. "Age"</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f>IF(ISBLANK(Design!A12)=TRUE, Design!B12, "")</f>
         <v>0</v>
@@ -5911,7 +5876,7 @@
         <v xml:space="preserve">Measured value of the Biological variable. </v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="20" t="str">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!F10, "")</f>
         <v>DEsampled</v>
@@ -6004,7 +5969,7 @@
         <v>The unit or scale of the measured value</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>214</v>
       </c>
@@ -6092,7 +6057,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I14" s="17" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -6168,7 +6133,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I15" s="17" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -6244,7 +6209,7 @@
         <v>Total number of fish in this stratum</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:35" ht="94.5" x14ac:dyDescent="0.25">
       <c r="J16" s="20" t="str">
         <f>IF(ISBLANK('Vessel Selection'!A15)=TRUE, 'Vessel Selection'!F15, "")</f>
         <v>VSnumberSampled</v>
@@ -6312,7 +6277,7 @@
         <v>The number of fish measured in this stratum</v>
       </c>
     </row>
-    <row r="17" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I17" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!B2, "")</f>
         <v/>
@@ -6384,7 +6349,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I18" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!A3)=TRUE, 'Temporal Event'!B3, "")</f>
         <v/>
@@ -6456,7 +6421,7 @@
         <v>The method of selecting fish</v>
       </c>
     </row>
-    <row r="19" spans="9:35" ht="94.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="9:35" ht="110.25" x14ac:dyDescent="0.25">
       <c r="I19" s="17">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!B9, "")</f>
         <v>0</v>
@@ -6530,7 +6495,7 @@
         <v>Self-sampling, Observer, Control, Electronic Monitoring (EM). In the future potential combinations of e.g. observer and EM</v>
       </c>
     </row>
-    <row r="20" spans="9:35" ht="63" x14ac:dyDescent="0.5">
+    <row r="20" spans="9:35" ht="63" x14ac:dyDescent="0.25">
       <c r="I20" s="17">
         <f>IF(ISBLANK('Temporal Event'!A10)=TRUE, 'Temporal Event'!B10, "")</f>
         <v>0</v>
@@ -6598,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:35" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="21" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I21" s="17">
         <f>IF(ISBLANK('Temporal Event'!A14)=TRUE, 'Temporal Event'!B14, "")</f>
         <v>0</v>
@@ -6658,7 +6623,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="22" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I22" s="17">
         <f>IF(ISBLANK('Temporal Event'!A15)=TRUE, 'Temporal Event'!B15, "")</f>
         <v>0</v>
@@ -6715,7 +6680,7 @@
         <v>The number of units sampled in this stratum</v>
       </c>
     </row>
-    <row r="23" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="23" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I23" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -6772,7 +6737,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I24" s="17">
         <f>IF(ISBLANK('Temporal Event'!A18)=TRUE, 'Temporal Event'!B18, "")</f>
         <v>0</v>
@@ -6829,7 +6794,7 @@
         <v>The method of selecting units for sampling</v>
       </c>
     </row>
-    <row r="25" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I25" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -6890,7 +6855,7 @@
         <v>The Lower Hierarchy that will be used for this Sample/Subsample</v>
       </c>
     </row>
-    <row r="26" spans="9:35" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="26" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L26" s="17"/>
       <c r="N26" s="20" t="str">
         <f>IF(ISBLANK('Fishing Trip'!A26)=TRUE, 'Fishing Trip'!F26, "")</f>
@@ -6931,7 +6896,7 @@
         <v>Self-sampling, Observer, Control, Electronic Monitoring (EM). In the future potential combinations of e.g. observer and EM</v>
       </c>
     </row>
-    <row r="27" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="27" spans="9:35" x14ac:dyDescent="0.25">
       <c r="J27" s="38" t="s">
         <v>530</v>
       </c>
@@ -6976,7 +6941,7 @@
         <v>Reason for not sampling freq</v>
       </c>
     </row>
-    <row r="28" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="28" spans="9:35" x14ac:dyDescent="0.25">
       <c r="J28" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!F2, "")</f>
         <v/>
@@ -7029,7 +6994,7 @@
         <v>Reason for not sampling biovar</v>
       </c>
     </row>
-    <row r="29" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="29" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J29" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A3)=TRUE, 'Temporal Event'!F3, "")</f>
         <v/>
@@ -7086,7 +7051,7 @@
         <v>Whole weight in grammes.</v>
       </c>
     </row>
-    <row r="30" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="30" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I30" s="17" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!B2, "")</f>
         <v/>
@@ -7147,7 +7112,7 @@
         <v>Whole weight in grammes of the sample.</v>
       </c>
     </row>
-    <row r="31" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="31" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I31" s="17" t="str">
         <f>IF(ISBLANK(Location!A3)=TRUE, Location!B3, "")</f>
         <v/>
@@ -7208,7 +7173,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
+    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7268,7 +7233,7 @@
         <v xml:space="preserve">State of the specimens (e.g., dead, damaged, etc). </v>
       </c>
     </row>
-    <row r="33" spans="8:27" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="33" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="J33" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A8)=TRUE, 'Temporal Event'!F8, "")</f>
         <v>TEstratification</v>
@@ -7307,7 +7272,7 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="36"/>
     </row>
-    <row r="34" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="34" spans="8:27" x14ac:dyDescent="0.25">
       <c r="J34" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!F9, "")</f>
         <v>TEtimeUnit</v>
@@ -7346,7 +7311,7 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="36"/>
     </row>
-    <row r="35" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="35" spans="8:27" x14ac:dyDescent="0.25">
       <c r="I35" s="17" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -7398,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="36" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I36" s="17">
         <f>IF(ISBLANK(Location!A10)=TRUE, Location!B10, "")</f>
         <v>0</v>
@@ -7454,7 +7419,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="37" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I37" s="17">
         <f>IF(ISBLANK(Location!A14)=TRUE, Location!B14, "")</f>
         <v>0</v>
@@ -7506,7 +7471,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="8:27" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="38" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="I38" s="17">
         <f>IF(ISBLANK(Location!A15)=TRUE, Location!B15, "")</f>
         <v>0</v>
@@ -7558,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I39" s="17" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -7606,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="8:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="8:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="17">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!B18, "")</f>
         <v>0</v>
@@ -7654,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7699,7 +7664,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -7741,7 +7706,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="8:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="8:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="48"/>
       <c r="I43" s="48"/>
       <c r="J43" s="42" t="str">
@@ -7791,7 +7756,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="44" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="42" t="str">
@@ -7829,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="45" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J45" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A20)=TRUE, 'Temporal Event'!F20, "")</f>
         <v>TEselectionMethodCluster</v>
@@ -7866,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="46" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J46" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A21)=TRUE, 'Temporal Event'!F21, "")</f>
         <v>TEnumberTotalClusters</v>
@@ -7899,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="47" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
       <c r="J47" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A22)=TRUE, 'Temporal Event'!F22, "")</f>
         <v>TEnumberSampledClusters</v>
@@ -7928,7 +7893,7 @@
         <v>The method of selecting hauls for sampling</v>
       </c>
     </row>
-    <row r="48" spans="8:27" x14ac:dyDescent="0.5">
+    <row r="48" spans="8:27" x14ac:dyDescent="0.25">
       <c r="J48" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -7957,7 +7922,7 @@
         <v>The unique name of this unit.</v>
       </c>
     </row>
-    <row r="49" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="49" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J49" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A26)=TRUE, 'Temporal Event'!F26, "")</f>
         <v>TEreasonNotSampled</v>
@@ -7986,7 +7951,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="50" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="50" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J50" s="20">
         <f>IF(ISBLANK('Temporal Event'!A27)=TRUE, 'Temporal Event'!F27, "")</f>
         <v>0</v>
@@ -8015,7 +7980,7 @@
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="51" spans="10:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="10:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L51" s="17"/>
       <c r="M51" s="18"/>
       <c r="N51" s="20" t="str">
@@ -8036,7 +8001,7 @@
         <v>Total number of clusters sampled</v>
       </c>
     </row>
-    <row r="52" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="52" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J52" s="21" t="s">
         <v>206</v>
       </c>
@@ -8061,7 +8026,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="53" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J53" s="36" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!F2, "")</f>
         <v/>
@@ -8090,7 +8055,7 @@
         <v>Reason for not sampling</v>
       </c>
     </row>
-    <row r="54" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="54" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J54" s="36" t="str">
         <f>IF(ISBLANK(Location!A3)=TRUE, Location!F3, "")</f>
         <v/>
@@ -8119,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="55" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J55" s="36" t="str">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!F4, "")</f>
         <v>LOrecordType</v>
@@ -8152,7 +8117,7 @@
       </c>
       <c r="W55" s="21"/>
     </row>
-    <row r="56" spans="10:26" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="56" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="J56" s="36" t="str">
         <f>IF(ISBLANK(Location!A6)=TRUE, Location!F6, "")</f>
         <v>LOstratification</v>
@@ -8189,7 +8154,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="57" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J57" s="43" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8226,7 +8191,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="58" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J58" s="43" t="str">
         <f>IF(ISBLANK(Location!A10)=TRUE, Location!F10, "")</f>
         <v>LOstratumName</v>
@@ -8263,7 +8228,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="59" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="J59" s="43" t="str">
         <f>IF(ISBLANK(Location!A11)=TRUE, Location!F11, "")</f>
         <v>LOclustering</v>
@@ -8292,7 +8257,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="60" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J60" s="43" t="str">
         <f>IF(ISBLANK(Location!A12)=TRUE, Location!F12, "")</f>
         <v>LOclusterName</v>
@@ -8324,7 +8289,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="10:26" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="61" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="J61" s="43" t="str">
         <f>IF(ISBLANK(Location!A13)=TRUE, Location!F13, "")</f>
         <v>LOsampler</v>
@@ -8356,7 +8321,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="62" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J62" s="43" t="str">
         <f>IF(ISBLANK(Location!A14)=TRUE, Location!F14, "")</f>
         <v>LOnumberTotal</v>
@@ -8379,7 +8344,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="10:26" ht="94.5" x14ac:dyDescent="0.5">
+    <row r="63" spans="10:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="J63" s="43" t="str">
         <f>IF(ISBLANK(Location!A15)=TRUE, Location!F15, "")</f>
         <v>LOnumberSampled</v>
@@ -8402,7 +8367,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="64" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J64" s="43" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8426,7 +8391,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -8450,7 +8415,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="66" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J66" s="43" t="str">
         <f>IF(ISBLANK(Location!A19)=TRUE, Location!F19, "")</f>
         <v>LOunitName</v>
@@ -8478,7 +8443,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="67" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J67" s="43" t="str">
         <f>IF(ISBLANK(Location!A20)=TRUE, Location!F20, "")</f>
         <v>LOselectionMethodCluster</v>
@@ -8510,7 +8475,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="68" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J68" s="36" t="str">
         <f>IF(ISBLANK(Location!A21)=TRUE, Location!F21, "")</f>
         <v>LOnumberTotalClusters</v>
@@ -8542,7 +8507,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="69" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="J69" s="36" t="str">
         <f>IF(ISBLANK(Location!A22)=TRUE, Location!F22, "")</f>
         <v>LOnumberSampledClusters</v>
@@ -8574,7 +8539,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="70" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J70" s="36" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8599,7 +8564,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="71" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J71" s="36" t="str">
         <f>IF(ISBLANK(Location!A26)=TRUE, Location!F26, "")</f>
         <v>LOreasonNotSampled</v>
@@ -8624,7 +8589,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="72" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J72" s="36">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!F27, "")</f>
         <v>0</v>
@@ -8645,7 +8610,7 @@
       </c>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="73" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J73" s="36" t="str">
         <f>IF(ISBLANK(Location!A28)=TRUE, Location!F28, "")</f>
         <v/>
@@ -8666,7 +8631,7 @@
       </c>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="74" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J74" s="36" t="str">
         <f>IF(ISBLANK(Location!A29)=TRUE, Location!F29, "")</f>
         <v/>
@@ -8687,7 +8652,7 @@
       </c>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="75" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L75" s="17"/>
       <c r="M75" s="18"/>
       <c r="N75" s="20" t="str">
@@ -8700,7 +8665,7 @@
       </c>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="10:26" ht="63" x14ac:dyDescent="0.5">
+    <row r="76" spans="10:26" ht="63" x14ac:dyDescent="0.25">
       <c r="L76" s="17"/>
       <c r="M76" s="18"/>
       <c r="N76" s="20" t="str">
@@ -8713,7 +8678,7 @@
       </c>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="77" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L77" s="17"/>
       <c r="M77" s="18"/>
       <c r="N77" s="20" t="str">
@@ -8726,7 +8691,7 @@
       </c>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="78" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L78" s="17"/>
       <c r="M78" s="18"/>
       <c r="N78" s="20" t="str">
@@ -8739,7 +8704,7 @@
       </c>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="79" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L79" s="17"/>
       <c r="M79" s="18"/>
       <c r="N79" s="20" t="str">
@@ -8752,7 +8717,7 @@
       </c>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="10:26" x14ac:dyDescent="0.5">
+    <row r="80" spans="10:26" x14ac:dyDescent="0.25">
       <c r="L80" s="17"/>
       <c r="M80" s="18"/>
       <c r="N80" s="20" t="str">
@@ -8765,7 +8730,7 @@
       </c>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="9:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="81" spans="9:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L81" s="17"/>
       <c r="M81" s="18"/>
       <c r="N81" s="20" t="str">
@@ -8778,7 +8743,7 @@
       </c>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
       <c r="L82" s="17"/>
       <c r="M82" s="18"/>
       <c r="N82" s="20" t="str">
@@ -8791,7 +8756,7 @@
       </c>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="9:16" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="9:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="L83" s="17"/>
       <c r="M83" s="18"/>
       <c r="N83" s="20" t="str">
@@ -8804,7 +8769,7 @@
       </c>
       <c r="P83" s="18"/>
     </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I84" s="18">
         <f>IF(ISBLANK('Landing event'!A43)=TRUE, 'Landing event'!B43, "")</f>
         <v>0</v>
@@ -8818,7 +8783,7 @@
         <v>The LOCODE for the location of this LandingEvent.</v>
       </c>
     </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I85" s="18" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8832,7 +8797,7 @@
         <v>Type of LandingEvent location</v>
       </c>
     </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I86" s="18">
         <f>IF(ISBLANK('Landing event'!A46)=TRUE, 'Landing event'!B46, "")</f>
         <v>0</v>
@@ -8846,7 +8811,7 @@
         <v xml:space="preserve">The country that this LandingEvent location is in. </v>
       </c>
     </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I87" s="18">
         <f>IF(ISBLANK('Landing event'!A55)=TRUE, 'Landing event'!B55, "")</f>
         <v>0</v>
@@ -8860,7 +8825,7 @@
         <v>The date of the LandingEvent</v>
       </c>
     </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I88" s="18">
         <f>IF(ISBLANK('Landing event'!A57)=TRUE, 'Landing event'!B57, "")</f>
         <v>0</v>
@@ -8874,7 +8839,7 @@
         <v>The time that this LandingEvent took place</v>
       </c>
     </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I89" s="18" t="str">
         <f>IF(ISBLANK('Landing event'!A59)=TRUE, 'Landing event'!B59, "")</f>
         <v/>
@@ -8888,7 +8853,7 @@
         <v>Exclusive Economic Zone indicator.</v>
       </c>
     </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I90" s="18">
         <f>IF(ISBLANK('Landing event'!A60)=TRUE, 'Landing event'!B60, "")</f>
         <v>0</v>
@@ -8902,7 +8867,7 @@
         <v xml:space="preserve">The area that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N91" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A29)=TRUE, 'Landing event'!F29, "")</f>
         <v>LErectangle</v>
@@ -8912,7 +8877,7 @@
         <v xml:space="preserve">The rectangle that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="92" spans="9:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="92" spans="9:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="N92" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A31)=TRUE, 'Landing event'!F31, "")</f>
         <v>LEjurisdictionArea</v>
@@ -8922,7 +8887,7 @@
         <v xml:space="preserve">Area belonging to a country or a part of an area used by Long Distance Fisheries. </v>
       </c>
     </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N93" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8932,7 +8897,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N94" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A32)=TRUE, 'Landing event'!F32, "")</f>
         <v>LEnationalFishingActivity</v>
@@ -8942,7 +8907,7 @@
         <v>Country specific national fishing gear</v>
       </c>
     </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N95" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A33)=TRUE, 'Landing event'!F33, "")</f>
         <v>LEmetier5</v>
@@ -8952,7 +8917,7 @@
         <v>Level 5 metier</v>
       </c>
     </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.5">
+    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N96" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A34)=TRUE, 'Landing event'!F34, "")</f>
         <v>LEmetier6</v>
@@ -8962,7 +8927,7 @@
         <v>Level 6 metier</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N97" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A35)=TRUE, 'Landing event'!F35, "")</f>
         <v>LEgear</v>
@@ -8972,7 +8937,7 @@
         <v>The FAO gear code.</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N98" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A36)=TRUE, 'Landing event'!F36, "")</f>
         <v>LEmeshSize</v>
@@ -8982,7 +8947,7 @@
         <v>Mesh size</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N99" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A37)=TRUE, 'Landing event'!F37, "")</f>
         <v>LEselectionDevice</v>
@@ -8992,7 +8957,7 @@
         <v>Selection device</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N100" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A38)=TRUE, 'Landing event'!F38, "")</f>
         <v>LEselectionDeviceMeshSize</v>
@@ -9002,7 +8967,7 @@
         <v>Selection device mesh size (mm)</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N101" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A39)=TRUE, 'Landing event'!F39, "")</f>
         <v>LEtargetSpecies</v>
@@ -9012,7 +8977,7 @@
         <v>Target species assemblage</v>
       </c>
     </row>
-    <row r="102" spans="14:15" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="102" spans="14:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="N102" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A42)=TRUE, 'Landing event'!F42, "")</f>
         <v>LEnumberTotal</v>
@@ -9022,7 +8987,7 @@
         <v>Total number of unique Landing Event in the stratum/cluster. The total number of Landing Events at an e.g. Port in that stratum/cluster.</v>
       </c>
     </row>
-    <row r="103" spans="14:15" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="14:15" ht="94.5" x14ac:dyDescent="0.25">
       <c r="N103" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A43)=TRUE, 'Landing event'!F43, "")</f>
         <v>LEnumberSampled</v>
@@ -9032,7 +8997,7 @@
         <v>The number of Landing Events sampled in this stratum/cluster (not necessarily unique Landing Events, the same Landing Event could be sampled multiple times). If 3 samples was made and one Landing Event  was selected twice, the number of Landing Events sampled is 3.</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N104" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -9042,7 +9007,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N105" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A46)=TRUE, 'Landing event'!F46, "")</f>
         <v>LEselectionMethod</v>
@@ -9052,7 +9017,7 @@
         <v>The method of selecting Landing Events for sampling</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N106" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A48)=TRUE, 'Landing event'!F48, "")</f>
         <v>LEselectionMethodCluster</v>
@@ -9062,7 +9027,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="107" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="107" spans="14:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="N107" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A49)=TRUE, 'Landing event'!F49, "")</f>
         <v>LEnumberTotalClusters</v>
@@ -9072,7 +9037,7 @@
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N108" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A50)=TRUE, 'Landing event'!F50, "")</f>
         <v>LEnumberSampledClusters</v>
@@ -9082,7 +9047,7 @@
         <v>Total number of clusters sampled</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N109" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -9092,7 +9057,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N110" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A54)=TRUE, 'Landing event'!F54, "")</f>
         <v>LEreasonNotSampled</v>
@@ -9102,7 +9067,7 @@
         <v>Reason for not sampling</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N111" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A55)=TRUE, 'Landing event'!F55, "")</f>
         <v>LEfullTripAvailable</v>
@@ -9112,7 +9077,7 @@
         <v>Yes, No, unknown</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.5">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N112" s="20">
         <f>IF(ISBLANK('Landing event'!A57)=TRUE, 'Landing event'!F57, "")</f>
         <v>0</v>
@@ -9132,33 +9097,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC62"/>
   <sheetViews>
     <sheetView topLeftCell="F28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.73046875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="21.265625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="26.86328125" style="81" customWidth="1"/>
-    <col min="12" max="12" width="63.1328125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="57.1328125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="25.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.86328125" style="2"/>
+    <col min="1" max="1" width="6.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="81" customWidth="1"/>
+    <col min="12" max="12" width="63.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="57.140625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -9199,7 +9164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -9232,7 +9197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -9269,7 +9234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -9306,7 +9271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -9343,7 +9308,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -9378,7 +9343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -9415,7 +9380,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -9452,7 +9417,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -9489,7 +9454,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -9521,7 +9486,7 @@
       </c>
       <c r="N10" s="51"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="70.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -9555,7 +9520,7 @@
       </c>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="35"/>
@@ -9591,7 +9556,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="35" t="s">
@@ -9625,7 +9590,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="35"/>
@@ -9657,7 +9622,7 @@
       </c>
       <c r="N14" s="101"/>
     </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="35"/>
@@ -9689,7 +9654,7 @@
       </c>
       <c r="N15" s="51"/>
     </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="35"/>
@@ -9725,7 +9690,7 @@
       </c>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="35"/>
@@ -9757,7 +9722,7 @@
       </c>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="35"/>
@@ -9793,7 +9758,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:14" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="35"/>
@@ -9829,7 +9794,7 @@
       </c>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="35"/>
@@ -9865,7 +9830,7 @@
       </c>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="35"/>
@@ -9899,7 +9864,7 @@
       </c>
       <c r="N21" s="69"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="35" t="s">
@@ -9929,7 +9894,7 @@
       <c r="M22" s="35"/>
       <c r="N22" s="69"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="35"/>
@@ -9965,7 +9930,7 @@
       </c>
       <c r="N23" s="69"/>
     </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="35"/>
@@ -10001,7 +9966,7 @@
       </c>
       <c r="N24" s="68"/>
     </row>
-    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="35"/>
@@ -10033,7 +9998,7 @@
       </c>
       <c r="N25" s="51"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="35"/>
@@ -10065,7 +10030,7 @@
       </c>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="35"/>
@@ -10101,7 +10066,7 @@
       </c>
       <c r="N27" s="51"/>
     </row>
-    <row r="28" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="35"/>
@@ -10137,7 +10102,7 @@
       </c>
       <c r="N28" s="51"/>
     </row>
-    <row r="29" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="35"/>
@@ -10173,7 +10138,7 @@
       </c>
       <c r="N29" s="51"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" s="5" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="34"/>
@@ -10209,7 +10174,7 @@
       </c>
       <c r="N30" s="66"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="35"/>
@@ -10245,7 +10210,7 @@
       </c>
       <c r="N31" s="51"/>
     </row>
-    <row r="32" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="35"/>
@@ -10281,7 +10246,7 @@
       </c>
       <c r="N32" s="69"/>
     </row>
-    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="35"/>
@@ -10317,7 +10282,7 @@
       </c>
       <c r="N33" s="69"/>
     </row>
-    <row r="34" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="35"/>
@@ -10353,7 +10318,7 @@
       </c>
       <c r="N34" s="68"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="35"/>
@@ -10389,7 +10354,7 @@
       </c>
       <c r="N35" s="51"/>
     </row>
-    <row r="36" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="35"/>
@@ -10421,7 +10386,7 @@
       </c>
       <c r="N36" s="51"/>
     </row>
-    <row r="37" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="35"/>
@@ -10457,7 +10422,7 @@
       </c>
       <c r="N37" s="51"/>
     </row>
-    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="35"/>
@@ -10489,7 +10454,7 @@
       </c>
       <c r="N38" s="51"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="35"/>
@@ -10525,7 +10490,7 @@
       </c>
       <c r="N39" s="51"/>
     </row>
-    <row r="40" spans="1:14" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" s="16" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="34"/>
@@ -10559,7 +10524,7 @@
       <c r="M40" s="35"/>
       <c r="N40" s="66"/>
     </row>
-    <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" s="16" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="34"/>
@@ -10589,7 +10554,7 @@
       <c r="M41" s="35"/>
       <c r="N41" s="66"/>
     </row>
-    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="35"/>
@@ -10621,7 +10586,7 @@
       </c>
       <c r="N42" s="51"/>
     </row>
-    <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="35"/>
@@ -10653,7 +10618,7 @@
       </c>
       <c r="N43" s="51"/>
     </row>
-    <row r="44" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="35"/>
@@ -10685,7 +10650,7 @@
       </c>
       <c r="N44" s="51"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="35"/>
@@ -10717,7 +10682,7 @@
       </c>
       <c r="N45" s="51"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="35"/>
@@ -10753,7 +10718,7 @@
       </c>
       <c r="N46" s="51"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="85"/>
       <c r="C47" s="35"/>
@@ -10785,7 +10750,7 @@
       </c>
       <c r="N47" s="51"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="35"/>
@@ -10821,7 +10786,7 @@
       </c>
       <c r="N48" s="51"/>
     </row>
-    <row r="49" spans="1:16383" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16383" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="35"/>
@@ -10853,7 +10818,7 @@
       </c>
       <c r="N49" s="51"/>
     </row>
-    <row r="50" spans="1:16383" ht="24" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16383" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="35"/>
@@ -10885,7 +10850,7 @@
       </c>
       <c r="N50" s="51"/>
     </row>
-    <row r="51" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16383" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="35"/>
@@ -10917,7 +10882,7 @@
       </c>
       <c r="N51" s="51"/>
     </row>
-    <row r="52" spans="1:16383" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:16383" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="35"/>
@@ -10947,7 +10912,7 @@
       <c r="M52" s="35"/>
       <c r="N52" s="51"/>
     </row>
-    <row r="53" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:16383" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="35"/>
@@ -10980,7 +10945,7 @@
       </c>
       <c r="M53" s="34"/>
     </row>
-    <row r="54" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="35"/>
@@ -11016,7 +10981,7 @@
       </c>
       <c r="N54" s="51"/>
     </row>
-    <row r="55" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="35"/>
@@ -11052,7 +11017,7 @@
       </c>
       <c r="N55" s="51"/>
     </row>
-    <row r="56" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
@@ -11068,7 +11033,7 @@
       <c r="M56" s="60"/>
       <c r="N56" s="51"/>
     </row>
-    <row r="57" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A57" s="66"/>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
@@ -11083,7 +11048,7 @@
       <c r="M57" s="67"/>
       <c r="N57" s="51"/>
     </row>
-    <row r="58" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>1006</v>
       </c>
@@ -27470,7 +27435,7 @@
       <c r="XFB58" s="74"/>
       <c r="XFC58" s="74"/>
     </row>
-    <row r="59" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A59" s="65" t="s">
         <v>239</v>
       </c>
@@ -27487,7 +27452,7 @@
       <c r="M59" s="67"/>
       <c r="N59" s="51"/>
     </row>
-    <row r="60" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
       <c r="B60" s="66"/>
       <c r="C60" s="66"/>
@@ -27502,7 +27467,7 @@
       <c r="M60" s="67"/>
       <c r="N60" s="51"/>
     </row>
-    <row r="61" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A61" s="66"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
@@ -27517,7 +27482,7 @@
       <c r="M61" s="67"/>
       <c r="N61" s="51"/>
     </row>
-    <row r="62" spans="1:16383" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:16383" x14ac:dyDescent="0.25">
       <c r="A62" s="66"/>
       <c r="B62" s="66"/>
       <c r="C62" s="66"/>
@@ -27539,31 +27504,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.3984375" customWidth="1"/>
-    <col min="8" max="8" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.265625" style="88" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="88" customWidth="1"/>
     <col min="12" max="12" width="46" customWidth="1"/>
-    <col min="13" max="13" width="40.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -27604,7 +27569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
@@ -27637,7 +27602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -27674,7 +27639,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -27711,7 +27676,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
@@ -27746,7 +27711,7 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
@@ -27781,7 +27746,7 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
@@ -27816,7 +27781,7 @@
       </c>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>12</v>
       </c>
@@ -27850,7 +27815,7 @@
       </c>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -27883,7 +27848,7 @@
       <c r="N9" s="63"/>
       <c r="O9" s="63"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="35" t="s">
@@ -27918,7 +27883,7 @@
       <c r="N10" s="63"/>
       <c r="O10" s="63"/>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -27955,7 +27920,7 @@
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="58.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
@@ -27994,7 +27959,7 @@
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
     </row>
-    <row r="13" spans="1:15" ht="151.15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="192" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49" t="s">
@@ -28031,7 +27996,7 @@
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49" t="s">
@@ -28070,7 +28035,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -28103,7 +28068,7 @@
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -28140,7 +28105,7 @@
       <c r="N16" s="51"/>
       <c r="O16" s="68"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -28173,7 +28138,7 @@
       <c r="N17" s="51"/>
       <c r="O17" s="60"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -28210,7 +28175,7 @@
       <c r="N18" s="51"/>
       <c r="O18" s="69"/>
     </row>
-    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -28245,7 +28210,7 @@
       <c r="N19" s="51"/>
       <c r="O19" s="60"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -28280,7 +28245,7 @@
       <c r="N20" s="51"/>
       <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -28313,7 +28278,7 @@
       <c r="N21" s="51"/>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -28346,7 +28311,7 @@
       <c r="N22" s="51"/>
       <c r="O22" s="68"/>
     </row>
-    <row r="23" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -28379,7 +28344,7 @@
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -28412,7 +28377,7 @@
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -28449,7 +28414,7 @@
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="60"/>
       <c r="C26" s="49"/>
@@ -28482,7 +28447,7 @@
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -28519,7 +28484,7 @@
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -28552,7 +28517,7 @@
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -28585,7 +28550,7 @@
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -28618,7 +28583,7 @@
       <c r="N30" s="51"/>
       <c r="O30" s="51"/>
     </row>
-    <row r="31" spans="1:15" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -28649,7 +28614,7 @@
       <c r="N31" s="51"/>
       <c r="O31" s="51"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -28682,7 +28647,7 @@
       </c>
       <c r="M32" s="34"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -28719,7 +28684,7 @@
       <c r="N33" s="51"/>
       <c r="O33" s="51"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -28736,7 +28701,7 @@
       <c r="N34" s="51"/>
       <c r="O34" s="51"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -28753,7 +28718,7 @@
       <c r="N35" s="51"/>
       <c r="O35" s="51"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
         <v>239</v>
       </c>
@@ -28772,7 +28737,7 @@
       <c r="N36" s="51"/>
       <c r="O36" s="51"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -28789,7 +28754,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -28806,7 +28771,7 @@
       <c r="N38" s="51"/>
       <c r="O38" s="51"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -28823,7 +28788,7 @@
       <c r="N39" s="51"/>
       <c r="O39" s="51"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -28847,31 +28812,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="28.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.265625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.86328125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="55.265625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="41" customWidth="1"/>
+    <col min="12" max="12" width="55.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>44</v>
       </c>
@@ -28912,7 +28877,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -28946,7 +28911,7 @@
       </c>
       <c r="N2" s="100"/>
     </row>
-    <row r="3" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -28982,7 +28947,7 @@
       </c>
       <c r="N3" s="100"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -29022,7 +28987,7 @@
       <c r="U4" s="51"/>
       <c r="V4" s="51"/>
     </row>
-    <row r="5" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
@@ -29064,7 +29029,7 @@
       <c r="U5" s="51"/>
       <c r="V5" s="51"/>
     </row>
-    <row r="6" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -29104,7 +29069,7 @@
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -29148,7 +29113,7 @@
       <c r="U7" s="60"/>
       <c r="V7" s="68"/>
     </row>
-    <row r="8" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -29188,7 +29153,7 @@
       <c r="U8" s="51"/>
       <c r="V8" s="51"/>
     </row>
-    <row r="9" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
@@ -29234,7 +29199,7 @@
       <c r="U9" s="51"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -29280,7 +29245,7 @@
       <c r="U10" s="51"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="56" t="s">
         <v>1075</v>
@@ -29313,7 +29278,7 @@
       </c>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:22" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" s="51" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56" t="s">
@@ -29350,7 +29315,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="128.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" ht="144.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -29394,7 +29359,7 @@
       <c r="U13" s="51"/>
       <c r="V13" s="51"/>
     </row>
-    <row r="14" spans="1:22" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
@@ -29440,7 +29405,7 @@
       <c r="U14" s="51"/>
       <c r="V14" s="51"/>
     </row>
-    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
@@ -29486,7 +29451,7 @@
       <c r="U15" s="51"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
@@ -29532,7 +29497,7 @@
       <c r="U16" s="51"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -29578,7 +29543,7 @@
       <c r="U17" s="51"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
@@ -29624,7 +29589,7 @@
       <c r="U18" s="51"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" s="23" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -29668,7 +29633,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -29712,7 +29677,7 @@
       <c r="U20" s="51"/>
       <c r="V20" s="51"/>
     </row>
-    <row r="21" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" s="23" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -29756,7 +29721,7 @@
       <c r="U21" s="51"/>
       <c r="V21" s="51"/>
     </row>
-    <row r="22" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -29800,7 +29765,7 @@
       <c r="U22" s="51"/>
       <c r="V22" s="51"/>
     </row>
-    <row r="23" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -29844,7 +29809,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -29888,7 +29853,7 @@
       <c r="U24" s="51"/>
       <c r="V24" s="51"/>
     </row>
-    <row r="25" spans="1:22" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -29932,7 +29897,7 @@
       <c r="U25" s="51"/>
       <c r="V25" s="51"/>
     </row>
-    <row r="26" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" s="23" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -29976,7 +29941,7 @@
       <c r="U26" s="51"/>
       <c r="V26" s="51"/>
     </row>
-    <row r="27" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" s="23" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -30020,7 +29985,7 @@
       <c r="U27" s="51"/>
       <c r="V27" s="51"/>
     </row>
-    <row r="28" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" s="23" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -30060,7 +30025,7 @@
       <c r="U28" s="51"/>
       <c r="V28" s="51"/>
     </row>
-    <row r="29" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -30104,7 +30069,7 @@
       <c r="U29" s="51"/>
       <c r="V29" s="51"/>
     </row>
-    <row r="30" spans="1:22" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -30144,7 +30109,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30188,7 +30153,7 @@
       <c r="U31" s="51"/>
       <c r="V31" s="51"/>
     </row>
-    <row r="32" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -30228,7 +30193,7 @@
       <c r="U32" s="51"/>
       <c r="V32" s="51"/>
     </row>
-    <row r="33" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -30268,7 +30233,7 @@
       <c r="U33" s="51"/>
       <c r="V33" s="51"/>
     </row>
-    <row r="34" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30308,7 +30273,7 @@
       <c r="U34" s="51"/>
       <c r="V34" s="51"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -30348,7 +30313,7 @@
       <c r="U35" s="51"/>
       <c r="V35" s="51"/>
     </row>
-    <row r="36" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -30388,7 +30353,7 @@
       <c r="U36" s="51"/>
       <c r="V36" s="51"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -30428,7 +30393,7 @@
       <c r="U37" s="51"/>
       <c r="V37" s="51"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -30472,7 +30437,7 @@
       <c r="U38" s="51"/>
       <c r="V38" s="51"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="85"/>
       <c r="C39" s="11"/>
@@ -30512,7 +30477,7 @@
       <c r="U39" s="51"/>
       <c r="V39" s="51"/>
     </row>
-    <row r="40" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -30556,7 +30521,7 @@
       <c r="U40" s="51"/>
       <c r="V40" s="51"/>
     </row>
-    <row r="41" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
@@ -30600,7 +30565,7 @@
       <c r="U41" s="51"/>
       <c r="V41" s="51"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -30633,7 +30598,7 @@
       </c>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -30677,7 +30642,7 @@
       <c r="U43" s="51"/>
       <c r="V43" s="51"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
@@ -30721,7 +30686,7 @@
       <c r="U44" s="51"/>
       <c r="V44" s="51"/>
     </row>
-    <row r="45" spans="1:22" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:22" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -30761,7 +30726,7 @@
       <c r="U45" s="51"/>
       <c r="V45" s="51"/>
     </row>
-    <row r="46" spans="1:22" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:22" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -30801,7 +30766,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -30841,7 +30806,7 @@
       <c r="U47" s="51"/>
       <c r="V47" s="51"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -30864,7 +30829,7 @@
       <c r="U48" s="51"/>
       <c r="V48" s="51"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -30887,7 +30852,7 @@
       <c r="U49" s="51"/>
       <c r="V49" s="51"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -30910,7 +30875,7 @@
       <c r="U50" s="51"/>
       <c r="V50" s="51"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -30933,7 +30898,7 @@
       <c r="U51" s="51"/>
       <c r="V51" s="51"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -30956,7 +30921,7 @@
       <c r="U52" s="51"/>
       <c r="V52" s="51"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -30979,7 +30944,7 @@
       <c r="U53" s="51"/>
       <c r="V53" s="51"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -31002,7 +30967,7 @@
       <c r="U54" s="51"/>
       <c r="V54" s="51"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="51"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -31025,7 +30990,7 @@
       <c r="U55" s="51"/>
       <c r="V55" s="51"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -31048,7 +31013,7 @@
       <c r="U56" s="51"/>
       <c r="V56" s="51"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
         <v>241</v>
       </c>
@@ -31073,7 +31038,7 @@
       <c r="U57" s="51"/>
       <c r="V57" s="51"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="51"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -31096,7 +31061,7 @@
       <c r="U58" s="51"/>
       <c r="V58" s="51"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="51"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -31119,7 +31084,7 @@
       <c r="U59" s="51"/>
       <c r="V59" s="51"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="51"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -31142,7 +31107,7 @@
       <c r="U60" s="51"/>
       <c r="V60" s="51"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="51"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -31172,31 +31137,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.73046875" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.86328125" customWidth="1"/>
-    <col min="5" max="5" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1328125" style="88" customWidth="1"/>
-    <col min="12" max="12" width="52.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.86328125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="88" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -31237,7 +31202,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -31270,7 +31235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -31305,7 +31270,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -31336,7 +31301,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" s="23" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
         <v>1233</v>
@@ -31373,7 +31338,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
         <v>1233</v>
@@ -31419,7 +31384,7 @@
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
@@ -31452,7 +31417,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -31483,7 +31448,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -31518,7 +31483,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
         <v>1233</v>
@@ -31555,7 +31520,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -31590,7 +31555,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -31625,7 +31590,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A13" s="103"/>
       <c r="B13" s="56" t="s">
         <v>1233</v>
@@ -31658,7 +31623,7 @@
       </c>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="103"/>
       <c r="B14" s="56" t="s">
         <v>1233</v>
@@ -31693,7 +31658,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -31728,7 +31693,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -31757,7 +31722,7 @@
       </c>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" s="44" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" s="44" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -31797,30 +31762,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.86328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="41" customWidth="1"/>
-    <col min="12" max="13" width="58.73046875" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.86328125" style="2"/>
+    <col min="12" max="13" width="58.7109375" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -31861,7 +31826,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
@@ -31896,7 +31861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
@@ -31933,7 +31898,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
@@ -31970,7 +31935,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -32001,7 +31966,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56" t="s">
@@ -32034,7 +31999,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="51" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
         <v>1075</v>
@@ -32071,7 +32036,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
         <v>1075</v>
@@ -32108,7 +32073,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -32143,7 +32108,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -32174,7 +32139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56" t="s">
@@ -32211,7 +32176,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -32242,7 +32207,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -32277,7 +32242,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -32312,7 +32277,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
@@ -32347,7 +32312,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="51" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
         <v>1075</v>
@@ -32382,7 +32347,7 @@
       </c>
       <c r="M16" s="56"/>
     </row>
-    <row r="17" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
       <c r="B17" s="56" t="s">
         <v>1075</v>
@@ -32417,7 +32382,7 @@
       </c>
       <c r="M17" s="56"/>
     </row>
-    <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="56" t="s">
         <v>1075</v>
@@ -32448,7 +32413,7 @@
       </c>
       <c r="M18" s="56"/>
     </row>
-    <row r="19" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
         <v>1075</v>
@@ -32479,7 +32444,7 @@
       </c>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
         <v>1075</v>
@@ -32514,7 +32479,7 @@
       </c>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -32545,7 +32510,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -32576,7 +32541,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -32607,7 +32572,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -32638,7 +32603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -32673,7 +32638,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="60"/>
       <c r="C26" s="56"/>
@@ -32704,7 +32669,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -32746,32 +32711,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.3984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.73046875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.265625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="77" customWidth="1"/>
     <col min="12" max="12" width="35" style="10" customWidth="1"/>
-    <col min="13" max="13" width="50.3984375" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="8.86328125" style="2"/>
+    <col min="13" max="13" width="50.42578125" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -32812,7 +32777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -32845,7 +32810,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -32878,7 +32843,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -32915,7 +32880,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -32950,7 +32915,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
@@ -32987,7 +32952,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="58.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -33020,7 +32985,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -33055,7 +33020,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -33092,7 +33057,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -33125,7 +33090,7 @@
       </c>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -33160,7 +33125,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -33175,7 +33140,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -33190,7 +33155,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -33205,7 +33170,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -33220,7 +33185,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -33235,7 +33200,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -33250,7 +33215,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -33265,7 +33230,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -33280,7 +33245,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -33295,10 +33260,10 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="11.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="K21" s="78"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -33313,7 +33278,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -33328,7 +33293,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -33343,7 +33308,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -33358,7 +33323,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -33373,7 +33338,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -33388,7 +33353,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -33403,7 +33368,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -33418,7 +33383,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -33433,7 +33398,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -33448,7 +33413,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -33463,7 +33428,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -33478,7 +33443,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -33493,7 +33458,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -33508,7 +33473,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -33523,7 +33488,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -33538,7 +33503,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -33553,7 +33518,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -33568,7 +33533,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -33583,7 +33548,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -33598,7 +33563,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -33613,7 +33578,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -33628,7 +33593,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -33643,7 +33608,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -33658,7 +33623,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -33673,7 +33638,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -33688,7 +33653,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -33703,7 +33668,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -33725,28 +33690,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.265625" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="2"/>
-    <col min="5" max="5" width="27.1328125" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" customWidth="1"/>
-    <col min="7" max="7" width="25.265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.86328125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="32.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="44" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -33787,7 +33752,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -33820,7 +33785,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -33855,7 +33820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -33890,7 +33855,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -33925,7 +33890,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -33956,7 +33921,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
@@ -33989,7 +33954,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -34024,7 +33989,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
@@ -34061,7 +34026,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="51"/>
@@ -34092,7 +34057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -34127,7 +34092,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -34158,7 +34123,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -34193,7 +34158,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -34224,7 +34189,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="70.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -34255,7 +34220,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -34286,7 +34251,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -34317,7 +34282,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -34352,7 +34317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="32" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="32" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -34383,7 +34348,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -34418,7 +34383,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -34449,7 +34414,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -34480,7 +34445,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -34511,7 +34476,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -34540,7 +34505,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -34573,7 +34538,7 @@
       </c>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -34608,7 +34573,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -34623,7 +34588,7 @@
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>221</v>
       </c>
@@ -34635,29 +34600,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.86328125" style="88"/>
-    <col min="3" max="3" width="15.1328125" style="88" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="88"/>
-    <col min="5" max="6" width="20.73046875" style="88" customWidth="1"/>
-    <col min="7" max="7" width="19.1328125" style="88" customWidth="1"/>
-    <col min="8" max="10" width="8.86328125" style="88"/>
-    <col min="11" max="11" width="24.73046875" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="88"/>
+    <col min="3" max="3" width="15.140625" style="88" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="88"/>
+    <col min="5" max="6" width="20.7109375" style="88" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="88" customWidth="1"/>
+    <col min="8" max="10" width="8.85546875" style="88"/>
+    <col min="11" max="11" width="24.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43" style="88" customWidth="1"/>
-    <col min="13" max="13" width="46.86328125" style="88" customWidth="1"/>
+    <col min="13" max="13" width="46.85546875" style="88" customWidth="1"/>
     <col min="14" max="14" width="23" style="88" customWidth="1"/>
-    <col min="15" max="16384" width="8.86328125" style="88"/>
+    <col min="15" max="16384" width="8.85546875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -34698,7 +34663,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -34733,7 +34698,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -34770,7 +34735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -34801,7 +34766,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -34834,7 +34799,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -34869,7 +34834,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -34904,7 +34869,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -34936,7 +34901,7 @@
       </c>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -34967,7 +34932,7 @@
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
     </row>
-    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -34998,7 +34963,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -35033,7 +34998,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -35064,7 +35029,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -35099,7 +35064,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -35130,7 +35095,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -35161,7 +35126,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -35192,7 +35157,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -35223,7 +35188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -35258,7 +35223,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="85"/>
       <c r="C19" s="12"/>
@@ -35289,7 +35254,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -35324,7 +35289,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" s="41" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -35355,7 +35320,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -35386,7 +35351,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -35417,7 +35382,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -35446,7 +35411,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -35479,7 +35444,7 @@
       </c>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -35514,7 +35479,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -35529,7 +35494,7 @@
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>222</v>
       </c>
@@ -35546,7 +35511,7 @@
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="88" t="s">
         <v>223</v>
       </c>
@@ -35570,30 +35535,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" style="9" customWidth="1"/>
-    <col min="5" max="6" width="26.3984375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="9" customWidth="1"/>
+    <col min="5" max="6" width="26.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1328125" style="78" customWidth="1"/>
-    <col min="12" max="13" width="54.73046875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="5.73046875" style="9"/>
+    <col min="8" max="8" width="6.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="78" customWidth="1"/>
+    <col min="12" max="13" width="54.7109375" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="5.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -35634,7 +35599,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -35669,7 +35634,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -35706,7 +35671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -35737,7 +35702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -35774,7 +35739,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -35818,30 +35783,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.86328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.1328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.86328125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="80" customWidth="1"/>
     <col min="12" max="13" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -35882,7 +35847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -35917,7 +35882,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -35954,7 +35919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -35991,7 +35956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -36028,7 +35993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -36059,7 +36024,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
@@ -36092,7 +36057,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -36125,7 +36090,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -36160,7 +36125,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -36191,7 +36156,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -36226,7 +36191,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -36257,7 +36222,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -36292,7 +36257,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -36323,7 +36288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -36354,7 +36319,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -36385,7 +36350,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -36416,7 +36381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -36451,7 +36416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="60"/>
       <c r="C19" s="35"/>
@@ -36482,7 +36447,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -36517,7 +36482,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -36548,7 +36513,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -36579,7 +36544,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -36610,7 +36575,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -36639,7 +36604,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -36672,7 +36637,7 @@
       </c>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -36707,12 +36672,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>222</v>
       </c>
@@ -36736,30 +36701,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.86328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -36800,7 +36765,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -36820,7 +36785,9 @@
       <c r="G2" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="109" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="26" t="s">
         <v>11</v>
       </c>
@@ -36833,7 +36800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -36853,7 +36820,9 @@
       <c r="G3" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="109" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="26" t="s">
         <v>89</v>
       </c>
@@ -36866,7 +36835,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -36886,7 +36855,9 @@
       <c r="G4" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="109" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="26" t="s">
         <v>89</v>
       </c>
@@ -36899,7 +36870,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -36934,7 +36905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -36969,7 +36940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -37004,7 +36975,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -37039,7 +37010,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -37070,7 +37041,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -37101,7 +37072,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35" t="s">
@@ -37134,7 +37105,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -37169,7 +37140,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -37200,7 +37171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -37235,7 +37206,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -37266,7 +37237,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -37301,7 +37272,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -37336,7 +37307,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -37370,7 +37341,7 @@
       </c>
       <c r="N18" s="101"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -37405,7 +37376,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -37436,7 +37407,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -37467,7 +37438,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35" t="s">
@@ -37504,7 +37475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35" t="s">
@@ -37537,7 +37508,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -37568,7 +37539,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -37599,7 +37570,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -37630,7 +37601,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -37661,7 +37632,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -37692,7 +37663,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -37727,7 +37698,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="60"/>
       <c r="C30" s="56"/>
@@ -37758,7 +37729,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -37791,7 +37762,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -37822,7 +37793,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -37853,7 +37824,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -37884,7 +37855,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -37913,7 +37884,7 @@
       </c>
       <c r="M35" s="35"/>
     </row>
-    <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -37946,7 +37917,7 @@
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -37981,7 +37952,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -37996,7 +37967,7 @@
       <c r="L38" s="63"/>
       <c r="M38" s="63"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>1005</v>
       </c>
@@ -38013,7 +37984,7 @@
       <c r="L39" s="63"/>
       <c r="M39" s="63"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="s">
         <v>239</v>
       </c>
@@ -38030,7 +38001,7 @@
       <c r="L40" s="63"/>
       <c r="M40" s="63"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -38056,32 +38027,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView topLeftCell="G32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="89" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.265625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" style="89" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="89" customWidth="1"/>
-    <col min="5" max="5" width="27.73046875" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.73046875" style="89" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" style="89" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="89" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="89" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="89" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="89" customWidth="1"/>
     <col min="8" max="8" width="11" style="89" customWidth="1"/>
-    <col min="9" max="9" width="9.3984375" style="89" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="89" customWidth="1"/>
-    <col min="11" max="11" width="29.265625" style="89" customWidth="1"/>
-    <col min="12" max="12" width="59.265625" style="94" customWidth="1"/>
-    <col min="13" max="13" width="57.1328125" style="94" customWidth="1"/>
-    <col min="14" max="16384" width="20.1328125" style="89"/>
+    <col min="9" max="9" width="9.42578125" style="89" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="89" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="89" customWidth="1"/>
+    <col min="12" max="12" width="59.28515625" style="94" customWidth="1"/>
+    <col min="13" max="13" width="57.140625" style="94" customWidth="1"/>
+    <col min="14" max="16384" width="20.140625" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="88" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="88" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -38122,7 +38093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -38157,7 +38128,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
@@ -38194,7 +38165,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -38229,7 +38200,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -38261,7 +38232,7 @@
       </c>
       <c r="N5" s="90"/>
     </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -38297,7 +38268,7 @@
       </c>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="12" t="s">
@@ -38329,7 +38300,7 @@
       <c r="M7" s="35"/>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -38361,7 +38332,7 @@
       </c>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -38397,7 +38368,7 @@
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -38429,7 +38400,7 @@
       </c>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -38465,7 +38436,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -38501,7 +38472,7 @@
       </c>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -38537,7 +38508,7 @@
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -38573,7 +38544,7 @@
       </c>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -38605,7 +38576,7 @@
       </c>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -38637,7 +38608,7 @@
       </c>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -38669,7 +38640,7 @@
       </c>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -38701,7 +38672,7 @@
       </c>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -38733,7 +38704,7 @@
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -38771,7 +38742,7 @@
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -38805,7 +38776,7 @@
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -38837,7 +38808,7 @@
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -38869,7 +38840,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -38901,7 +38872,7 @@
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -38933,7 +38904,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -38969,7 +38940,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -39005,7 +38976,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -39041,7 +39012,7 @@
       </c>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -39077,7 +39048,7 @@
       </c>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -39113,7 +39084,7 @@
       </c>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -39145,7 +39116,7 @@
       </c>
       <c r="N31" s="91"/>
     </row>
-    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -39177,7 +39148,7 @@
       </c>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -39213,7 +39184,7 @@
       </c>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -39249,7 +39220,7 @@
       </c>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -39285,7 +39256,7 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -39321,7 +39292,7 @@
       </c>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -39353,7 +39324,7 @@
       </c>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -39389,7 +39360,7 @@
       </c>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="24" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -39421,7 +39392,7 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -39456,7 +39427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="90" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" s="90" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -39492,7 +39463,7 @@
       </c>
       <c r="N41" s="98"/>
     </row>
-    <row r="42" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
@@ -39530,7 +39501,7 @@
       </c>
       <c r="N42" s="97"/>
     </row>
-    <row r="43" spans="1:14" s="90" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" s="90" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
@@ -39568,7 +39539,7 @@
       </c>
       <c r="N43" s="98"/>
     </row>
-    <row r="44" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
@@ -39606,7 +39577,7 @@
       </c>
       <c r="N44" s="97"/>
     </row>
-    <row r="45" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="90" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -39635,7 +39606,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:14" s="41" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="41" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -39670,7 +39641,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -39701,7 +39672,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" s="90" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -39732,7 +39703,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -39763,7 +39734,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -39794,7 +39765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -39829,7 +39800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="85"/>
       <c r="C52" s="11"/>
@@ -39860,7 +39831,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -39893,7 +39864,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="90" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -39924,7 +39895,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -39955,7 +39926,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -39986,7 +39957,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -40015,7 +39986,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" s="46" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -40049,7 +40020,7 @@
       <c r="M58" s="15"/>
       <c r="N58" s="92"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -40085,7 +40056,7 @@
       </c>
       <c r="N59" s="90"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
       <c r="D60" s="90"/>
@@ -40100,7 +40071,7 @@
       <c r="M60" s="93"/>
       <c r="N60" s="90"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="90"/>
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
@@ -40115,7 +40086,7 @@
       <c r="M61" s="93"/>
       <c r="N61" s="90"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="28" t="s">
         <v>239</v>
       </c>
@@ -40133,7 +40104,7 @@
       <c r="M62" s="93"/>
       <c r="N62" s="90"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" s="90"/>
       <c r="C63" s="90"/>
       <c r="D63" s="90"/>
@@ -40148,7 +40119,7 @@
       <c r="M63" s="93"/>
       <c r="N63" s="90"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="90"/>
       <c r="C64" s="90"/>
       <c r="D64" s="90"/>
@@ -40163,7 +40134,7 @@
       <c r="M64" s="93"/>
       <c r="N64" s="90"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="90"/>
       <c r="C65" s="90"/>
       <c r="D65" s="90"/>
@@ -40178,7 +40149,7 @@
       <c r="M65" s="93"/>
       <c r="N65" s="90"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="90"/>
       <c r="C66" s="90"/>
       <c r="D66" s="90"/>
@@ -40201,26 +40172,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1"/>
-    <col min="6" max="6" width="21.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1328125" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="50.1328125" customWidth="1"/>
-    <col min="13" max="13" width="37.1328125" customWidth="1"/>
-    <col min="14" max="14" width="32.265625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="50.140625" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" customWidth="1"/>
+    <col min="14" max="14" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -40261,7 +40232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -40294,7 +40265,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
@@ -40329,7 +40300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -40361,7 +40332,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="12" t="s">
@@ -40392,7 +40363,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -40427,7 +40398,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
@@ -40466,7 +40437,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34" t="s">
@@ -40500,7 +40471,7 @@
       </c>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -40535,7 +40506,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34" t="s">
@@ -40568,7 +40539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34" t="s">
@@ -40601,7 +40572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -40632,7 +40603,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -40667,7 +40638,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -40698,7 +40669,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -40733,7 +40704,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -40768,7 +40739,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -40799,7 +40770,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -40830,7 +40801,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -40861,7 +40832,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -40892,7 +40863,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -40923,7 +40894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -40958,7 +40929,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="60"/>
       <c r="C23" s="34"/>
@@ -40989,7 +40960,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -41024,7 +40995,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -41055,7 +41026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -41086,7 +41057,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -41117,7 +41088,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -41146,7 +41117,7 @@
       </c>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -41179,7 +41150,7 @@
       </c>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -41214,7 +41185,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
         <v>239</v>
       </c>
@@ -41225,6 +41196,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41396,18 +41379,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -41418,6 +41389,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41435,22 +41422,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
   <ds:schemaRefs>

--- a/Documents/RDBES Data Model.xlsx
+++ b/Documents/RDBES Data Model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ICES\ices-tools-dev\RDBES\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\Henrik K\Documents\GitHub\RDBES_Core_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E814124-F66D-47D2-8B03-A1C4E7DB5CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="17430" windowHeight="5595" tabRatio="781" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model v1.19.6" sheetId="1" r:id="rId1"/>
@@ -38,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nuno Prista</author>
   </authors>
   <commentList>
-    <comment ref="L21" authorId="0" shapeId="0">
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L24" authorId="0" shapeId="0">
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,12 +99,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nuno Prista</author>
   </authors>
   <commentList>
-    <comment ref="L38" authorId="0" shapeId="0">
+    <comment ref="L38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K41" authorId="0" shapeId="0">
+    <comment ref="K41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="0" shapeId="0">
+    <comment ref="K43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1300">
   <si>
     <t>Design Table (DE)</t>
   </si>
@@ -4140,7 +4141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4624,7 +4625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4699,6 +4700,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4734,6 +4752,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4909,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -4919,53 +4954,53 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="38.1328125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="4.1328125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="29.265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.3984375" style="17" customWidth="1"/>
     <col min="8" max="8" width="6" style="17" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="46.42578125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="46.3984375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="4.1328125" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="17" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="57.85546875" style="17" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="17" customWidth="1"/>
-    <col min="19" max="19" width="56.42578125" style="17" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="17" customWidth="1"/>
-    <col min="22" max="22" width="28.7109375" style="17" customWidth="1"/>
-    <col min="23" max="23" width="48.28515625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="25.3984375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="57.86328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="4.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.3984375" style="17" customWidth="1"/>
+    <col min="18" max="18" width="24.73046875" style="17" customWidth="1"/>
+    <col min="19" max="19" width="56.3984375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" style="17" customWidth="1"/>
+    <col min="21" max="21" width="4.3984375" style="17" customWidth="1"/>
+    <col min="22" max="22" width="28.73046875" style="17" customWidth="1"/>
+    <col min="23" max="23" width="48.265625" style="17" customWidth="1"/>
     <col min="24" max="24" width="14" style="17" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" style="17" customWidth="1"/>
-    <col min="26" max="26" width="22.28515625" style="17" customWidth="1"/>
-    <col min="27" max="27" width="45.28515625" style="17" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" style="17" customWidth="1"/>
-    <col min="29" max="29" width="6.42578125" style="17" customWidth="1"/>
-    <col min="30" max="30" width="25.85546875" style="17" customWidth="1"/>
-    <col min="31" max="31" width="51.28515625" style="17" customWidth="1"/>
-    <col min="32" max="32" width="6.42578125" style="17" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" style="17" customWidth="1"/>
-    <col min="34" max="34" width="22.42578125" style="17" customWidth="1"/>
-    <col min="35" max="35" width="51.42578125" style="17" customWidth="1"/>
-    <col min="36" max="36" width="22.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="17"/>
+    <col min="25" max="25" width="5.1328125" style="17" customWidth="1"/>
+    <col min="26" max="26" width="22.265625" style="17" customWidth="1"/>
+    <col min="27" max="27" width="45.265625" style="17" customWidth="1"/>
+    <col min="28" max="28" width="5.3984375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="6.3984375" style="17" customWidth="1"/>
+    <col min="30" max="30" width="25.86328125" style="17" customWidth="1"/>
+    <col min="31" max="31" width="51.265625" style="17" customWidth="1"/>
+    <col min="32" max="32" width="6.3984375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="5.3984375" style="17" customWidth="1"/>
+    <col min="34" max="34" width="22.3984375" style="17" customWidth="1"/>
+    <col min="35" max="35" width="51.3984375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="22.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.1328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.5">
       <c r="L1" s="17"/>
       <c r="P1" s="18"/>
     </row>
-    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="105" t="s">
         <v>1277</v>
       </c>
@@ -4973,7 +5008,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5050,7 @@
       </c>
       <c r="AI3" s="21"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A4" s="17" t="str">
         <f>IF(ISBLANK(Design!A2)=TRUE, Design!B2, "")</f>
         <v/>
@@ -5124,7 +5159,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A5" s="17">
         <f>IF(ISBLANK(Design!A3)=TRUE, Design!B3, "")</f>
         <v>0</v>
@@ -5233,7 +5268,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A6" s="17">
         <f>IF(ISBLANK(Design!A4)=TRUE, Design!B4, "")</f>
         <v>0</v>
@@ -5342,7 +5377,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.5">
       <c r="A7" s="17">
         <f>IF(ISBLANK(Design!A6)=TRUE, Design!B6, "")</f>
         <v>0</v>
@@ -5452,7 +5487,7 @@
         <v>Fixed value ('BV')</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="17">
         <f>IF(ISBLANK(Design!A7)=TRUE, Design!B7, "")</f>
         <v>0</v>
@@ -5561,7 +5596,7 @@
         <v>National numbering system of the individual fish.</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A9" s="17">
         <f>IF(ISBLANK(Design!A9)=TRUE, Design!B9, "")</f>
         <v>0</v>
@@ -5670,7 +5705,7 @@
         <v>The stratum of this record, 'U' if unstratified</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="63" x14ac:dyDescent="0.5">
       <c r="A10" s="17">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!B10, "")</f>
         <v>0</v>
@@ -5779,7 +5814,7 @@
         <v>Type of measurment e.g. "Age"</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A11" s="17">
         <f>IF(ISBLANK(Design!A12)=TRUE, Design!B12, "")</f>
         <v>0</v>
@@ -5876,7 +5911,7 @@
         <v xml:space="preserve">Measured value of the Biological variable. </v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B12" s="20" t="str">
         <f>IF(ISBLANK(Design!A10)=TRUE, Design!F10, "")</f>
         <v>DEsampled</v>
@@ -5969,7 +6004,7 @@
         <v>The unit or scale of the measured value</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C13" s="17" t="s">
         <v>214</v>
       </c>
@@ -6057,7 +6092,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
       <c r="I14" s="17" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -6133,7 +6168,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="47.25" x14ac:dyDescent="0.5">
       <c r="I15" s="17" t="str">
         <f>IF(ISBLANK('Vessel Selection'!#REF!)=TRUE, 'Vessel Selection'!#REF!, "")</f>
         <v/>
@@ -6209,7 +6244,7 @@
         <v>Total number of fish in this stratum</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="78.75" x14ac:dyDescent="0.5">
       <c r="J16" s="20" t="str">
         <f>IF(ISBLANK('Vessel Selection'!A15)=TRUE, 'Vessel Selection'!F15, "")</f>
         <v>VSnumberSampled</v>
@@ -6277,7 +6312,7 @@
         <v>The number of fish measured in this stratum</v>
       </c>
     </row>
-    <row r="17" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I17" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!B2, "")</f>
         <v/>
@@ -6349,7 +6384,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I18" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!A3)=TRUE, 'Temporal Event'!B3, "")</f>
         <v/>
@@ -6421,7 +6456,7 @@
         <v>The method of selecting fish</v>
       </c>
     </row>
-    <row r="19" spans="9:35" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:35" ht="94.5" x14ac:dyDescent="0.5">
       <c r="I19" s="17">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!B9, "")</f>
         <v>0</v>
@@ -6495,7 +6530,7 @@
         <v>Self-sampling, Observer, Control, Electronic Monitoring (EM). In the future potential combinations of e.g. observer and EM</v>
       </c>
     </row>
-    <row r="20" spans="9:35" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:35" ht="63" x14ac:dyDescent="0.5">
       <c r="I20" s="17">
         <f>IF(ISBLANK('Temporal Event'!A10)=TRUE, 'Temporal Event'!B10, "")</f>
         <v>0</v>
@@ -6563,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:35" ht="47.25" x14ac:dyDescent="0.5">
       <c r="I21" s="17">
         <f>IF(ISBLANK('Temporal Event'!A14)=TRUE, 'Temporal Event'!B14, "")</f>
         <v>0</v>
@@ -6623,7 +6658,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I22" s="17">
         <f>IF(ISBLANK('Temporal Event'!A15)=TRUE, 'Temporal Event'!B15, "")</f>
         <v>0</v>
@@ -6680,7 +6715,7 @@
         <v>The number of units sampled in this stratum</v>
       </c>
     </row>
-    <row r="23" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I23" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -6737,7 +6772,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I24" s="17">
         <f>IF(ISBLANK('Temporal Event'!A18)=TRUE, 'Temporal Event'!B18, "")</f>
         <v>0</v>
@@ -6794,7 +6829,7 @@
         <v>The method of selecting units for sampling</v>
       </c>
     </row>
-    <row r="25" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I25" s="17" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -6855,7 +6890,7 @@
         <v>The Lower Hierarchy that will be used for this Sample/Subsample</v>
       </c>
     </row>
-    <row r="26" spans="9:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:35" ht="47.25" x14ac:dyDescent="0.5">
       <c r="L26" s="17"/>
       <c r="N26" s="20" t="str">
         <f>IF(ISBLANK('Fishing Trip'!A26)=TRUE, 'Fishing Trip'!F26, "")</f>
@@ -6896,7 +6931,7 @@
         <v>Self-sampling, Observer, Control, Electronic Monitoring (EM). In the future potential combinations of e.g. observer and EM</v>
       </c>
     </row>
-    <row r="27" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:35" x14ac:dyDescent="0.5">
       <c r="J27" s="38" t="s">
         <v>530</v>
       </c>
@@ -6941,7 +6976,7 @@
         <v>Reason for not sampling freq</v>
       </c>
     </row>
-    <row r="28" spans="9:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:35" x14ac:dyDescent="0.5">
       <c r="J28" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A2)=TRUE, 'Temporal Event'!F2, "")</f>
         <v/>
@@ -6994,7 +7029,7 @@
         <v>Reason for not sampling biovar</v>
       </c>
     </row>
-    <row r="29" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J29" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A3)=TRUE, 'Temporal Event'!F3, "")</f>
         <v/>
@@ -7051,7 +7086,7 @@
         <v>Whole weight in grammes.</v>
       </c>
     </row>
-    <row r="30" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I30" s="17" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!B2, "")</f>
         <v/>
@@ -7112,7 +7147,7 @@
         <v>Whole weight in grammes of the sample.</v>
       </c>
     </row>
-    <row r="31" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:35" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I31" s="17" t="str">
         <f>IF(ISBLANK(Location!A3)=TRUE, Location!B3, "")</f>
         <v/>
@@ -7173,7 +7208,7 @@
         <v>Conversion factor between measured weight and live weight.</v>
       </c>
     </row>
-    <row r="32" spans="9:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:35" x14ac:dyDescent="0.5">
       <c r="I32" s="17">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!B4, "")</f>
         <v>0</v>
@@ -7233,7 +7268,7 @@
         <v xml:space="preserve">State of the specimens (e.g., dead, damaged, etc). </v>
       </c>
     </row>
-    <row r="33" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:27" ht="47.25" x14ac:dyDescent="0.5">
       <c r="J33" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A8)=TRUE, 'Temporal Event'!F8, "")</f>
         <v>TEstratification</v>
@@ -7272,7 +7307,7 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="36"/>
     </row>
-    <row r="34" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:27" x14ac:dyDescent="0.5">
       <c r="J34" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A9)=TRUE, 'Temporal Event'!F9, "")</f>
         <v>TEtimeUnit</v>
@@ -7311,7 +7346,7 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="36"/>
     </row>
-    <row r="35" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:27" x14ac:dyDescent="0.5">
       <c r="I35" s="17" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -7363,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I36" s="17">
         <f>IF(ISBLANK(Location!A10)=TRUE, Location!B10, "")</f>
         <v>0</v>
@@ -7419,7 +7454,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I37" s="17">
         <f>IF(ISBLANK(Location!A14)=TRUE, Location!B14, "")</f>
         <v>0</v>
@@ -7471,7 +7506,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:27" ht="47.25" x14ac:dyDescent="0.5">
       <c r="I38" s="17">
         <f>IF(ISBLANK(Location!A15)=TRUE, Location!B15, "")</f>
         <v>0</v>
@@ -7523,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="I39" s="17" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -7571,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="8:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:27" ht="71.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="I40" s="17">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!B18, "")</f>
         <v>0</v>
@@ -7619,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:27" x14ac:dyDescent="0.5">
       <c r="H41" s="48"/>
       <c r="I41" s="48">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!B27, "")</f>
@@ -7664,7 +7699,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:27" x14ac:dyDescent="0.5">
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
       <c r="J42" s="42" t="str">
@@ -7706,7 +7741,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="8:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="H43" s="48"/>
       <c r="I43" s="48"/>
       <c r="J43" s="42" t="str">
@@ -7756,7 +7791,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="42" t="str">
@@ -7794,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J45" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A20)=TRUE, 'Temporal Event'!F20, "")</f>
         <v>TEselectionMethodCluster</v>
@@ -7831,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J46" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A21)=TRUE, 'Temporal Event'!F21, "")</f>
         <v>TEnumberTotalClusters</v>
@@ -7864,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="8:27" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J47" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A22)=TRUE, 'Temporal Event'!F22, "")</f>
         <v>TEnumberSampledClusters</v>
@@ -7893,7 +7928,7 @@
         <v>The method of selecting hauls for sampling</v>
       </c>
     </row>
-    <row r="48" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:27" x14ac:dyDescent="0.5">
       <c r="J48" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!#REF!)=TRUE, 'Temporal Event'!#REF!, "")</f>
         <v/>
@@ -7922,7 +7957,7 @@
         <v>The unique name of this unit.</v>
       </c>
     </row>
-    <row r="49" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J49" s="20" t="str">
         <f>IF(ISBLANK('Temporal Event'!A26)=TRUE, 'Temporal Event'!F26, "")</f>
         <v>TEreasonNotSampled</v>
@@ -7951,7 +7986,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="50" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J50" s="20">
         <f>IF(ISBLANK('Temporal Event'!A27)=TRUE, 'Temporal Event'!F27, "")</f>
         <v>0</v>
@@ -7980,7 +8015,7 @@
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="51" spans="10:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="L51" s="17"/>
       <c r="M51" s="18"/>
       <c r="N51" s="20" t="str">
@@ -8001,7 +8036,7 @@
         <v>Total number of clusters sampled</v>
       </c>
     </row>
-    <row r="52" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J52" s="21" t="s">
         <v>206</v>
       </c>
@@ -8026,7 +8061,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J53" s="36" t="str">
         <f>IF(ISBLANK(Location!A2)=TRUE, Location!F2, "")</f>
         <v/>
@@ -8055,7 +8090,7 @@
         <v>Reason for not sampling</v>
       </c>
     </row>
-    <row r="54" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J54" s="36" t="str">
         <f>IF(ISBLANK(Location!A3)=TRUE, Location!F3, "")</f>
         <v/>
@@ -8084,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J55" s="36" t="str">
         <f>IF(ISBLANK(Location!A4)=TRUE, Location!F4, "")</f>
         <v>LOrecordType</v>
@@ -8117,7 +8152,7 @@
       </c>
       <c r="W55" s="21"/>
     </row>
-    <row r="56" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:26" ht="47.25" x14ac:dyDescent="0.5">
       <c r="J56" s="36" t="str">
         <f>IF(ISBLANK(Location!A6)=TRUE, Location!F6, "")</f>
         <v>LOstratification</v>
@@ -8154,7 +8189,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J57" s="43" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8191,7 +8226,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J58" s="43" t="str">
         <f>IF(ISBLANK(Location!A10)=TRUE, Location!F10, "")</f>
         <v>LOstratumName</v>
@@ -8228,7 +8263,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J59" s="43" t="str">
         <f>IF(ISBLANK(Location!A11)=TRUE, Location!F11, "")</f>
         <v>LOclustering</v>
@@ -8257,7 +8292,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J60" s="43" t="str">
         <f>IF(ISBLANK(Location!A12)=TRUE, Location!F12, "")</f>
         <v>LOclusterName</v>
@@ -8289,7 +8324,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:26" ht="47.25" x14ac:dyDescent="0.5">
       <c r="J61" s="43" t="str">
         <f>IF(ISBLANK(Location!A13)=TRUE, Location!F13, "")</f>
         <v>LOsampler</v>
@@ -8321,7 +8356,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J62" s="43" t="str">
         <f>IF(ISBLANK(Location!A14)=TRUE, Location!F14, "")</f>
         <v>LOnumberTotal</v>
@@ -8344,7 +8379,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="10:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:26" ht="94.5" x14ac:dyDescent="0.5">
       <c r="J63" s="43" t="str">
         <f>IF(ISBLANK(Location!A15)=TRUE, Location!F15, "")</f>
         <v>LOnumberSampled</v>
@@ -8367,7 +8402,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J64" s="43" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8391,7 +8426,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J65" s="43" t="str">
         <f>IF(ISBLANK(Location!A18)=TRUE, Location!F18, "")</f>
         <v>LOselectionMethod</v>
@@ -8415,7 +8450,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J66" s="43" t="str">
         <f>IF(ISBLANK(Location!A19)=TRUE, Location!F19, "")</f>
         <v>LOunitName</v>
@@ -8443,7 +8478,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J67" s="43" t="str">
         <f>IF(ISBLANK(Location!A20)=TRUE, Location!F20, "")</f>
         <v>LOselectionMethodCluster</v>
@@ -8475,7 +8510,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J68" s="36" t="str">
         <f>IF(ISBLANK(Location!A21)=TRUE, Location!F21, "")</f>
         <v>LOnumberTotalClusters</v>
@@ -8507,7 +8542,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="J69" s="36" t="str">
         <f>IF(ISBLANK(Location!A22)=TRUE, Location!F22, "")</f>
         <v>LOnumberSampledClusters</v>
@@ -8539,7 +8574,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J70" s="36" t="str">
         <f>IF(ISBLANK(Location!#REF!)=TRUE, Location!#REF!, "")</f>
         <v/>
@@ -8564,7 +8599,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J71" s="36" t="str">
         <f>IF(ISBLANK(Location!A26)=TRUE, Location!F26, "")</f>
         <v>LOreasonNotSampled</v>
@@ -8589,7 +8624,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J72" s="36">
         <f>IF(ISBLANK(Location!A27)=TRUE, Location!F27, "")</f>
         <v>0</v>
@@ -8610,7 +8645,7 @@
       </c>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J73" s="36" t="str">
         <f>IF(ISBLANK(Location!A28)=TRUE, Location!F28, "")</f>
         <v/>
@@ -8631,7 +8666,7 @@
       </c>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:26" x14ac:dyDescent="0.5">
       <c r="J74" s="36" t="str">
         <f>IF(ISBLANK(Location!A29)=TRUE, Location!F29, "")</f>
         <v/>
@@ -8652,7 +8687,7 @@
       </c>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="L75" s="17"/>
       <c r="M75" s="18"/>
       <c r="N75" s="20" t="str">
@@ -8665,7 +8700,7 @@
       </c>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="10:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:26" ht="63" x14ac:dyDescent="0.5">
       <c r="L76" s="17"/>
       <c r="M76" s="18"/>
       <c r="N76" s="20" t="str">
@@ -8678,7 +8713,7 @@
       </c>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:26" x14ac:dyDescent="0.5">
       <c r="L77" s="17"/>
       <c r="M77" s="18"/>
       <c r="N77" s="20" t="str">
@@ -8691,7 +8726,7 @@
       </c>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="10:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="L78" s="17"/>
       <c r="M78" s="18"/>
       <c r="N78" s="20" t="str">
@@ -8704,7 +8739,7 @@
       </c>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="10:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="L79" s="17"/>
       <c r="M79" s="18"/>
       <c r="N79" s="20" t="str">
@@ -8717,7 +8752,7 @@
       </c>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:26" x14ac:dyDescent="0.5">
       <c r="L80" s="17"/>
       <c r="M80" s="18"/>
       <c r="N80" s="20" t="str">
@@ -8730,7 +8765,7 @@
       </c>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="9:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="L81" s="17"/>
       <c r="M81" s="18"/>
       <c r="N81" s="20" t="str">
@@ -8743,7 +8778,7 @@
       </c>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:16" x14ac:dyDescent="0.5">
       <c r="L82" s="17"/>
       <c r="M82" s="18"/>
       <c r="N82" s="20" t="str">
@@ -8756,7 +8791,7 @@
       </c>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="9:16" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:16" ht="78.75" x14ac:dyDescent="0.5">
       <c r="L83" s="17"/>
       <c r="M83" s="18"/>
       <c r="N83" s="20" t="str">
@@ -8769,7 +8804,7 @@
       </c>
       <c r="P83" s="18"/>
     </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I84" s="18">
         <f>IF(ISBLANK('Landing event'!A43)=TRUE, 'Landing event'!B43, "")</f>
         <v>0</v>
@@ -8783,7 +8818,7 @@
         <v>The LOCODE for the location of this LandingEvent.</v>
       </c>
     </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I85" s="18" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8797,7 +8832,7 @@
         <v>Type of LandingEvent location</v>
       </c>
     </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I86" s="18">
         <f>IF(ISBLANK('Landing event'!A46)=TRUE, 'Landing event'!B46, "")</f>
         <v>0</v>
@@ -8811,7 +8846,7 @@
         <v xml:space="preserve">The country that this LandingEvent location is in. </v>
       </c>
     </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I87" s="18">
         <f>IF(ISBLANK('Landing event'!A55)=TRUE, 'Landing event'!B55, "")</f>
         <v>0</v>
@@ -8825,7 +8860,7 @@
         <v>The date of the LandingEvent</v>
       </c>
     </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I88" s="18">
         <f>IF(ISBLANK('Landing event'!A57)=TRUE, 'Landing event'!B57, "")</f>
         <v>0</v>
@@ -8839,7 +8874,7 @@
         <v>The time that this LandingEvent took place</v>
       </c>
     </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I89" s="18" t="str">
         <f>IF(ISBLANK('Landing event'!A59)=TRUE, 'Landing event'!B59, "")</f>
         <v/>
@@ -8853,7 +8888,7 @@
         <v>Exclusive Economic Zone indicator.</v>
       </c>
     </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:16" x14ac:dyDescent="0.5">
       <c r="I90" s="18">
         <f>IF(ISBLANK('Landing event'!A60)=TRUE, 'Landing event'!B60, "")</f>
         <v>0</v>
@@ -8867,7 +8902,7 @@
         <v xml:space="preserve">The area that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:16" x14ac:dyDescent="0.5">
       <c r="N91" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A29)=TRUE, 'Landing event'!F29, "")</f>
         <v>LErectangle</v>
@@ -8877,7 +8912,7 @@
         <v xml:space="preserve">The rectangle that this LandingEvent was caught in. </v>
       </c>
     </row>
-    <row r="92" spans="9:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="N92" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A31)=TRUE, 'Landing event'!F31, "")</f>
         <v>LEjurisdictionArea</v>
@@ -8887,7 +8922,7 @@
         <v xml:space="preserve">Area belonging to a country or a part of an area used by Long Distance Fisheries. </v>
       </c>
     </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:16" x14ac:dyDescent="0.5">
       <c r="N93" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -8897,7 +8932,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:16" x14ac:dyDescent="0.5">
       <c r="N94" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A32)=TRUE, 'Landing event'!F32, "")</f>
         <v>LEnationalFishingActivity</v>
@@ -8907,7 +8942,7 @@
         <v>Country specific national fishing gear</v>
       </c>
     </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:16" x14ac:dyDescent="0.5">
       <c r="N95" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A33)=TRUE, 'Landing event'!F33, "")</f>
         <v>LEmetier5</v>
@@ -8917,7 +8952,7 @@
         <v>Level 5 metier</v>
       </c>
     </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:16" x14ac:dyDescent="0.5">
       <c r="N96" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A34)=TRUE, 'Landing event'!F34, "")</f>
         <v>LEmetier6</v>
@@ -8927,7 +8962,7 @@
         <v>Level 6 metier</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N97" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A35)=TRUE, 'Landing event'!F35, "")</f>
         <v>LEgear</v>
@@ -8937,7 +8972,7 @@
         <v>The FAO gear code.</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N98" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A36)=TRUE, 'Landing event'!F36, "")</f>
         <v>LEmeshSize</v>
@@ -8947,7 +8982,7 @@
         <v>Mesh size</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N99" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A37)=TRUE, 'Landing event'!F37, "")</f>
         <v>LEselectionDevice</v>
@@ -8957,7 +8992,7 @@
         <v>Selection device</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N100" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A38)=TRUE, 'Landing event'!F38, "")</f>
         <v>LEselectionDeviceMeshSize</v>
@@ -8967,7 +9002,7 @@
         <v>Selection device mesh size (mm)</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N101" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A39)=TRUE, 'Landing event'!F39, "")</f>
         <v>LEtargetSpecies</v>
@@ -8977,7 +9012,7 @@
         <v>Target species assemblage</v>
       </c>
     </row>
-    <row r="102" spans="14:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:15" ht="47.25" x14ac:dyDescent="0.5">
       <c r="N102" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A42)=TRUE, 'Landing event'!F42, "")</f>
         <v>LEnumberTotal</v>
@@ -8987,7 +9022,7 @@
         <v>Total number of unique Landing Event in the stratum/cluster. The total number of Landing Events at an e.g. Port in that stratum/cluster.</v>
       </c>
     </row>
-    <row r="103" spans="14:15" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:15" ht="78.75" x14ac:dyDescent="0.5">
       <c r="N103" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A43)=TRUE, 'Landing event'!F43, "")</f>
         <v>LEnumberSampled</v>
@@ -8997,7 +9032,7 @@
         <v>The number of Landing Events sampled in this stratum/cluster (not necessarily unique Landing Events, the same Landing Event could be sampled multiple times). If 3 samples was made and one Landing Event  was selected twice, the number of Landing Events sampled is 3.</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N104" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -9007,7 +9042,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N105" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A46)=TRUE, 'Landing event'!F46, "")</f>
         <v>LEselectionMethod</v>
@@ -9017,7 +9052,7 @@
         <v>The method of selecting Landing Events for sampling</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N106" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A48)=TRUE, 'Landing event'!F48, "")</f>
         <v>LEselectionMethodCluster</v>
@@ -9027,7 +9062,7 @@
         <v>The method of selecting clusters</v>
       </c>
     </row>
-    <row r="107" spans="14:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N107" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A49)=TRUE, 'Landing event'!F49, "")</f>
         <v>LEnumberTotalClusters</v>
@@ -9037,7 +9072,7 @@
         <v>Total number of clusters in that level of the sampling hierarchy</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N108" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A50)=TRUE, 'Landing event'!F50, "")</f>
         <v>LEnumberSampledClusters</v>
@@ -9047,7 +9082,7 @@
         <v>Total number of clusters sampled</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N109" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!#REF!)=TRUE, 'Landing event'!#REF!, "")</f>
         <v/>
@@ -9057,7 +9092,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N110" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A54)=TRUE, 'Landing event'!F54, "")</f>
         <v>LEreasonNotSampled</v>
@@ -9067,7 +9102,7 @@
         <v>Reason for not sampling</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N111" s="20" t="str">
         <f>IF(ISBLANK('Landing event'!A55)=TRUE, 'Landing event'!F55, "")</f>
         <v>LEfullTripAvailable</v>
@@ -9077,7 +9112,7 @@
         <v>Yes, No, unknown</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.5">
       <c r="N112" s="20">
         <f>IF(ISBLANK('Landing event'!A57)=TRUE, 'Landing event'!F57, "")</f>
         <v>0</v>
@@ -9097,33 +9132,33 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:XFC62"/>
   <sheetViews>
     <sheetView topLeftCell="F28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="81" customWidth="1"/>
-    <col min="12" max="12" width="63.140625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="57.140625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="6.1328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.73046875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.73046875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="21.265625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="26.86328125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="63.1328125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="57.1328125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="25.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -9164,7 +9199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -9197,7 +9232,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -9234,7 +9269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -9271,7 +9306,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -9308,7 +9343,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -9343,7 +9378,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -9380,7 +9415,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -9417,7 +9452,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>12</v>
       </c>
@@ -9454,7 +9489,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -9486,7 +9521,7 @@
       </c>
       <c r="N10" s="51"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="70.5" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -9520,7 +9555,7 @@
       </c>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="35"/>
@@ -9556,7 +9591,7 @@
       </c>
       <c r="N12" s="51"/>
     </row>
-    <row r="13" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="35" t="s">
@@ -9590,7 +9625,7 @@
       </c>
       <c r="N13" s="51"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="35"/>
@@ -9622,7 +9657,7 @@
       </c>
       <c r="N14" s="101"/>
     </row>
-    <row r="15" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="35"/>
@@ -9654,7 +9689,7 @@
       </c>
       <c r="N15" s="51"/>
     </row>
-    <row r="16" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="35"/>
@@ -9690,7 +9725,7 @@
       </c>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="35"/>
@@ -9722,7 +9757,7 @@
       </c>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="35"/>
@@ -9758,7 +9793,7 @@
       </c>
       <c r="N18" s="51"/>
     </row>
-    <row r="19" spans="1:14" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="35"/>
@@ -9794,7 +9829,7 @@
       </c>
       <c r="N19" s="68"/>
     </row>
-    <row r="20" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="35"/>
@@ -9830,7 +9865,7 @@
       </c>
       <c r="N20" s="69"/>
     </row>
-    <row r="21" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="35"/>
@@ -9864,7 +9899,7 @@
       </c>
       <c r="N21" s="69"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="35" t="s">
@@ -9894,7 +9929,7 @@
       <c r="M22" s="35"/>
       <c r="N22" s="69"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="35"/>
@@ -9930,7 +9965,7 @@
       </c>
       <c r="N23" s="69"/>
     </row>
-    <row r="24" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="35"/>
@@ -9966,7 +10001,7 @@
       </c>
       <c r="N24" s="68"/>
     </row>
-    <row r="25" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="35"/>
@@ -9998,7 +10033,7 @@
       </c>
       <c r="N25" s="51"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="35"/>
@@ -10030,7 +10065,7 @@
       </c>
       <c r="N26" s="51"/>
     </row>
-    <row r="27" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="35"/>
@@ -10066,7 +10101,7 @@
       </c>
       <c r="N27" s="51"/>
     </row>
-    <row r="28" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="35"/>
@@ -10102,7 +10137,7 @@
       </c>
       <c r="N28" s="51"/>
     </row>
-    <row r="29" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="35"/>
@@ -10138,7 +10173,7 @@
       </c>
       <c r="N29" s="51"/>
     </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="34"/>
@@ -10174,7 +10209,7 @@
       </c>
       <c r="N30" s="66"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="35"/>
@@ -10210,7 +10245,7 @@
       </c>
       <c r="N31" s="51"/>
     </row>
-    <row r="32" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="35"/>
@@ -10246,7 +10281,7 @@
       </c>
       <c r="N32" s="69"/>
     </row>
-    <row r="33" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="35"/>
@@ -10282,7 +10317,7 @@
       </c>
       <c r="N33" s="69"/>
     </row>
-    <row r="34" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="35"/>
@@ -10318,7 +10353,7 @@
       </c>
       <c r="N34" s="68"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="35"/>
@@ -10354,7 +10389,7 @@
       </c>
       <c r="N35" s="51"/>
     </row>
-    <row r="36" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="35"/>
@@ -10386,7 +10421,7 @@
       </c>
       <c r="N36" s="51"/>
     </row>
-    <row r="37" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="35"/>
@@ -10422,7 +10457,7 @@
       </c>
       <c r="N37" s="51"/>
     </row>
-    <row r="38" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="35"/>
@@ -10454,7 +10489,7 @@
       </c>
       <c r="N38" s="51"/>
     </row>
-    <row r="39" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="35"/>
@@ -10490,7 +10525,7 @@
       </c>
       <c r="N39" s="51"/>
     </row>
-    <row r="40" spans="1:14" s="16" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="16" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="34"/>
@@ -10524,7 +10559,7 @@
       <c r="M40" s="35"/>
       <c r="N40" s="66"/>
     </row>
-    <row r="41" spans="1:14" s="16" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="34"/>
@@ -10554,7 +10589,7 @@
       <c r="M41" s="35"/>
       <c r="N41" s="66"/>
     </row>
-    <row r="42" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="35"/>
@@ -10586,7 +10621,7 @@
       </c>
       <c r="N42" s="51"/>
     </row>
-    <row r="43" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="35"/>
@@ -10618,7 +10653,7 @@
       </c>
       <c r="N43" s="51"/>
     </row>
-    <row r="44" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="35"/>
@@ -10650,7 +10685,7 @@
       </c>
       <c r="N44" s="51"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="35"/>
@@ -10682,7 +10717,7 @@
       </c>
       <c r="N45" s="51"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="35"/>
@@ -10718,7 +10753,7 @@
       </c>
       <c r="N46" s="51"/>
     </row>
-    <row r="47" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="85"/>
       <c r="C47" s="35"/>
@@ -10750,7 +10785,7 @@
       </c>
       <c r="N47" s="51"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="35"/>
@@ -10786,7 +10821,7 @@
       </c>
       <c r="N48" s="51"/>
     </row>
-    <row r="49" spans="1:16383" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16383" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="35"/>
@@ -10818,7 +10853,7 @@
       </c>
       <c r="N49" s="51"/>
     </row>
-    <row r="50" spans="1:16383" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16383" ht="24" x14ac:dyDescent="0.45">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="35"/>
@@ -10850,7 +10885,7 @@
       </c>
       <c r="N50" s="51"/>
     </row>
-    <row r="51" spans="1:16383" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="35"/>
@@ -10882,7 +10917,7 @@
       </c>
       <c r="N51" s="51"/>
     </row>
-    <row r="52" spans="1:16383" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16383" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="35"/>
@@ -10912,7 +10947,7 @@
       <c r="M52" s="35"/>
       <c r="N52" s="51"/>
     </row>
-    <row r="53" spans="1:16383" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="35"/>
@@ -10945,7 +10980,7 @@
       </c>
       <c r="M53" s="34"/>
     </row>
-    <row r="54" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="35"/>
@@ -10981,7 +11016,7 @@
       </c>
       <c r="N54" s="51"/>
     </row>
-    <row r="55" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="35"/>
@@ -11017,7 +11052,7 @@
       </c>
       <c r="N55" s="51"/>
     </row>
-    <row r="56" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A56" s="60"/>
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
@@ -11033,7 +11068,7 @@
       <c r="M56" s="60"/>
       <c r="N56" s="51"/>
     </row>
-    <row r="57" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A57" s="66"/>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
@@ -11048,7 +11083,7 @@
       <c r="M57" s="67"/>
       <c r="N57" s="51"/>
     </row>
-    <row r="58" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A58" s="28" t="s">
         <v>1006</v>
       </c>
@@ -27435,7 +27470,7 @@
       <c r="XFB58" s="74"/>
       <c r="XFC58" s="74"/>
     </row>
-    <row r="59" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A59" s="65" t="s">
         <v>239</v>
       </c>
@@ -27452,7 +27487,7 @@
       <c r="M59" s="67"/>
       <c r="N59" s="51"/>
     </row>
-    <row r="60" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A60" s="66"/>
       <c r="B60" s="66"/>
       <c r="C60" s="66"/>
@@ -27467,7 +27502,7 @@
       <c r="M60" s="67"/>
       <c r="N60" s="51"/>
     </row>
-    <row r="61" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A61" s="66"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
@@ -27482,7 +27517,7 @@
       <c r="M61" s="67"/>
       <c r="N61" s="51"/>
     </row>
-    <row r="62" spans="1:16383" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16383" x14ac:dyDescent="0.45">
       <c r="A62" s="66"/>
       <c r="B62" s="66"/>
       <c r="C62" s="66"/>
@@ -27504,31 +27539,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.3984375" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="88" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.265625" style="88" customWidth="1"/>
     <col min="12" max="12" width="46" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -27569,7 +27604,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
@@ -27602,7 +27637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -27639,7 +27674,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A4" s="30" t="s">
         <v>12</v>
       </c>
@@ -27676,7 +27711,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
@@ -27711,7 +27746,7 @@
       </c>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
@@ -27746,7 +27781,7 @@
       </c>
       <c r="M6" s="30"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
@@ -27781,7 +27816,7 @@
       </c>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="30" t="s">
         <v>12</v>
       </c>
@@ -27815,7 +27850,7 @@
       </c>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A9" s="49"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -27848,7 +27883,7 @@
       <c r="N9" s="63"/>
       <c r="O9" s="63"/>
     </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="35" t="s">
@@ -27883,7 +27918,7 @@
       <c r="N10" s="63"/>
       <c r="O10" s="63"/>
     </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -27920,7 +27955,7 @@
       <c r="N11" s="63"/>
       <c r="O11" s="63"/>
     </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="58.15" x14ac:dyDescent="0.35">
       <c r="A12" s="49"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
@@ -27959,7 +27994,7 @@
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
     </row>
-    <row r="13" spans="1:15" ht="192" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="151.15" x14ac:dyDescent="0.45">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49" t="s">
@@ -27996,7 +28031,7 @@
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49" t="s">
@@ -28035,7 +28070,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -28068,7 +28103,7 @@
       <c r="N15" s="51"/>
       <c r="O15" s="51"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -28105,7 +28140,7 @@
       <c r="N16" s="51"/>
       <c r="O16" s="68"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A17" s="49"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -28138,7 +28173,7 @@
       <c r="N17" s="51"/>
       <c r="O17" s="60"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -28175,7 +28210,7 @@
       <c r="N18" s="51"/>
       <c r="O18" s="69"/>
     </row>
-    <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="49"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -28210,7 +28245,7 @@
       <c r="N19" s="51"/>
       <c r="O19" s="60"/>
     </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -28245,7 +28280,7 @@
       <c r="N20" s="51"/>
       <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A21" s="49"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -28278,7 +28313,7 @@
       <c r="N21" s="51"/>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -28311,7 +28346,7 @@
       <c r="N22" s="51"/>
       <c r="O22" s="68"/>
     </row>
-    <row r="23" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -28344,7 +28379,7 @@
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -28377,7 +28412,7 @@
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="49"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -28414,7 +28449,7 @@
       <c r="N25" s="51"/>
       <c r="O25" s="51"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="49"/>
       <c r="B26" s="60"/>
       <c r="C26" s="49"/>
@@ -28447,7 +28482,7 @@
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
     </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="49"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -28484,7 +28519,7 @@
       <c r="N27" s="51"/>
       <c r="O27" s="51"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A28" s="49"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -28517,7 +28552,7 @@
       <c r="N28" s="51"/>
       <c r="O28" s="51"/>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A29" s="49"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -28550,7 +28585,7 @@
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -28583,7 +28618,7 @@
       <c r="N30" s="51"/>
       <c r="O30" s="51"/>
     </row>
-    <row r="31" spans="1:15" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -28614,7 +28649,7 @@
       <c r="N31" s="51"/>
       <c r="O31" s="51"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -28647,7 +28682,7 @@
       </c>
       <c r="M32" s="34"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="49"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -28684,7 +28719,7 @@
       <c r="N33" s="51"/>
       <c r="O33" s="51"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -28701,7 +28736,7 @@
       <c r="N34" s="51"/>
       <c r="O34" s="51"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -28718,7 +28753,7 @@
       <c r="N35" s="51"/>
       <c r="O35" s="51"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="51" t="s">
         <v>239</v>
       </c>
@@ -28737,7 +28772,7 @@
       <c r="N36" s="51"/>
       <c r="O36" s="51"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -28754,7 +28789,7 @@
       <c r="N37" s="51"/>
       <c r="O37" s="51"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -28771,7 +28806,7 @@
       <c r="N38" s="51"/>
       <c r="O38" s="51"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -28788,7 +28823,7 @@
       <c r="N39" s="51"/>
       <c r="O39" s="51"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -28812,31 +28847,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="28.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="41" customWidth="1"/>
-    <col min="12" max="12" width="55.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="28.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.86328125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="55.265625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="39" t="s">
         <v>44</v>
       </c>
@@ -28877,7 +28912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -28911,7 +28946,7 @@
       </c>
       <c r="N2" s="100"/>
     </row>
-    <row r="3" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -28947,7 +28982,7 @@
       </c>
       <c r="N3" s="100"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -28987,7 +29022,7 @@
       <c r="U4" s="51"/>
       <c r="V4" s="51"/>
     </row>
-    <row r="5" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
@@ -29029,7 +29064,7 @@
       <c r="U5" s="51"/>
       <c r="V5" s="51"/>
     </row>
-    <row r="6" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -29069,7 +29104,7 @@
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -29113,7 +29148,7 @@
       <c r="U7" s="60"/>
       <c r="V7" s="68"/>
     </row>
-    <row r="8" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -29153,7 +29188,7 @@
       <c r="U8" s="51"/>
       <c r="V8" s="51"/>
     </row>
-    <row r="9" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
@@ -29199,7 +29234,7 @@
       <c r="U9" s="51"/>
       <c r="V9" s="51"/>
     </row>
-    <row r="10" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -29245,7 +29280,7 @@
       <c r="U10" s="51"/>
       <c r="V10" s="51"/>
     </row>
-    <row r="11" spans="1:22" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="56" t="s">
         <v>1075</v>
@@ -29278,7 +29313,7 @@
       </c>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:22" s="51" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56" t="s">
@@ -29315,7 +29350,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="144.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="128.65" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -29359,7 +29394,7 @@
       <c r="U13" s="51"/>
       <c r="V13" s="51"/>
     </row>
-    <row r="14" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
@@ -29405,7 +29440,7 @@
       <c r="U14" s="51"/>
       <c r="V14" s="51"/>
     </row>
-    <row r="15" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
@@ -29451,7 +29486,7 @@
       <c r="U15" s="51"/>
       <c r="V15" s="51"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
@@ -29497,7 +29532,7 @@
       <c r="U16" s="51"/>
       <c r="V16" s="51"/>
     </row>
-    <row r="17" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
@@ -29543,7 +29578,7 @@
       <c r="U17" s="51"/>
       <c r="V17" s="51"/>
     </row>
-    <row r="18" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
@@ -29589,7 +29624,7 @@
       <c r="U18" s="51"/>
       <c r="V18" s="51"/>
     </row>
-    <row r="19" spans="1:22" s="23" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="23" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -29633,7 +29668,7 @@
       <c r="U19" s="51"/>
       <c r="V19" s="51"/>
     </row>
-    <row r="20" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -29677,7 +29712,7 @@
       <c r="U20" s="51"/>
       <c r="V20" s="51"/>
     </row>
-    <row r="21" spans="1:22" s="23" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -29721,7 +29756,7 @@
       <c r="U21" s="51"/>
       <c r="V21" s="51"/>
     </row>
-    <row r="22" spans="1:22" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -29765,7 +29800,7 @@
       <c r="U22" s="51"/>
       <c r="V22" s="51"/>
     </row>
-    <row r="23" spans="1:22" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -29809,7 +29844,7 @@
       <c r="U23" s="51"/>
       <c r="V23" s="51"/>
     </row>
-    <row r="24" spans="1:22" s="23" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -29853,7 +29888,7 @@
       <c r="U24" s="51"/>
       <c r="V24" s="51"/>
     </row>
-    <row r="25" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -29897,7 +29932,7 @@
       <c r="U25" s="51"/>
       <c r="V25" s="51"/>
     </row>
-    <row r="26" spans="1:22" s="23" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" s="23" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -29941,7 +29976,7 @@
       <c r="U26" s="51"/>
       <c r="V26" s="51"/>
     </row>
-    <row r="27" spans="1:22" s="23" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -29985,7 +30020,7 @@
       <c r="U27" s="51"/>
       <c r="V27" s="51"/>
     </row>
-    <row r="28" spans="1:22" s="23" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -30025,7 +30060,7 @@
       <c r="U28" s="51"/>
       <c r="V28" s="51"/>
     </row>
-    <row r="29" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -30069,7 +30104,7 @@
       <c r="U29" s="51"/>
       <c r="V29" s="51"/>
     </row>
-    <row r="30" spans="1:22" s="23" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -30109,7 +30144,7 @@
       <c r="U30" s="51"/>
       <c r="V30" s="51"/>
     </row>
-    <row r="31" spans="1:22" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A31" s="12"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -30153,7 +30188,7 @@
       <c r="U31" s="51"/>
       <c r="V31" s="51"/>
     </row>
-    <row r="32" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A32" s="12"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -30193,7 +30228,7 @@
       <c r="U32" s="51"/>
       <c r="V32" s="51"/>
     </row>
-    <row r="33" spans="1:22" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A33" s="12"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -30233,7 +30268,7 @@
       <c r="U33" s="51"/>
       <c r="V33" s="51"/>
     </row>
-    <row r="34" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A34" s="12"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -30273,7 +30308,7 @@
       <c r="U34" s="51"/>
       <c r="V34" s="51"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="12"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -30313,7 +30348,7 @@
       <c r="U35" s="51"/>
       <c r="V35" s="51"/>
     </row>
-    <row r="36" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -30353,7 +30388,7 @@
       <c r="U36" s="51"/>
       <c r="V36" s="51"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -30393,7 +30428,7 @@
       <c r="U37" s="51"/>
       <c r="V37" s="51"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="12"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -30437,7 +30472,7 @@
       <c r="U38" s="51"/>
       <c r="V38" s="51"/>
     </row>
-    <row r="39" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="12"/>
       <c r="B39" s="85"/>
       <c r="C39" s="11"/>
@@ -30477,7 +30512,7 @@
       <c r="U39" s="51"/>
       <c r="V39" s="51"/>
     </row>
-    <row r="40" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A40" s="12"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -30521,7 +30556,7 @@
       <c r="U40" s="51"/>
       <c r="V40" s="51"/>
     </row>
-    <row r="41" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
@@ -30565,7 +30600,7 @@
       <c r="U41" s="51"/>
       <c r="V41" s="51"/>
     </row>
-    <row r="42" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -30598,7 +30633,7 @@
       </c>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="C43" s="86"/>
@@ -30642,7 +30677,7 @@
       <c r="U43" s="51"/>
       <c r="V43" s="51"/>
     </row>
-    <row r="44" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="86"/>
       <c r="B44" s="86"/>
       <c r="C44" s="86"/>
@@ -30686,7 +30721,7 @@
       <c r="U44" s="51"/>
       <c r="V44" s="51"/>
     </row>
-    <row r="45" spans="1:22" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A45" s="12"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -30726,7 +30761,7 @@
       <c r="U45" s="51"/>
       <c r="V45" s="51"/>
     </row>
-    <row r="46" spans="1:22" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A46" s="12"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -30766,7 +30801,7 @@
       <c r="U46" s="51"/>
       <c r="V46" s="51"/>
     </row>
-    <row r="47" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A47" s="12"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -30806,7 +30841,7 @@
       <c r="U47" s="51"/>
       <c r="V47" s="51"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -30829,7 +30864,7 @@
       <c r="U48" s="51"/>
       <c r="V48" s="51"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -30852,7 +30887,7 @@
       <c r="U49" s="51"/>
       <c r="V49" s="51"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -30875,7 +30910,7 @@
       <c r="U50" s="51"/>
       <c r="V50" s="51"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -30898,7 +30933,7 @@
       <c r="U51" s="51"/>
       <c r="V51" s="51"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -30921,7 +30956,7 @@
       <c r="U52" s="51"/>
       <c r="V52" s="51"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -30944,7 +30979,7 @@
       <c r="U53" s="51"/>
       <c r="V53" s="51"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="51"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -30967,7 +31002,7 @@
       <c r="U54" s="51"/>
       <c r="V54" s="51"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="51"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -30990,7 +31025,7 @@
       <c r="U55" s="51"/>
       <c r="V55" s="51"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="51"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -31013,7 +31048,7 @@
       <c r="U56" s="51"/>
       <c r="V56" s="51"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="51" t="s">
         <v>241</v>
       </c>
@@ -31038,7 +31073,7 @@
       <c r="U57" s="51"/>
       <c r="V57" s="51"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="51"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -31061,7 +31096,7 @@
       <c r="U58" s="51"/>
       <c r="V58" s="51"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="51"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -31084,7 +31119,7 @@
       <c r="U59" s="51"/>
       <c r="V59" s="51"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="51"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -31107,7 +31142,7 @@
       <c r="U60" s="51"/>
       <c r="V60" s="51"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="51"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -31137,31 +31172,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" customWidth="1"/>
+    <col min="5" max="5" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="88" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1328125" style="88" customWidth="1"/>
+    <col min="12" max="12" width="52.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -31202,7 +31237,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -31235,7 +31270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -31270,7 +31305,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -31301,7 +31336,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="23" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="23" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A5" s="45"/>
       <c r="B5" s="56" t="s">
         <v>1233</v>
@@ -31338,7 +31373,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="56" t="s">
         <v>1233</v>
@@ -31384,7 +31419,7 @@
       <c r="U6" s="51"/>
       <c r="V6" s="51"/>
     </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
@@ -31417,7 +31452,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -31448,7 +31483,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -31483,7 +31518,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56" t="s">
         <v>1233</v>
@@ -31520,7 +31555,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
@@ -31555,7 +31590,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -31590,7 +31625,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="103"/>
       <c r="B13" s="56" t="s">
         <v>1233</v>
@@ -31623,7 +31658,7 @@
       </c>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="1:22" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="103"/>
       <c r="B14" s="56" t="s">
         <v>1233</v>
@@ -31658,7 +31693,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:22" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -31693,7 +31728,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -31722,7 +31757,7 @@
       </c>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" s="44" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="44" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
@@ -31762,30 +31797,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.86328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" style="2" customWidth="1"/>
     <col min="11" max="11" width="20" style="41" customWidth="1"/>
-    <col min="12" max="13" width="58.7109375" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="12" max="13" width="58.73046875" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -31826,7 +31861,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
@@ -31861,7 +31896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
@@ -31898,7 +31933,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>12</v>
       </c>
@@ -31935,7 +31970,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -31966,7 +32001,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56" t="s">
@@ -31999,7 +32034,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="51" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="56" t="s">
         <v>1075</v>
@@ -32036,7 +32071,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="56" t="s">
         <v>1075</v>
@@ -32073,7 +32108,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -32108,7 +32143,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -32139,7 +32174,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56" t="s">
@@ -32176,7 +32211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -32207,7 +32242,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -32242,7 +32277,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -32277,7 +32312,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
@@ -32312,7 +32347,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="51" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
         <v>1075</v>
@@ -32347,7 +32382,7 @@
       </c>
       <c r="M16" s="56"/>
     </row>
-    <row r="17" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="51" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A17" s="56"/>
       <c r="B17" s="56" t="s">
         <v>1075</v>
@@ -32382,7 +32417,7 @@
       </c>
       <c r="M17" s="56"/>
     </row>
-    <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="51" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="56" t="s">
         <v>1075</v>
@@ -32413,7 +32448,7 @@
       </c>
       <c r="M18" s="56"/>
     </row>
-    <row r="19" spans="1:13" s="51" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="56"/>
       <c r="B19" s="56" t="s">
         <v>1075</v>
@@ -32444,7 +32479,7 @@
       </c>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="1:13" s="51" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="51" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="56" t="s">
         <v>1075</v>
@@ -32479,7 +32514,7 @@
       </c>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="56"/>
@@ -32510,7 +32545,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="56"/>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -32541,7 +32576,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -32572,7 +32607,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -32603,7 +32638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="56"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
@@ -32638,7 +32673,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="56"/>
       <c r="B26" s="60"/>
       <c r="C26" s="56"/>
@@ -32669,7 +32704,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -32711,32 +32746,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="10" customWidth="1"/>
     <col min="3" max="3" width="15" style="10" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="26.3984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.73046875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17.265625" style="77" customWidth="1"/>
     <col min="12" max="12" width="35" style="10" customWidth="1"/>
-    <col min="13" max="13" width="50.42578125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="50.3984375" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -32777,7 +32812,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -32810,7 +32845,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -32843,7 +32878,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -32880,7 +32915,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -32915,7 +32950,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="11.65" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
@@ -32952,7 +32987,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="58.15" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -32985,7 +33020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -33020,7 +33055,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="10" customFormat="1" ht="34.9" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -33057,7 +33092,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="23" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A10" s="45"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
@@ -33090,7 +33125,7 @@
       </c>
       <c r="M10" s="34"/>
     </row>
-    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
@@ -33125,7 +33160,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -33140,7 +33175,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -33155,7 +33190,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -33170,7 +33205,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -33185,7 +33220,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -33200,7 +33235,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -33215,7 +33250,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -33230,7 +33265,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -33245,7 +33280,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -33260,10 +33295,10 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:13" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="11.65" x14ac:dyDescent="0.45">
       <c r="K21" s="78"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -33278,7 +33313,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -33293,7 +33328,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -33308,7 +33343,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -33323,7 +33358,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -33338,7 +33373,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -33353,7 +33388,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -33368,7 +33403,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -33383,7 +33418,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -33398,7 +33433,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -33413,7 +33448,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -33428,7 +33463,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -33443,7 +33478,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -33458,7 +33493,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -33473,7 +33508,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -33488,7 +33523,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -33503,7 +33538,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -33518,7 +33553,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -33533,7 +33568,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -33548,7 +33583,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -33563,7 +33598,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -33578,7 +33613,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -33593,7 +33628,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -33608,7 +33643,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -33623,7 +33658,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -33638,7 +33673,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -33653,7 +33688,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -33668,7 +33703,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -33690,28 +33725,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="2"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="44" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="2"/>
+    <col min="5" max="5" width="27.1328125" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="25.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.86328125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="32.3984375" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -33752,7 +33787,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -33785,7 +33820,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -33820,7 +33855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -33855,7 +33890,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -33890,7 +33925,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -33921,7 +33956,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
@@ -33954,7 +33989,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -33989,7 +34024,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35" t="s">
@@ -34026,7 +34061,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="51"/>
@@ -34057,7 +34092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -34092,7 +34127,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -34123,7 +34158,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -34158,7 +34193,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -34189,7 +34224,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="70.5" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -34220,7 +34255,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -34251,7 +34286,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -34282,7 +34317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -34317,7 +34352,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="32" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="32" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -34348,7 +34383,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="57"/>
       <c r="B20" s="57"/>
       <c r="C20" s="57"/>
@@ -34383,7 +34418,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -34414,7 +34449,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -34445,7 +34480,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -34476,7 +34511,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -34505,7 +34540,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -34538,7 +34573,7 @@
       </c>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -34573,7 +34608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -34588,7 +34623,7 @@
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>221</v>
       </c>
@@ -34600,29 +34635,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="88"/>
-    <col min="3" max="3" width="15.140625" style="88" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="88"/>
-    <col min="5" max="6" width="20.7109375" style="88" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="88" customWidth="1"/>
-    <col min="8" max="10" width="8.85546875" style="88"/>
-    <col min="11" max="11" width="24.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.86328125" style="88"/>
+    <col min="3" max="3" width="15.1328125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="8.86328125" style="88"/>
+    <col min="5" max="6" width="20.73046875" style="88" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" style="88" customWidth="1"/>
+    <col min="8" max="10" width="8.86328125" style="88"/>
+    <col min="11" max="11" width="24.73046875" style="88" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43" style="88" customWidth="1"/>
-    <col min="13" max="13" width="46.85546875" style="88" customWidth="1"/>
+    <col min="13" max="13" width="46.86328125" style="88" customWidth="1"/>
     <col min="14" max="14" width="23" style="88" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="88"/>
+    <col min="15" max="16384" width="8.86328125" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -34663,7 +34698,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -34698,7 +34733,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -34735,7 +34770,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -34766,7 +34801,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -34799,7 +34834,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -34834,7 +34869,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -34869,7 +34904,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -34901,7 +34936,7 @@
       </c>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -34932,7 +34967,7 @@
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
     </row>
-    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -34963,7 +34998,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -34998,7 +35033,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -35029,7 +35064,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -35064,7 +35099,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -35095,7 +35130,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -35126,7 +35161,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -35157,7 +35192,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -35188,7 +35223,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -35223,7 +35258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="85"/>
       <c r="C19" s="12"/>
@@ -35254,7 +35289,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -35289,7 +35324,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="41" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -35320,7 +35355,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="41" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="41" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -35351,7 +35386,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -35382,7 +35417,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -35411,7 +35446,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -35444,7 +35479,7 @@
       </c>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -35479,7 +35514,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -35494,7 +35529,7 @@
       <c r="L27" s="41"/>
       <c r="M27" s="41"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
         <v>222</v>
       </c>
@@ -35511,7 +35546,7 @@
       <c r="L28" s="41"/>
       <c r="M28" s="41"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="88" t="s">
         <v>223</v>
       </c>
@@ -35535,30 +35570,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.73046875" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="26.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" style="9" customWidth="1"/>
+    <col min="5" max="6" width="26.3984375" style="9" customWidth="1"/>
     <col min="7" max="7" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="78" customWidth="1"/>
-    <col min="12" max="13" width="54.7109375" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="5.7109375" style="9"/>
+    <col min="8" max="8" width="6.86328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.265625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" style="78" customWidth="1"/>
+    <col min="12" max="13" width="54.73046875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="5.73046875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -35599,7 +35634,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -35634,7 +35669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -35671,7 +35706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -35702,7 +35737,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
@@ -35739,7 +35774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
@@ -35783,30 +35818,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="80" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.1328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.86328125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.265625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.86328125" style="80" customWidth="1"/>
     <col min="12" max="13" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -35847,7 +35882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -35882,7 +35917,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -35919,7 +35954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -35956,7 +35991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -35993,7 +36028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -36024,7 +36059,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
@@ -36057,7 +36092,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -36090,7 +36125,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -36125,7 +36160,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -36156,7 +36191,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -36191,7 +36226,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -36222,7 +36257,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -36257,7 +36292,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -36288,7 +36323,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -36319,7 +36354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -36350,7 +36385,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -36381,7 +36416,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="35"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -36416,7 +36451,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A19" s="35"/>
       <c r="B19" s="60"/>
       <c r="C19" s="35"/>
@@ -36447,7 +36482,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -36482,7 +36517,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -36513,7 +36548,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -36544,7 +36579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -36575,7 +36610,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -36604,7 +36639,7 @@
       </c>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -36637,7 +36672,7 @@
       </c>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -36672,12 +36707,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="28" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="28" t="s">
         <v>222</v>
       </c>
@@ -36701,30 +36736,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H4"/>
+    <sheetView topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.73046875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.86328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.73046875" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -36765,7 +36800,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -36785,9 +36820,7 @@
       <c r="G2" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="109" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="26"/>
       <c r="I2" s="26" t="s">
         <v>11</v>
       </c>
@@ -36800,7 +36833,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
@@ -36820,9 +36853,7 @@
       <c r="G3" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="H3" s="109" t="s">
-        <v>13</v>
-      </c>
+      <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
         <v>89</v>
       </c>
@@ -36835,7 +36866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -36855,9 +36886,7 @@
       <c r="G4" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="H4" s="109" t="s">
-        <v>13</v>
-      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="26" t="s">
         <v>89</v>
       </c>
@@ -36870,7 +36899,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -36905,7 +36934,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>12</v>
       </c>
@@ -36940,7 +36969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
@@ -36975,7 +37004,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -37010,7 +37039,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -37041,7 +37070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -37072,7 +37101,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35" t="s">
@@ -37105,7 +37134,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -37140,7 +37169,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -37171,7 +37200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -37206,7 +37235,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -37237,7 +37266,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -37272,7 +37301,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -37307,7 +37336,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -37341,7 +37370,7 @@
       </c>
       <c r="N18" s="101"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -37376,7 +37405,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -37407,7 +37436,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -37438,7 +37467,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35" t="s">
@@ -37475,7 +37504,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35" t="s">
@@ -37508,7 +37537,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -37539,7 +37568,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -37570,7 +37599,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -37601,7 +37630,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -37632,7 +37661,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -37663,7 +37692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="53"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -37698,7 +37727,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="35"/>
       <c r="B30" s="60"/>
       <c r="C30" s="56"/>
@@ -37729,7 +37758,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -37762,7 +37791,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -37793,7 +37822,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -37824,7 +37853,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="35"/>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
@@ -37855,7 +37884,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -37884,7 +37913,7 @@
       </c>
       <c r="M35" s="35"/>
     </row>
-    <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="35"/>
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
@@ -37917,7 +37946,7 @@
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -37952,7 +37981,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="63"/>
@@ -37967,7 +37996,7 @@
       <c r="L38" s="63"/>
       <c r="M38" s="63"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="28" t="s">
         <v>1005</v>
       </c>
@@ -37984,7 +38013,7 @@
       <c r="L39" s="63"/>
       <c r="M39" s="63"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="65" t="s">
         <v>239</v>
       </c>
@@ -38001,7 +38030,7 @@
       <c r="L40" s="63"/>
       <c r="M40" s="63"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -38027,32 +38056,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView topLeftCell="G32" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="89" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="89" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="89" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="89" customWidth="1"/>
+    <col min="1" max="1" width="6.1328125" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" style="89" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" style="89" customWidth="1"/>
+    <col min="5" max="5" width="27.73046875" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.73046875" style="89" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" style="89" customWidth="1"/>
     <col min="8" max="8" width="11" style="89" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="89" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="89" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" style="89" customWidth="1"/>
-    <col min="12" max="12" width="59.28515625" style="94" customWidth="1"/>
-    <col min="13" max="13" width="57.140625" style="94" customWidth="1"/>
-    <col min="14" max="16384" width="20.140625" style="89"/>
+    <col min="9" max="9" width="9.3984375" style="89" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="89" customWidth="1"/>
+    <col min="11" max="11" width="29.265625" style="89" customWidth="1"/>
+    <col min="12" max="12" width="59.265625" style="94" customWidth="1"/>
+    <col min="13" max="13" width="57.1328125" style="94" customWidth="1"/>
+    <col min="14" max="16384" width="20.1328125" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="88" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="88" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -38093,7 +38122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -38128,7 +38157,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
@@ -38165,7 +38194,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
@@ -38200,7 +38229,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -38232,7 +38261,7 @@
       </c>
       <c r="N5" s="90"/>
     </row>
-    <row r="6" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -38268,7 +38297,7 @@
       </c>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="12" t="s">
@@ -38300,7 +38329,7 @@
       <c r="M7" s="35"/>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -38332,7 +38361,7 @@
       </c>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -38368,7 +38397,7 @@
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -38400,7 +38429,7 @@
       </c>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -38436,7 +38465,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -38472,7 +38501,7 @@
       </c>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -38508,7 +38537,7 @@
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -38544,7 +38573,7 @@
       </c>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -38576,7 +38605,7 @@
       </c>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -38608,7 +38637,7 @@
       </c>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -38640,7 +38669,7 @@
       </c>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -38672,7 +38701,7 @@
       </c>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -38704,7 +38733,7 @@
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
@@ -38742,7 +38771,7 @@
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
@@ -38776,7 +38805,7 @@
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -38808,7 +38837,7 @@
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -38840,7 +38869,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -38872,7 +38901,7 @@
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -38904,7 +38933,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -38940,7 +38969,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A27" s="4"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -38976,7 +39005,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -39012,7 +39041,7 @@
       </c>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -39048,7 +39077,7 @@
       </c>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -39084,7 +39113,7 @@
       </c>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -39116,7 +39145,7 @@
       </c>
       <c r="N31" s="91"/>
     </row>
-    <row r="32" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -39148,7 +39177,7 @@
       </c>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -39184,7 +39213,7 @@
       </c>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A34" s="4"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -39220,7 +39249,7 @@
       </c>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -39256,7 +39285,7 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="4"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -39292,7 +39321,7 @@
       </c>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="4"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -39324,7 +39353,7 @@
       </c>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="72.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="58.9" x14ac:dyDescent="0.45">
       <c r="A38" s="4"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -39360,7 +39389,7 @@
       </c>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="24" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -39392,7 +39421,7 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -39427,7 +39456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="90" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="90" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -39463,7 +39492,7 @@
       </c>
       <c r="N41" s="98"/>
     </row>
-    <row r="42" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
@@ -39501,7 +39530,7 @@
       </c>
       <c r="N42" s="97"/>
     </row>
-    <row r="43" spans="1:14" s="90" customFormat="1" ht="108.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="90" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
@@ -39539,7 +39568,7 @@
       </c>
       <c r="N43" s="98"/>
     </row>
-    <row r="44" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
@@ -39577,7 +39606,7 @@
       </c>
       <c r="N44" s="97"/>
     </row>
-    <row r="45" spans="1:14" s="90" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -39606,7 +39635,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:14" s="41" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="41" customFormat="1" ht="82.15" x14ac:dyDescent="0.45">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -39641,7 +39670,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -39672,7 +39701,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="90" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -39703,7 +39732,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -39734,7 +39763,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -39765,7 +39794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="12"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -39800,7 +39829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="12"/>
       <c r="B52" s="85"/>
       <c r="C52" s="11"/>
@@ -39831,7 +39860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="90" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="12"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -39864,7 +39893,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="90" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A54" s="12"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -39895,7 +39924,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="90" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="90" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A55" s="12"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -39926,7 +39955,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -39957,7 +39986,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="41" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -39986,7 +40015,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:14" s="46" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -40020,7 +40049,7 @@
       <c r="M58" s="15"/>
       <c r="N58" s="92"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="12"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -40056,7 +40085,7 @@
       </c>
       <c r="N59" s="90"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B60" s="90"/>
       <c r="C60" s="90"/>
       <c r="D60" s="90"/>
@@ -40071,7 +40100,7 @@
       <c r="M60" s="93"/>
       <c r="N60" s="90"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B61" s="90"/>
       <c r="C61" s="90"/>
       <c r="D61" s="90"/>
@@ -40086,7 +40115,7 @@
       <c r="M61" s="93"/>
       <c r="N61" s="90"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="28" t="s">
         <v>239</v>
       </c>
@@ -40104,7 +40133,7 @@
       <c r="M62" s="93"/>
       <c r="N62" s="90"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B63" s="90"/>
       <c r="C63" s="90"/>
       <c r="D63" s="90"/>
@@ -40119,7 +40148,7 @@
       <c r="M63" s="93"/>
       <c r="N63" s="90"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B64" s="90"/>
       <c r="C64" s="90"/>
       <c r="D64" s="90"/>
@@ -40134,7 +40163,7 @@
       <c r="M64" s="93"/>
       <c r="N64" s="90"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B65" s="90"/>
       <c r="C65" s="90"/>
       <c r="D65" s="90"/>
@@ -40149,7 +40178,7 @@
       <c r="M65" s="93"/>
       <c r="N65" s="90"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B66" s="90"/>
       <c r="C66" s="90"/>
       <c r="D66" s="90"/>
@@ -40172,26 +40201,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="44" customWidth="1"/>
-    <col min="12" max="12" width="50.140625" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="6" max="6" width="21.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1328125" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="50.1328125" customWidth="1"/>
+    <col min="13" max="13" width="37.1328125" customWidth="1"/>
+    <col min="14" max="14" width="32.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>44</v>
       </c>
@@ -40232,7 +40261,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>12</v>
       </c>
@@ -40265,7 +40294,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
@@ -40300,7 +40329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -40332,7 +40361,7 @@
       </c>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="12" t="s">
@@ -40363,7 +40392,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -40398,7 +40427,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
@@ -40437,7 +40466,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A8" s="15"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34" t="s">
@@ -40471,7 +40500,7 @@
       </c>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -40506,7 +40535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34" t="s">
@@ -40539,7 +40568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34" t="s">
@@ -40572,7 +40601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -40603,7 +40632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -40638,7 +40667,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -40669,7 +40698,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -40704,7 +40733,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -40739,7 +40768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -40770,7 +40799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -40801,7 +40830,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -40832,7 +40861,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -40863,7 +40892,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="12"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -40894,7 +40923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -40929,7 +40958,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15"/>
       <c r="B23" s="60"/>
       <c r="C23" s="34"/>
@@ -40960,7 +40989,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -40995,7 +41024,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -41026,7 +41055,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="2" customFormat="1" ht="35.65" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -41057,7 +41086,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -41088,7 +41117,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="23" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A28" s="12"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -41117,7 +41146,7 @@
       </c>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.45">
       <c r="A29" s="12"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -41150,7 +41179,7 @@
       </c>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -41185,7 +41214,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D33" s="28" t="s">
         <v>239</v>
       </c>
@@ -41196,18 +41225,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100584B29A9F606E64BBE0B94B46ABEDBD5" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ad12f995843361ff338b3798f1f5f41c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fda66a02b6b5d1f39f2000ab0f58af4" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -41379,6 +41396,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -41389,22 +41418,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F67F35D-1CDD-4110-B6CE-1A6865489AEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41422,6 +41435,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60949D59-0B5B-44ED-ACEF-9231A5F5D889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04CD8B6C-25F0-471A-A724-387AC1B5060F}">
   <ds:schemaRefs>
